--- a/eg3.xlsx
+++ b/eg3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80464E1A-595B-844B-8D2B-0B165FCE5082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24EF4F7-A6DC-D243-A053-E38D35CA170A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -2246,7 +2246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -7054,7 +7054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/eg3.xlsx
+++ b/eg3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24EF4F7-A6DC-D243-A053-E38D35CA170A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B2FA66-A869-4F44-8628-3C913D69A5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
@@ -2247,7 +2247,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A18" sqref="A18:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2485,27 +2485,27 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>3.3976566791534402</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>7.2097749933600378E-3</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>7.2495848908921308E-3</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>82.5</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -2807,82 +2807,82 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>3.3976566791534402</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>7.1480995764334997E-3</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>7.5064964760887497E-3</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>81</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>3.3976566791534402</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>7.2161861819525497E-3</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>7.2458200156688603E-3</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>82</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>3.3976566791534402</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>7.2211771309375703E-3</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>7.1036048392032003E-3</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>83</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>16</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>3.3976566791534402</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>7.25363708411653E-3</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>7.1424182326077102E-3</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>84</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>1</v>
       </c>
     </row>

--- a/eg3.xlsx
+++ b/eg3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B2FA66-A869-4F44-8628-3C913D69A5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DC27B7-EF37-2345-86CF-C5B8B0F77585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -2246,7 +2246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:F21"/>
     </sheetView>
   </sheetViews>
@@ -4708,8 +4708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D6121D-E5CF-1A48-8933-0BAD4C1790A9}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/eg3.xlsx
+++ b/eg3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DC27B7-EF37-2345-86CF-C5B8B0F77585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22498B93-A13B-EE49-B9DF-6D5E7FBB8A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
@@ -4709,7 +4709,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/eg3.xlsx
+++ b/eg3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22498B93-A13B-EE49-B9DF-6D5E7FBB8A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA7E190-4607-6348-A28F-91F7EBF7A2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -2246,8 +2246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:F21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2295,16 +2295,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.21235354244709001</v>
+        <v>0.20786924660205799</v>
       </c>
       <c r="C2">
-        <v>1.0501682979365099E-2</v>
+        <v>3.71147155839328E-3</v>
       </c>
       <c r="D2">
-        <v>1.1194729672229601E-2</v>
+        <v>4.0333690815307997E-3</v>
       </c>
       <c r="E2">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2315,19 +2315,19 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>0.21235354244709001</v>
+        <v>0.20786924660205799</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0665711715196501E-2</v>
+        <v>3.7772551708621822E-3</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.05579037261393E-2</v>
+        <v>3.7225180886378676E-3</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>66.5</v>
+        <v>2.5</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
@@ -2339,16 +2339,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.21235354244709001</v>
+        <v>0.20786924660205799</v>
       </c>
       <c r="C3">
-        <v>1.0670246457060099E-2</v>
+        <v>3.7800833992660001E-3</v>
       </c>
       <c r="D3">
-        <v>1.0565882816197299E-2</v>
+        <v>3.6451628585246901E-3</v>
       </c>
       <c r="E3">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2359,19 +2359,19 @@
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42470708489418002</v>
+        <v>0.41573849320411599</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0314489941423111E-3</v>
+        <v>1.8319999242085E-3</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9766975539300447E-3</v>
+        <v>1.7998170264268325E-3</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>70.5</v>
+        <v>6.5</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
@@ -2383,16 +2383,16 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.21235354244709001</v>
+        <v>0.20786924660205799</v>
       </c>
       <c r="C4">
-        <v>1.07593012576301E-2</v>
+        <v>3.7968879636997902E-3</v>
       </c>
       <c r="D4">
-        <v>1.01779000585938E-2</v>
+        <v>3.5872384410430701E-3</v>
       </c>
       <c r="E4">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2403,19 +2403,19 @@
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84941416978836004</v>
+        <v>0.83147698640823298</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2637894805520709E-3</v>
+        <v>1.1146714523880849E-3</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2359996517783265E-3</v>
+        <v>1.0958923331851602E-3</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>74.5</v>
+        <v>10.5</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
@@ -2427,16 +2427,16 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.21235354244709001</v>
+        <v>0.20786924660205799</v>
       </c>
       <c r="C5">
-        <v>1.07316161667307E-2</v>
+        <v>3.82057776208966E-3</v>
       </c>
       <c r="D5">
-        <v>1.0293102357536501E-2</v>
+        <v>3.6243019734529102E-3</v>
       </c>
       <c r="E5">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2447,19 +2447,19 @@
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6988283395767201</v>
+        <v>1.66295397281646</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6201080897202022E-3</v>
+        <v>5.0677404783588454E-4</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6306598221367924E-3</v>
+        <v>5.0264572173739643E-4</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>78.5</v>
+        <v>14.5</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
@@ -2471,41 +2471,41 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.42470708489418002</v>
+        <v>0.41573849320411599</v>
       </c>
       <c r="C6">
-        <v>8.9139592771728792E-3</v>
+        <v>1.7860355132725001E-3</v>
       </c>
       <c r="D6">
-        <v>9.5338447594103606E-3</v>
+        <v>2.0386830914735799E-3</v>
       </c>
       <c r="E6">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
-      <c r="K6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.3976566791534402</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2097749933600378E-3</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2495848908921308E-3</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>82.5</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="K6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3259079456329301</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3643672141430775E-4</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3815158318391925E-4</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="O6" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -2515,41 +2515,41 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.42470708489418002</v>
+        <v>0.41573849320411599</v>
       </c>
       <c r="C7">
-        <v>9.0121118302146502E-3</v>
+        <v>1.83867219016732E-3</v>
       </c>
       <c r="D7">
-        <v>8.9809365887591093E-3</v>
+        <v>1.7548976404136601E-3</v>
       </c>
       <c r="E7">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>32</v>
       </c>
-      <c r="K7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7953133583068803</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0865245132396577E-3</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.1743627529630922E-3</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ca="1" si="0"/>
-        <v>86.5</v>
-      </c>
-      <c r="O7">
+      <c r="K7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6518158912658603</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6678026129666205E-5</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0024712274242384E-4</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="O7" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -2559,41 +2559,41 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>0.42470708489418002</v>
+        <v>0.41573849320411599</v>
       </c>
       <c r="C8">
-        <v>9.1332644484937199E-3</v>
+        <v>1.8605146912159399E-3</v>
       </c>
       <c r="D8">
-        <v>8.6447615671823592E-3</v>
+        <v>1.68426295536808E-3</v>
       </c>
       <c r="E8">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>64</v>
       </c>
-      <c r="K8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>13.5906267166137</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0602336814626996E-3</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.1610134587860924E-3</v>
-      </c>
-      <c r="N8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>90.5</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="K8" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.303631782531699</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.0164133553722985E-5</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.4484027952003422E-5</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.5</v>
+      </c>
+      <c r="O8" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -2603,16 +2603,16 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>0.42470708489418002</v>
+        <v>0.41573849320411599</v>
       </c>
       <c r="C9">
-        <v>9.0664604206879898E-3</v>
+        <v>1.84277730217824E-3</v>
       </c>
       <c r="D9">
-        <v>8.7472473003683496E-3</v>
+        <v>1.7214244184520101E-3</v>
       </c>
       <c r="E9">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2623,19 +2623,19 @@
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>27.1812534332275</v>
+        <v>26.607263565063398</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0683817577858726E-3</v>
+        <v>8.992140644356062E-5</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1657933517695997E-3</v>
+        <v>9.4215357373112472E-5</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>94.5</v>
+        <v>30.5</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
@@ -2647,23 +2647,23 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>0.84941416978836004</v>
+        <v>0.83147698640823298</v>
       </c>
       <c r="C10">
-        <v>8.1407240480184506E-3</v>
+        <v>1.0782848267117499E-3</v>
       </c>
       <c r="D10">
-        <v>8.6708555760932095E-3</v>
+        <v>1.25290687766267E-3</v>
       </c>
       <c r="E10">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="M10">
         <f ca="1">MIN(M2:M9)</f>
-        <v>7.1610134587860924E-3</v>
+        <v>9.4215357373112472E-5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2671,16 +2671,16 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>0.84941416978836004</v>
+        <v>0.83147698640823298</v>
       </c>
       <c r="C11">
-        <v>8.26152027025818E-3</v>
+        <v>1.11331152461934E-3</v>
       </c>
       <c r="D11">
-        <v>8.2456840033781603E-3</v>
+        <v>1.0595350212633001E-3</v>
       </c>
       <c r="E11">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2691,16 +2691,16 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>0.84941416978836004</v>
+        <v>0.83147698640823298</v>
       </c>
       <c r="C12">
-        <v>8.3337482673426395E-3</v>
+        <v>1.13004749974546E-3</v>
       </c>
       <c r="D12">
-        <v>7.9525752547890492E-3</v>
+        <v>1.0045970354459501E-3</v>
       </c>
       <c r="E12">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2711,16 +2711,16 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>0.84941416978836004</v>
+        <v>0.83147698640823298</v>
       </c>
       <c r="C13">
-        <v>8.31916533658901E-3</v>
+        <v>1.1370419584757899E-3</v>
       </c>
       <c r="D13">
-        <v>8.0748837728528908E-3</v>
+        <v>1.06653039836872E-3</v>
       </c>
       <c r="E13">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2731,16 +2731,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="4">
-        <v>1.6988283395767201</v>
+        <v>1.66295397281646</v>
       </c>
       <c r="C14" s="4">
-        <v>7.5478956786294701E-3</v>
+        <v>4.9076389166293605E-4</v>
       </c>
       <c r="D14" s="4">
-        <v>7.9648727006179799E-3</v>
+        <v>5.7124689323864697E-4</v>
       </c>
       <c r="E14" s="4">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -2751,16 +2751,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="4">
-        <v>1.6988283395767201</v>
+        <v>1.66295397281646</v>
       </c>
       <c r="C15" s="4">
-        <v>7.6148101376990402E-3</v>
+        <v>5.02388804491298E-4</v>
       </c>
       <c r="D15" s="4">
-        <v>7.6290232902194496E-3</v>
+        <v>4.8112226501503499E-4</v>
       </c>
       <c r="E15" s="4">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -2771,16 +2771,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="4">
-        <v>1.6988283395767201</v>
+        <v>1.66295397281646</v>
       </c>
       <c r="C16" s="4">
-        <v>7.6645159410933597E-3</v>
+        <v>5.1640664764757496E-4</v>
       </c>
       <c r="D16" s="4">
-        <v>7.43338151616936E-3</v>
+        <v>4.5910253476827E-4</v>
       </c>
       <c r="E16" s="4">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -2791,258 +2791,258 @@
         <v>8</v>
       </c>
       <c r="B17" s="4">
-        <v>1.6988283395767201</v>
+        <v>1.66295397281646</v>
       </c>
       <c r="C17" s="4">
-        <v>7.6532106014589396E-3</v>
+        <v>5.1753684754172905E-4</v>
       </c>
       <c r="D17" s="4">
-        <v>7.49536178154038E-3</v>
+        <v>4.9911119392763404E-4</v>
       </c>
       <c r="E17" s="4">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
-        <v>3.3976566791534402</v>
-      </c>
-      <c r="C18" s="2">
-        <v>7.1480995764334997E-3</v>
-      </c>
-      <c r="D18" s="2">
-        <v>7.5064964760887497E-3</v>
-      </c>
-      <c r="E18" s="2">
-        <v>81</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="B18" s="4">
+        <v>3.3259079456329301</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1.3582984629708001E-4</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1.4986804904146199E-4</v>
+      </c>
+      <c r="E18" s="4">
+        <v>17</v>
+      </c>
+      <c r="F18" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="2">
-        <v>3.3976566791534402</v>
-      </c>
-      <c r="C19" s="2">
-        <v>7.2161861819525497E-3</v>
-      </c>
-      <c r="D19" s="2">
-        <v>7.2458200156688603E-3</v>
-      </c>
-      <c r="E19" s="2">
-        <v>82</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="B19" s="4">
+        <v>3.3259079456329301</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.35505775135243E-4</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1.3637962175825399E-4</v>
+      </c>
+      <c r="E19" s="4">
+        <v>18</v>
+      </c>
+      <c r="F19" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="2">
-        <v>3.3976566791534402</v>
-      </c>
-      <c r="C20" s="2">
-        <v>7.2211771309375703E-3</v>
-      </c>
-      <c r="D20" s="2">
-        <v>7.1036048392032003E-3</v>
-      </c>
-      <c r="E20" s="2">
-        <v>83</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="B20" s="4">
+        <v>3.3259079456329301</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.3706982942918901E-4</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1.30832674334127E-4</v>
+      </c>
+      <c r="E20" s="4">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="2">
-        <v>3.3976566791534402</v>
-      </c>
-      <c r="C21" s="2">
-        <v>7.25363708411653E-3</v>
-      </c>
-      <c r="D21" s="2">
-        <v>7.1424182326077102E-3</v>
-      </c>
-      <c r="E21" s="2">
-        <v>84</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="B21" s="4">
+        <v>3.3259079456329301</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1.3734143479571901E-4</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.35525987601834E-4</v>
+      </c>
+      <c r="E21" s="4">
+        <v>20</v>
+      </c>
+      <c r="F21" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>32</v>
       </c>
-      <c r="B22" s="4">
-        <v>6.7953133583068803</v>
-      </c>
-      <c r="C22" s="4">
-        <v>7.0363049084941499E-3</v>
-      </c>
-      <c r="D22" s="4">
-        <v>7.4144327131278297E-3</v>
-      </c>
-      <c r="E22" s="4">
-        <v>85</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="B22" s="2">
+        <v>6.6518158912658603</v>
+      </c>
+      <c r="C22" s="3">
+        <v>9.5217465044697704E-5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.0227191376814401E-4</v>
+      </c>
+      <c r="E22" s="2">
+        <v>21</v>
+      </c>
+      <c r="F22" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>32</v>
       </c>
-      <c r="B23" s="4">
-        <v>6.7953133583068803</v>
-      </c>
-      <c r="C23" s="4">
-        <v>7.09999777500828E-3</v>
-      </c>
-      <c r="D23" s="4">
-        <v>7.17518598019601E-3</v>
-      </c>
-      <c r="E23" s="4">
-        <v>86</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="B23" s="2">
+        <v>6.6518158912658603</v>
+      </c>
+      <c r="C23" s="3">
+        <v>9.5160491512312205E-5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.00158877141942E-4</v>
+      </c>
+      <c r="E23" s="2">
+        <v>22</v>
+      </c>
+      <c r="F23" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>32</v>
       </c>
-      <c r="B24" s="4">
-        <v>6.7953133583068803</v>
-      </c>
-      <c r="C24" s="4">
-        <v>7.0986883987982996E-3</v>
-      </c>
-      <c r="D24" s="4">
-        <v>7.05439646906675E-3</v>
-      </c>
-      <c r="E24" s="4">
-        <v>87</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="B24" s="2">
+        <v>6.6518158912658603</v>
+      </c>
+      <c r="C24" s="3">
+        <v>9.71746044621492E-5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>9.8714628040126704E-5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>23</v>
+      </c>
+      <c r="F24" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>32</v>
       </c>
-      <c r="B25" s="4">
-        <v>6.7953133583068803</v>
-      </c>
-      <c r="C25" s="4">
-        <v>7.1111069706579003E-3</v>
-      </c>
-      <c r="D25" s="4">
-        <v>7.0534358494617798E-3</v>
-      </c>
-      <c r="E25" s="4">
-        <v>88</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="B25" s="2">
+        <v>6.6518158912658603</v>
+      </c>
+      <c r="C25" s="3">
+        <v>9.9159543499505699E-5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>9.9843072019482703E-5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>24</v>
+      </c>
+      <c r="F25" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>64</v>
       </c>
-      <c r="B26" s="2">
-        <v>13.5906267166137</v>
-      </c>
-      <c r="C26" s="2">
-        <v>7.0018491273125E-3</v>
-      </c>
-      <c r="D26" s="2">
-        <v>7.3760349868222099E-3</v>
-      </c>
-      <c r="E26" s="2">
-        <v>89</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="B26" s="4">
+        <v>13.303631782531699</v>
+      </c>
+      <c r="C26" s="5">
+        <v>8.8504776872772104E-5</v>
+      </c>
+      <c r="D26" s="5">
+        <v>9.56691721048047E-5</v>
+      </c>
+      <c r="E26" s="4">
+        <v>25</v>
+      </c>
+      <c r="F26" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="A27" s="4">
         <v>64</v>
       </c>
-      <c r="B27" s="2">
-        <v>13.5906267166137</v>
-      </c>
-      <c r="C27" s="2">
-        <v>7.0724079372982097E-3</v>
-      </c>
-      <c r="D27" s="2">
-        <v>7.14670704737147E-3</v>
-      </c>
-      <c r="E27" s="2">
-        <v>90</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="B27" s="4">
+        <v>13.303631782531699</v>
+      </c>
+      <c r="C27" s="5">
+        <v>8.9423276125065305E-5</v>
+      </c>
+      <c r="D27" s="5">
+        <v>9.6078926327073503E-5</v>
+      </c>
+      <c r="E27" s="4">
+        <v>26</v>
+      </c>
+      <c r="F27" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28" s="4">
         <v>64</v>
       </c>
-      <c r="B28" s="2">
-        <v>13.5906267166137</v>
-      </c>
-      <c r="C28" s="2">
-        <v>7.08783099800348E-3</v>
-      </c>
-      <c r="D28" s="2">
-        <v>7.07261058739683E-3</v>
-      </c>
-      <c r="E28" s="2">
-        <v>91</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="B28" s="4">
+        <v>13.303631782531699</v>
+      </c>
+      <c r="C28" s="5">
+        <v>8.9743940615638395E-5</v>
+      </c>
+      <c r="D28" s="5">
+        <v>9.1962668174095004E-5</v>
+      </c>
+      <c r="E28" s="4">
+        <v>27</v>
+      </c>
+      <c r="F28" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29" s="4">
         <v>64</v>
       </c>
-      <c r="B29" s="2">
-        <v>13.5906267166137</v>
-      </c>
-      <c r="C29" s="2">
-        <v>7.0788466632366103E-3</v>
-      </c>
-      <c r="D29" s="2">
-        <v>7.0487012135538596E-3</v>
-      </c>
-      <c r="E29" s="2">
-        <v>92</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="B29" s="4">
+        <v>13.303631782531699</v>
+      </c>
+      <c r="C29" s="5">
+        <v>9.2984540601416107E-5</v>
+      </c>
+      <c r="D29" s="5">
+        <v>9.4225345202040496E-5</v>
+      </c>
+      <c r="E29" s="4">
+        <v>28</v>
+      </c>
+      <c r="F29" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3051,16 +3051,16 @@
         <v>128</v>
       </c>
       <c r="B30">
-        <v>27.1812534332275</v>
-      </c>
-      <c r="C30">
-        <v>7.0164349960784101E-3</v>
-      </c>
-      <c r="D30">
-        <v>7.3819660750079003E-3</v>
+        <v>26.607263565063398</v>
+      </c>
+      <c r="C30" s="1">
+        <v>8.8164301104067506E-5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>9.5792930222430897E-5</v>
       </c>
       <c r="E30">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -3071,16 +3071,16 @@
         <v>128</v>
       </c>
       <c r="B31">
-        <v>27.1812534332275</v>
-      </c>
-      <c r="C31">
-        <v>7.0795142948627404E-3</v>
-      </c>
-      <c r="D31">
-        <v>7.1610047115369599E-3</v>
+        <v>26.607263565063398</v>
+      </c>
+      <c r="C31" s="1">
+        <v>8.9631547064830796E-5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>9.4586088767329701E-5</v>
       </c>
       <c r="E31">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -3091,16 +3091,16 @@
         <v>128</v>
       </c>
       <c r="B32">
-        <v>27.1812534332275</v>
-      </c>
-      <c r="C32">
-        <v>7.0903527972598799E-3</v>
-      </c>
-      <c r="D32">
-        <v>7.0716728842718096E-3</v>
+        <v>26.607263565063398</v>
+      </c>
+      <c r="C32" s="1">
+        <v>9.0842434961814405E-5</v>
+      </c>
+      <c r="D32" s="1">
+        <v>9.3891857606185394E-5</v>
       </c>
       <c r="E32">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -3111,16 +3111,16 @@
         <v>128</v>
       </c>
       <c r="B33">
-        <v>27.1812534332275</v>
-      </c>
-      <c r="C33">
-        <v>7.0872249429424598E-3</v>
-      </c>
-      <c r="D33">
-        <v>7.04852973626173E-3</v>
+        <v>26.607263565063398</v>
+      </c>
+      <c r="C33" s="1">
+        <v>9.1047342643529798E-5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9.2590552896503896E-5</v>
       </c>
       <c r="E33">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -4708,8 +4708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D6121D-E5CF-1A48-8933-0BAD4C1790A9}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4750,103 +4750,94 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="2">
-        <v>7.1231137526531997E-3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>7.4682870602353997E-3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>161</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>27.21</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="B2" s="4">
+        <v>1.2334777310024899E-4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.33448935152858E-4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>33</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1E-8</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>7.1904881373047796E-3</v>
-      </c>
-      <c r="L2" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2532745407636566E-3</v>
-      </c>
-      <c r="M2" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>162.5</v>
-      </c>
-      <c r="N2" s="3">
+        <v>1.376894279819675E-4</v>
+      </c>
+      <c r="L2" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3974253256202052E-4</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>34.5</v>
+      </c>
+      <c r="N2" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="2">
-        <v>7.1597974014778899E-3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>7.2321040466665496E-3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>162</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>23.094999999999999</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="B3" s="4">
+        <v>1.2143688681923399E-4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.2525255643846799E-4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>34</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="K3" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2077232127388275E-3</v>
-      </c>
-      <c r="L3" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2635815050353823E-3</v>
-      </c>
-      <c r="M3" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>166.5</v>
-      </c>
-      <c r="N3" s="5">
+      <c r="K3" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2700511243504727E-4</v>
+      </c>
+      <c r="L3" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3092866921648726E-4</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>38.5</v>
+      </c>
+      <c r="N3" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="2">
-        <v>7.2575395132104502E-3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>7.17581736736316E-3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>163</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>40.540999999999997</v>
+      <c r="B4" s="4">
+        <v>1.46070316530919E-4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.4352389011269501E-4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -4854,15 +4845,15 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2163906789695174E-3</v>
+        <v>1.3140726652636624E-4</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2621021622871103E-3</v>
+        <v>1.3552491118582776E-4</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>170.5</v>
+        <v>42.5</v>
       </c>
       <c r="N4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4870,23 +4861,20 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="2">
-        <v>7.2215018818775796E-3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>7.1368896887895198E-3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>164</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>25.489000000000001</v>
+      <c r="B5" s="4">
+        <v>1.5990273547746801E-4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.5674474854406099E-4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -4894,15 +4882,15 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2623994418730279E-3</v>
+        <v>1.46457191939892E-4</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.302264339894924E-3</v>
+        <v>1.47946460314647E-4</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>174.5</v>
+        <v>46.5</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4910,19 +4898,19 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B6" s="4">
-        <v>7.1276642493903596E-3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>7.4799564330184703E-3</v>
-      </c>
-      <c r="D6" s="4">
-        <v>165</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="B6" s="2">
+        <v>1.2489099082692201E-4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.34290138567906E-4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2"/>
@@ -4932,15 +4920,15 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6689355826626169E-3</v>
+        <v>4.3500146881948829E-4</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6461176285817405E-3</v>
+        <v>4.3591941632373726E-4</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>178.5</v>
+        <v>50.5</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4948,19 +4936,19 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B7" s="4">
-        <v>7.1810716042915897E-3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>7.2664448327602804E-3</v>
-      </c>
-      <c r="D7" s="4">
-        <v>166</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="B7" s="2">
+        <v>1.08052221844748E-4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.14554832064041E-4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -4970,15 +4958,15 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.719448565163955E-2</v>
+        <v>1.4221542049703804E-2</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7103442459050131E-2</v>
+        <v>1.4126228366450855E-2</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>182.5</v>
+        <v>54.5</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4986,19 +4974,19 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B8" s="4">
-        <v>7.2777368351817102E-3</v>
-      </c>
-      <c r="C8" s="4">
-        <v>7.1700639289585802E-3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>167</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="B8" s="2">
+        <v>1.3440011874384501E-4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.3456974208585299E-4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2"/>
@@ -5008,15 +4996,15 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14084060495595099</v>
+        <v>0.1336877931157745</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14101483082359126</v>
+        <v>0.13392428386005276</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>186.5</v>
+        <v>58.5</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5024,19 +5012,19 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B9" s="4">
-        <v>7.2444201620916497E-3</v>
-      </c>
-      <c r="C9" s="4">
-        <v>7.1378608254042001E-3</v>
-      </c>
-      <c r="D9" s="4">
-        <v>168</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="B9" s="2">
+        <v>1.40677118324674E-4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.4029996414814899E-4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="2"/>
@@ -5046,15 +5034,15 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1408413044313585</v>
+        <v>0.1336884586066005</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14101471930266674</v>
+        <v>0.13392418408964502</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>190.5</v>
+        <v>62.5</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5066,20 +5054,20 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="4">
-        <v>7.1278305699427899E-3</v>
+        <v>1.2493563301783599E-4</v>
       </c>
       <c r="C10" s="4">
-        <v>7.4891466152002201E-3</v>
+        <v>1.3621660934617501E-4</v>
       </c>
       <c r="D10" s="4">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>7.2532745407636566E-3</v>
+        <v>1.3092866921648726E-4</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -5087,13 +5075,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="4">
-        <v>7.18213901296257E-3</v>
+        <v>1.17813404649496E-4</v>
       </c>
       <c r="C11" s="4">
-        <v>7.2432492879476902E-3</v>
+        <v>1.22746070469184E-4</v>
       </c>
       <c r="D11" s="4">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -5104,13 +5092,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="4">
-        <v>7.2983255287011398E-3</v>
+        <v>1.36885057882561E-4</v>
       </c>
       <c r="C12" s="4">
-        <v>7.18147200631334E-3</v>
+        <v>1.38469375629706E-4</v>
       </c>
       <c r="D12" s="4">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -5121,13 +5109,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="4">
-        <v>7.2572676042715698E-3</v>
+        <v>1.4599497055557201E-4</v>
       </c>
       <c r="C13" s="4">
-        <v>7.13454073968719E-3</v>
+        <v>1.4466758929824601E-4</v>
       </c>
       <c r="D13" s="4">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -5138,13 +5126,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>7.17295797914266E-3</v>
+        <v>1.4586172280057E-4</v>
       </c>
       <c r="C14">
-        <v>7.5070112151034299E-3</v>
+        <v>1.56955220789197E-4</v>
       </c>
       <c r="D14">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -5155,13 +5143,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>7.1958241264025299E-3</v>
+        <v>1.33097882421376E-4</v>
       </c>
       <c r="C15">
-        <v>7.2701123216129997E-3</v>
+        <v>1.37928848453931E-4</v>
       </c>
       <c r="D15">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5172,13 +5160,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>7.4250958698491203E-3</v>
+        <v>1.61602615514614E-4</v>
       </c>
       <c r="C16">
-        <v>7.2871072396160398E-3</v>
+        <v>1.5755819077504401E-4</v>
       </c>
       <c r="D16">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -5189,13 +5177,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>7.2557197920978004E-3</v>
+        <v>1.4526654702300799E-4</v>
       </c>
       <c r="C17">
-        <v>7.14482658324723E-3</v>
+        <v>1.3934358124041601E-4</v>
       </c>
       <c r="D17">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -5206,13 +5194,13 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>8.8430595410366793E-3</v>
+        <v>5.0000434912120305E-4</v>
       </c>
       <c r="C18">
-        <v>9.4324552622485E-3</v>
+        <v>5.4930010531840695E-4</v>
       </c>
       <c r="D18">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -5223,13 +5211,13 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>8.3974244445562292E-3</v>
+        <v>5.0994461316925704E-4</v>
       </c>
       <c r="C19">
-        <v>8.3821461773774704E-3</v>
+        <v>4.9679731006456603E-4</v>
       </c>
       <c r="D19">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5240,13 +5228,13 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>8.9447225220501397E-3</v>
+        <v>3.0489347673331698E-4</v>
       </c>
       <c r="C20">
-        <v>8.5500806688945299E-3</v>
+        <v>2.9956410698434098E-4</v>
       </c>
       <c r="D20">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5257,13 +5245,13 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>8.4905358230074196E-3</v>
+        <v>4.2516343625417601E-4</v>
       </c>
       <c r="C21">
-        <v>8.2197884058064601E-3</v>
+        <v>3.9801614292763501E-4</v>
       </c>
       <c r="D21">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5274,13 +5262,13 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>1.0266732814411299E-2</v>
+        <v>3.22975632672508E-3</v>
       </c>
       <c r="C22">
-        <v>1.0963372826734701E-2</v>
+        <v>3.5289223956072899E-3</v>
       </c>
       <c r="D22">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -5291,13 +5279,13 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>3.7528463512658997E-2</v>
+        <v>4.7043760955333698E-2</v>
       </c>
       <c r="C23">
-        <v>3.7511758308144301E-2</v>
+        <v>4.6836456640603603E-2</v>
       </c>
       <c r="D23">
-        <v>182</v>
+        <v>54</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -5308,13 +5296,13 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>1.0503466419875601E-2</v>
+        <v>3.3261052185359101E-3</v>
       </c>
       <c r="C24">
-        <v>9.9139918048093204E-3</v>
+        <v>3.0576200763189599E-3</v>
       </c>
       <c r="D24">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -5325,13 +5313,13 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>1.0479279859612301E-2</v>
+        <v>3.2865456982205301E-3</v>
       </c>
       <c r="C25">
-        <v>1.0024646896512199E-2</v>
+        <v>3.08191435327357E-3</v>
       </c>
       <c r="D25">
-        <v>184</v>
+        <v>56</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -5342,13 +5330,13 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>0.14079196095466601</v>
+        <v>0.13375901889801001</v>
       </c>
       <c r="C26">
-        <v>0.141304298839036</v>
+        <v>0.13373122863629999</v>
       </c>
       <c r="D26">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -5359,13 +5347,13 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>0.140649557054042</v>
+        <v>0.13353159995873701</v>
       </c>
       <c r="C27">
-        <v>0.14156378734302</v>
+        <v>0.134340749538325</v>
       </c>
       <c r="D27">
-        <v>186</v>
+        <v>58</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -5376,13 +5364,13 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>0.14092840089400599</v>
+        <v>0.13370002190272001</v>
       </c>
       <c r="C28">
-        <v>0.14060738429110101</v>
+        <v>0.133821201054973</v>
       </c>
       <c r="D28">
-        <v>187</v>
+        <v>59</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -5393,13 +5381,13 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>0.14099250092109</v>
+        <v>0.133760531703631</v>
       </c>
       <c r="C29">
-        <v>0.140583852821208</v>
+        <v>0.133803956210613</v>
       </c>
       <c r="D29">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -5410,13 +5398,13 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.14079485168059599</v>
+        <v>0.13376176599661499</v>
       </c>
       <c r="C30">
-        <v>0.14130385275533799</v>
+        <v>0.133730829554669</v>
       </c>
       <c r="D30">
-        <v>189</v>
+        <v>61</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -5427,13 +5415,13 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>0.140649557054042</v>
+        <v>0.13353159995873701</v>
       </c>
       <c r="C31">
-        <v>0.14156378734302</v>
+        <v>0.134340749538325</v>
       </c>
       <c r="D31">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -5444,13 +5432,13 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>0.14092840089400599</v>
+        <v>0.13370002190272001</v>
       </c>
       <c r="C32">
-        <v>0.14060738429110101</v>
+        <v>0.133821201054973</v>
       </c>
       <c r="D32">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -5461,13 +5449,13 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.14099240809679001</v>
+        <v>0.13376044656833</v>
       </c>
       <c r="C33">
-        <v>0.140583852821208</v>
+        <v>0.133803956210613</v>
       </c>
       <c r="D33">
-        <v>192</v>
+        <v>64</v>
       </c>
       <c r="E33">
         <v>1</v>

--- a/eg3.xlsx
+++ b/eg3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA7E190-4607-6348-A28F-91F7EBF7A2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6B54EF-7A0A-5A41-95A0-4470A252C2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="16620" yWindow="5340" windowWidth="34560" windowHeight="19800" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -2247,7 +2247,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2295,13 +2295,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.20786924660205799</v>
+        <v>0.29542791843414301</v>
       </c>
       <c r="C2">
-        <v>3.71147155839328E-3</v>
+        <v>4.1134500934276698E-4</v>
       </c>
       <c r="D2">
-        <v>4.0333690815307997E-3</v>
+        <v>4.5387409533004897E-4</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2315,15 +2315,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>0.20786924660205799</v>
+        <v>0.29542791843414301</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7772551708621822E-3</v>
+        <v>4.2045817361698273E-4</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7225180886378676E-3</v>
+        <v>4.1763877350681504E-4</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
@@ -2339,13 +2339,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.20786924660205799</v>
+        <v>0.29542791843414301</v>
       </c>
       <c r="C3">
-        <v>3.7800833992660001E-3</v>
+        <v>4.19747249766563E-4</v>
       </c>
       <c r="D3">
-        <v>3.6451628585246901E-3</v>
+        <v>4.2097472690697202E-4</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2359,15 +2359,15 @@
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41573849320411599</v>
+        <v>0.59085583686828602</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8319999242085E-3</v>
+        <v>4.17991370923118E-4</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7998170264268325E-3</v>
+        <v>4.1647107589093819E-4</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
@@ -2383,13 +2383,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.20786924660205799</v>
+        <v>0.29542791843414301</v>
       </c>
       <c r="C4">
-        <v>3.7968879636997902E-3</v>
+        <v>4.2820397811010403E-4</v>
       </c>
       <c r="D4">
-        <v>3.5872384410430701E-3</v>
+        <v>3.86632483299608E-4</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -2403,15 +2403,15 @@
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83147698640823298</v>
+        <v>1.18171167373657</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1146714523880849E-3</v>
+        <v>4.1619590844978378E-4</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0958923331851602E-3</v>
+        <v>4.1570784512085526E-4</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
@@ -2427,13 +2427,13 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.20786924660205799</v>
+        <v>0.29542791843414301</v>
       </c>
       <c r="C5">
-        <v>3.82057776208966E-3</v>
+        <v>4.2253645724849698E-4</v>
       </c>
       <c r="D5">
-        <v>3.6243019734529102E-3</v>
+        <v>4.09073788490631E-4</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -2447,15 +2447,15 @@
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.66295397281646</v>
+        <v>2.3634233474731401</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0677404783588454E-4</v>
+        <v>4.15110341995993E-4</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0264572173739643E-4</v>
+        <v>4.1510968775524922E-4</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
@@ -2471,13 +2471,13 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.41573849320411599</v>
+        <v>0.59085583686828602</v>
       </c>
       <c r="C6">
-        <v>1.7860355132725001E-3</v>
+        <v>4.0863009233726099E-4</v>
       </c>
       <c r="D6">
-        <v>2.0386830914735799E-3</v>
+        <v>4.5257017243668398E-4</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -2491,15 +2491,15 @@
       </c>
       <c r="K6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3259079456329301</v>
+        <v>4.7268466949462802</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3643672141430775E-4</v>
+        <v>4.1414834990185476E-4</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3815158318391925E-4</v>
+        <v>4.1456049768114148E-4</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -2515,13 +2515,13 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.41573849320411599</v>
+        <v>0.59085583686828602</v>
       </c>
       <c r="C7">
-        <v>1.83867219016732E-3</v>
+        <v>4.17489199433475E-4</v>
       </c>
       <c r="D7">
-        <v>1.7548976404136601E-3</v>
+        <v>4.1992676631978399E-4</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -2535,15 +2535,15 @@
       </c>
       <c r="K7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6518158912658603</v>
+        <v>9.4536933898925692</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6678026129666205E-5</v>
+        <v>4.1352967831092679E-4</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0024712274242384E-4</v>
+        <v>4.1437196902753602E-4</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -2559,13 +2559,13 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>0.41573849320411599</v>
+        <v>0.59085583686828602</v>
       </c>
       <c r="C8">
-        <v>1.8605146912159399E-3</v>
+        <v>4.2604572003862497E-4</v>
       </c>
       <c r="D8">
-        <v>1.68426295536808E-3</v>
+        <v>3.8607264565492102E-4</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -2579,15 +2579,15 @@
       </c>
       <c r="K8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>13.303631782531699</v>
+        <v>18.907386779785099</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0164133553722985E-5</v>
+        <v>4.1161008688989819E-4</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4484027952003422E-5</v>
+        <v>4.134258865536697E-4</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -2603,13 +2603,13 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>0.41573849320411599</v>
+        <v>0.59085583686828602</v>
       </c>
       <c r="C9">
-        <v>1.84277730217824E-3</v>
+        <v>4.19800471883111E-4</v>
       </c>
       <c r="D9">
-        <v>1.7214244184520101E-3</v>
+        <v>4.07314719152364E-4</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -2623,15 +2623,15 @@
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>26.607263565063398</v>
+        <v>37.814773559570298</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>8.992140644356062E-5</v>
+        <v>4.0998482142943701E-4</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4215357373112472E-5</v>
+        <v>4.1287162304720225E-4</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
@@ -2643,86 +2643,86 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>0.83147698640823298</v>
-      </c>
-      <c r="C10">
-        <v>1.0782848267117499E-3</v>
-      </c>
-      <c r="D10">
-        <v>1.25290687766267E-3</v>
-      </c>
-      <c r="E10">
+      <c r="B10" s="2">
+        <v>1.18171167373657</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4.0670485237690899E-4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4.5185370989666402E-4</v>
+      </c>
+      <c r="E10" s="2">
         <v>9</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>1</v>
       </c>
       <c r="M10">
         <f ca="1">MIN(M2:M9)</f>
-        <v>9.4215357373112472E-5</v>
+        <v>4.1287162304720225E-4</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11">
-        <v>0.83147698640823298</v>
-      </c>
-      <c r="C11">
-        <v>1.11331152461934E-3</v>
-      </c>
-      <c r="D11">
-        <v>1.0595350212633001E-3</v>
-      </c>
-      <c r="E11">
+      <c r="B11" s="2">
+        <v>1.18171167373657</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4.1548783960752102E-4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4.1899373985522298E-4</v>
+      </c>
+      <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12">
-        <v>0.83147698640823298</v>
-      </c>
-      <c r="C12">
-        <v>1.13004749974546E-3</v>
-      </c>
-      <c r="D12">
-        <v>1.0045970354459501E-3</v>
-      </c>
-      <c r="E12">
+      <c r="B12" s="2">
+        <v>1.18171167373657</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4.2453949461923899E-4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3.8537931098463999E-4</v>
+      </c>
+      <c r="E12" s="2">
         <v>11</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>4</v>
       </c>
-      <c r="B13">
-        <v>0.83147698640823298</v>
-      </c>
-      <c r="C13">
-        <v>1.1370419584757899E-3</v>
-      </c>
-      <c r="D13">
-        <v>1.06653039836872E-3</v>
-      </c>
-      <c r="E13">
+      <c r="B13" s="2">
+        <v>1.18171167373657</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4.18051447195466E-4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4.0660461974689402E-4</v>
+      </c>
+      <c r="E13" s="2">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2731,13 +2731,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="4">
-        <v>1.66295397281646</v>
+        <v>2.3634233474731401</v>
       </c>
       <c r="C14" s="4">
-        <v>4.9076389166293605E-4</v>
+        <v>4.0570379450218701E-4</v>
       </c>
       <c r="D14" s="4">
-        <v>5.7124689323864697E-4</v>
+        <v>4.5131819484943599E-4</v>
       </c>
       <c r="E14" s="4">
         <v>13</v>
@@ -2751,13 +2751,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="4">
-        <v>1.66295397281646</v>
+        <v>2.3634233474731401</v>
       </c>
       <c r="C15" s="4">
-        <v>5.02388804491298E-4</v>
+        <v>4.1311205190140698E-4</v>
       </c>
       <c r="D15" s="4">
-        <v>4.8112226501503499E-4</v>
+        <v>4.1769551736503302E-4</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -2771,13 +2771,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="4">
-        <v>1.66295397281646</v>
+        <v>2.3634233474731401</v>
       </c>
       <c r="C16" s="4">
-        <v>5.1640664764757496E-4</v>
+        <v>4.2401511278391499E-4</v>
       </c>
       <c r="D16" s="4">
-        <v>4.5910253476827E-4</v>
+        <v>3.85156293595308E-4</v>
       </c>
       <c r="E16" s="4">
         <v>15</v>
@@ -2791,13 +2791,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="4">
-        <v>1.66295397281646</v>
+        <v>2.3634233474731401</v>
       </c>
       <c r="C17" s="4">
-        <v>5.1753684754172905E-4</v>
+        <v>4.17610408796463E-4</v>
       </c>
       <c r="D17" s="4">
-        <v>4.9911119392763404E-4</v>
+        <v>4.0626874521121998E-4</v>
       </c>
       <c r="E17" s="4">
         <v>16</v>
@@ -2811,13 +2811,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>3.3259079456329301</v>
+        <v>4.7268466949462802</v>
       </c>
       <c r="C18" s="4">
-        <v>1.3582984629708001E-4</v>
+        <v>4.04937617655377E-4</v>
       </c>
       <c r="D18" s="4">
-        <v>1.4986804904146199E-4</v>
+        <v>4.5066718906882399E-4</v>
       </c>
       <c r="E18" s="4">
         <v>17</v>
@@ -2831,13 +2831,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="4">
-        <v>3.3259079456329301</v>
+        <v>4.7268466949462802</v>
       </c>
       <c r="C19" s="4">
-        <v>1.35505775135243E-4</v>
+        <v>4.1250132885761498E-4</v>
       </c>
       <c r="D19" s="4">
-        <v>1.3637962175825399E-4</v>
+        <v>4.1731611433552801E-4</v>
       </c>
       <c r="E19" s="4">
         <v>18</v>
@@ -2851,13 +2851,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="4">
-        <v>3.3259079456329301</v>
+        <v>4.7268466949462802</v>
       </c>
       <c r="C20" s="4">
-        <v>1.3706982942918901E-4</v>
+        <v>4.2337625815222599E-4</v>
       </c>
       <c r="D20" s="4">
-        <v>1.30832674334127E-4</v>
+        <v>3.8491977914979498E-4</v>
       </c>
       <c r="E20" s="4">
         <v>19</v>
@@ -2871,13 +2871,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="4">
-        <v>3.3259079456329301</v>
+        <v>4.7268466949462802</v>
       </c>
       <c r="C21" s="4">
-        <v>1.3734143479571901E-4</v>
+        <v>4.15778194942201E-4</v>
       </c>
       <c r="D21" s="4">
-        <v>1.35525987601834E-4</v>
+        <v>4.0533890817041901E-4</v>
       </c>
       <c r="E21" s="4">
         <v>20</v>
@@ -2887,82 +2887,82 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>32</v>
       </c>
-      <c r="B22" s="2">
-        <v>6.6518158912658603</v>
-      </c>
-      <c r="C22" s="3">
-        <v>9.5217465044697704E-5</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1.0227191376814401E-4</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="B22" s="4">
+        <v>9.4536933898925692</v>
+      </c>
+      <c r="C22" s="5">
+        <v>4.0422014201370299E-4</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4.5063377005367602E-4</v>
+      </c>
+      <c r="E22" s="4">
         <v>21</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>32</v>
       </c>
-      <c r="B23" s="2">
-        <v>6.6518158912658603</v>
-      </c>
-      <c r="C23" s="3">
-        <v>9.5160491512312205E-5</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1.00158877141942E-4</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="B23" s="4">
+        <v>9.4536933898925692</v>
+      </c>
+      <c r="C23" s="5">
+        <v>4.1150269052013701E-4</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4.1697981647844903E-4</v>
+      </c>
+      <c r="E23" s="4">
         <v>22</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>32</v>
       </c>
-      <c r="B24" s="2">
-        <v>6.6518158912658603</v>
-      </c>
-      <c r="C24" s="3">
-        <v>9.71746044621492E-5</v>
-      </c>
-      <c r="D24" s="3">
-        <v>9.8714628040126704E-5</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="B24" s="4">
+        <v>9.4536933898925692</v>
+      </c>
+      <c r="C24" s="5">
+        <v>4.2296938935760397E-4</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3.84584436300854E-4</v>
+      </c>
+      <c r="E24" s="4">
         <v>23</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>32</v>
       </c>
-      <c r="B25" s="2">
-        <v>6.6518158912658603</v>
-      </c>
-      <c r="C25" s="3">
-        <v>9.9159543499505699E-5</v>
-      </c>
-      <c r="D25" s="3">
-        <v>9.9843072019482703E-5</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="B25" s="4">
+        <v>9.4536933898925692</v>
+      </c>
+      <c r="C25" s="5">
+        <v>4.1542649135226301E-4</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4.0528985327716499E-4</v>
+      </c>
+      <c r="E25" s="4">
         <v>24</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2971,13 +2971,13 @@
         <v>64</v>
       </c>
       <c r="B26" s="4">
-        <v>13.303631782531699</v>
+        <v>18.907386779785099</v>
       </c>
       <c r="C26" s="5">
-        <v>8.8504776872772104E-5</v>
+        <v>4.0226305351825399E-4</v>
       </c>
       <c r="D26" s="5">
-        <v>9.56691721048047E-5</v>
+        <v>4.4971135735358199E-4</v>
       </c>
       <c r="E26" s="4">
         <v>25</v>
@@ -2991,13 +2991,13 @@
         <v>64</v>
       </c>
       <c r="B27" s="4">
-        <v>13.303631782531699</v>
+        <v>18.907386779785099</v>
       </c>
       <c r="C27" s="5">
-        <v>8.9423276125065305E-5</v>
+        <v>4.1028961387928501E-4</v>
       </c>
       <c r="D27" s="5">
-        <v>9.6078926327073503E-5</v>
+        <v>4.16192470475699E-4</v>
       </c>
       <c r="E27" s="4">
         <v>26</v>
@@ -3011,13 +3011,13 @@
         <v>64</v>
       </c>
       <c r="B28" s="4">
-        <v>13.303631782531699</v>
+        <v>18.907386779785099</v>
       </c>
       <c r="C28" s="5">
-        <v>8.9743940615638395E-5</v>
+        <v>4.2011100249752999E-4</v>
       </c>
       <c r="D28" s="5">
-        <v>9.1962668174095004E-5</v>
+        <v>3.8376106501945801E-4</v>
       </c>
       <c r="E28" s="4">
         <v>27</v>
@@ -3031,13 +3031,13 @@
         <v>64</v>
       </c>
       <c r="B29" s="4">
-        <v>13.303631782531699</v>
+        <v>18.907386779785099</v>
       </c>
       <c r="C29" s="5">
-        <v>9.2984540601416107E-5</v>
+        <v>4.1377667766452397E-4</v>
       </c>
       <c r="D29" s="5">
-        <v>9.4225345202040496E-5</v>
+        <v>4.0403865336593997E-4</v>
       </c>
       <c r="E29" s="4">
         <v>28</v>
@@ -3051,13 +3051,13 @@
         <v>128</v>
       </c>
       <c r="B30">
-        <v>26.607263565063398</v>
+        <v>37.814773559570298</v>
       </c>
       <c r="C30" s="1">
-        <v>8.8164301104067506E-5</v>
+        <v>4.0125269499064099E-4</v>
       </c>
       <c r="D30" s="1">
-        <v>9.5792930222430897E-5</v>
+        <v>4.4866735450031699E-4</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -3071,13 +3071,13 @@
         <v>128</v>
       </c>
       <c r="B31">
-        <v>26.607263565063398</v>
+        <v>37.814773559570298</v>
       </c>
       <c r="C31" s="1">
-        <v>8.9631547064830796E-5</v>
+        <v>4.0897162198477098E-4</v>
       </c>
       <c r="D31" s="1">
-        <v>9.4586088767329701E-5</v>
+        <v>4.1572223655864598E-4</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -3091,13 +3091,13 @@
         <v>128</v>
       </c>
       <c r="B32">
-        <v>26.607263565063398</v>
+        <v>37.814773559570298</v>
       </c>
       <c r="C32" s="1">
-        <v>9.0842434961814405E-5</v>
+        <v>4.1698640637332501E-4</v>
       </c>
       <c r="D32" s="1">
-        <v>9.3891857606185394E-5</v>
+        <v>3.8278375591579902E-4</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -3111,13 +3111,13 @@
         <v>128</v>
       </c>
       <c r="B33">
-        <v>26.607263565063398</v>
+        <v>37.814773559570298</v>
       </c>
       <c r="C33" s="1">
-        <v>9.1047342643529798E-5</v>
+        <v>4.1272856236901102E-4</v>
       </c>
       <c r="D33" s="1">
-        <v>9.2590552896503896E-5</v>
+        <v>4.0431314521404701E-4</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -4709,7 +4709,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4750,20 +4750,23 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="4">
-        <v>1.2334777310024899E-4</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1.33448935152858E-4</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="2">
+        <v>4.0828379889717298E-4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.5260084926725298E-4</v>
+      </c>
+      <c r="D2" s="2">
         <v>33</v>
       </c>
-      <c r="E2" s="4">
-        <v>1</v>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1.165</v>
       </c>
       <c r="J2" s="5">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
@@ -4771,11 +4774,11 @@
       </c>
       <c r="K2" s="6">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>1.376894279819675E-4</v>
+        <v>4.1692586809707151E-4</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3974253256202052E-4</v>
+        <v>4.1611780850755428E-4</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4787,57 +4790,63 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="4">
-        <v>1.2143688681923399E-4</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1.2525255643846799E-4</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B3" s="2">
+        <v>4.1600946967567602E-4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.1936690622799402E-4</v>
+      </c>
+      <c r="D3" s="2">
         <v>34</v>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1.9590000000000001</v>
+      </c>
+      <c r="J3" s="5">
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="K3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2700511243504727E-4</v>
-      </c>
-      <c r="L3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3092866921648726E-4</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="K3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.1774110156984478E-4</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.1643157494926223E-4</v>
+      </c>
+      <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>38.5</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="4">
-        <v>1.46070316530919E-4</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1.4352389011269501E-4</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="2">
+        <v>4.2424092210906802E-4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.8547353719006901E-4</v>
+      </c>
+      <c r="D4" s="2">
         <v>35</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2.36</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -4845,11 +4854,11 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3140726652636624E-4</v>
+        <v>4.1949080416816225E-4</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3552491118582776E-4</v>
+        <v>4.1720173452089676E-4</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4861,20 +4870,23 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="4">
-        <v>1.5990273547746801E-4</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.5674474854406099E-4</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B5" s="2">
+        <v>4.19169281706369E-4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.07029941344901E-4</v>
+      </c>
+      <c r="D5" s="2">
         <v>36</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1.423</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -4882,11 +4894,11 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.46457191939892E-4</v>
+        <v>6.090790462233897E-4</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.47946460314647E-4</v>
+        <v>6.0599045337631679E-4</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4898,19 +4910,19 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B6" s="2">
-        <v>1.2489099082692201E-4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.34290138567906E-4</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="4">
+        <v>4.0901894892643502E-4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4.5286005463802801E-4</v>
+      </c>
+      <c r="D6" s="4">
         <v>37</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="2"/>
@@ -4920,11 +4932,11 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3500146881948829E-4</v>
+        <v>1.1452295316848851E-3</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3591941632373726E-4</v>
+        <v>1.1445493760897651E-3</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4936,19 +4948,19 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B7" s="2">
-        <v>1.08052221844748E-4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.14554832064041E-4</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="4">
+        <v>4.1686090755198697E-4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4.19803225900358E-4</v>
+      </c>
+      <c r="D7" s="4">
         <v>38</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -4958,11 +4970,11 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4221542049703804E-2</v>
+        <v>1.1452339373063227E-3</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4126228366450855E-2</v>
+        <v>1.1445489112025151E-3</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4974,19 +4986,19 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B8" s="2">
-        <v>1.3440011874384501E-4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.3456974208585299E-4</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="4">
+        <v>4.2528576933545902E-4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3.8563667909871299E-4</v>
+      </c>
+      <c r="D8" s="4">
         <v>39</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="2"/>
@@ -4996,11 +5008,11 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1336877931157745</v>
+        <v>1.1452382014055401E-3</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13392428386005276</v>
+        <v>1.1445495640262026E-3</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5012,19 +5024,19 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B9" s="2">
-        <v>1.40677118324674E-4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.4029996414814899E-4</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="4">
+        <v>4.1979878046549798E-4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4.0742634015995002E-4</v>
+      </c>
+      <c r="D9" s="4">
         <v>40</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="2"/>
@@ -5034,11 +5046,11 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1336884586066005</v>
+        <v>1.1452396114667201E-3</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13392418408964502</v>
+        <v>1.1445496925165176E-3</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5054,10 +5066,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="4">
-        <v>1.2493563301783599E-4</v>
+        <v>4.1041430555439201E-4</v>
       </c>
       <c r="C10" s="4">
-        <v>1.3621660934617501E-4</v>
+        <v>4.5332995068747501E-4</v>
       </c>
       <c r="D10" s="4">
         <v>41</v>
@@ -5067,7 +5079,7 @@
       </c>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>1.3092866921648726E-4</v>
+        <v>4.1611780850755428E-4</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -5075,10 +5087,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="4">
-        <v>1.17813404649496E-4</v>
+        <v>4.1856774707169499E-4</v>
       </c>
       <c r="C11" s="4">
-        <v>1.22746070469184E-4</v>
+        <v>4.2051166096922601E-4</v>
       </c>
       <c r="D11" s="4">
         <v>42</v>
@@ -5092,10 +5104,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="4">
-        <v>1.36885057882561E-4</v>
+        <v>4.2730622181746399E-4</v>
       </c>
       <c r="C12" s="4">
-        <v>1.38469375629706E-4</v>
+        <v>3.8639322550845898E-4</v>
       </c>
       <c r="D12" s="4">
         <v>43</v>
@@ -5109,10 +5121,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="4">
-        <v>1.4599497055557201E-4</v>
+        <v>4.21674942229098E-4</v>
       </c>
       <c r="C13" s="4">
-        <v>1.4466758929824601E-4</v>
+        <v>4.0857210091842699E-4</v>
       </c>
       <c r="D13" s="4">
         <v>44</v>
@@ -5126,10 +5138,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>1.4586172280057E-4</v>
+        <v>6.6136825107969302E-4</v>
       </c>
       <c r="C14">
-        <v>1.56955220789197E-4</v>
+        <v>7.0547383864400296E-4</v>
       </c>
       <c r="D14">
         <v>45</v>
@@ -5143,10 +5155,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>1.33097882421376E-4</v>
+        <v>6.7025422483372196E-4</v>
       </c>
       <c r="C15">
-        <v>1.37928848453931E-4</v>
+        <v>6.6956291699712598E-4</v>
       </c>
       <c r="D15">
         <v>46</v>
@@ -5160,10 +5172,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>1.61602615514614E-4</v>
+        <v>6.7846289944524497E-4</v>
       </c>
       <c r="C16">
-        <v>1.5755819077504401E-4</v>
+        <v>6.36991700764369E-4</v>
       </c>
       <c r="D16">
         <v>47</v>
@@ -5177,10 +5189,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>1.4526654702300799E-4</v>
+        <v>4.2623080953489901E-4</v>
       </c>
       <c r="C17">
-        <v>1.3934358124041601E-4</v>
+        <v>4.1193335709976899E-4</v>
       </c>
       <c r="D17">
         <v>48</v>
@@ -5194,10 +5206,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>5.0000434912120305E-4</v>
+        <v>1.1358466426221001E-3</v>
       </c>
       <c r="C18">
-        <v>5.4930010531840695E-4</v>
+        <v>1.18334137802408E-3</v>
       </c>
       <c r="D18">
         <v>49</v>
@@ -5211,10 +5223,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>5.0994461316925704E-4</v>
+        <v>1.1445807587976201E-3</v>
       </c>
       <c r="C19">
-        <v>4.9679731006456603E-4</v>
+        <v>1.1457585812635401E-3</v>
       </c>
       <c r="D19">
         <v>50</v>
@@ -5228,10 +5240,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>3.0489347673331698E-4</v>
+        <v>1.15280801368256E-3</v>
       </c>
       <c r="C20">
-        <v>2.9956410698434098E-4</v>
+        <v>1.1135558486282001E-3</v>
       </c>
       <c r="D20">
         <v>51</v>
@@ -5245,10 +5257,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>4.2516343625417601E-4</v>
+        <v>1.1476827116372601E-3</v>
       </c>
       <c r="C21">
-        <v>3.9801614292763501E-4</v>
+        <v>1.13554169644324E-3</v>
       </c>
       <c r="D21">
         <v>52</v>
@@ -5262,10 +5274,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>3.22975632672508E-3</v>
+        <v>1.13586472766473E-3</v>
       </c>
       <c r="C22">
-        <v>3.5289223956072899E-3</v>
+        <v>1.18333951847508E-3</v>
       </c>
       <c r="D22">
         <v>53</v>
@@ -5279,10 +5291,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>4.7043760955333698E-2</v>
+        <v>1.1445807587976201E-3</v>
       </c>
       <c r="C23">
-        <v>4.6836456640603603E-2</v>
+        <v>1.1457585812635401E-3</v>
       </c>
       <c r="D23">
         <v>54</v>
@@ -5296,10 +5308,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>3.3261052185359101E-3</v>
+        <v>1.15280801368256E-3</v>
       </c>
       <c r="C24">
-        <v>3.0576200763189599E-3</v>
+        <v>1.1135558486282001E-3</v>
       </c>
       <c r="D24">
         <v>55</v>
@@ -5313,10 +5325,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>3.2865456982205301E-3</v>
+        <v>1.1476822490803799E-3</v>
       </c>
       <c r="C25">
-        <v>3.08191435327357E-3</v>
+        <v>1.13554169644324E-3</v>
       </c>
       <c r="D25">
         <v>56</v>
@@ -5330,10 +5342,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>0.13375901889801001</v>
+        <v>1.1358814256576201E-3</v>
       </c>
       <c r="C26">
-        <v>0.13373122863629999</v>
+        <v>1.1833421297698301E-3</v>
       </c>
       <c r="D26">
         <v>57</v>
@@ -5347,10 +5359,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>0.13353159995873701</v>
+        <v>1.1445807587976201E-3</v>
       </c>
       <c r="C27">
-        <v>0.134340749538325</v>
+        <v>1.1457585812635401E-3</v>
       </c>
       <c r="D27">
         <v>58</v>
@@ -5364,10 +5376,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>0.13370002190272001</v>
+        <v>1.15280801368256E-3</v>
       </c>
       <c r="C28">
-        <v>0.133821201054973</v>
+        <v>1.1135558486282001E-3</v>
       </c>
       <c r="D28">
         <v>59</v>
@@ -5381,10 +5393,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>0.133760531703631</v>
+        <v>1.14768260748436E-3</v>
       </c>
       <c r="C29">
-        <v>0.133803956210613</v>
+        <v>1.13554169644324E-3</v>
       </c>
       <c r="D29">
         <v>60</v>
@@ -5398,10 +5410,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.13376176599661499</v>
+        <v>1.1358870263211401E-3</v>
       </c>
       <c r="C30">
-        <v>0.133730829554669</v>
+        <v>1.1833426437310899E-3</v>
       </c>
       <c r="D30">
         <v>61</v>
@@ -5415,10 +5427,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>0.13353159995873701</v>
+        <v>1.1445807587976201E-3</v>
       </c>
       <c r="C31">
-        <v>0.134340749538325</v>
+        <v>1.1457585812635401E-3</v>
       </c>
       <c r="D31">
         <v>62</v>
@@ -5432,10 +5444,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>0.13370002190272001</v>
+        <v>1.15280801368256E-3</v>
       </c>
       <c r="C32">
-        <v>0.133821201054973</v>
+        <v>1.1135558486282001E-3</v>
       </c>
       <c r="D32">
         <v>63</v>
@@ -5449,10 +5461,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.13376044656833</v>
+        <v>1.1476826470655599E-3</v>
       </c>
       <c r="C33">
-        <v>0.133803956210613</v>
+        <v>1.13554169644324E-3</v>
       </c>
       <c r="D33">
         <v>64</v>

--- a/eg3.xlsx
+++ b/eg3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6B54EF-7A0A-5A41-95A0-4470A252C2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6105B063-321E-4246-9E44-934B62E1ABC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16620" yWindow="5340" windowWidth="34560" windowHeight="19800" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="820" windowWidth="34560" windowHeight="19800" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="10">
   <si>
     <t>Gamma</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>LipSDP</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -467,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7B8AE4-A984-5E47-83F5-2F9341F82724}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:F33"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -516,13 +519,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.21235354244709001</v>
-      </c>
-      <c r="C2">
-        <v>1.05566765142089E-2</v>
-      </c>
-      <c r="D2">
-        <v>1.1249978045754601E-2</v>
+        <v>0.24390242993831601</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6.6784839331608301E-5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6.7379361543645804E-5</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -536,15 +539,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>0.21235354244709001</v>
+        <v>0.24390242993831601</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0897552893011548E-2</v>
+        <v>6.6935640751716099E-5</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0597417060474025E-2</v>
+        <v>6.6683120447588045E-5</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
@@ -560,13 +563,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.21235354244709001</v>
-      </c>
-      <c r="C3">
-        <v>1.1061202338401299E-2</v>
-      </c>
-      <c r="D3">
-        <v>1.0600941647042301E-2</v>
+        <v>0.24390242993831601</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6.70237565847198E-5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.6844508531156596E-5</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -580,15 +583,15 @@
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42470708489418002</v>
+        <v>0.48780485987663202</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6303054498151856E-3</v>
+        <v>6.4422056456873587E-5</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5107487286440751E-3</v>
+        <v>6.5328842712451045E-5</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
@@ -604,13 +607,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.21235354244709001</v>
-      </c>
-      <c r="C4">
-        <v>1.08495828190303E-2</v>
-      </c>
-      <c r="D4">
-        <v>1.02046268912864E-2</v>
+        <v>0.24390242993831601</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.7404983131749994E-5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.6023372787737001E-5</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -618,27 +621,27 @@
       <c r="F4">
         <v>0.25</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="K4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.84941416978836004</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8014488425502066E-3</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.8026704727374797E-3</v>
-      </c>
-      <c r="N4">
+      <c r="K4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.97560971975326505</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.3679769811371534E-5</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5115211434223281E-5</v>
+      </c>
+      <c r="N4" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>0.25</v>
       </c>
@@ -648,13 +651,13 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.21235354244709001</v>
-      </c>
-      <c r="C5">
-        <v>1.1122749900405699E-2</v>
-      </c>
-      <c r="D5">
-        <v>1.0334121657812801E-2</v>
+        <v>0.24390242993831601</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.65289839587863E-5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.6485238927812794E-5</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -668,15 +671,15 @@
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6988283395767201</v>
+        <v>1.9512194395065301</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1262965723773051E-3</v>
+        <v>6.3229081603067362E-5</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.261601648669922E-3</v>
+        <v>6.5031955060437604E-5</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
@@ -692,13 +695,13 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.42470708489418002</v>
-      </c>
-      <c r="C6">
-        <v>9.3462650584889197E-3</v>
-      </c>
-      <c r="D6">
-        <v>1.01230251999135E-2</v>
+        <v>0.48780485987663202</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.4236298520823905E-5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.6162958783605306E-5</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -712,15 +715,15 @@
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3976566791534402</v>
+        <v>3.9024388790130602</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6806747238151677E-3</v>
+        <v>6.2935533441440278E-5</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9367430806358084E-3</v>
+        <v>6.4936247094629645E-5</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
@@ -736,13 +739,13 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.42470708489418002</v>
-      </c>
-      <c r="C7">
-        <v>9.73252454237576E-3</v>
-      </c>
-      <c r="D7">
-        <v>9.5099769284988298E-3</v>
+        <v>0.48780485987663202</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.4656080173742102E-5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6.5389441899358299E-5</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -756,15 +759,15 @@
       </c>
       <c r="K7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7953133583068803</v>
+        <v>7.8048777580261204</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4488586557910127E-3</v>
+        <v>6.2539958512485426E-5</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7767383475649205E-3</v>
+        <v>6.4882879116262175E-5</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -780,13 +783,13 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>0.42470708489418002</v>
-      </c>
-      <c r="C8">
-        <v>9.6503729694225604E-3</v>
-      </c>
-      <c r="D8">
-        <v>9.1825323080287295E-3</v>
+        <v>0.48780485987663202</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.4936174393106404E-5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6.4737786623423897E-5</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -800,15 +803,15 @@
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>13.5906267166137</v>
+        <v>15.6097555160522</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3203648096247676E-3</v>
+        <v>6.2105975535195406E-5</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6724805762654405E-3</v>
+        <v>6.4833591798734631E-5</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
@@ -824,13 +827,13 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>0.42470708489418002</v>
-      </c>
-      <c r="C9">
-        <v>9.7920592289735004E-3</v>
-      </c>
-      <c r="D9">
-        <v>9.2274604781352396E-3</v>
+        <v>0.48780485987663202</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6.3859672739821898E-5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6.5025183543416693E-5</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -838,112 +841,112 @@
       <c r="F9">
         <v>0.25</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>128</v>
       </c>
-      <c r="K9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>27.1812534332275</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.2639735113393406E-3</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5964708205688951E-3</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="K9" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>31.2195110321044</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.1760236919926255E-5</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4892519092493126E-5</v>
+      </c>
+      <c r="N9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>30.5</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="4">
-        <v>0.84941416978836004</v>
-      </c>
-      <c r="C10" s="4">
-        <v>8.5475774620600194E-3</v>
-      </c>
-      <c r="D10" s="4">
-        <v>9.3023425830092207E-3</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="B10" s="2">
+        <v>0.97560971975326505</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6.3522143852636894E-5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6.5888442708107495E-5</v>
+      </c>
+      <c r="E10" s="2">
         <v>9</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>0.25</v>
       </c>
       <c r="M10">
         <f ca="1">MIN(M2:M9)</f>
-        <v>7.5964708205688951E-3</v>
+        <v>6.4833591798734631E-5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.84941416978836004</v>
-      </c>
-      <c r="C11" s="4">
-        <v>8.8141005674495908E-3</v>
-      </c>
-      <c r="D11" s="4">
-        <v>8.7340022932658797E-3</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="B11" s="2">
+        <v>0.97560971975326505</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6.3854424955392695E-5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6.5199511037133804E-5</v>
+      </c>
+      <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="4">
-        <v>0.84941416978836004</v>
-      </c>
-      <c r="C12" s="4">
-        <v>8.9088335702631697E-3</v>
-      </c>
-      <c r="D12" s="4">
-        <v>8.6237367916297408E-3</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="B12" s="2">
+        <v>0.97560971975326505</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6.42719146429605E-5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6.4573331559237903E-5</v>
+      </c>
+      <c r="E12" s="2">
         <v>11</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>4</v>
       </c>
-      <c r="B13" s="4">
-        <v>0.84941416978836004</v>
-      </c>
-      <c r="C13" s="4">
-        <v>8.9352837704280499E-3</v>
-      </c>
-      <c r="D13" s="4">
-        <v>8.5506002230450791E-3</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="B13" s="2">
+        <v>0.97560971975326505</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6.3070595794496005E-5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6.4799560432413897E-5</v>
+      </c>
+      <c r="E13" s="2">
         <v>12</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>0.25</v>
       </c>
     </row>
@@ -952,13 +955,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="4">
-        <v>1.6988283395767201</v>
-      </c>
-      <c r="C14" s="4">
-        <v>8.0296407612238697E-3</v>
-      </c>
-      <c r="D14" s="4">
-        <v>8.7472671751883998E-3</v>
+        <v>1.9512194395065301</v>
+      </c>
+      <c r="C14" s="5">
+        <v>6.2997927903160497E-5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>6.5803800990057003E-5</v>
       </c>
       <c r="E14" s="4">
         <v>13</v>
@@ -972,13 +975,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="4">
-        <v>1.6988283395767201</v>
-      </c>
-      <c r="C15" s="4">
-        <v>8.1772094126790693E-3</v>
-      </c>
-      <c r="D15" s="4">
-        <v>8.2558890002125702E-3</v>
+        <v>1.9512194395065301</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6.3323366161289701E-5</v>
+      </c>
+      <c r="D15" s="5">
+        <v>6.5151877935661195E-5</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -992,13 +995,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="4">
-        <v>1.6988283395767201</v>
-      </c>
-      <c r="C16" s="4">
-        <v>8.1516461238819796E-3</v>
-      </c>
-      <c r="D16" s="4">
-        <v>8.0569440677286403E-3</v>
+        <v>1.9512194395065301</v>
+      </c>
+      <c r="C16" s="5">
+        <v>6.3956053557550493E-5</v>
+      </c>
+      <c r="D16" s="5">
+        <v>6.4490723355234802E-5</v>
       </c>
       <c r="E16" s="4">
         <v>15</v>
@@ -1012,13 +1015,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="4">
-        <v>1.6988283395767201</v>
-      </c>
-      <c r="C17" s="4">
-        <v>8.1466899917243003E-3</v>
-      </c>
-      <c r="D17" s="4">
-        <v>7.9863063515500793E-3</v>
+        <v>1.9512194395065301</v>
+      </c>
+      <c r="C17" s="5">
+        <v>6.2638978790268798E-5</v>
+      </c>
+      <c r="D17" s="5">
+        <v>6.4681417960797401E-5</v>
       </c>
       <c r="E17" s="4">
         <v>16</v>
@@ -1032,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.3976566791534402</v>
-      </c>
-      <c r="C18">
-        <v>7.7257198281586101E-3</v>
-      </c>
-      <c r="D18">
-        <v>8.4670034851482504E-3</v>
+        <v>3.9024388790130602</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6.2843073697257804E-5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6.5666935854019203E-5</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1052,13 +1055,13 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>3.3976566791534402</v>
-      </c>
-      <c r="C19">
-        <v>7.6703508929448503E-3</v>
-      </c>
-      <c r="D19">
-        <v>7.8671552547986794E-3</v>
+        <v>3.9024388790130602</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6.2874914487536499E-5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6.5040688415583003E-5</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1072,13 +1075,13 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <v>3.3976566791534402</v>
-      </c>
-      <c r="C20">
-        <v>7.6784755777012798E-3</v>
-      </c>
-      <c r="D20">
-        <v>7.7559405323514201E-3</v>
+        <v>3.9024388790130602</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6.3627946377543598E-5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6.4401792305363105E-5</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1092,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>3.3976566791534402</v>
-      </c>
-      <c r="C21">
-        <v>7.6481525964559299E-3</v>
-      </c>
-      <c r="D21">
-        <v>7.6568730502448801E-3</v>
+        <v>3.9024388790130602</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6.2396199203423197E-5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6.4635571803553298E-5</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1112,13 +1115,13 @@
         <v>32</v>
       </c>
       <c r="B22" s="4">
-        <v>6.7953133583068803</v>
-      </c>
-      <c r="C22" s="4">
-        <v>7.5434510338496597E-3</v>
-      </c>
-      <c r="D22" s="4">
-        <v>8.28112523626298E-3</v>
+        <v>7.8048777580261204</v>
+      </c>
+      <c r="C22" s="5">
+        <v>6.2447980065158797E-5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>6.5665157269401606E-5</v>
       </c>
       <c r="E22" s="4">
         <v>21</v>
@@ -1132,13 +1135,13 @@
         <v>32</v>
       </c>
       <c r="B23" s="4">
-        <v>6.7953133583068803</v>
-      </c>
-      <c r="C23" s="4">
-        <v>7.5384769043786099E-3</v>
-      </c>
-      <c r="D23" s="4">
-        <v>7.8078422081121696E-3</v>
+        <v>7.8048777580261204</v>
+      </c>
+      <c r="C23" s="5">
+        <v>6.23375261521358E-5</v>
+      </c>
+      <c r="D23" s="5">
+        <v>6.4844613239364797E-5</v>
       </c>
       <c r="E23" s="4">
         <v>22</v>
@@ -1152,13 +1155,13 @@
         <v>32</v>
       </c>
       <c r="B24" s="4">
-        <v>6.7953133583068803</v>
-      </c>
-      <c r="C24" s="4">
-        <v>7.3254776603363901E-3</v>
-      </c>
-      <c r="D24" s="4">
-        <v>7.5376186064107604E-3</v>
+        <v>7.8048777580261204</v>
+      </c>
+      <c r="C24" s="5">
+        <v>6.3318320129876607E-5</v>
+      </c>
+      <c r="D24" s="5">
+        <v>6.4372736465265101E-5</v>
       </c>
       <c r="E24" s="4">
         <v>23</v>
@@ -1172,13 +1175,13 @@
         <v>32</v>
       </c>
       <c r="B25" s="4">
-        <v>6.7953133583068803</v>
-      </c>
-      <c r="C25" s="4">
-        <v>7.3880290245993902E-3</v>
-      </c>
-      <c r="D25" s="4">
-        <v>7.4803673394737702E-3</v>
+        <v>7.8048777580261204</v>
+      </c>
+      <c r="C25" s="5">
+        <v>6.20560077027705E-5</v>
+      </c>
+      <c r="D25" s="5">
+        <v>6.4649009491017195E-5</v>
       </c>
       <c r="E25" s="4">
         <v>24</v>
@@ -1192,13 +1195,13 @@
         <v>64</v>
       </c>
       <c r="B26">
-        <v>13.5906267166137</v>
-      </c>
-      <c r="C26">
-        <v>7.368887720154E-3</v>
-      </c>
-      <c r="D26">
-        <v>8.0698001485793504E-3</v>
+        <v>15.6097555160522</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6.1872455223644296E-5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6.5677849906546198E-5</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1212,13 +1215,13 @@
         <v>64</v>
       </c>
       <c r="B27">
-        <v>13.5906267166137</v>
-      </c>
-      <c r="C27">
-        <v>7.4168184544256997E-3</v>
-      </c>
-      <c r="D27">
-        <v>7.7018915635949699E-3</v>
+        <v>15.6097555160522</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6.2088724317095999E-5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6.4817585611153604E-5</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1232,13 +1235,13 @@
         <v>64</v>
       </c>
       <c r="B28">
-        <v>13.5906267166137</v>
-      </c>
-      <c r="C28">
-        <v>7.19213748271478E-3</v>
-      </c>
-      <c r="D28">
-        <v>7.43188960675863E-3</v>
+        <v>15.6097555160522</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6.2768435956504003E-5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6.4196775325554105E-5</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1252,13 +1255,13 @@
         <v>64</v>
       </c>
       <c r="B29">
-        <v>13.5906267166137</v>
-      </c>
-      <c r="C29">
-        <v>7.3036155812045899E-3</v>
-      </c>
-      <c r="D29">
-        <v>7.4863409861288099E-3</v>
+        <v>15.6097555160522</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6.1694286643537298E-5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>6.4642156351684606E-5</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1268,82 +1271,82 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30" s="4">
         <v>128</v>
       </c>
-      <c r="B30" s="2">
-        <v>27.1812534332275</v>
-      </c>
-      <c r="C30" s="2">
-        <v>7.3381472339338399E-3</v>
-      </c>
-      <c r="D30" s="2">
-        <v>7.9522643614798102E-3</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="B30" s="4">
+        <v>31.2195110321044</v>
+      </c>
+      <c r="C30" s="5">
+        <v>6.1424664655784498E-5</v>
+      </c>
+      <c r="D30" s="5">
+        <v>6.5745833977571397E-5</v>
+      </c>
+      <c r="E30" s="4">
         <v>29</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="4">
         <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="A31" s="4">
         <v>128</v>
       </c>
-      <c r="B31" s="2">
-        <v>27.1812534332275</v>
-      </c>
-      <c r="C31" s="2">
-        <v>7.3235490597150397E-3</v>
-      </c>
-      <c r="D31" s="2">
-        <v>7.5810558875983002E-3</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="B31" s="4">
+        <v>31.2195110321044</v>
+      </c>
+      <c r="C31" s="5">
+        <v>6.1698707755335503E-5</v>
+      </c>
+      <c r="D31" s="5">
+        <v>6.4895270391369798E-5</v>
+      </c>
+      <c r="E31" s="4">
         <v>30</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="4">
         <v>0.25</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32" s="4">
         <v>128</v>
       </c>
-      <c r="B32" s="2">
-        <v>27.1812534332275</v>
-      </c>
-      <c r="C32" s="2">
-        <v>7.2446390540596602E-3</v>
-      </c>
-      <c r="D32" s="2">
-        <v>7.4886220675754404E-3</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="B32" s="4">
+        <v>31.2195110321044</v>
+      </c>
+      <c r="C32" s="5">
+        <v>6.2565818649439194E-5</v>
+      </c>
+      <c r="D32" s="5">
+        <v>6.4283343856507701E-5</v>
+      </c>
+      <c r="E32" s="4">
         <v>31</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="4">
         <v>0.25</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="A33" s="4">
         <v>128</v>
       </c>
-      <c r="B33" s="2">
-        <v>27.1812534332275</v>
-      </c>
-      <c r="C33" s="2">
-        <v>7.1495586976488201E-3</v>
-      </c>
-      <c r="D33" s="2">
-        <v>7.3639409656220296E-3</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="B33" s="4">
+        <v>31.2195110321044</v>
+      </c>
+      <c r="C33" s="5">
+        <v>6.1351756619145798E-5</v>
+      </c>
+      <c r="D33" s="5">
+        <v>6.4645628144523594E-5</v>
+      </c>
+      <c r="E33" s="4">
         <v>32</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="4">
         <v>0.25</v>
       </c>
     </row>
@@ -1357,8 +1360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4411848-26EC-7848-88E5-EF7373A463AB}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:F33"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="O9" sqref="J9:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1406,13 +1409,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.21235354244709001</v>
-      </c>
-      <c r="C2">
-        <v>1.0514245633570901E-2</v>
-      </c>
-      <c r="D2">
-        <v>1.12159561781965E-2</v>
+        <v>0.24390242993831601</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6.6857643840658604E-5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6.7154192831676802E-5</v>
       </c>
       <c r="E2">
         <v>33</v>
@@ -1426,15 +1429,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>0.21235354244709001</v>
+        <v>0.24390242993831601</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0720888369449174E-2</v>
+        <v>6.6842933857186169E-5</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0569307847850051E-2</v>
+        <v>6.6471255824116551E-5</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
@@ -1450,13 +1453,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.21235354244709001</v>
-      </c>
-      <c r="C3">
-        <v>1.0979047951665001E-2</v>
-      </c>
-      <c r="D3">
-        <v>1.0583060159486599E-2</v>
+        <v>0.24390242993831601</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6.6970325396470501E-5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.6605252326785595E-5</v>
       </c>
       <c r="E3">
         <v>34</v>
@@ -1470,15 +1473,15 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K9" ca="1" si="2">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>0.42470708489418002</v>
+        <v>0.48780485987663202</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L9" ca="1" si="3">AVERAGE(OFFSET(C$2,(ROW()-2)*4,0,4,1))</f>
-        <v>9.2295617585942246E-3</v>
+        <v>6.4721767315897974E-5</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M9" ca="1" si="4">AVERAGE(OFFSET(D$2,(ROW()-2)*4,0,4,1))</f>
-        <v>9.1829740509212446E-3</v>
+        <v>6.5027327473991174E-5</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N9" ca="1" si="5">AVERAGE(OFFSET(E$2,(ROW()-2)*4,0,4,1))</f>
@@ -1494,13 +1497,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.21235354244709001</v>
-      </c>
-      <c r="C4">
-        <v>1.07681609496989E-2</v>
-      </c>
-      <c r="D4">
-        <v>1.01714538400398E-2</v>
+        <v>0.24390242993831601</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.6925568871931997E-5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.5830768630319696E-5</v>
       </c>
       <c r="E4">
         <v>35</v>
@@ -1508,27 +1511,27 @@
       <c r="F4">
         <v>0.5</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84941416978836004</v>
-      </c>
-      <c r="L4">
+        <v>0.97560971975326505</v>
+      </c>
+      <c r="L4" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4391662936429725E-3</v>
-      </c>
-      <c r="M4">
+        <v>6.4107760181286654E-5</v>
+      </c>
+      <c r="M4" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8.4504892113321309E-3</v>
-      </c>
-      <c r="N4">
+        <v>6.4740751992197103E-5</v>
+      </c>
+      <c r="N4" s="2">
         <f t="shared" ca="1" si="5"/>
         <v>42.5</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <f t="shared" ca="1" si="6"/>
         <v>0.5</v>
       </c>
@@ -1538,13 +1541,13 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.21235354244709001</v>
-      </c>
-      <c r="C5">
-        <v>1.06220989428619E-2</v>
-      </c>
-      <c r="D5">
-        <v>1.0306761213677299E-2</v>
+        <v>0.24390242993831601</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.6618197319683601E-5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.6294809507684097E-5</v>
       </c>
       <c r="E5">
         <v>36</v>
@@ -1558,15 +1561,15 @@
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6988283395767201</v>
+        <v>1.9512194395065301</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7863672507946574E-3</v>
+        <v>6.3763833748724079E-5</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="4"/>
-        <v>7.850144153827442E-3</v>
+        <v>6.4597478730649217E-5</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="5"/>
@@ -1582,13 +1585,13 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.42470708489418002</v>
-      </c>
-      <c r="C6">
-        <v>9.04378777944502E-3</v>
-      </c>
-      <c r="D6">
-        <v>9.7749571841051607E-3</v>
+        <v>0.48780485987663202</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.4656644950600995E-5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.5759685388369897E-5</v>
       </c>
       <c r="E6">
         <v>37</v>
@@ -1602,15 +1605,15 @@
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3976566791534402</v>
+        <v>3.9024388790130602</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="3"/>
-        <v>7.3163866336665457E-3</v>
+        <v>6.3427579131344552E-5</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="4"/>
-        <v>7.4462780736366902E-3</v>
+        <v>6.4443651876415999E-5</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="5"/>
@@ -1626,13 +1629,13 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.42470708489418002</v>
-      </c>
-      <c r="C7">
-        <v>9.4190531192307695E-3</v>
-      </c>
-      <c r="D7">
-        <v>9.1966850227339393E-3</v>
+        <v>0.48780485987663202</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.4861346780820301E-5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6.5077807332582203E-5</v>
       </c>
       <c r="E7">
         <v>38</v>
@@ -1646,15 +1649,15 @@
       </c>
       <c r="K7" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7953133583068803</v>
+        <v>7.8048777580261204</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7.1282712569301718E-3</v>
+        <v>6.3001875521373881E-5</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.3105073955028865E-3</v>
+        <v>6.4191407816790424E-5</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -1670,13 +1673,13 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>0.42470708489418002</v>
-      </c>
-      <c r="C8">
-        <v>9.3148309970274498E-3</v>
-      </c>
-      <c r="D8">
-        <v>8.8350622409439396E-3</v>
+        <v>0.48780485987663202</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.4826157830929199E-5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6.4483116148039699E-5</v>
       </c>
       <c r="E8">
         <v>39</v>
@@ -1690,15 +1693,15 @@
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="2"/>
-        <v>13.5906267166137</v>
+        <v>15.6097555160522</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0877604197680999E-3</v>
+        <v>6.2803270648533277E-5</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="4"/>
-        <v>7.2912524957110701E-3</v>
+        <v>6.4178616538172574E-5</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="5"/>
@@ -1714,13 +1717,13 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>0.42470708489418002</v>
-      </c>
-      <c r="C9">
-        <v>9.1405751386736608E-3</v>
-      </c>
-      <c r="D9">
-        <v>8.9251917559019407E-3</v>
+        <v>0.48780485987663202</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6.45429197012414E-5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6.4788701026972898E-5</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -1728,112 +1731,112 @@
       <c r="F9">
         <v>0.5</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>128</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>27.1812534332275</v>
-      </c>
-      <c r="L9" s="2">
+        <v>31.2195110321044</v>
+      </c>
+      <c r="L9" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0643276168142425E-3</v>
-      </c>
-      <c r="M9" s="2">
+        <v>6.2509898764395204E-5</v>
+      </c>
+      <c r="M9" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>7.2726149562785895E-3</v>
-      </c>
-      <c r="N9" s="2">
+        <v>6.4073814467113268E-5</v>
+      </c>
+      <c r="N9" s="4">
         <f t="shared" ca="1" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="4">
         <f t="shared" ca="1" si="6"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="4">
-        <v>0.84941416978836004</v>
-      </c>
-      <c r="C10" s="4">
-        <v>8.2398102980384396E-3</v>
-      </c>
-      <c r="D10" s="4">
-        <v>8.8962958679792096E-3</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="B10" s="2">
+        <v>0.97560971975326505</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6.40469780650009E-5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6.5469062742232206E-5</v>
+      </c>
+      <c r="E10" s="2">
         <v>41</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>0.5</v>
       </c>
       <c r="M10">
         <f ca="1">MIN(M2:M9)</f>
-        <v>7.2726149562785895E-3</v>
+        <v>6.4073814467113268E-5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.84941416978836004</v>
-      </c>
-      <c r="C11" s="4">
-        <v>8.5755145954998502E-3</v>
-      </c>
-      <c r="D11" s="4">
-        <v>8.4335907867693505E-3</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="B11" s="2">
+        <v>0.97560971975326505</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6.4358953711641097E-5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6.4880971780091403E-5</v>
+      </c>
+      <c r="E11" s="2">
         <v>42</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="4">
-        <v>0.84941416978836004</v>
-      </c>
-      <c r="C12" s="4">
-        <v>8.5169444123203708E-3</v>
-      </c>
-      <c r="D12" s="4">
-        <v>8.16809906663888E-3</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="B12" s="2">
+        <v>0.97560971975326505</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6.4345432776385497E-5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6.4264528849347906E-5</v>
+      </c>
+      <c r="E12" s="2">
         <v>43</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>4</v>
       </c>
-      <c r="B13" s="4">
-        <v>0.84941416978836004</v>
-      </c>
-      <c r="C13" s="4">
-        <v>8.4243958687132293E-3</v>
-      </c>
-      <c r="D13" s="4">
-        <v>8.3039711239410799E-3</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="B13" s="2">
+        <v>0.97560971975326505</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6.3679676172119094E-5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6.4348444597116895E-5</v>
+      </c>
+      <c r="E13" s="2">
         <v>44</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>0.5</v>
       </c>
     </row>
@@ -1842,13 +1845,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="4">
-        <v>1.6988283395767201</v>
-      </c>
-      <c r="C14" s="4">
-        <v>7.6684740798032601E-3</v>
-      </c>
-      <c r="D14" s="4">
-        <v>8.2162469972242008E-3</v>
+        <v>1.9512194395065301</v>
+      </c>
+      <c r="C14" s="5">
+        <v>6.3608914929995703E-5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>6.5214128513384494E-5</v>
       </c>
       <c r="E14" s="4">
         <v>45</v>
@@ -1862,13 +1865,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="4">
-        <v>1.6988283395767201</v>
-      </c>
-      <c r="C15" s="4">
-        <v>7.8766149855119694E-3</v>
-      </c>
-      <c r="D15" s="4">
-        <v>7.8285177872377508E-3</v>
+        <v>1.9512194395065301</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6.3705386948756905E-5</v>
+      </c>
+      <c r="D15" s="5">
+        <v>6.4649384551151499E-5</v>
       </c>
       <c r="E15" s="4">
         <v>46</v>
@@ -1882,13 +1885,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="4">
-        <v>1.6988283395767201</v>
-      </c>
-      <c r="C16" s="4">
-        <v>7.8272287401945292E-3</v>
-      </c>
-      <c r="D16" s="4">
-        <v>7.6249513794925602E-3</v>
+        <v>1.9512194395065301</v>
+      </c>
+      <c r="C16" s="5">
+        <v>6.4188683299630097E-5</v>
+      </c>
+      <c r="D16" s="5">
+        <v>6.4248198001184796E-5</v>
       </c>
       <c r="E16" s="4">
         <v>47</v>
@@ -1902,13 +1905,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="4">
-        <v>1.6988283395767201</v>
-      </c>
-      <c r="C17" s="4">
-        <v>7.7731511976688698E-3</v>
-      </c>
-      <c r="D17" s="4">
-        <v>7.7308604513552596E-3</v>
+        <v>1.9512194395065301</v>
+      </c>
+      <c r="C17" s="5">
+        <v>6.3552349816513597E-5</v>
+      </c>
+      <c r="D17" s="5">
+        <v>6.4278203856876106E-5</v>
       </c>
       <c r="E17" s="4">
         <v>48</v>
@@ -1922,13 +1925,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.3976566791534402</v>
-      </c>
-      <c r="C18">
-        <v>7.2653254870563098E-3</v>
-      </c>
-      <c r="D18">
-        <v>7.7509913504361398E-3</v>
+        <v>3.9024388790130602</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6.3406947060200806E-5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6.5076430009286599E-5</v>
       </c>
       <c r="E18">
         <v>49</v>
@@ -1942,13 +1945,13 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>3.3976566791534402</v>
-      </c>
-      <c r="C19">
-        <v>7.3706220731416597E-3</v>
-      </c>
-      <c r="D19">
-        <v>7.4141182431435903E-3</v>
+        <v>3.9024388790130602</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6.3232920260912904E-5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6.4471889809863798E-5</v>
       </c>
       <c r="E19">
         <v>50</v>
@@ -1962,13 +1965,13 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <v>3.3976566791534402</v>
-      </c>
-      <c r="C20">
-        <v>7.3277219099567199E-3</v>
-      </c>
-      <c r="D20">
-        <v>7.2933946924402899E-3</v>
+        <v>3.9024388790130602</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6.36984304946963E-5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6.3994204847791003E-5</v>
       </c>
       <c r="E20">
         <v>51</v>
@@ -1982,13 +1985,13 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>3.3976566791534402</v>
-      </c>
-      <c r="C21">
-        <v>7.3018770645114899E-3</v>
-      </c>
-      <c r="D21">
-        <v>7.3266080085267402E-3</v>
+        <v>3.9024388790130602</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6.3372018709568199E-5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6.4232082838722594E-5</v>
       </c>
       <c r="E21">
         <v>52</v>
@@ -2002,13 +2005,13 @@
         <v>32</v>
       </c>
       <c r="B22" s="4">
-        <v>6.7953133583068803</v>
-      </c>
-      <c r="C22" s="4">
-        <v>7.0816378475741498E-3</v>
-      </c>
-      <c r="D22" s="4">
-        <v>7.5769049729755497E-3</v>
+        <v>7.8048777580261204</v>
+      </c>
+      <c r="C22" s="5">
+        <v>6.2949048058610297E-5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>6.4821008329980594E-5</v>
       </c>
       <c r="E22" s="4">
         <v>53</v>
@@ -2022,13 +2025,13 @@
         <v>32</v>
       </c>
       <c r="B23" s="4">
-        <v>6.7953133583068803</v>
-      </c>
-      <c r="C23" s="4">
-        <v>7.1552723220133403E-3</v>
-      </c>
-      <c r="D23" s="4">
-        <v>7.2995095583114804E-3</v>
+        <v>7.8048777580261204</v>
+      </c>
+      <c r="C23" s="5">
+        <v>6.2853791260227305E-5</v>
+      </c>
+      <c r="D23" s="5">
+        <v>6.4262986075420403E-5</v>
       </c>
       <c r="E23" s="4">
         <v>54</v>
@@ -2042,13 +2045,13 @@
         <v>32</v>
       </c>
       <c r="B24" s="4">
-        <v>6.7953133583068803</v>
-      </c>
-      <c r="C24" s="4">
-        <v>7.1326863724104203E-3</v>
-      </c>
-      <c r="D24" s="4">
-        <v>7.1703096891337203E-3</v>
+        <v>7.8048777580261204</v>
+      </c>
+      <c r="C24" s="5">
+        <v>6.3422854896572794E-5</v>
+      </c>
+      <c r="D24" s="5">
+        <v>6.3878993193824507E-5</v>
       </c>
       <c r="E24" s="4">
         <v>55</v>
@@ -2062,13 +2065,13 @@
         <v>32</v>
       </c>
       <c r="B25" s="4">
-        <v>6.7953133583068803</v>
-      </c>
-      <c r="C25" s="4">
-        <v>7.1434884857227796E-3</v>
-      </c>
-      <c r="D25" s="4">
-        <v>7.1953053615907998E-3</v>
+        <v>7.8048777580261204</v>
+      </c>
+      <c r="C25" s="5">
+        <v>6.27818078700851E-5</v>
+      </c>
+      <c r="D25" s="5">
+        <v>6.3802643667936195E-5</v>
       </c>
       <c r="E25" s="4">
         <v>56</v>
@@ -2082,13 +2085,13 @@
         <v>64</v>
       </c>
       <c r="B26">
-        <v>13.5906267166137</v>
-      </c>
-      <c r="C26">
-        <v>7.0543719153415303E-3</v>
-      </c>
-      <c r="D26">
-        <v>7.5540542008077803E-3</v>
+        <v>15.6097555160522</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6.2611350663343104E-5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6.47691096596548E-5</v>
       </c>
       <c r="E26">
         <v>57</v>
@@ -2102,13 +2105,13 @@
         <v>64</v>
       </c>
       <c r="B27">
-        <v>13.5906267166137</v>
-      </c>
-      <c r="C27">
-        <v>7.1092599462915899E-3</v>
-      </c>
-      <c r="D27">
-        <v>7.2820757000528697E-3</v>
+        <v>15.6097555160522</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6.2762784724095295E-5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6.4250049500186193E-5</v>
       </c>
       <c r="E27">
         <v>58</v>
@@ -2122,13 +2125,13 @@
         <v>64</v>
       </c>
       <c r="B28">
-        <v>13.5906267166137</v>
-      </c>
-      <c r="C28">
-        <v>7.0776210483559903E-3</v>
-      </c>
-      <c r="D28">
-        <v>7.1470916241486602E-3</v>
+        <v>15.6097555160522</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6.3082643928863305E-5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6.3707882137795704E-5</v>
       </c>
       <c r="E28">
         <v>59</v>
@@ -2142,13 +2145,13 @@
         <v>64</v>
       </c>
       <c r="B29">
-        <v>13.5906267166137</v>
-      </c>
-      <c r="C29">
-        <v>7.1097887690832898E-3</v>
-      </c>
-      <c r="D29">
-        <v>7.1817884578349702E-3</v>
+        <v>15.6097555160522</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6.2756303277831403E-5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>6.3987424855053599E-5</v>
       </c>
       <c r="E29">
         <v>60</v>
@@ -2158,82 +2161,82 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30" s="4">
         <v>128</v>
       </c>
-      <c r="B30" s="2">
-        <v>27.1812534332275</v>
-      </c>
-      <c r="C30" s="2">
-        <v>7.0633924135224896E-3</v>
-      </c>
-      <c r="D30" s="2">
-        <v>7.5214992653816299E-3</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="B30" s="4">
+        <v>31.2195110321044</v>
+      </c>
+      <c r="C30" s="5">
+        <v>6.2527861623396904E-5</v>
+      </c>
+      <c r="D30" s="5">
+        <v>6.4821623767629503E-5</v>
+      </c>
+      <c r="E30" s="4">
         <v>61</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="A31" s="4">
         <v>128</v>
       </c>
-      <c r="B31" s="2">
-        <v>27.1812534332275</v>
-      </c>
-      <c r="C31" s="2">
-        <v>7.0800267115354197E-3</v>
-      </c>
-      <c r="D31" s="2">
-        <v>7.2391230186962703E-3</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="B31" s="4">
+        <v>31.2195110321044</v>
+      </c>
+      <c r="C31" s="5">
+        <v>6.2336824370543096E-5</v>
+      </c>
+      <c r="D31" s="5">
+        <v>6.4071336345613298E-5</v>
+      </c>
+      <c r="E31" s="4">
         <v>62</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32" s="4">
         <v>128</v>
       </c>
-      <c r="B32" s="2">
-        <v>27.1812534332275</v>
-      </c>
-      <c r="C32" s="2">
-        <v>7.0496234805025896E-3</v>
-      </c>
-      <c r="D32" s="2">
-        <v>7.16389693379243E-3</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="B32" s="4">
+        <v>31.2195110321044</v>
+      </c>
+      <c r="C32" s="5">
+        <v>6.2738944139477694E-5</v>
+      </c>
+      <c r="D32" s="5">
+        <v>6.3580150960293105E-5</v>
+      </c>
+      <c r="E32" s="4">
         <v>63</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="A33" s="4">
         <v>128</v>
       </c>
-      <c r="B33" s="2">
-        <v>27.1812534332275</v>
-      </c>
-      <c r="C33" s="2">
-        <v>7.0642678616964702E-3</v>
-      </c>
-      <c r="D33" s="2">
-        <v>7.1659406072440302E-3</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="B33" s="4">
+        <v>31.2195110321044</v>
+      </c>
+      <c r="C33" s="5">
+        <v>6.2435964924163095E-5</v>
+      </c>
+      <c r="D33" s="5">
+        <v>6.3822146794917205E-5</v>
+      </c>
+      <c r="E33" s="4">
         <v>64</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="4">
         <v>0.5</v>
       </c>
     </row>
@@ -2246,8 +2249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2295,16 +2298,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.29542791843414301</v>
-      </c>
-      <c r="C2">
-        <v>4.1134500934276698E-4</v>
-      </c>
-      <c r="D2">
-        <v>4.5387409533004897E-4</v>
+        <v>0.24390242993831601</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6.6634812411696902E-5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6.7047398996247104E-5</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2315,19 +2318,19 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>0.29542791843414301</v>
+        <v>0.24390242993831601</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2045817361698273E-4</v>
+        <v>6.6782209675390371E-5</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1763877350681504E-4</v>
+        <v>6.6382485038821867E-5</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5</v>
+        <v>66.5</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
@@ -2339,16 +2342,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.29542791843414301</v>
-      </c>
-      <c r="C3">
-        <v>4.19747249766563E-4</v>
-      </c>
-      <c r="D3">
-        <v>4.2097472690697202E-4</v>
+        <v>0.24390242993831601</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6.6746906086336794E-5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.6575333859989397E-5</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2359,19 +2362,19 @@
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59085583686828602</v>
+        <v>0.48780485987663202</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.17991370923118E-4</v>
+        <v>6.4864382734716229E-5</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1647107589093819E-4</v>
+        <v>6.4820513893829067E-5</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5</v>
+        <v>70.5</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
@@ -2383,41 +2386,41 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.29542791843414301</v>
-      </c>
-      <c r="C4">
-        <v>4.2820397811010403E-4</v>
-      </c>
-      <c r="D4">
-        <v>3.86632483299608E-4</v>
+        <v>0.24390242993831601</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.6922260244609697E-5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.5721967636837901E-5</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="K4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.18171167373657</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.1619590844978378E-4</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.1570784512085526E-4</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ca="1" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="O4">
+      <c r="K4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.97560971975326505</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4238546023261697E-5</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4460567162004295E-5</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>74.5</v>
+      </c>
+      <c r="O4" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -2427,16 +2430,16 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>0.29542791843414301</v>
-      </c>
-      <c r="C5">
-        <v>4.2253645724849698E-4</v>
-      </c>
-      <c r="D5">
-        <v>4.09073788490631E-4</v>
+        <v>0.24390242993831601</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.6824859958918104E-5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.6185239662213094E-5</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2447,19 +2450,19 @@
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3634233474731401</v>
+        <v>1.9512194395065301</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.15110341995993E-4</v>
+        <v>6.3889408331306143E-5</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1510968775524922E-4</v>
+        <v>6.4236574039665641E-5</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>14.5</v>
+        <v>78.5</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
@@ -2471,16 +2474,16 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.59085583686828602</v>
-      </c>
-      <c r="C6">
-        <v>4.0863009233726099E-4</v>
-      </c>
-      <c r="D6">
-        <v>4.5257017243668398E-4</v>
+        <v>0.48780485987663202</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.4749351081748796E-5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.5496735763364498E-5</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2491,19 +2494,19 @@
       </c>
       <c r="K6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7268466949462802</v>
+        <v>3.9024388790130602</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1414834990185476E-4</v>
+        <v>6.3573039784387179E-5</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1456049768114148E-4</v>
+        <v>6.4052711471223505E-5</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>18.5</v>
+        <v>82.5</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -2515,41 +2518,41 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>0.59085583686828602</v>
-      </c>
-      <c r="C7">
-        <v>4.17489199433475E-4</v>
-      </c>
-      <c r="D7">
-        <v>4.1992676631978399E-4</v>
+        <v>0.48780485987663202</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.4844356209505297E-5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6.4960931496821004E-5</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>32</v>
       </c>
-      <c r="K7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.4536933898925692</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.1352967831092679E-4</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.1437196902753602E-4</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>22.5</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="K7" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.8048777580261204</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.3340215400482173E-5</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.38852222456331E-5</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>86.5</v>
+      </c>
+      <c r="O7" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -2559,16 +2562,16 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>0.59085583686828602</v>
-      </c>
-      <c r="C8">
-        <v>4.2604572003862497E-4</v>
-      </c>
-      <c r="D8">
-        <v>3.8607264565492102E-4</v>
+        <v>0.48780485987663202</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.5120297367684499E-5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6.4361895481929496E-5</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2579,19 +2582,19 @@
       </c>
       <c r="K8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>18.907386779785099</v>
+        <v>15.6097555160522</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1161008688989819E-4</v>
+        <v>6.304808641531655E-5</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.134258865536697E-4</v>
+        <v>6.36849501867626E-5</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>26.5</v>
+        <v>90.5</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -2603,16 +2606,16 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>0.59085583686828602</v>
-      </c>
-      <c r="C9">
-        <v>4.19800471883111E-4</v>
-      </c>
-      <c r="D9">
-        <v>4.07314719152364E-4</v>
+        <v>0.48780485987663202</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6.4743526279926295E-5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6.4462492833201299E-5</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2623,19 +2626,19 @@
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>37.814773559570298</v>
+        <v>31.2195110321044</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0998482142943701E-4</v>
+        <v>6.2782048989902205E-5</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1287162304720225E-4</v>
+        <v>6.3531870753340226E-5</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>30.5</v>
+        <v>94.5</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
@@ -2647,23 +2650,23 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>1.18171167373657</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4.0670485237690899E-4</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4.5185370989666402E-4</v>
+        <v>0.97560971975326505</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6.3993643406623304E-5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6.4982794472288801E-5</v>
       </c>
       <c r="E10" s="2">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
       <c r="M10">
         <f ca="1">MIN(M2:M9)</f>
-        <v>4.1287162304720225E-4</v>
+        <v>6.3531870753340226E-5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2671,16 +2674,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>1.18171167373657</v>
-      </c>
-      <c r="C11" s="2">
-        <v>4.1548783960752102E-4</v>
-      </c>
-      <c r="D11" s="2">
-        <v>4.1899373985522298E-4</v>
+        <v>0.97560971975326505</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6.4256784292714001E-5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6.4660422681976897E-5</v>
       </c>
       <c r="E11" s="2">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -2691,16 +2694,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>1.18171167373657</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4.2453949461923899E-4</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3.8537931098463999E-4</v>
+        <v>0.97560971975326505</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6.4446821265543499E-5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6.3997757101884702E-5</v>
       </c>
       <c r="E12" s="2">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -2711,16 +2714,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>1.18171167373657</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4.18051447195466E-4</v>
-      </c>
-      <c r="D13" s="2">
-        <v>4.0660461974689402E-4</v>
+        <v>0.97560971975326505</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6.4256935128165999E-5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6.4201294391866805E-5</v>
       </c>
       <c r="E13" s="2">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -2731,16 +2734,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="4">
-        <v>2.3634233474731401</v>
-      </c>
-      <c r="C14" s="4">
-        <v>4.0570379450218701E-4</v>
-      </c>
-      <c r="D14" s="4">
-        <v>4.5131819484943599E-4</v>
+        <v>1.9512194395065301</v>
+      </c>
+      <c r="C14" s="5">
+        <v>6.3738023464490298E-5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>6.4814322073250305E-5</v>
       </c>
       <c r="E14" s="4">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -2751,16 +2754,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="4">
-        <v>2.3634233474731401</v>
-      </c>
-      <c r="C15" s="4">
-        <v>4.1311205190140698E-4</v>
-      </c>
-      <c r="D15" s="4">
-        <v>4.1769551736503302E-4</v>
+        <v>1.9512194395065301</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6.3820561520211997E-5</v>
+      </c>
+      <c r="D15" s="5">
+        <v>6.4395807288398805E-5</v>
       </c>
       <c r="E15" s="4">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -2771,16 +2774,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="4">
-        <v>2.3634233474731401</v>
-      </c>
-      <c r="C16" s="4">
-        <v>4.2401511278391499E-4</v>
-      </c>
-      <c r="D16" s="4">
-        <v>3.85156293595308E-4</v>
+        <v>1.9512194395065301</v>
+      </c>
+      <c r="C16" s="5">
+        <v>6.4233934914227503E-5</v>
+      </c>
+      <c r="D16" s="5">
+        <v>6.3820600150799495E-5</v>
       </c>
       <c r="E16" s="4">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -2791,16 +2794,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="4">
-        <v>2.3634233474731401</v>
-      </c>
-      <c r="C17" s="4">
-        <v>4.17610408796463E-4</v>
-      </c>
-      <c r="D17" s="4">
-        <v>4.0626874521121998E-4</v>
+        <v>1.9512194395065301</v>
+      </c>
+      <c r="C17" s="5">
+        <v>6.3765113426294802E-5</v>
+      </c>
+      <c r="D17" s="5">
+        <v>6.3915566646214001E-5</v>
       </c>
       <c r="E17" s="4">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -2811,16 +2814,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>4.7268466949462802</v>
-      </c>
-      <c r="C18" s="4">
-        <v>4.04937617655377E-4</v>
-      </c>
-      <c r="D18" s="4">
-        <v>4.5066718906882399E-4</v>
+        <v>3.9024388790130602</v>
+      </c>
+      <c r="C18" s="5">
+        <v>6.3428737029122794E-5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>6.4646887543123201E-5</v>
       </c>
       <c r="E18" s="4">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -2831,16 +2834,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="4">
-        <v>4.7268466949462802</v>
-      </c>
-      <c r="C19" s="4">
-        <v>4.1250132885761498E-4</v>
-      </c>
-      <c r="D19" s="4">
-        <v>4.1731611433552801E-4</v>
+        <v>3.9024388790130602</v>
+      </c>
+      <c r="C19" s="5">
+        <v>6.3375200542698898E-5</v>
+      </c>
+      <c r="D19" s="5">
+        <v>6.4150032716149303E-5</v>
       </c>
       <c r="E19" s="4">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -2851,16 +2854,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="4">
-        <v>4.7268466949462802</v>
-      </c>
-      <c r="C20" s="4">
-        <v>4.2337625815222599E-4</v>
-      </c>
-      <c r="D20" s="4">
-        <v>3.8491977914979498E-4</v>
+        <v>3.9024388790130602</v>
+      </c>
+      <c r="C20" s="5">
+        <v>6.3906677251603994E-5</v>
+      </c>
+      <c r="D20" s="5">
+        <v>6.36235066888323E-5</v>
       </c>
       <c r="E20" s="4">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -2871,16 +2874,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="4">
-        <v>4.7268466949462802</v>
-      </c>
-      <c r="C21" s="4">
-        <v>4.15778194942201E-4</v>
-      </c>
-      <c r="D21" s="4">
-        <v>4.0533890817041901E-4</v>
+        <v>3.9024388790130602</v>
+      </c>
+      <c r="C21" s="5">
+        <v>6.3581544314123003E-5</v>
+      </c>
+      <c r="D21" s="5">
+        <v>6.3790418936789201E-5</v>
       </c>
       <c r="E21" s="4">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -2891,16 +2894,16 @@
         <v>32</v>
       </c>
       <c r="B22" s="4">
-        <v>9.4536933898925692</v>
+        <v>7.8048777580261204</v>
       </c>
       <c r="C22" s="5">
-        <v>4.0422014201370299E-4</v>
-      </c>
-      <c r="D22" s="4">
-        <v>4.5063377005367602E-4</v>
+        <v>6.3162507887075904E-5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>6.4367735521568106E-5</v>
       </c>
       <c r="E22" s="4">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -2911,16 +2914,16 @@
         <v>32</v>
       </c>
       <c r="B23" s="4">
-        <v>9.4536933898925692</v>
+        <v>7.8048777580261204</v>
       </c>
       <c r="C23" s="5">
-        <v>4.1150269052013701E-4</v>
-      </c>
-      <c r="D23" s="4">
-        <v>4.1697981647844903E-4</v>
+        <v>6.3175068799561497E-5</v>
+      </c>
+      <c r="D23" s="5">
+        <v>6.39850827320379E-5</v>
       </c>
       <c r="E23" s="4">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -2931,16 +2934,16 @@
         <v>32</v>
       </c>
       <c r="B24" s="4">
-        <v>9.4536933898925692</v>
+        <v>7.8048777580261204</v>
       </c>
       <c r="C24" s="5">
-        <v>4.2296938935760397E-4</v>
+        <v>6.3689379079732997E-5</v>
       </c>
       <c r="D24" s="5">
-        <v>3.84584436300854E-4</v>
+        <v>6.3552128654493394E-5</v>
       </c>
       <c r="E24" s="4">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -2951,16 +2954,16 @@
         <v>32</v>
       </c>
       <c r="B25" s="4">
-        <v>9.4536933898925692</v>
+        <v>7.8048777580261204</v>
       </c>
       <c r="C25" s="5">
-        <v>4.1542649135226301E-4</v>
+        <v>6.3333905835558294E-5</v>
       </c>
       <c r="D25" s="5">
-        <v>4.0528985327716499E-4</v>
+        <v>6.3635942074433E-5</v>
       </c>
       <c r="E25" s="4">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -2971,16 +2974,16 @@
         <v>64</v>
       </c>
       <c r="B26" s="4">
-        <v>18.907386779785099</v>
+        <v>15.6097555160522</v>
       </c>
       <c r="C26" s="5">
-        <v>4.0226305351825399E-4</v>
+        <v>6.2866958896241399E-5</v>
       </c>
       <c r="D26" s="5">
-        <v>4.4971135735358199E-4</v>
+        <v>6.4161053353714998E-5</v>
       </c>
       <c r="E26" s="4">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
@@ -2991,16 +2994,16 @@
         <v>64</v>
       </c>
       <c r="B27" s="4">
-        <v>18.907386779785099</v>
+        <v>15.6097555160522</v>
       </c>
       <c r="C27" s="5">
-        <v>4.1028961387928501E-4</v>
+        <v>6.2855419062543598E-5</v>
       </c>
       <c r="D27" s="5">
-        <v>4.16192470475699E-4</v>
+        <v>6.3802968067280496E-5</v>
       </c>
       <c r="E27" s="4">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -3011,16 +3014,16 @@
         <v>64</v>
       </c>
       <c r="B28" s="4">
-        <v>18.907386779785099</v>
+        <v>15.6097555160522</v>
       </c>
       <c r="C28" s="5">
-        <v>4.2011100249752999E-4</v>
+        <v>6.3421474110024597E-5</v>
       </c>
       <c r="D28" s="5">
-        <v>3.8376106501945801E-4</v>
+        <v>6.3328381734305706E-5</v>
       </c>
       <c r="E28" s="4">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -3031,16 +3034,16 @@
         <v>64</v>
       </c>
       <c r="B29" s="4">
-        <v>18.907386779785099</v>
+        <v>15.6097555160522</v>
       </c>
       <c r="C29" s="5">
-        <v>4.1377667766452397E-4</v>
+        <v>6.3048493592456604E-5</v>
       </c>
       <c r="D29" s="5">
-        <v>4.0403865336593997E-4</v>
+        <v>6.3447397591749201E-5</v>
       </c>
       <c r="E29" s="4">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -3051,16 +3054,16 @@
         <v>128</v>
       </c>
       <c r="B30">
-        <v>37.814773559570298</v>
+        <v>31.2195110321044</v>
       </c>
       <c r="C30" s="1">
-        <v>4.0125269499064099E-4</v>
+        <v>6.2628083930273197E-5</v>
       </c>
       <c r="D30" s="1">
-        <v>4.4866735450031699E-4</v>
+        <v>6.4044979537473105E-5</v>
       </c>
       <c r="E30">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -3071,16 +3074,16 @@
         <v>128</v>
       </c>
       <c r="B31">
-        <v>37.814773559570298</v>
+        <v>31.2195110321044</v>
       </c>
       <c r="C31" s="1">
-        <v>4.0897162198477098E-4</v>
+        <v>6.2488311251703002E-5</v>
       </c>
       <c r="D31" s="1">
-        <v>4.1572223655864598E-4</v>
+        <v>6.3560856088247893E-5</v>
       </c>
       <c r="E31">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -3091,16 +3094,16 @@
         <v>128</v>
       </c>
       <c r="B32">
-        <v>37.814773559570298</v>
+        <v>31.2195110321044</v>
       </c>
       <c r="C32" s="1">
-        <v>4.1698640637332501E-4</v>
+        <v>6.3103049634567705E-5</v>
       </c>
       <c r="D32" s="1">
-        <v>3.8278375591579902E-4</v>
+        <v>6.3176253806499898E-5</v>
       </c>
       <c r="E32">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -3111,16 +3114,16 @@
         <v>128</v>
       </c>
       <c r="B33">
-        <v>37.814773559570298</v>
+        <v>31.2195110321044</v>
       </c>
       <c r="C33" s="1">
-        <v>4.1272856236901102E-4</v>
+        <v>6.2908751143064904E-5</v>
       </c>
       <c r="D33" s="1">
-        <v>4.0431314521404701E-4</v>
+        <v>6.3345393581139994E-5</v>
       </c>
       <c r="E33">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -3136,7 +3139,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="A2" sqref="A2:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3180,11 +3183,11 @@
       <c r="A2" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="2">
-        <v>9.3352489044612394E-3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.0158068495505299E-2</v>
+      <c r="B2" s="3">
+        <v>6.4597459873147394E-5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6.6287483469808497E-5</v>
       </c>
       <c r="D2" s="2">
         <v>97</v>
@@ -3199,11 +3202,11 @@
       </c>
       <c r="K2" s="7">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>9.6334388214559703E-3</v>
+        <v>6.4698355490303979E-5</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5418808273376472E-3</v>
+        <v>6.5463185519741015E-5</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3218,11 +3221,11 @@
       <c r="A3" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="2">
-        <v>9.6409261533792305E-3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9.5092269909033099E-3</v>
+      <c r="B3" s="3">
+        <v>6.4816171753262299E-5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.5513695130419407E-5</v>
       </c>
       <c r="D3" s="2">
         <v>98</v>
@@ -3237,11 +3240,11 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6918376586201671E-3</v>
+        <v>6.4910073182003751E-5</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.587724732750269E-3</v>
+        <v>6.5519813427059427E-5</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3256,11 +3259,11 @@
       <c r="A4" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="2">
-        <v>9.5160249174830094E-3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9.0581840399573399E-3</v>
+      <c r="B4" s="3">
+        <v>6.5129837279760301E-5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6.4817132024859794E-5</v>
       </c>
       <c r="D4" s="2">
         <v>99</v>
@@ -3275,11 +3278,11 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6491106347418656E-3</v>
+        <v>6.5727153730435028E-5</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5674473720483624E-3</v>
+        <v>6.5915898640594807E-5</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3294,11 +3297,11 @@
       <c r="A5" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="2">
-        <v>1.00415553105004E-2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>9.4420437829846396E-3</v>
+      <c r="B5" s="3">
+        <v>6.4249953055045894E-5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6.5234431453876403E-5</v>
       </c>
       <c r="D5" s="2">
         <v>100</v>
@@ -3313,11 +3316,11 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.687569994291146E-3</v>
+        <v>3.8951527819742094E-4</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6101316442574226E-3</v>
+        <v>3.8985735398726178E-4</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3333,11 +3336,11 @@
       <c r="A6" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B6" s="4">
-        <v>9.3826213058956099E-3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1.0213043659608401E-2</v>
+      <c r="B6" s="5">
+        <v>6.4734958365814707E-5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6.6309476019244901E-5</v>
       </c>
       <c r="D6" s="4">
         <v>101</v>
@@ -3351,11 +3354,11 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0034558620858683E-2</v>
+        <v>8.2241719838806399E-4</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8578258878254145E-3</v>
+        <v>8.2492434058680181E-4</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3370,11 +3373,11 @@
       <c r="A7" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B7" s="4">
-        <v>9.7945002551646301E-3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>9.6142145091707397E-3</v>
+      <c r="B7" s="5">
+        <v>6.50752521168931E-5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6.5609029061693496E-5</v>
       </c>
       <c r="D7" s="4">
         <v>102</v>
@@ -3388,11 +3391,11 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1827703314595527E-2</v>
+        <v>8.2254586766097393E-4</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1516179104900307E-2</v>
+        <v>8.2493095892169376E-4</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3407,11 +3410,11 @@
       <c r="A8" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B8" s="4">
-        <v>9.5733856395917305E-3</v>
-      </c>
-      <c r="C8" s="4">
-        <v>9.1082039041484198E-3</v>
+      <c r="B8" s="5">
+        <v>6.5354461688176701E-5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6.4883761297096498E-5</v>
       </c>
       <c r="D8" s="4">
         <v>103</v>
@@ -3425,11 +3428,11 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14045459965362772</v>
+        <v>8.2255146689737724E-4</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14101134137587323</v>
+        <v>8.2493253656603521E-4</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3444,11 +3447,11 @@
       <c r="A9" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B9" s="4">
-        <v>1.00168434338287E-2</v>
-      </c>
-      <c r="C9" s="4">
-        <v>9.4154368580735108E-3</v>
+      <c r="B9" s="5">
+        <v>6.4475620557130498E-5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6.5276987330202801E-5</v>
       </c>
       <c r="D9" s="4">
         <v>104</v>
@@ -3462,11 +3465,11 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14045656292124573</v>
+        <v>8.2255241648724968E-4</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14101308657530123</v>
+        <v>8.2493288797930706E-4</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3481,11 +3484,11 @@
       <c r="A10" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B10" s="4">
-        <v>9.3862254994901504E-3</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1.02167927234017E-2</v>
+      <c r="B10" s="5">
+        <v>6.5483866529440104E-5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6.6676158236619496E-5</v>
       </c>
       <c r="D10" s="4">
         <v>105</v>
@@ -3495,18 +3498,18 @@
       </c>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>9.5418808273376472E-3</v>
+        <v>6.5463185519741015E-5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B11" s="4">
-        <v>9.6415469690443994E-3</v>
-      </c>
-      <c r="C11" s="4">
-        <v>9.4977667495766797E-3</v>
+      <c r="B11" s="5">
+        <v>6.5968321344351996E-5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6.6096787857996398E-5</v>
       </c>
       <c r="D11" s="4">
         <v>106</v>
@@ -3519,11 +3522,11 @@
       <c r="A12" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B12" s="4">
-        <v>9.6564209088683094E-3</v>
-      </c>
-      <c r="C12" s="4">
-        <v>9.1998005444382004E-3</v>
+      <c r="B12" s="5">
+        <v>6.61962969117783E-5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6.5237671074004104E-5</v>
       </c>
       <c r="D12" s="4">
         <v>107</v>
@@ -3536,11 +3539,11 @@
       <c r="A13" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B13" s="4">
-        <v>9.9122491615646E-3</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9.3554294707768708E-3</v>
+      <c r="B13" s="5">
+        <v>6.5260130136169699E-5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>6.5652977393759203E-5</v>
       </c>
       <c r="D13" s="4">
         <v>108</v>
@@ -3554,10 +3557,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>9.60152181103191E-3</v>
+        <v>8.1756395879795996E-4</v>
       </c>
       <c r="C14">
-        <v>1.0452232110571599E-2</v>
+        <v>8.2315543252836003E-4</v>
       </c>
       <c r="D14">
         <v>109</v>
@@ -3571,10 +3574,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>9.4749770731605704E-3</v>
+        <v>3.3441968751387599E-4</v>
       </c>
       <c r="C15">
-        <v>9.3609326211933699E-3</v>
+        <v>3.37411150115819E-4</v>
       </c>
       <c r="D15">
         <v>110</v>
@@ -3588,10 +3591,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>9.6411211961047998E-3</v>
+        <v>3.3745146201715398E-4</v>
       </c>
       <c r="C16">
-        <v>9.1832440267217898E-3</v>
+        <v>3.3072922180624702E-4</v>
       </c>
       <c r="D16">
         <v>111</v>
@@ -3604,11 +3607,11 @@
       <c r="A17" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B17">
-        <v>1.00326598968673E-2</v>
-      </c>
-      <c r="C17">
-        <v>9.4441178185429298E-3</v>
+      <c r="B17" s="1">
+        <v>6.8626004460693699E-5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6.8133611498621006E-5</v>
       </c>
       <c r="D17">
         <v>112</v>
@@ -3622,10 +3625,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>9.7634395326864198E-3</v>
+        <v>8.1789375411623895E-4</v>
       </c>
       <c r="C18">
-        <v>1.05389648592694E-2</v>
+        <v>8.2365945452190104E-4</v>
       </c>
       <c r="D18">
         <v>113</v>
@@ -3639,10 +3642,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>1.0149553898682301E-2</v>
+        <v>8.2318353506320296E-4</v>
       </c>
       <c r="C19">
-        <v>9.8534851097204501E-3</v>
+        <v>8.2463127167082997E-4</v>
       </c>
       <c r="D19">
         <v>114</v>
@@ -3656,10 +3659,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>9.9885459900140097E-3</v>
+        <v>8.29045405051611E-4</v>
       </c>
       <c r="C20">
-        <v>9.4504147282543898E-3</v>
+        <v>8.2235665560917903E-4</v>
       </c>
       <c r="D20">
         <v>115</v>
@@ -3673,10 +3676,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>1.0236695062051999E-2</v>
+        <v>8.1954609932120305E-4</v>
       </c>
       <c r="C21">
-        <v>9.5884388540574197E-3</v>
+        <v>8.2904998054529697E-4</v>
       </c>
       <c r="D21">
         <v>116</v>
@@ -3690,10 +3693,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>1.02526668825761E-2</v>
+        <v>8.1841091494115495E-4</v>
       </c>
       <c r="C22">
-        <v>1.1003916736375101E-2</v>
+        <v>8.2368642510350797E-4</v>
       </c>
       <c r="D22">
         <v>117</v>
@@ -3707,10 +3710,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>5.5716934435545103E-2</v>
+        <v>8.2318353506320296E-4</v>
       </c>
       <c r="C23">
-        <v>5.5062470759483097E-2</v>
+        <v>8.2463127167082997E-4</v>
       </c>
       <c r="D23">
         <v>118</v>
@@ -3724,10 +3727,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>1.0539975294724399E-2</v>
+        <v>8.29045405051611E-4</v>
       </c>
       <c r="C24">
-        <v>9.94677215497544E-3</v>
+        <v>8.2235665560917903E-4</v>
       </c>
       <c r="D24">
         <v>119</v>
@@ -3741,10 +3744,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>1.08012366455365E-2</v>
+        <v>8.1954361558792704E-4</v>
       </c>
       <c r="C25">
-        <v>1.00515567687676E-2</v>
+        <v>8.2904948330325798E-4</v>
       </c>
       <c r="D25">
         <v>120</v>
@@ -3758,10 +3761,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>0.13879019442073801</v>
+        <v>8.1842936553120401E-4</v>
       </c>
       <c r="C26">
-        <v>0.141290346596469</v>
+        <v>8.2369237714645198E-4</v>
       </c>
       <c r="D26">
         <v>121</v>
@@ -3775,10 +3778,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>0.14098148039997799</v>
+        <v>8.2318353506320296E-4</v>
       </c>
       <c r="C27">
-        <v>0.14156378734302</v>
+        <v>8.2463127167082997E-4</v>
       </c>
       <c r="D27">
         <v>122</v>
@@ -3792,10 +3795,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>0.13984435701623801</v>
+        <v>8.29045405051611E-4</v>
       </c>
       <c r="C28">
-        <v>0.14060738429110101</v>
+        <v>8.2235665560917903E-4</v>
       </c>
       <c r="D28">
         <v>123</v>
@@ -3809,10 +3812,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>0.14220236677755699</v>
+        <v>8.1954756194349099E-4</v>
       </c>
       <c r="C29">
-        <v>0.14058384727290299</v>
+        <v>8.2904984183767997E-4</v>
       </c>
       <c r="D29">
         <v>124</v>
@@ -3826,10 +3829,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.138798534632363</v>
+        <v>8.1843304747537197E-4</v>
       </c>
       <c r="C30">
-        <v>0.14129747688136199</v>
+        <v>8.2369366948037003E-4</v>
       </c>
       <c r="D30">
         <v>125</v>
@@ -3843,10 +3846,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>0.14098148039997799</v>
+        <v>8.2318353506320296E-4</v>
       </c>
       <c r="C31">
-        <v>0.14156378734302</v>
+        <v>8.2463127167082997E-4</v>
       </c>
       <c r="D31">
         <v>126</v>
@@ -3860,10 +3863,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>0.13984435701623801</v>
+        <v>8.29045405051611E-4</v>
       </c>
       <c r="C32">
-        <v>0.14060738429110101</v>
+        <v>8.2235665560917903E-4</v>
       </c>
       <c r="D32">
         <v>127</v>
@@ -3877,10 +3880,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.14220187963640399</v>
+        <v>8.1954767835881303E-4</v>
       </c>
       <c r="C33">
-        <v>0.14058369778572199</v>
+        <v>8.2904995515684901E-4</v>
       </c>
       <c r="D33">
         <v>128</v>
@@ -3947,7 +3950,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
+      <selection activeCell="A2" sqref="A2:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3991,11 +3994,11 @@
       <c r="A2" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="2">
-        <v>7.9876147210597992E-3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8.5825886468383194E-3</v>
+      <c r="B2" s="3">
+        <v>6.4703848751223404E-5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6.5801919264869903E-5</v>
       </c>
       <c r="D2" s="2">
         <v>129</v>
@@ -4009,11 +4012,11 @@
       </c>
       <c r="K2" s="7">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>8.0695173417049577E-3</v>
+        <v>6.4695963388619398E-5</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1880423339440404E-3</v>
+        <v>6.5086579167093929E-5</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -4028,11 +4031,11 @@
       <c r="A3" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="2">
-        <v>8.1177474212575096E-3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>8.0888038699297102E-3</v>
+      <c r="B3" s="3">
+        <v>6.4623139552806696E-5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.5164325899380102E-5</v>
       </c>
       <c r="D3" s="2">
         <v>130</v>
@@ -4046,11 +4049,11 @@
       </c>
       <c r="K3" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1455057630553176E-3</v>
+        <v>6.5022564943687224E-5</v>
       </c>
       <c r="L3" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2092034132616124E-3</v>
+        <v>6.524682817627683E-5</v>
       </c>
       <c r="M3" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -4065,11 +4068,11 @@
       <c r="A4" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="2">
-        <v>8.0849930862004395E-3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>8.0311978186302299E-3</v>
+      <c r="B4" s="3">
+        <v>6.4849801829234603E-5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6.4519136821160003E-5</v>
       </c>
       <c r="D4" s="2">
         <v>131</v>
@@ -4083,11 +4086,11 @@
       </c>
       <c r="K4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1527541581035944E-3</v>
+        <v>6.5820492573812796E-5</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2310695694065902E-3</v>
+        <v>6.5723722003740249E-5</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -4102,11 +4105,11 @@
       <c r="A5" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="2">
-        <v>8.0877141383020792E-3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>8.0495790003779003E-3</v>
+      <c r="B5" s="3">
+        <v>6.4607063421212902E-5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6.4860934682965695E-5</v>
       </c>
       <c r="D5" s="2">
         <v>132</v>
@@ -4120,11 +4123,11 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3241359686151949E-3</v>
+        <v>3.909508235026685E-4</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3608357669250517E-3</v>
+        <v>3.8983959152670956E-4</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4139,11 +4142,11 @@
       <c r="A6" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B6">
-        <v>7.9589652100657202E-3</v>
-      </c>
-      <c r="C6">
-        <v>8.4605204149525801E-3</v>
+      <c r="B6" s="1">
+        <v>6.5054053788542702E-5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.5970831549728903E-5</v>
       </c>
       <c r="D6">
         <v>133</v>
@@ -4157,11 +4160,11 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5745567597716272E-3</v>
+        <v>8.2123704348130997E-4</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5158798553227845E-3</v>
+        <v>8.2492637382993611E-4</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4176,11 +4179,11 @@
       <c r="A7" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B7">
-        <v>8.4832509177082994E-3</v>
-      </c>
-      <c r="C7">
-        <v>8.3870804630853998E-3</v>
+      <c r="B7" s="1">
+        <v>6.4997809204214705E-5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.5341163172753097E-5</v>
       </c>
       <c r="D7">
         <v>134</v>
@@ -4194,11 +4197,11 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1481486163696502E-2</v>
+        <v>8.2124324654479124E-4</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1261370781700047E-2</v>
+        <v>8.2492847038938212E-4</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4213,11 +4216,11 @@
       <c r="A8" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B8">
-        <v>7.9818479320470301E-3</v>
-      </c>
-      <c r="C8">
-        <v>7.9101561816369605E-3</v>
+      <c r="B8" s="1">
+        <v>6.5152545214507997E-5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.4641406192714196E-5</v>
       </c>
       <c r="D8">
         <v>135</v>
@@ -4231,11 +4234,11 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14104418222732951</v>
+        <v>8.2124929340739498E-4</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14101326229803723</v>
+        <v>8.2493338584057707E-4</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4250,11 +4253,11 @@
       <c r="A9" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B9">
-        <v>8.1579589924002192E-3</v>
-      </c>
-      <c r="C9">
-        <v>8.0790565933715093E-3</v>
+      <c r="B9" s="1">
+        <v>6.4885851567483493E-5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6.5033911789911096E-5</v>
       </c>
       <c r="D9">
         <v>136</v>
@@ -4268,11 +4271,11 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14105765892073774</v>
+        <v>8.2124949218036474E-4</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1410136065108975</v>
+        <v>8.2493339543864876E-4</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4287,11 +4290,11 @@
       <c r="A10" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B10" s="4">
-        <v>7.9796725210357199E-3</v>
-      </c>
-      <c r="C10" s="4">
-        <v>8.53515547660595E-3</v>
+      <c r="B10" s="5">
+        <v>6.5826675517142701E-5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6.6498423117817299E-5</v>
       </c>
       <c r="D10" s="4">
         <v>137</v>
@@ -4302,18 +4305,18 @@
       <c r="F10" s="2"/>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>8.1880423339440404E-3</v>
+        <v>6.5086579167093929E-5</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B11" s="4">
-        <v>8.4711939537342792E-3</v>
-      </c>
-      <c r="C11" s="4">
-        <v>8.4070685478125403E-3</v>
+      <c r="B11" s="5">
+        <v>6.5917966550957895E-5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6.5830732560146805E-5</v>
       </c>
       <c r="D11" s="4">
         <v>138</v>
@@ -4327,11 +4330,11 @@
       <c r="A12" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B12" s="4">
-        <v>7.9419796672114597E-3</v>
-      </c>
-      <c r="C12" s="4">
-        <v>7.83160968901629E-3</v>
+      <c r="B12" s="5">
+        <v>6.5977100599953398E-5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6.5111272054677296E-5</v>
       </c>
       <c r="D12" s="4">
         <v>139</v>
@@ -4345,11 +4348,11 @@
       <c r="A13" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B13" s="4">
-        <v>8.2181704904329203E-3</v>
-      </c>
-      <c r="C13" s="4">
-        <v>8.1504445641915804E-3</v>
+      <c r="B13" s="5">
+        <v>6.5560227627197204E-5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>6.5454460282319597E-5</v>
       </c>
       <c r="D13" s="4">
         <v>140</v>
@@ -4364,10 +4367,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14" s="4">
-        <v>8.4354302058234094E-3</v>
+        <v>8.2095714714477096E-4</v>
       </c>
       <c r="C14" s="4">
-        <v>9.0391643127386793E-3</v>
+        <v>8.23190524936356E-4</v>
       </c>
       <c r="D14" s="4">
         <v>141</v>
@@ -4381,10 +4384,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15" s="4">
-        <v>8.0023834140020098E-3</v>
+        <v>3.3719270899421202E-4</v>
       </c>
       <c r="C15" s="4">
-        <v>8.0150838475674304E-3</v>
+        <v>3.37438195933924E-4</v>
       </c>
       <c r="D15" s="4">
         <v>142</v>
@@ -4398,10 +4401,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16" s="4">
-        <v>8.6893342197575402E-3</v>
+        <v>3.3676557250920301E-4</v>
       </c>
       <c r="C16" s="4">
-        <v>8.3177208880636198E-3</v>
+        <v>3.3067209779859502E-4</v>
       </c>
       <c r="D16" s="4">
         <v>143</v>
@@ -4414,11 +4417,11 @@
       <c r="A17" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B17" s="4">
-        <v>8.16939603487782E-3</v>
-      </c>
-      <c r="C17" s="4">
-        <v>8.0713740193304791E-3</v>
+      <c r="B17" s="5">
+        <v>6.8887865362488203E-5</v>
+      </c>
+      <c r="C17" s="5">
+        <v>6.8057547437963304E-5</v>
       </c>
       <c r="D17" s="4">
         <v>144</v>
@@ -4432,10 +4435,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>9.3629515303813998E-3</v>
+        <v>8.2135731211932799E-4</v>
       </c>
       <c r="C18">
-        <v>1.01462779170338E-2</v>
+        <v>8.23667526809855E-4</v>
       </c>
       <c r="D18">
         <v>145</v>
@@ -4449,10 +4452,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>9.59326353102446E-3</v>
+        <v>8.2055859124050099E-4</v>
       </c>
       <c r="C19">
-        <v>9.3540279392866302E-3</v>
+        <v>8.2463127167082997E-4</v>
       </c>
       <c r="D19">
         <v>146</v>
@@ -4466,10 +4469,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>9.7343555919112597E-3</v>
+        <v>8.2285534850559498E-4</v>
       </c>
       <c r="C20">
-        <v>9.2055589416401191E-3</v>
+        <v>8.2235665560917903E-4</v>
       </c>
       <c r="D20">
         <v>147</v>
@@ -4483,10 +4486,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>9.6076563857693895E-3</v>
+        <v>8.2017692205981602E-4</v>
       </c>
       <c r="C21">
-        <v>9.3576546233305902E-3</v>
+        <v>8.2905004122987998E-4</v>
       </c>
       <c r="D21">
         <v>148</v>
@@ -4500,10 +4503,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>1.0210747194000801E-2</v>
+        <v>8.2138318108999095E-4</v>
       </c>
       <c r="C22">
-        <v>1.0950453985640899E-2</v>
+        <v>8.2367658243574001E-4</v>
       </c>
       <c r="D22">
         <v>149</v>
@@ -4517,10 +4520,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>5.4859885351454897E-2</v>
+        <v>8.2055859124050099E-4</v>
       </c>
       <c r="C23">
-        <v>5.4158790235189602E-2</v>
+        <v>8.2463127167082997E-4</v>
       </c>
       <c r="D23">
         <v>150</v>
@@ -4534,10 +4537,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>1.0496366731921499E-2</v>
+        <v>8.2285534850559498E-4</v>
       </c>
       <c r="C24">
-        <v>9.9109433779611799E-3</v>
+        <v>8.2235665560917903E-4</v>
       </c>
       <c r="D24">
         <v>151</v>
@@ -4551,10 +4554,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>1.03589453774088E-2</v>
+        <v>8.2017586534307804E-4</v>
       </c>
       <c r="C25">
-        <v>1.00252955280085E-2</v>
+        <v>8.2904937184177904E-4</v>
       </c>
       <c r="D25">
         <v>152</v>
@@ -4568,10 +4571,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>0.14043369171942799</v>
+        <v>8.2126768842151205E-4</v>
       </c>
       <c r="C26">
-        <v>0.14129802473681999</v>
+        <v>8.2369537979483202E-4</v>
       </c>
       <c r="D26">
         <v>153</v>
@@ -4585,10 +4588,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>0.141279654339589</v>
+        <v>8.2055859124050099E-4</v>
       </c>
       <c r="C27">
-        <v>0.14156378734302</v>
+        <v>8.2463127167082997E-4</v>
       </c>
       <c r="D27">
         <v>154</v>
@@ -4602,10 +4605,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>0.14094842062827101</v>
+        <v>8.2285534850559498E-4</v>
       </c>
       <c r="C28">
-        <v>0.14060738429110101</v>
+        <v>8.2235665560917903E-4</v>
       </c>
       <c r="D28">
         <v>155</v>
@@ -4619,10 +4622,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>0.14151496222203</v>
+        <v>8.2031554546197199E-4</v>
       </c>
       <c r="C29">
-        <v>0.140583852821208</v>
+        <v>8.2905023628746704E-4</v>
       </c>
       <c r="D29">
         <v>156</v>
@@ -4636,10 +4639,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.14043944717404599</v>
+        <v>8.2126847236724297E-4</v>
       </c>
       <c r="C30">
-        <v>0.14129954219815499</v>
+        <v>8.2369541818711899E-4</v>
       </c>
       <c r="D30">
         <v>157</v>
@@ -4653,10 +4656,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>0.141279654339589</v>
+        <v>8.2055859124050099E-4</v>
       </c>
       <c r="C31">
-        <v>0.14156378734302</v>
+        <v>8.2463127167082997E-4</v>
       </c>
       <c r="D31">
         <v>158</v>
@@ -4670,10 +4673,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>0.14094842062827101</v>
+        <v>8.2285534850559498E-4</v>
       </c>
       <c r="C32">
-        <v>0.14060738429110101</v>
+        <v>8.2235665560917903E-4</v>
       </c>
       <c r="D32">
         <v>159</v>
@@ -4687,10 +4690,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.141563113541045</v>
+        <v>8.2031555660812001E-4</v>
       </c>
       <c r="C33">
-        <v>0.14058371221131399</v>
+        <v>8.2905023628746704E-4</v>
       </c>
       <c r="D33">
         <v>160</v>
@@ -4709,7 +4712,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4753,20 +4756,20 @@
       <c r="A2" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="2">
-        <v>4.0828379889717298E-4</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4.5260084926725298E-4</v>
+      <c r="B2" s="3">
+        <v>6.4431514823809201E-5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6.5360604299286796E-5</v>
       </c>
       <c r="D2" s="2">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1.165</v>
+        <v>1.1930000000000001</v>
       </c>
       <c r="J2" s="5">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
@@ -4774,15 +4777,15 @@
       </c>
       <c r="K2" s="6">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>4.1692586809707151E-4</v>
+        <v>6.457696310341508E-5</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1611780850755428E-4</v>
+        <v>6.4707241379321481E-5</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>34.5</v>
+        <v>162.5</v>
       </c>
       <c r="N2" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4793,20 +4796,20 @@
       <c r="A3" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="2">
-        <v>4.1600946967567602E-4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4.1936690622799402E-4</v>
+      <c r="B3" s="3">
+        <v>6.4462700422154704E-5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.4785968092148801E-5</v>
       </c>
       <c r="D3" s="2">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1.9590000000000001</v>
+        <v>1.4279999999999999</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
@@ -4814,15 +4817,15 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1774110156984478E-4</v>
+        <v>6.5075205010846972E-5</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1643157494926223E-4</v>
+        <v>6.5020043011633952E-5</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>38.5</v>
+        <v>166.5</v>
       </c>
       <c r="N3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4833,20 +4836,20 @@
       <c r="A4" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="2">
-        <v>4.2424092210906802E-4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3.8547353719006901E-4</v>
+      <c r="B4" s="3">
+        <v>6.4737486100057098E-5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6.4151582495121097E-5</v>
       </c>
       <c r="D4" s="2">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>2.36</v>
+        <v>1.855</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -4854,15 +4857,15 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1949080416816225E-4</v>
+        <v>6.5911069861613158E-5</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1720173452089676E-4</v>
+        <v>6.5641848613403348E-5</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>42.5</v>
+        <v>170.5</v>
       </c>
       <c r="N4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4873,20 +4876,20 @@
       <c r="A5" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="2">
-        <v>4.19169281706369E-4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4.07029941344901E-4</v>
+      <c r="B5" s="3">
+        <v>6.4676151067639303E-5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6.4530810630729203E-5</v>
       </c>
       <c r="D5" s="2">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1.423</v>
+        <v>1.05</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -4894,15 +4897,15 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.090790462233897E-4</v>
+        <v>3.9142864565413485E-4</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0599045337631679E-4</v>
+        <v>3.8992459732322966E-4</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>46.5</v>
+        <v>174.5</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4913,14 +4916,14 @@
       <c r="A6" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B6" s="4">
-        <v>4.0901894892643502E-4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4.5286005463802801E-4</v>
+      <c r="B6" s="5">
+        <v>6.4967782032908798E-5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6.5748029033358598E-5</v>
       </c>
       <c r="D6" s="4">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -4932,15 +4935,15 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1452295316848851E-3</v>
+        <v>8.2281458164410002E-4</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1445493760897651E-3</v>
+        <v>8.2493286305528231E-4</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>50.5</v>
+        <v>178.5</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4951,14 +4954,14 @@
       <c r="A7" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B7" s="4">
-        <v>4.1686090755198697E-4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4.19803225900358E-4</v>
+      <c r="B7" s="5">
+        <v>6.5014488645829201E-5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6.5107496645415506E-5</v>
       </c>
       <c r="D7" s="4">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -4970,15 +4973,15 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1452339373063227E-3</v>
+        <v>8.2281774984827819E-4</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1445489112025151E-3</v>
+        <v>8.2493247882279707E-4</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>54.5</v>
+        <v>182.5</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4989,14 +4992,14 @@
       <c r="A8" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B8" s="4">
-        <v>4.2528576933545902E-4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3.8563667909871299E-4</v>
+      <c r="B8" s="5">
+        <v>6.5222737864435899E-5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6.4405458110837897E-5</v>
       </c>
       <c r="D8" s="4">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -5008,15 +5011,15 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1452382014055401E-3</v>
+        <v>8.2282143369472212E-4</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1445495640262026E-3</v>
+        <v>8.2493308257247156E-4</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>58.5</v>
+        <v>186.5</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5027,14 +5030,14 @@
       <c r="A9" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B9" s="4">
-        <v>4.1979878046549798E-4</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4.0742634015995002E-4</v>
+      <c r="B9" s="5">
+        <v>6.5095811500214004E-5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6.4819188256923794E-5</v>
       </c>
       <c r="D9" s="4">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -5046,15 +5049,15 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1452396114667201E-3</v>
+        <v>8.2282272765102425E-4</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1445496925165176E-3</v>
+        <v>8.2493323289065947E-4</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>62.5</v>
+        <v>190.5</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5065,35 +5068,35 @@
       <c r="A10" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B10" s="4">
-        <v>4.1041430555439201E-4</v>
-      </c>
-      <c r="C10" s="4">
-        <v>4.5332995068747501E-4</v>
+      <c r="B10" s="5">
+        <v>6.5752419274455503E-5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6.6360529091709499E-5</v>
       </c>
       <c r="D10" s="4">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>4.1611780850755428E-4</v>
+        <v>6.4707241379321481E-5</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B11" s="4">
-        <v>4.1856774707169499E-4</v>
-      </c>
-      <c r="C11" s="4">
-        <v>4.2051166096922601E-4</v>
+      <c r="B11" s="5">
+        <v>6.5855583389444797E-5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6.5799336416022601E-5</v>
       </c>
       <c r="D11" s="4">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -5103,14 +5106,14 @@
       <c r="A12" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B12" s="4">
-        <v>4.2730622181746399E-4</v>
-      </c>
-      <c r="C12" s="4">
-        <v>3.8639322550845898E-4</v>
+      <c r="B12" s="5">
+        <v>6.60782047974256E-5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6.5000036363229804E-5</v>
       </c>
       <c r="D12" s="4">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -5120,14 +5123,14 @@
       <c r="A13" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B13" s="4">
-        <v>4.21674942229098E-4</v>
-      </c>
-      <c r="C13" s="4">
-        <v>4.0857210091842699E-4</v>
+      <c r="B13" s="5">
+        <v>6.5958071985126702E-5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>6.5407492582651499E-5</v>
       </c>
       <c r="D13" s="4">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -5137,14 +5140,14 @@
       <c r="A14" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B14">
-        <v>6.6136825107969302E-4</v>
-      </c>
-      <c r="C14">
-        <v>7.0547383864400296E-4</v>
+      <c r="B14" s="1">
+        <v>8.2291082898154795E-4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8.23415838122526E-4</v>
       </c>
       <c r="D14">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -5154,14 +5157,14 @@
       <c r="A15" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B15">
-        <v>6.7025422483372196E-4</v>
-      </c>
-      <c r="C15">
-        <v>6.6956291699712598E-4</v>
+      <c r="B15" s="1">
+        <v>3.3597577844435902E-4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.3744406840575697E-4</v>
       </c>
       <c r="D15">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5171,14 +5174,14 @@
       <c r="A16" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B16">
-        <v>6.7846289944524497E-4</v>
-      </c>
-      <c r="C16">
-        <v>6.36991700764369E-4</v>
+      <c r="B16" s="1">
+        <v>3.3761607677054901E-4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.3074911891859202E-4</v>
       </c>
       <c r="D16">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -5188,14 +5191,14 @@
       <c r="A17" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B17">
-        <v>4.2623080953489901E-4</v>
-      </c>
-      <c r="C17">
-        <v>4.1193335709976899E-4</v>
+      <c r="B17" s="1">
+        <v>6.9211898420083607E-5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6.8089363846043604E-5</v>
       </c>
       <c r="D17">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -5205,14 +5208,14 @@
       <c r="A18">
         <v>1E-4</v>
       </c>
-      <c r="B18">
-        <v>1.1358466426221001E-3</v>
-      </c>
-      <c r="C18">
-        <v>1.18334137802408E-3</v>
+      <c r="B18" s="1">
+        <v>8.2339012809097697E-4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8.2369328865365297E-4</v>
       </c>
       <c r="D18">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -5222,14 +5225,14 @@
       <c r="A19">
         <v>1E-4</v>
       </c>
-      <c r="B19">
-        <v>1.1445807587976201E-3</v>
-      </c>
-      <c r="C19">
-        <v>1.1457585812635401E-3</v>
+      <c r="B19" s="1">
+        <v>8.2253963127732204E-4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8.2463127167082997E-4</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5239,14 +5242,14 @@
       <c r="A20">
         <v>1E-4</v>
       </c>
-      <c r="B20">
-        <v>1.15280801368256E-3</v>
-      </c>
-      <c r="C20">
-        <v>1.1135558486282001E-3</v>
+      <c r="B20" s="1">
+        <v>8.2324791311596797E-4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8.2235665560917903E-4</v>
       </c>
       <c r="D20">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5256,14 +5259,14 @@
       <c r="A21">
         <v>1E-4</v>
       </c>
-      <c r="B21">
-        <v>1.1476827116372601E-3</v>
-      </c>
-      <c r="C21">
-        <v>1.13554169644324E-3</v>
+      <c r="B21" s="1">
+        <v>8.2208065409213299E-4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8.2905023628746704E-4</v>
       </c>
       <c r="D21">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5274,13 +5277,13 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>1.13586472766473E-3</v>
-      </c>
-      <c r="C22">
-        <v>1.18333951847508E-3</v>
+        <v>8.2340312656015103E-4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8.2369175172371202E-4</v>
       </c>
       <c r="D22">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -5291,13 +5294,13 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>1.1445807587976201E-3</v>
-      </c>
-      <c r="C23">
-        <v>1.1457585812635401E-3</v>
+        <v>8.2253963127732204E-4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8.2463127167082997E-4</v>
       </c>
       <c r="D23">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -5308,13 +5311,13 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>1.15280801368256E-3</v>
-      </c>
-      <c r="C24">
-        <v>1.1135558486282001E-3</v>
+        <v>8.2324791311596797E-4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8.2235665560917903E-4</v>
       </c>
       <c r="D24">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -5325,13 +5328,13 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>1.1476822490803799E-3</v>
-      </c>
-      <c r="C25">
-        <v>1.13554169644324E-3</v>
+        <v>8.2208032843967204E-4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8.2905023628746704E-4</v>
       </c>
       <c r="D25">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -5342,13 +5345,13 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>1.1358814256576201E-3</v>
+        <v>8.2341748056933195E-4</v>
       </c>
       <c r="C26">
-        <v>1.1833421297698301E-3</v>
+        <v>8.2369416672241E-4</v>
       </c>
       <c r="D26">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -5359,13 +5362,13 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>1.1445807587976201E-3</v>
+        <v>8.2253963127732204E-4</v>
       </c>
       <c r="C27">
-        <v>1.1457585812635401E-3</v>
+        <v>8.2463127167082997E-4</v>
       </c>
       <c r="D27">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -5376,13 +5379,13 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>1.15280801368256E-3</v>
+        <v>8.2324791311596797E-4</v>
       </c>
       <c r="C28">
-        <v>1.1135558486282001E-3</v>
+        <v>8.2235665560917903E-4</v>
       </c>
       <c r="D28">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -5393,13 +5396,13 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>1.14768260748436E-3</v>
+        <v>8.2208070981626695E-4</v>
       </c>
       <c r="C29">
-        <v>1.13554169644324E-3</v>
+        <v>8.2905023628746704E-4</v>
       </c>
       <c r="D29">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -5410,13 +5413,13 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>1.1358870263211401E-3</v>
+        <v>8.2342262115950304E-4</v>
       </c>
       <c r="C30">
-        <v>1.1833426437310899E-3</v>
+        <v>8.2369476799516196E-4</v>
       </c>
       <c r="D30">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -5427,13 +5430,13 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>1.1445807587976201E-3</v>
+        <v>8.2253963127732204E-4</v>
       </c>
       <c r="C31">
-        <v>1.1457585812635401E-3</v>
+        <v>8.2463127167082997E-4</v>
       </c>
       <c r="D31">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -5444,13 +5447,13 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>1.15280801368256E-3</v>
+        <v>8.2324791311596797E-4</v>
       </c>
       <c r="C32">
-        <v>1.1135558486282001E-3</v>
+        <v>8.2235665560917903E-4</v>
       </c>
       <c r="D32">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -5461,13 +5464,13 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>1.1476826470655599E-3</v>
+        <v>8.2208074505130395E-4</v>
       </c>
       <c r="C33">
-        <v>1.13554169644324E-3</v>
+        <v>8.2905023628746704E-4</v>
       </c>
       <c r="D33">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -5531,7 +5534,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:E21"/>
+      <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5572,56 +5575,56 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B2">
-        <v>9.7676934030382495E-3</v>
-      </c>
-      <c r="C2">
-        <v>1.05380408138908E-2</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="3">
+        <v>6.71188464230966E-5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6.8457697086566203E-5</v>
+      </c>
+      <c r="D2" s="2">
         <v>193</v>
       </c>
-      <c r="E2">
-        <v>0.25</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="E2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J2" s="3">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1E-8</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="7">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>9.9883311963144417E-3</v>
-      </c>
-      <c r="L2" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.8171576391905373E-3</v>
-      </c>
-      <c r="M2" s="5">
+        <v>6.7420968478356595E-5</v>
+      </c>
+      <c r="L2" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7910117950111448E-5</v>
+      </c>
+      <c r="M2" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>194.5</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B3">
-        <v>1.0148438179191701E-2</v>
-      </c>
-      <c r="C3">
-        <v>9.8401111491182996E-3</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="3">
+        <v>6.8181382185355903E-5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.8337318496444204E-5</v>
+      </c>
+      <c r="D3" s="2">
         <v>194</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0.25</v>
       </c>
       <c r="J3" s="5">
@@ -5630,11 +5633,11 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9886943774416433E-3</v>
+        <v>6.7452351241298176E-5</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8172413046530953E-3</v>
+        <v>6.7941683889156127E-5</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5646,19 +5649,19 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B4">
-        <v>9.8822687930883203E-3</v>
-      </c>
-      <c r="C4">
-        <v>9.3702051758845408E-3</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="3">
+        <v>6.7658406399633694E-5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6.7352295484445805E-5</v>
+      </c>
+      <c r="D4" s="2">
         <v>195</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.25</v>
       </c>
       <c r="J4" s="5">
@@ -5667,11 +5670,11 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9879428199392897E-3</v>
+        <v>6.755933984405075E-5</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8150418575932274E-3</v>
+        <v>6.7927419277498749E-5</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5683,19 +5686,19 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B5">
-        <v>1.01549244099395E-2</v>
-      </c>
-      <c r="C5">
-        <v>9.5202734178685099E-3</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="3">
+        <v>6.6725238905340195E-5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6.7493160732989593E-5</v>
+      </c>
+      <c r="D5" s="2">
         <v>196</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0.25</v>
       </c>
       <c r="J5" s="5">
@@ -5704,11 +5707,11 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9890835786317356E-3</v>
+        <v>6.8351732129775977E-5</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8136005938013367E-3</v>
+        <v>6.7937162471702904E-5</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5723,11 +5726,11 @@
       <c r="A6" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B6">
-        <v>9.7676235142144102E-3</v>
-      </c>
-      <c r="C6">
-        <v>1.05377873950736E-2</v>
+      <c r="B6" s="1">
+        <v>6.7360914514172105E-5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.8691193015919E-5</v>
       </c>
       <c r="D6">
         <v>197</v>
@@ -5735,23 +5738,23 @@
       <c r="E6">
         <v>0.25</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>1E-4</v>
       </c>
-      <c r="K6" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.000357901137517E-2</v>
-      </c>
-      <c r="L6" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.8122618126464736E-3</v>
-      </c>
-      <c r="M6" s="3">
+      <c r="K6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6624611926703445E-5</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8010159754928017E-5</v>
+      </c>
+      <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>210.5</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>0.25</v>
       </c>
@@ -5760,11 +5763,11 @@
       <c r="A7" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B7">
-        <v>1.0148458380965401E-2</v>
-      </c>
-      <c r="C7">
-        <v>9.8401453801767597E-3</v>
+      <c r="B7" s="1">
+        <v>6.8203750994685598E-5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.8400862027316305E-5</v>
       </c>
       <c r="D7">
         <v>198</v>
@@ -5778,11 +5781,11 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0176024824489822E-2</v>
+        <v>1.5437643829268027E-4</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8154101052638429E-3</v>
+        <v>7.1588318676615281E-5</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5797,11 +5800,11 @@
       <c r="A8" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B8">
-        <v>9.8842599161682605E-3</v>
-      </c>
-      <c r="C8">
-        <v>9.3710732279702006E-3</v>
+      <c r="B8" s="1">
+        <v>6.7708146626171799E-5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.7392232209540599E-5</v>
       </c>
       <c r="D8">
         <v>199</v>
@@ -5815,11 +5818,11 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1850474737931301E-2</v>
+        <v>7.0638694732940354E-4</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8340905598424191E-3</v>
+        <v>3.6959395367104728E-4</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5834,11 +5837,11 @@
       <c r="A9" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B9">
-        <v>1.01544356984185E-2</v>
-      </c>
-      <c r="C9">
-        <v>9.5199592153918204E-3</v>
+      <c r="B9" s="1">
+        <v>6.6536592830163203E-5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6.7282448303848604E-5</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -5852,11 +5855,11 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7848485262787048E-2</v>
+        <v>1.1180838902215841E-3</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0800258361764126E-2</v>
+        <v>8.2489763828678053E-4</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5871,11 +5874,11 @@
       <c r="A10" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B10">
-        <v>9.7639696484312696E-3</v>
-      </c>
-      <c r="C10">
-        <v>1.0531723628098E-2</v>
+      <c r="B10" s="1">
+        <v>6.7288581665203996E-5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6.8703773224037705E-5</v>
       </c>
       <c r="D10">
         <v>201</v>
@@ -5885,18 +5888,18 @@
       </c>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>9.8122618126464736E-3</v>
+        <v>6.7910117950111448E-5</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B11">
-        <v>1.0148447522140501E-2</v>
-      </c>
-      <c r="C11">
-        <v>9.8388805599050905E-3</v>
+      <c r="B11" s="1">
+        <v>6.8265966934206394E-5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6.8352963701707897E-5</v>
       </c>
       <c r="D11">
         <v>202</v>
@@ -5909,11 +5912,11 @@
       <c r="A12" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B12">
-        <v>9.8828419874560907E-3</v>
-      </c>
-      <c r="C12">
-        <v>9.36833191960257E-3</v>
+      <c r="B12" s="1">
+        <v>6.8097262285052803E-5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6.7447730969511299E-5</v>
       </c>
       <c r="D12">
         <v>203</v>
@@ -5926,11 +5929,11 @@
       <c r="A13" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B13">
-        <v>1.01565121217293E-2</v>
-      </c>
-      <c r="C13">
-        <v>9.5212313227672502E-3</v>
+      <c r="B13" s="1">
+        <v>6.6585548491739807E-5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6.7205209214738095E-5</v>
       </c>
       <c r="D13">
         <v>204</v>
@@ -5943,11 +5946,11 @@
       <c r="A14" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B14">
-        <v>9.7650780065103998E-3</v>
-      </c>
-      <c r="C14">
-        <v>1.05290864792434E-2</v>
+      <c r="B14" s="1">
+        <v>6.80781229946544E-5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6.8669299736861703E-5</v>
       </c>
       <c r="D14">
         <v>205</v>
@@ -5960,11 +5963,11 @@
       <c r="A15" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B15">
-        <v>1.0155178874017699E-2</v>
-      </c>
-      <c r="C15">
-        <v>9.8428978049691692E-3</v>
+      <c r="B15" s="1">
+        <v>6.9028549679639198E-5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6.8317884413656707E-5</v>
       </c>
       <c r="D15">
         <v>206</v>
@@ -5977,11 +5980,11 @@
       <c r="A16" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B16">
-        <v>9.8839404923405406E-3</v>
-      </c>
-      <c r="C16">
-        <v>9.3690834424280094E-3</v>
+      <c r="B16" s="1">
+        <v>6.8866721236151898E-5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6.7570387553596994E-5</v>
       </c>
       <c r="D16">
         <v>207</v>
@@ -5994,11 +5997,11 @@
       <c r="A17" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B17">
-        <v>1.0152136941658301E-2</v>
-      </c>
-      <c r="C17">
-        <v>9.5133346485647696E-3</v>
+      <c r="B17" s="1">
+        <v>6.7433534608658398E-5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6.7191078182696199E-5</v>
       </c>
       <c r="D17">
         <v>208</v>
@@ -6008,70 +6011,70 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>1E-4</v>
       </c>
-      <c r="B18" s="2">
-        <v>9.7741580300746405E-3</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1.0522745331709601E-2</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="B18" s="5">
+        <v>7.6121424539683395E-5</v>
+      </c>
+      <c r="C18" s="5">
+        <v>6.8757177978887696E-5</v>
+      </c>
+      <c r="D18" s="4">
         <v>209</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>1E-4</v>
       </c>
-      <c r="B19" s="2">
-        <v>1.01714239980866E-2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>9.8406455747069802E-3</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B19" s="5">
+        <v>7.7312620247694399E-5</v>
+      </c>
+      <c r="C19" s="5">
+        <v>6.8449579633492403E-5</v>
+      </c>
+      <c r="D19" s="4">
         <v>210</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>1E-4</v>
       </c>
-      <c r="B20" s="2">
-        <v>9.8963126272676397E-3</v>
-      </c>
-      <c r="C20" s="2">
-        <v>9.3639925657276104E-3</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B20" s="5">
+        <v>7.7146037430329096E-5</v>
+      </c>
+      <c r="C20" s="5">
+        <v>6.7366693714420494E-5</v>
+      </c>
+      <c r="D20" s="4">
         <v>211</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>1E-4</v>
       </c>
-      <c r="B21" s="2">
-        <v>1.01724213900718E-2</v>
-      </c>
-      <c r="C21" s="2">
-        <v>9.5216637784416996E-3</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" s="5">
+        <v>7.5918365489106903E-5</v>
+      </c>
+      <c r="C21" s="5">
+        <v>6.7467187692911502E-5</v>
+      </c>
+      <c r="D21" s="4">
         <v>212</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <v>0.25</v>
       </c>
     </row>
@@ -6080,10 +6083,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22" s="4">
-        <v>9.9460463326899902E-3</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1.0531699032265101E-2</v>
+        <v>1.5179856571658599E-4</v>
+      </c>
+      <c r="C22" s="5">
+        <v>7.21638941885953E-5</v>
       </c>
       <c r="D22" s="4">
         <v>213</v>
@@ -6097,10 +6100,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23" s="4">
-        <v>1.03409850742033E-2</v>
-      </c>
-      <c r="C23" s="4">
-        <v>9.8427051797192102E-3</v>
+        <v>1.57233477403543E-4</v>
+      </c>
+      <c r="C23" s="5">
+        <v>7.2131210586992307E-5</v>
       </c>
       <c r="D23" s="4">
         <v>214</v>
@@ -6114,10 +6117,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24" s="4">
-        <v>1.0072602494124399E-2</v>
-      </c>
-      <c r="C24" s="4">
-        <v>9.3693581231413994E-3</v>
+        <v>1.5352239039357401E-4</v>
+      </c>
+      <c r="C24" s="5">
+        <v>7.1066498887685503E-5</v>
       </c>
       <c r="D24" s="4">
         <v>215</v>
@@ -6131,10 +6134,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25" s="4">
-        <v>1.03444653969416E-2</v>
-      </c>
-      <c r="C25" s="4">
-        <v>9.5178780859296597E-3</v>
+        <v>1.5495131965701799E-4</v>
+      </c>
+      <c r="C25" s="5">
+        <v>7.0991671043188002E-5</v>
       </c>
       <c r="D25" s="4">
         <v>216</v>
@@ -6148,10 +6151,10 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="4">
-        <v>1.1618013944516401E-2</v>
+        <v>7.0991163312933002E-4</v>
       </c>
       <c r="C26" s="4">
-        <v>1.0558734241714499E-2</v>
+        <v>3.6579161725115901E-4</v>
       </c>
       <c r="D26" s="4">
         <v>217</v>
@@ -6166,10 +6169,10 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="4">
-        <v>1.20253840392019E-2</v>
+        <v>7.0576803904878803E-4</v>
       </c>
       <c r="C27" s="4">
-        <v>9.8723733123946694E-3</v>
+        <v>3.6064976921671598E-4</v>
       </c>
       <c r="D27" s="4">
         <v>218</v>
@@ -6184,10 +6187,10 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="4">
-        <v>1.1744400580473E-2</v>
+        <v>6.92663782405013E-4</v>
       </c>
       <c r="C28" s="4">
-        <v>9.3705622736919396E-3</v>
+        <v>3.6198612887095201E-4</v>
       </c>
       <c r="D28" s="4">
         <v>219</v>
@@ -6202,10 +6205,10 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="4">
-        <v>1.2014100387533901E-2</v>
+        <v>7.1720433473448301E-4</v>
       </c>
       <c r="C29" s="4">
-        <v>9.53469241156857E-3</v>
+        <v>3.8994829934536202E-4</v>
       </c>
       <c r="D29" s="4">
         <v>220</v>
@@ -6220,10 +6223,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>2.7746377948750799E-2</v>
+        <v>8.2683973410662098E-4</v>
       </c>
       <c r="C30">
-        <v>1.1538684184841301E-2</v>
+        <v>8.2353231970200898E-4</v>
       </c>
       <c r="D30">
         <v>221</v>
@@ -6237,10 +6240,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>2.8052770453406099E-2</v>
+        <v>1.9951099647516099E-3</v>
       </c>
       <c r="C31">
-        <v>1.0959329068700299E-2</v>
+        <v>8.2431588460631804E-4</v>
       </c>
       <c r="D31">
         <v>222</v>
@@ -6254,10 +6257,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>2.7744285445264E-2</v>
+        <v>8.2971099788877801E-4</v>
       </c>
       <c r="C32">
-        <v>1.0175780621059999E-2</v>
+        <v>8.2269407179642504E-4</v>
       </c>
       <c r="D32">
         <v>223</v>
@@ -6271,10 +6274,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>2.7850507203727299E-2</v>
+        <v>8.2067486413932799E-4</v>
       </c>
       <c r="C33">
-        <v>1.05272395724549E-2</v>
+        <v>8.2904827704237004E-4</v>
       </c>
       <c r="D33">
         <v>224</v>
@@ -6293,7 +6296,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6334,14 +6337,14 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1E-8</v>
-      </c>
-      <c r="B2" s="4">
-        <v>9.5020987271786997E-3</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1.03071877346473E-2</v>
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6.6361378017934294E-5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6.7393271200807197E-5</v>
       </c>
       <c r="D2" s="4">
         <v>225</v>
@@ -6351,15 +6354,15 @@
       </c>
       <c r="J2" s="5">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
-        <v>1E-8</v>
+        <v>1.0000000000000002E-8</v>
       </c>
       <c r="K2" s="6">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>9.6483505293825933E-3</v>
+        <v>6.6375356695100432E-5</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5872989412337638E-3</v>
+        <v>6.6615851065239873E-5</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6374,11 +6377,11 @@
       <c r="A3" s="5">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="4">
-        <v>9.8837438222773803E-3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>9.6084739358976799E-3</v>
+      <c r="B3" s="5">
+        <v>6.6692437766060304E-5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6.6828321383156298E-5</v>
       </c>
       <c r="D3" s="4">
         <v>226</v>
@@ -6386,23 +6389,23 @@
       <c r="E3" s="4">
         <v>0.5</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="5">
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="K3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6758919398974019E-3</v>
-      </c>
-      <c r="L3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.5819599636671592E-3</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="K3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6400000010384828E-5</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6608059462831668E-5</v>
+      </c>
+      <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>230.5</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
@@ -6411,11 +6414,11 @@
       <c r="A4" s="5">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="4">
-        <v>9.6545298732420796E-3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>9.1104146756945097E-3</v>
+      <c r="B4" s="5">
+        <v>6.6334634751949602E-5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6.5955748296085104E-5</v>
       </c>
       <c r="D4" s="4">
         <v>227</v>
@@ -6423,23 +6426,23 @@
       <c r="E4" s="4">
         <v>0.5</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K4" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.6496923521973421E-3</v>
-      </c>
-      <c r="L4" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>9.58349469410095E-3</v>
-      </c>
-      <c r="M4" s="5">
+      <c r="K4" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6428020250470458E-5</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6555651997948553E-5</v>
+      </c>
+      <c r="M4" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>234.5</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
@@ -6448,11 +6451,11 @@
       <c r="A5" s="5">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="4">
-        <v>9.5530296948322206E-3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>9.3231194186955604E-3</v>
+      <c r="B5" s="5">
+        <v>6.61129762444575E-5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6.6286063380910894E-5</v>
       </c>
       <c r="D5" s="4">
         <v>228</v>
@@ -6466,11 +6469,11 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6516465115549128E-3</v>
+        <v>6.7330522495738293E-5</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5871756066310525E-3</v>
+        <v>6.662317661934174E-5</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6482,19 +6485,19 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B6" s="2">
-        <v>9.5081483806542799E-3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.03120719766283E-2</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="5">
+        <v>6.6429905347560698E-5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6.7383371486434999E-5</v>
+      </c>
+      <c r="D6" s="4">
         <v>229</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>0.5</v>
       </c>
       <c r="J6" s="5">
@@ -6503,11 +6506,11 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6656448236280158E-3</v>
+        <v>7.5189593659122161E-5</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5819672904016787E-3</v>
+        <v>6.6649217736065755E-5</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6519,19 +6522,19 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B7" s="2">
-        <v>9.9177312655770698E-3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9.6159806286797208E-3</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="5">
+        <v>6.6770404257422702E-5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6.6719973743756901E-5</v>
+      </c>
+      <c r="D7" s="4">
         <v>230</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>0.5</v>
       </c>
       <c r="J7" s="5">
@@ -6540,11 +6543,11 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8435502416364985E-3</v>
+        <v>1.5412488408478601E-4</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5840471442491491E-3</v>
+        <v>7.0075619155528628E-5</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6556,19 +6559,19 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B8" s="2">
-        <v>9.63706676006079E-3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>9.0866703540086694E-3</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="5">
+        <v>6.6369590329370403E-5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6.60139047930839E-5</v>
+      </c>
+      <c r="D8" s="4">
         <v>231</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>0.5</v>
       </c>
       <c r="J8" s="5">
@@ -6577,11 +6580,11 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.15410605615173E-2</v>
+        <v>7.0104929317436578E-4</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6171143888297648E-3</v>
+        <v>3.4085158876358853E-4</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6593,19 +6596,19 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B9" s="2">
-        <v>9.6406213532974697E-3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>9.3131168953519503E-3</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="5">
+        <v>6.6030100107185497E-5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6.6314987828050901E-5</v>
+      </c>
+      <c r="D9" s="4">
         <v>232</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>0.5</v>
       </c>
       <c r="J9" s="5">
@@ -6614,11 +6617,11 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7631170029672678E-2</v>
+        <v>8.2166499913078088E-4</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0695775386263026E-2</v>
+        <v>8.2509940182988256E-4</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6633,11 +6636,11 @@
       <c r="A10" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B10">
-        <v>9.5056479826490202E-3</v>
-      </c>
-      <c r="C10">
-        <v>1.03081901745989E-2</v>
+      <c r="B10" s="1">
+        <v>6.6490826166626195E-5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6.73720692538289E-5</v>
       </c>
       <c r="D10">
         <v>233</v>
@@ -6647,18 +6650,18 @@
       </c>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>9.5819599636671592E-3</v>
+        <v>6.6555651997948553E-5</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B11">
-        <v>9.8824810231738502E-3</v>
-      </c>
-      <c r="C11">
-        <v>9.6104963623145703E-3</v>
+      <c r="B11" s="1">
+        <v>6.6828164872663798E-5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6.6753448257433304E-5</v>
       </c>
       <c r="D11">
         <v>234</v>
@@ -6671,11 +6674,11 @@
       <c r="A12" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B12">
-        <v>9.6372996501505603E-3</v>
-      </c>
-      <c r="C12">
-        <v>9.09086492190018E-3</v>
+      <c r="B12" s="1">
+        <v>6.6372939688741798E-5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6.5882284113111798E-5</v>
       </c>
       <c r="D12">
         <v>235</v>
@@ -6688,11 +6691,11 @@
       <c r="A13" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B13">
-        <v>9.5733407528159394E-3</v>
-      </c>
-      <c r="C13">
-        <v>9.3244273175901501E-3</v>
+      <c r="B13" s="1">
+        <v>6.6020150273849999E-5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6.6214806367420197E-5</v>
       </c>
       <c r="D13">
         <v>236</v>
@@ -6705,11 +6708,11 @@
       <c r="A14" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B14" s="4">
-        <v>9.5089711645182096E-3</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1.03116078559864E-2</v>
+      <c r="B14" s="5">
+        <v>6.7266165020323201E-5</v>
+      </c>
+      <c r="C14" s="5">
+        <v>6.7341527260686302E-5</v>
       </c>
       <c r="D14" s="4">
         <v>237</v>
@@ -6722,11 +6725,11 @@
       <c r="A15" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B15" s="4">
-        <v>9.8915137821174292E-3</v>
-      </c>
-      <c r="C15" s="4">
-        <v>9.6127186069621604E-3</v>
+      <c r="B15" s="5">
+        <v>6.7782231974675494E-5</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6.6895298275878595E-5</v>
       </c>
       <c r="D15" s="4">
         <v>238</v>
@@ -6739,11 +6742,11 @@
       <c r="A16" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B16" s="4">
-        <v>9.6493328257681796E-3</v>
-      </c>
-      <c r="C16" s="4">
-        <v>9.1000517007914592E-3</v>
+      <c r="B16" s="5">
+        <v>6.7272778440073607E-5</v>
+      </c>
+      <c r="C16" s="5">
+        <v>6.5985635607850097E-5</v>
       </c>
       <c r="D16" s="4">
         <v>239</v>
@@ -6756,11 +6759,11 @@
       <c r="A17" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B17" s="4">
-        <v>9.5567682738158296E-3</v>
-      </c>
-      <c r="C17" s="4">
-        <v>9.3243242627841904E-3</v>
+      <c r="B17" s="5">
+        <v>6.7000914547880896E-5</v>
+      </c>
+      <c r="C17" s="5">
+        <v>6.6270245332952007E-5</v>
       </c>
       <c r="D17" s="4">
         <v>240</v>
@@ -6773,11 +6776,11 @@
       <c r="A18">
         <v>1E-4</v>
       </c>
-      <c r="B18">
-        <v>9.5245235777915698E-3</v>
-      </c>
-      <c r="C18">
-        <v>1.0308827228962999E-2</v>
+      <c r="B18" s="1">
+        <v>7.5465539010381505E-5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6.7428620279818603E-5</v>
       </c>
       <c r="D18">
         <v>241</v>
@@ -6790,11 +6793,11 @@
       <c r="A19">
         <v>1E-4</v>
       </c>
-      <c r="B19">
-        <v>9.8951449394820493E-3</v>
-      </c>
-      <c r="C19">
-        <v>9.6004400600461191E-3</v>
+      <c r="B19" s="1">
+        <v>7.54777451065626E-5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6.6864240154168201E-5</v>
       </c>
       <c r="D19">
         <v>242</v>
@@ -6807,11 +6810,11 @@
       <c r="A20">
         <v>1E-4</v>
       </c>
-      <c r="B20">
-        <v>9.6769898688975394E-3</v>
-      </c>
-      <c r="C20">
-        <v>9.1021473796919303E-3</v>
+      <c r="B20" s="1">
+        <v>7.4735516233325098E-5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6.5980835875342699E-5</v>
       </c>
       <c r="D20">
         <v>243</v>
@@ -6824,11 +6827,11 @@
       <c r="A21">
         <v>1E-4</v>
       </c>
-      <c r="B21">
-        <v>9.5659209083408994E-3</v>
-      </c>
-      <c r="C21">
-        <v>9.3164544929056695E-3</v>
+      <c r="B21" s="1">
+        <v>7.50795742862194E-5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6.6323174634933503E-5</v>
       </c>
       <c r="D21">
         <v>244</v>
@@ -6842,10 +6845,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>9.7173362960444494E-3</v>
-      </c>
-      <c r="C22">
-        <v>1.0313070998428001E-2</v>
+        <v>1.5218152247085601E-4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7.0674384334508495E-5</v>
       </c>
       <c r="D22">
         <v>245</v>
@@ -6859,10 +6862,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>1.0069413534167401E-2</v>
-      </c>
-      <c r="C23">
-        <v>9.60684663794459E-3</v>
+        <v>1.5655824744440999E-4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7.04858098578505E-5</v>
       </c>
       <c r="D23">
         <v>246</v>
@@ -6876,10 +6879,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>9.8253020501517206E-3</v>
-      </c>
-      <c r="C24">
-        <v>9.0944222422276993E-3</v>
+        <v>1.54525198516413E-4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6.9769585682847004E-5</v>
       </c>
       <c r="D24">
         <v>247</v>
@@ -6893,10 +6896,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>9.7621490861824201E-3</v>
-      </c>
-      <c r="C25">
-        <v>9.3218486983963102E-3</v>
+        <v>1.5323456790746501E-4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>6.9372696746908499E-5</v>
       </c>
       <c r="D25">
         <v>248</v>
@@ -6910,10 +6913,10 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="4">
-        <v>1.1400420079998501E-2</v>
+        <v>6.8606481533819497E-4</v>
       </c>
       <c r="C26" s="4">
-        <v>1.0329602846003901E-2</v>
+        <v>3.4628634277899601E-4</v>
       </c>
       <c r="D26" s="4">
         <v>249</v>
@@ -6928,10 +6931,10 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="4">
-        <v>1.17632535811355E-2</v>
+        <v>7.0471794792188399E-4</v>
       </c>
       <c r="C27" s="4">
-        <v>9.6324340420517497E-3</v>
+        <v>3.53605653954412E-4</v>
       </c>
       <c r="D27" s="4">
         <v>250</v>
@@ -6946,10 +6949,10 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="4">
-        <v>1.1562856055419599E-2</v>
+        <v>7.2883928031784403E-4</v>
       </c>
       <c r="C28" s="4">
-        <v>9.1597002366201E-3</v>
+        <v>3.20956999859574E-4</v>
       </c>
       <c r="D28" s="4">
         <v>251</v>
@@ -6964,10 +6967,10 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="4">
-        <v>1.1437712529515601E-2</v>
+        <v>6.8457512911954002E-4</v>
       </c>
       <c r="C29" s="4">
-        <v>9.3467204306433103E-3</v>
+        <v>3.4255735846137197E-4</v>
       </c>
       <c r="D29" s="4">
         <v>252</v>
@@ -6982,10 +6985,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>2.7432503604746201E-2</v>
+        <v>8.2247686031165497E-4</v>
       </c>
       <c r="C30">
-        <v>1.14180591264541E-2</v>
+        <v>8.2360463714761995E-4</v>
       </c>
       <c r="D30">
         <v>253</v>
@@ -6999,10 +7002,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>2.7772319215805599E-2</v>
+        <v>8.2099448519194101E-4</v>
       </c>
       <c r="C31">
-        <v>1.0749464696075E-2</v>
+        <v>8.2501669245910701E-4</v>
       </c>
       <c r="D31">
         <v>254</v>
@@ -7016,10 +7019,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>2.7612595908106E-2</v>
+        <v>8.2305711793138599E-4</v>
       </c>
       <c r="C32">
-        <v>1.0266893820718199E-2</v>
+        <v>8.2270209206902203E-4</v>
       </c>
       <c r="D32">
         <v>255</v>
@@ -7033,10 +7036,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>2.7707261390032899E-2</v>
+        <v>8.2013153308814197E-4</v>
       </c>
       <c r="C33">
-        <v>1.03486839018048E-2</v>
+        <v>8.2907418564378101E-4</v>
       </c>
       <c r="D33">
         <v>256</v>
@@ -7054,8 +7057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7099,11 +7102,11 @@
       <c r="A2" s="5">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="4">
-        <v>9.3543784543871807E-3</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1.0092219139667199E-2</v>
+      <c r="B2" s="5">
+        <v>6.5645502142918594E-5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6.6450243197168406E-5</v>
       </c>
       <c r="D2" s="4">
         <v>257</v>
@@ -7117,11 +7120,11 @@
       </c>
       <c r="K2" s="5">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>8.8132289644951567E-3</v>
+        <v>6.5674415753164773E-5</v>
       </c>
       <c r="L2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.843501871253559E-3</v>
+        <v>6.5689379116133195E-5</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7136,11 +7139,11 @@
       <c r="A3" s="5">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="4">
-        <v>8.5167263709008695E-3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>8.5003627216482993E-3</v>
+      <c r="B3" s="5">
+        <v>6.5797227609436893E-5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6.5941083255196598E-5</v>
       </c>
       <c r="D3" s="4">
         <v>258</v>
@@ -7148,23 +7151,23 @@
       <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="5">
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="K3" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.6820069309323997E-3</v>
-      </c>
-      <c r="L3" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.7210306380082602E-3</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="K3" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5717032281099771E-5</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5690851471949727E-5</v>
+      </c>
+      <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>262.5</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -7173,11 +7176,11 @@
       <c r="A4" s="5">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="4">
-        <v>8.1681958176195602E-3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>7.9205993344967605E-3</v>
+      <c r="B4" s="5">
+        <v>6.5726093909082293E-5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6.5050403289670196E-5</v>
       </c>
       <c r="D4" s="4">
         <v>259</v>
@@ -7191,11 +7194,11 @@
       </c>
       <c r="K4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7685841092218896E-3</v>
+        <v>6.57963951695516E-5</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7993889477381241E-3</v>
+        <v>6.5678628966162048E-5</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7210,11 +7213,11 @@
       <c r="A5" s="5">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="4">
-        <v>9.2136152150730198E-3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>8.8608262892019805E-3</v>
+      <c r="B5" s="5">
+        <v>6.5528839351221299E-5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6.5315786722497593E-5</v>
       </c>
       <c r="D5" s="4">
         <v>260</v>
@@ -7222,57 +7225,55 @@
       <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="K5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.7659627329558093E-3</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.7920290769692086E-3</v>
-      </c>
-      <c r="M5" s="5">
+      <c r="K5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.654053629123757E-5</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5639567503936557E-5</v>
+      </c>
+      <c r="M5" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>270.5</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B6" s="2">
-        <v>9.3580569302042296E-3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.00943250185314E-2</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="5">
+        <v>6.5652948037798805E-5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6.6426651252921603E-5</v>
+      </c>
+      <c r="D6" s="4">
         <v>261</v>
       </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>7.1929999999999996</v>
-      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="J6" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>1E-4</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8113382775336473E-3</v>
+        <v>7.4686178675619828E-5</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8117721631746446E-3</v>
+        <v>6.5808864476027916E-5</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7284,35 +7285,33 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B7" s="2">
-        <v>8.5061227095623807E-3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8.4749405480366406E-3</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="5">
+        <v>6.5941118101666993E-5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6.6051388514213295E-5</v>
+      </c>
+      <c r="D7" s="4">
         <v>262</v>
       </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>14.903</v>
-      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="J7" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>1E-3</v>
       </c>
       <c r="K7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1104780901223384E-3</v>
+        <v>1.5281848402325175E-4</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9436659349148365E-3</v>
+        <v>6.90142107119522E-5</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7324,35 +7323,33 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B8" s="2">
-        <v>8.1758736943205196E-3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>7.9237923937592099E-3</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="5">
+        <v>6.5685000105683303E-5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>6.4950264710747198E-5</v>
+      </c>
+      <c r="D8" s="4">
         <v>263</v>
       </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>21.201000000000001</v>
-      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="J8" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>0.01</v>
       </c>
       <c r="K8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0740511979597276E-2</v>
+        <v>7.1991119341691914E-4</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8792896713129933E-3</v>
+        <v>3.3046036735461827E-4</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7364,35 +7361,33 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B9" s="2">
-        <v>8.6879743896424704E-3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8.3910645917057904E-3</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="5">
+        <v>6.5589062879249996E-5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>6.5335101409916797E-5</v>
+      </c>
+      <c r="D9" s="4">
         <v>264</v>
       </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>14.877000000000001</v>
-      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="J9" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>0.1</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7453802656382274E-2</v>
+        <v>8.2306537082574001E-4</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0528694143508859E-2</v>
+        <v>8.2510426836187331E-4</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7407,11 +7402,11 @@
       <c r="A10" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B10">
-        <v>9.34968349958459E-3</v>
-      </c>
-      <c r="C10">
-        <v>1.0081290465561599E-2</v>
+      <c r="B10" s="1">
+        <v>6.5742575544087807E-5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6.6464323065295604E-5</v>
       </c>
       <c r="D10">
         <v>265</v>
@@ -7421,18 +7416,18 @@
       </c>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>8.7210306380082602E-3</v>
+        <v>6.5639567503936557E-5</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B11">
-        <v>8.8068024665117206E-3</v>
-      </c>
-      <c r="C11">
-        <v>8.7668631186193606E-3</v>
+      <c r="B11" s="1">
+        <v>6.5939767402596703E-5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6.59592980732571E-5</v>
       </c>
       <c r="D11">
         <v>266</v>
@@ -7445,11 +7440,11 @@
       <c r="A12" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B12">
-        <v>8.2134981465836303E-3</v>
-      </c>
-      <c r="C12">
-        <v>7.9466507552151903E-3</v>
+      <c r="B12" s="1">
+        <v>6.5766020454854397E-5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6.4994091634945706E-5</v>
       </c>
       <c r="D12">
         <v>267</v>
@@ -7462,11 +7457,11 @@
       <c r="A13" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B13">
-        <v>8.7043523242076194E-3</v>
-      </c>
-      <c r="C13">
-        <v>8.4027514515563496E-3</v>
+      <c r="B13" s="1">
+        <v>6.5737217276667494E-5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6.5296803091149794E-5</v>
       </c>
       <c r="D13">
         <v>268</v>
@@ -7476,82 +7471,94 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B14">
-        <v>9.2770675222078897E-3</v>
-      </c>
-      <c r="C14">
-        <v>1.00127710277175E-2</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="3">
+        <v>6.6556506644701498E-5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6.6400460824258894E-5</v>
+      </c>
+      <c r="D14" s="2">
         <v>269</v>
       </c>
-      <c r="E14">
-        <v>1</v>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>4.5810000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B15">
-        <v>8.4319276089469593E-3</v>
-      </c>
-      <c r="C15">
-        <v>8.4031091339172807E-3</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="3">
+        <v>6.6504657045394802E-5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6.5883638718390806E-5</v>
+      </c>
+      <c r="D15" s="2">
         <v>270</v>
       </c>
-      <c r="E15">
-        <v>1</v>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>3.2189999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B16">
-        <v>8.2515112993617797E-3</v>
-      </c>
-      <c r="C16">
-        <v>7.9963350906334003E-3</v>
-      </c>
-      <c r="D16">
+      <c r="B16" s="3">
+        <v>6.6540299652842805E-5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6.4886900060067006E-5</v>
+      </c>
+      <c r="D16" s="2">
         <v>271</v>
       </c>
-      <c r="E16">
-        <v>1</v>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>4.3390000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B17">
-        <v>9.1033445013066101E-3</v>
-      </c>
-      <c r="C17">
-        <v>8.7559010556086496E-3</v>
-      </c>
-      <c r="D17">
+      <c r="B17" s="3">
+        <v>6.6560681822011204E-5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6.5387270413029495E-5</v>
+      </c>
+      <c r="D17" s="2">
         <v>272</v>
       </c>
-      <c r="E17">
-        <v>1</v>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>3.6459999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1E-4</v>
       </c>
-      <c r="B18">
-        <v>9.3412893650432396E-3</v>
-      </c>
-      <c r="C18">
-        <v>1.0053032122433501E-2</v>
+      <c r="B18" s="1">
+        <v>7.4428706119457799E-5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6.6549783947808202E-5</v>
       </c>
       <c r="D18">
         <v>273</v>
@@ -7564,11 +7571,11 @@
       <c r="A19">
         <v>1E-4</v>
       </c>
-      <c r="B19">
-        <v>8.4276504057149097E-3</v>
-      </c>
-      <c r="C19">
-        <v>8.3710591982495194E-3</v>
+      <c r="B19" s="1">
+        <v>7.4920391023624607E-5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6.6086836786200095E-5</v>
       </c>
       <c r="D19">
         <v>274</v>
@@ -7581,11 +7588,11 @@
       <c r="A20">
         <v>1E-4</v>
       </c>
-      <c r="B20">
-        <v>8.2285282512505799E-3</v>
-      </c>
-      <c r="C20">
-        <v>7.9511722520072999E-3</v>
+      <c r="B20" s="1">
+        <v>7.4588136369129596E-5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6.5190444032889495E-5</v>
       </c>
       <c r="D20">
         <v>275</v>
@@ -7598,11 +7605,11 @@
       <c r="A21">
         <v>1E-4</v>
       </c>
-      <c r="B21">
-        <v>9.2478850881258599E-3</v>
-      </c>
-      <c r="C21">
-        <v>8.8718250800082603E-3</v>
+      <c r="B21" s="1">
+        <v>7.4807481190267296E-5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6.5408393137213899E-5</v>
       </c>
       <c r="D21">
         <v>276</v>
@@ -7616,10 +7623,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22" s="4">
-        <v>9.5260573700070295E-3</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1.00757154348762E-2</v>
+        <v>1.52327883445347E-4</v>
+      </c>
+      <c r="C22" s="5">
+        <v>6.9969422413046104E-5</v>
       </c>
       <c r="D22" s="4">
         <v>277</v>
@@ -7634,10 +7641,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23" s="4">
-        <v>9.1133331172168208E-3</v>
-      </c>
-      <c r="C23" s="4">
-        <v>8.8892422834450802E-3</v>
+        <v>1.52569686256659E-4</v>
+      </c>
+      <c r="C23" s="5">
+        <v>6.9592939171149901E-5</v>
       </c>
       <c r="D23" s="4">
         <v>278</v>
@@ -7652,10 +7659,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24" s="4">
-        <v>8.47483327115575E-3</v>
-      </c>
-      <c r="C24" s="4">
-        <v>8.0207512278030503E-3</v>
+        <v>1.50931167105833E-4</v>
+      </c>
+      <c r="C24" s="5">
+        <v>6.8454384048930006E-5</v>
       </c>
       <c r="D24" s="4">
         <v>279</v>
@@ -7670,10 +7677,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25" s="4">
-        <v>9.3276886021097499E-3</v>
-      </c>
-      <c r="C25" s="4">
-        <v>8.7889547935350101E-3</v>
+        <v>1.55445199285168E-4</v>
+      </c>
+      <c r="C25" s="5">
+        <v>6.8040097214682802E-5</v>
       </c>
       <c r="D25" s="4">
         <v>280</v>
@@ -7688,10 +7695,10 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="4">
-        <v>1.1220249609400801E-2</v>
+        <v>7.3890696481491102E-4</v>
       </c>
       <c r="C26" s="4">
-        <v>1.0105019965347699E-2</v>
+        <v>3.27462644100763E-4</v>
       </c>
       <c r="D26" s="4">
         <v>281</v>
@@ -7706,10 +7713,10 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="4">
-        <v>1.0308327019214599E-2</v>
+        <v>7.4687053666760495E-4</v>
       </c>
       <c r="C27" s="4">
-        <v>8.4169767697916294E-3</v>
+        <v>3.2493365374938602E-4</v>
       </c>
       <c r="D27" s="4">
         <v>282</v>
@@ -7724,10 +7731,10 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="4">
-        <v>1.02941800442834E-2</v>
+        <v>7.0028972346335605E-4</v>
       </c>
       <c r="C28" s="4">
-        <v>8.0757200064018597E-3</v>
+        <v>3.3158945703651099E-4</v>
       </c>
       <c r="D28" s="4">
         <v>283</v>
@@ -7742,10 +7749,10 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="4">
-        <v>1.1139291245490301E-2</v>
+        <v>6.9357754872180499E-4</v>
       </c>
       <c r="C29" s="4">
-        <v>8.9194419437107798E-3</v>
+        <v>3.3785571453181297E-4</v>
       </c>
       <c r="D29" s="4">
         <v>284</v>
@@ -7760,10 +7767,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>2.7284772545099201E-2</v>
+        <v>8.2345474449296797E-4</v>
       </c>
       <c r="C30">
-        <v>1.1236258381184999E-2</v>
+        <v>8.2361042571372904E-4</v>
       </c>
       <c r="D30">
         <v>285</v>
@@ -7777,10 +7784,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>2.7653341541687599E-2</v>
+        <v>8.2307420158758704E-4</v>
       </c>
       <c r="C31">
-        <v>1.06783285093038E-2</v>
+        <v>8.25024558543326E-4</v>
       </c>
       <c r="D31">
         <v>286</v>
@@ -7794,10 +7801,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>2.7498620142539301E-2</v>
+        <v>8.2361258224894604E-4</v>
       </c>
       <c r="C32">
-        <v>9.9976348066504305E-3</v>
+        <v>8.2272014015928802E-4</v>
       </c>
       <c r="D32">
         <v>287</v>
@@ -7811,10 +7818,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>2.7378476396203E-2</v>
+        <v>8.2211995497345899E-4</v>
       </c>
       <c r="C33">
-        <v>1.0202554876896201E-2</v>
+        <v>8.2906194903114997E-4</v>
       </c>
       <c r="D33">
         <v>288</v>

--- a/eg3.xlsx
+++ b/eg3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6105B063-321E-4246-9E44-934B62E1ABC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D950F9BC-68D8-2B44-BD4E-8E6404CA143A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="820" windowWidth="34560" windowHeight="19800" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
@@ -5534,7 +5534,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7058,7 +7058,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/eg3.xlsx
+++ b/eg3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D950F9BC-68D8-2B44-BD4E-8E6404CA143A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B4A11B-EC4E-9743-AAE6-37F7A98AAF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="820" windowWidth="34560" windowHeight="19800" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="820" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="10">
   <si>
     <t>Gamma</t>
   </si>
@@ -73,7 +73,7 @@
     <t>LipSDP</t>
   </si>
   <si>
-    <t>s</t>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -125,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -134,6 +134,7 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +472,13 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="13" width="10.83203125" style="8"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -501,10 +505,10 @@
       <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
@@ -516,16 +520,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B2">
-        <v>0.24390242993831601</v>
-      </c>
-      <c r="C2" s="1">
-        <v>6.6784839331608301E-5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>6.7379361543645804E-5</v>
+        <v>0.25353774428367598</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -535,19 +539,19 @@
       </c>
       <c r="J2">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>0.24390242993831601</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6935640751716099E-5</v>
-      </c>
-      <c r="M2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6683120447588045E-5</v>
+        <v>0.25353774428367598</v>
+      </c>
+      <c r="L2" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M2" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
@@ -560,16 +564,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.24390242993831601</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6.70237565847198E-5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6.6844508531156596E-5</v>
+        <v>0.5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -579,19 +583,19 @@
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.48780485987663202</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4422056456873587E-5</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5328842712451045E-5</v>
+        <v>1</v>
+      </c>
+      <c r="K3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
@@ -604,16 +608,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0.24390242993831601</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6.7404983131749994E-5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6.6023372787737001E-5</v>
+        <v>0.5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -623,19 +627,19 @@
       </c>
       <c r="J4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.97560971975326505</v>
-      </c>
-      <c r="L4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3679769811371534E-5</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5115211434223281E-5</v>
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="7" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4" s="7" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -648,16 +652,16 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0.24390242993831601</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6.65289839587863E-5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6.6485238927812794E-5</v>
+        <v>0.5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -667,19 +671,19 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9512194395065301</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3229081603067362E-5</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5031955060437604E-5</v>
+        <v>4</v>
+      </c>
+      <c r="K5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
@@ -692,16 +696,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>0.48780485987663202</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6.4236298520823905E-5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6.6162958783605306E-5</v>
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -711,19 +715,19 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.9024388790130602</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.2935533441440278E-5</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4936247094629645E-5</v>
+        <v>8</v>
+      </c>
+      <c r="K6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
@@ -736,16 +740,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>0.48780485987663202</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6.4656080173742102E-5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6.5389441899358299E-5</v>
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -755,19 +759,19 @@
       </c>
       <c r="J7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.8048777580261204</v>
-      </c>
-      <c r="L7" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.2539958512485426E-5</v>
-      </c>
-      <c r="M7" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4882879116262175E-5</v>
+        <v>16</v>
+      </c>
+      <c r="K7" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -780,16 +784,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>0.48780485987663202</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6.4936174393106404E-5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6.4737786623423897E-5</v>
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -797,43 +801,19 @@
       <c r="F8">
         <v>0.25</v>
       </c>
-      <c r="J8">
-        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
-        <v>64</v>
-      </c>
-      <c r="K8">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.6097555160522</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.2105975535195406E-5</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4833591798734631E-5</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ca="1" si="0"/>
-        <v>26.5</v>
-      </c>
-      <c r="O8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
-      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>0.48780485987663202</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6.3859672739821898E-5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6.5025183543416693E-5</v>
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -841,67 +821,45 @@
       <c r="F9">
         <v>0.25</v>
       </c>
-      <c r="J9" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>31.2195110321044</v>
-      </c>
-      <c r="L9" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.1760236919926255E-5</v>
-      </c>
-      <c r="M9" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4892519092493126E-5</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>30.5</v>
-      </c>
-      <c r="O9" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
-      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.97560971975326505</v>
-      </c>
-      <c r="C10" s="3">
-        <v>6.3522143852636894E-5</v>
-      </c>
-      <c r="D10" s="3">
-        <v>6.5888442708107495E-5</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E10" s="2">
         <v>9</v>
       </c>
       <c r="F10" s="2">
         <v>0.25</v>
-      </c>
-      <c r="M10">
-        <f ca="1">MIN(M2:M9)</f>
-        <v>6.4833591798734631E-5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.97560971975326505</v>
-      </c>
-      <c r="C11" s="3">
-        <v>6.3854424955392695E-5</v>
-      </c>
-      <c r="D11" s="3">
-        <v>6.5199511037133804E-5</v>
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
@@ -912,16 +870,16 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.97560971975326505</v>
-      </c>
-      <c r="C12" s="3">
-        <v>6.42719146429605E-5</v>
-      </c>
-      <c r="D12" s="3">
-        <v>6.4573331559237903E-5</v>
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
@@ -932,16 +890,16 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.97560971975326505</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6.3070595794496005E-5</v>
-      </c>
-      <c r="D13" s="3">
-        <v>6.4799560432413897E-5</v>
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E13" s="2">
         <v>12</v>
@@ -952,16 +910,16 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1.9512194395065301</v>
-      </c>
-      <c r="C14" s="5">
-        <v>6.2997927903160497E-5</v>
-      </c>
-      <c r="D14" s="5">
-        <v>6.5803800990057003E-5</v>
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E14" s="4">
         <v>13</v>
@@ -972,16 +930,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1.9512194395065301</v>
-      </c>
-      <c r="C15" s="5">
-        <v>6.3323366161289701E-5</v>
-      </c>
-      <c r="D15" s="5">
-        <v>6.5151877935661195E-5</v>
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -992,16 +950,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1.9512194395065301</v>
-      </c>
-      <c r="C16" s="5">
-        <v>6.3956053557550493E-5</v>
-      </c>
-      <c r="D16" s="5">
-        <v>6.4490723355234802E-5</v>
+        <v>4</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E16" s="4">
         <v>15</v>
@@ -1012,16 +970,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>8</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1.9512194395065301</v>
-      </c>
-      <c r="C17" s="5">
-        <v>6.2638978790268798E-5</v>
-      </c>
-      <c r="D17" s="5">
-        <v>6.4681417960797401E-5</v>
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E17" s="4">
         <v>16</v>
@@ -1032,16 +990,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>3.9024388790130602</v>
-      </c>
-      <c r="C18" s="1">
-        <v>6.2843073697257804E-5</v>
-      </c>
-      <c r="D18" s="1">
-        <v>6.5666935854019203E-5</v>
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1052,16 +1010,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>3.9024388790130602</v>
-      </c>
-      <c r="C19" s="1">
-        <v>6.2874914487536499E-5</v>
-      </c>
-      <c r="D19" s="1">
-        <v>6.5040688415583003E-5</v>
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1072,16 +1030,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>3.9024388790130602</v>
-      </c>
-      <c r="C20" s="1">
-        <v>6.3627946377543598E-5</v>
-      </c>
-      <c r="D20" s="1">
-        <v>6.4401792305363105E-5</v>
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1092,16 +1050,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <v>3.9024388790130602</v>
-      </c>
-      <c r="C21" s="1">
-        <v>6.2396199203423197E-5</v>
-      </c>
-      <c r="D21" s="1">
-        <v>6.4635571803553298E-5</v>
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1112,16 +1070,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>32</v>
-      </c>
-      <c r="B22" s="4">
-        <v>7.8048777580261204</v>
-      </c>
-      <c r="C22" s="5">
-        <v>6.2447980065158797E-5</v>
-      </c>
-      <c r="D22" s="5">
-        <v>6.5665157269401606E-5</v>
+        <v>16</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E22" s="4">
         <v>21</v>
@@ -1132,16 +1090,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>32</v>
-      </c>
-      <c r="B23" s="4">
-        <v>7.8048777580261204</v>
-      </c>
-      <c r="C23" s="5">
-        <v>6.23375261521358E-5</v>
-      </c>
-      <c r="D23" s="5">
-        <v>6.4844613239364797E-5</v>
+        <v>16</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E23" s="4">
         <v>22</v>
@@ -1152,16 +1110,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>32</v>
-      </c>
-      <c r="B24" s="4">
-        <v>7.8048777580261204</v>
-      </c>
-      <c r="C24" s="5">
-        <v>6.3318320129876607E-5</v>
-      </c>
-      <c r="D24" s="5">
-        <v>6.4372736465265101E-5</v>
+        <v>16</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E24" s="4">
         <v>23</v>
@@ -1172,16 +1130,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>32</v>
-      </c>
-      <c r="B25" s="4">
-        <v>7.8048777580261204</v>
-      </c>
-      <c r="C25" s="5">
-        <v>6.20560077027705E-5</v>
-      </c>
-      <c r="D25" s="5">
-        <v>6.4649009491017195E-5</v>
+        <v>16</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E25" s="4">
         <v>24</v>
@@ -1191,164 +1149,52 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>64</v>
-      </c>
-      <c r="B26">
-        <v>15.6097555160522</v>
-      </c>
-      <c r="C26" s="1">
-        <v>6.1872455223644296E-5</v>
-      </c>
-      <c r="D26" s="1">
-        <v>6.5677849906546198E-5</v>
-      </c>
-      <c r="E26">
-        <v>25</v>
-      </c>
-      <c r="F26">
-        <v>0.25</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>64</v>
-      </c>
-      <c r="B27">
-        <v>15.6097555160522</v>
-      </c>
-      <c r="C27" s="1">
-        <v>6.2088724317095999E-5</v>
-      </c>
-      <c r="D27" s="1">
-        <v>6.4817585611153604E-5</v>
-      </c>
-      <c r="E27">
-        <v>26</v>
-      </c>
-      <c r="F27">
-        <v>0.25</v>
-      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>64</v>
-      </c>
-      <c r="B28">
-        <v>15.6097555160522</v>
-      </c>
-      <c r="C28" s="1">
-        <v>6.2768435956504003E-5</v>
-      </c>
-      <c r="D28" s="1">
-        <v>6.4196775325554105E-5</v>
-      </c>
-      <c r="E28">
-        <v>27</v>
-      </c>
-      <c r="F28">
-        <v>0.25</v>
-      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>64</v>
-      </c>
-      <c r="B29">
-        <v>15.6097555160522</v>
-      </c>
-      <c r="C29" s="1">
-        <v>6.1694286643537298E-5</v>
-      </c>
-      <c r="D29" s="1">
-        <v>6.4642156351684606E-5</v>
-      </c>
-      <c r="E29">
-        <v>28</v>
-      </c>
-      <c r="F29">
-        <v>0.25</v>
-      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>128</v>
-      </c>
-      <c r="B30" s="4">
-        <v>31.2195110321044</v>
-      </c>
-      <c r="C30" s="5">
-        <v>6.1424664655784498E-5</v>
-      </c>
-      <c r="D30" s="5">
-        <v>6.5745833977571397E-5</v>
-      </c>
-      <c r="E30" s="4">
-        <v>29</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0.25</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>128</v>
-      </c>
-      <c r="B31" s="4">
-        <v>31.2195110321044</v>
-      </c>
-      <c r="C31" s="5">
-        <v>6.1698707755335503E-5</v>
-      </c>
-      <c r="D31" s="5">
-        <v>6.4895270391369798E-5</v>
-      </c>
-      <c r="E31" s="4">
-        <v>30</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0.25</v>
-      </c>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>128</v>
-      </c>
-      <c r="B32" s="4">
-        <v>31.2195110321044</v>
-      </c>
-      <c r="C32" s="5">
-        <v>6.2565818649439194E-5</v>
-      </c>
-      <c r="D32" s="5">
-        <v>6.4283343856507701E-5</v>
-      </c>
-      <c r="E32" s="4">
-        <v>31</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0.25</v>
-      </c>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>128</v>
-      </c>
-      <c r="B33" s="4">
-        <v>31.2195110321044</v>
-      </c>
-      <c r="C33" s="5">
-        <v>6.1351756619145798E-5</v>
-      </c>
-      <c r="D33" s="5">
-        <v>6.4645628144523594E-5</v>
-      </c>
-      <c r="E33" s="4">
-        <v>32</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0.25</v>
-      </c>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1361,7 +1207,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="O9" sqref="J9:O9"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1406,42 +1252,42 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.24390242993831601</v>
-      </c>
-      <c r="C2" s="1">
-        <v>6.6857643840658604E-5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>6.7154192831676802E-5</v>
+        <v>0.5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>0.5</v>
       </c>
       <c r="J2">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
-        <v>1</v>
-      </c>
-      <c r="K2">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="e">
         <f t="shared" ref="K2:O2" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>0.24390242993831601</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6842933857186169E-5</v>
-      </c>
-      <c r="M2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6471255824116551E-5</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L2" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M2" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>34.5</v>
+        <v>26.5</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
@@ -1450,42 +1296,42 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.24390242993831601</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6.6970325396470501E-5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6.6605252326785595E-5</v>
+        <v>0.5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <v>0.5</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
-        <v>2</v>
-      </c>
-      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="e">
         <f t="shared" ref="K3:K9" ca="1" si="2">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>0.48780485987663202</v>
-      </c>
-      <c r="L3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" t="e">
         <f t="shared" ref="L3:L9" ca="1" si="3">AVERAGE(OFFSET(C$2,(ROW()-2)*4,0,4,1))</f>
-        <v>6.4721767315897974E-5</v>
-      </c>
-      <c r="M3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" t="e">
         <f t="shared" ref="M3:M9" ca="1" si="4">AVERAGE(OFFSET(D$2,(ROW()-2)*4,0,4,1))</f>
-        <v>6.5027327473991174E-5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N9" ca="1" si="5">AVERAGE(OFFSET(E$2,(ROW()-2)*4,0,4,1))</f>
-        <v>38.5</v>
+        <v>30.5</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O9" ca="1" si="6">AVERAGE(OFFSET(F$2,(ROW()-2)*4,0,4,1))</f>
@@ -1494,42 +1340,42 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0.24390242993831601</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6.6925568871931997E-5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6.5830768630319696E-5</v>
+        <v>0.5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>0.5</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97560971975326505</v>
-      </c>
-      <c r="L4" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="2" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4107760181286654E-5</v>
-      </c>
-      <c r="M4" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4" s="2" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>6.4740751992197103E-5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>42.5</v>
+        <v>34.5</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -1538,42 +1384,42 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0.24390242993831601</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6.6618197319683601E-5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6.6294809507684097E-5</v>
+        <v>0.5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>0.5</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9512194395065301</v>
-      </c>
-      <c r="L5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3763833748724079E-5</v>
-      </c>
-      <c r="M5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>6.4597478730649217E-5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="5"/>
-        <v>46.5</v>
+        <v>38.5</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="6"/>
@@ -1582,42 +1428,42 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>0.48780485987663202</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6.4656644950600995E-5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6.5759685388369897E-5</v>
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F6">
         <v>0.5</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="K6" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>3.9024388790130602</v>
-      </c>
-      <c r="L6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3427579131344552E-5</v>
-      </c>
-      <c r="M6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>6.4443651876415999E-5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="5"/>
-        <v>50.5</v>
+        <v>42.5</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="6"/>
@@ -1626,42 +1472,42 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>0.48780485987663202</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6.4861346780820301E-5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6.5077807332582203E-5</v>
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>0.5</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="K7" s="4">
+        <v>16</v>
+      </c>
+      <c r="K7" s="4" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8048777580261204</v>
-      </c>
-      <c r="L7" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="4" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>6.3001875521373881E-5</v>
-      </c>
-      <c r="M7" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="4" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>6.4191407816790424E-5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>54.5</v>
+        <v>46.5</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" ca="1" si="6"/>
@@ -1670,131 +1516,85 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>0.48780485987663202</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6.4826157830929199E-5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6.4483116148039699E-5</v>
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ca="1" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="K8">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.6097555160522</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.2803270648533277E-5</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.4178616538172574E-5</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ca="1" si="5"/>
-        <v>58.5</v>
-      </c>
-      <c r="O8">
-        <f t="shared" ca="1" si="6"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>0.48780485987663202</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6.45429197012414E-5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6.4788701026972898E-5</v>
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F9">
         <v>0.5</v>
       </c>
-      <c r="J9" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>31.2195110321044</v>
-      </c>
-      <c r="L9" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.2509898764395204E-5</v>
-      </c>
-      <c r="M9" s="4">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.4073814467113268E-5</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>62.5</v>
-      </c>
-      <c r="O9" s="4">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.5</v>
-      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.97560971975326505</v>
-      </c>
-      <c r="C10" s="3">
-        <v>6.40469780650009E-5</v>
-      </c>
-      <c r="D10" s="3">
-        <v>6.5469062742232206E-5</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E10" s="2">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2">
         <v>0.5</v>
-      </c>
-      <c r="M10">
-        <f ca="1">MIN(M2:M9)</f>
-        <v>6.4073814467113268E-5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.97560971975326505</v>
-      </c>
-      <c r="C11" s="3">
-        <v>6.4358953711641097E-5</v>
-      </c>
-      <c r="D11" s="3">
-        <v>6.4880971780091403E-5</v>
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E11" s="2">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2">
         <v>0.5</v>
@@ -1802,19 +1602,19 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.97560971975326505</v>
-      </c>
-      <c r="C12" s="3">
-        <v>6.4345432776385497E-5</v>
-      </c>
-      <c r="D12" s="3">
-        <v>6.4264528849347906E-5</v>
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E12" s="2">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2">
         <v>0.5</v>
@@ -1822,19 +1622,19 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.97560971975326505</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6.3679676172119094E-5</v>
-      </c>
-      <c r="D13" s="3">
-        <v>6.4348444597116895E-5</v>
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E13" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2">
         <v>0.5</v>
@@ -1842,19 +1642,19 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1.9512194395065301</v>
-      </c>
-      <c r="C14" s="5">
-        <v>6.3608914929995703E-5</v>
-      </c>
-      <c r="D14" s="5">
-        <v>6.5214128513384494E-5</v>
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E14" s="4">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F14" s="4">
         <v>0.5</v>
@@ -1862,19 +1662,19 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1.9512194395065301</v>
-      </c>
-      <c r="C15" s="5">
-        <v>6.3705386948756905E-5</v>
-      </c>
-      <c r="D15" s="5">
-        <v>6.4649384551151499E-5</v>
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E15" s="4">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F15" s="4">
         <v>0.5</v>
@@ -1882,19 +1682,19 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1.9512194395065301</v>
-      </c>
-      <c r="C16" s="5">
-        <v>6.4188683299630097E-5</v>
-      </c>
-      <c r="D16" s="5">
-        <v>6.4248198001184796E-5</v>
+        <v>4</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E16" s="4">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F16" s="4">
         <v>0.5</v>
@@ -1902,19 +1702,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>8</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1.9512194395065301</v>
-      </c>
-      <c r="C17" s="5">
-        <v>6.3552349816513597E-5</v>
-      </c>
-      <c r="D17" s="5">
-        <v>6.4278203856876106E-5</v>
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E17" s="4">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F17" s="4">
         <v>0.5</v>
@@ -1922,19 +1722,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>3.9024388790130602</v>
-      </c>
-      <c r="C18" s="1">
-        <v>6.3406947060200806E-5</v>
-      </c>
-      <c r="D18" s="1">
-        <v>6.5076430009286599E-5</v>
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F18">
         <v>0.5</v>
@@ -1942,19 +1742,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>3.9024388790130602</v>
-      </c>
-      <c r="C19" s="1">
-        <v>6.3232920260912904E-5</v>
-      </c>
-      <c r="D19" s="1">
-        <v>6.4471889809863798E-5</v>
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F19">
         <v>0.5</v>
@@ -1962,19 +1762,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>3.9024388790130602</v>
-      </c>
-      <c r="C20" s="1">
-        <v>6.36984304946963E-5</v>
-      </c>
-      <c r="D20" s="1">
-        <v>6.3994204847791003E-5</v>
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F20">
         <v>0.5</v>
@@ -1982,19 +1782,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <v>3.9024388790130602</v>
-      </c>
-      <c r="C21" s="1">
-        <v>6.3372018709568199E-5</v>
-      </c>
-      <c r="D21" s="1">
-        <v>6.4232082838722594E-5</v>
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F21">
         <v>0.5</v>
@@ -2002,19 +1802,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>32</v>
-      </c>
-      <c r="B22" s="4">
-        <v>7.8048777580261204</v>
-      </c>
-      <c r="C22" s="5">
-        <v>6.2949048058610297E-5</v>
-      </c>
-      <c r="D22" s="5">
-        <v>6.4821008329980594E-5</v>
+        <v>16</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E22" s="4">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F22" s="4">
         <v>0.5</v>
@@ -2022,19 +1822,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>32</v>
-      </c>
-      <c r="B23" s="4">
-        <v>7.8048777580261204</v>
-      </c>
-      <c r="C23" s="5">
-        <v>6.2853791260227305E-5</v>
-      </c>
-      <c r="D23" s="5">
-        <v>6.4262986075420403E-5</v>
+        <v>16</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E23" s="4">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F23" s="4">
         <v>0.5</v>
@@ -2042,19 +1842,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>32</v>
-      </c>
-      <c r="B24" s="4">
-        <v>7.8048777580261204</v>
-      </c>
-      <c r="C24" s="5">
-        <v>6.3422854896572794E-5</v>
-      </c>
-      <c r="D24" s="5">
-        <v>6.3878993193824507E-5</v>
+        <v>16</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E24" s="4">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F24" s="4">
         <v>0.5</v>
@@ -2062,183 +1862,71 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>32</v>
-      </c>
-      <c r="B25" s="4">
-        <v>7.8048777580261204</v>
-      </c>
-      <c r="C25" s="5">
-        <v>6.27818078700851E-5</v>
-      </c>
-      <c r="D25" s="5">
-        <v>6.3802643667936195E-5</v>
+        <v>16</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E25" s="4">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F25" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>64</v>
-      </c>
-      <c r="B26">
-        <v>15.6097555160522</v>
-      </c>
-      <c r="C26" s="1">
-        <v>6.2611350663343104E-5</v>
-      </c>
-      <c r="D26" s="1">
-        <v>6.47691096596548E-5</v>
-      </c>
-      <c r="E26">
-        <v>57</v>
-      </c>
-      <c r="F26">
-        <v>0.5</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>64</v>
-      </c>
-      <c r="B27">
-        <v>15.6097555160522</v>
-      </c>
-      <c r="C27" s="1">
-        <v>6.2762784724095295E-5</v>
-      </c>
-      <c r="D27" s="1">
-        <v>6.4250049500186193E-5</v>
-      </c>
-      <c r="E27">
-        <v>58</v>
-      </c>
-      <c r="F27">
-        <v>0.5</v>
-      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>64</v>
-      </c>
-      <c r="B28">
-        <v>15.6097555160522</v>
-      </c>
-      <c r="C28" s="1">
-        <v>6.3082643928863305E-5</v>
-      </c>
-      <c r="D28" s="1">
-        <v>6.3707882137795704E-5</v>
-      </c>
-      <c r="E28">
-        <v>59</v>
-      </c>
-      <c r="F28">
-        <v>0.5</v>
-      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>64</v>
-      </c>
-      <c r="B29">
-        <v>15.6097555160522</v>
-      </c>
-      <c r="C29" s="1">
-        <v>6.2756303277831403E-5</v>
-      </c>
-      <c r="D29" s="1">
-        <v>6.3987424855053599E-5</v>
-      </c>
-      <c r="E29">
-        <v>60</v>
-      </c>
-      <c r="F29">
-        <v>0.5</v>
-      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>128</v>
-      </c>
-      <c r="B30" s="4">
-        <v>31.2195110321044</v>
-      </c>
-      <c r="C30" s="5">
-        <v>6.2527861623396904E-5</v>
-      </c>
-      <c r="D30" s="5">
-        <v>6.4821623767629503E-5</v>
-      </c>
-      <c r="E30" s="4">
-        <v>61</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>128</v>
-      </c>
-      <c r="B31" s="4">
-        <v>31.2195110321044</v>
-      </c>
-      <c r="C31" s="5">
-        <v>6.2336824370543096E-5</v>
-      </c>
-      <c r="D31" s="5">
-        <v>6.4071336345613298E-5</v>
-      </c>
-      <c r="E31" s="4">
-        <v>62</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>128</v>
-      </c>
-      <c r="B32" s="4">
-        <v>31.2195110321044</v>
-      </c>
-      <c r="C32" s="5">
-        <v>6.2738944139477694E-5</v>
-      </c>
-      <c r="D32" s="5">
-        <v>6.3580150960293105E-5</v>
-      </c>
-      <c r="E32" s="4">
-        <v>63</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>128</v>
-      </c>
-      <c r="B33" s="4">
-        <v>31.2195110321044</v>
-      </c>
-      <c r="C33" s="5">
-        <v>6.2435964924163095E-5</v>
-      </c>
-      <c r="D33" s="5">
-        <v>6.3822146794917205E-5</v>
-      </c>
-      <c r="E33" s="4">
-        <v>64</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2250,7 +1938,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2295,42 +1983,42 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.24390242993831601</v>
-      </c>
-      <c r="C2" s="1">
-        <v>6.6634812411696902E-5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>6.7047398996247104E-5</v>
+        <v>0.5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="J2">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
-        <v>1</v>
-      </c>
-      <c r="K2">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="e">
         <f t="shared" ref="K2:O9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>0.24390242993831601</v>
-      </c>
-      <c r="L2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6782209675390371E-5</v>
-      </c>
-      <c r="M2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6382485038821867E-5</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L2" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M2" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>66.5</v>
+        <v>50.5</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
@@ -2339,42 +2027,42 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.24390242993831601</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6.6746906086336794E-5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6.6575333859989397E-5</v>
+        <v>0.5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.48780485987663202</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4864382734716229E-5</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4820513893829067E-5</v>
+        <v>1</v>
+      </c>
+      <c r="K3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>70.5</v>
+        <v>54.5</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
@@ -2383,42 +2071,42 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0.24390242993831601</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6.6922260244609697E-5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6.5721967636837901E-5</v>
+        <v>0.5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.97560971975326505</v>
-      </c>
-      <c r="L4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4238546023261697E-5</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4460567162004295E-5</v>
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="2" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4" s="2" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>74.5</v>
+        <v>58.5</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -2427,42 +2115,42 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0.24390242993831601</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6.6824859958918104E-5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6.6185239662213094E-5</v>
+        <v>0.5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9512194395065301</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3889408331306143E-5</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4236574039665641E-5</v>
+        <v>4</v>
+      </c>
+      <c r="K5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>78.5</v>
+        <v>62.5</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
@@ -2471,42 +2159,42 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>0.48780485987663202</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6.4749351081748796E-5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6.5496735763364498E-5</v>
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.9024388790130602</v>
-      </c>
-      <c r="L6" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3573039784387179E-5</v>
-      </c>
-      <c r="M6" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4052711471223505E-5</v>
+        <v>8</v>
+      </c>
+      <c r="K6" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>82.5</v>
+        <v>66.5</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -2515,42 +2203,42 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>0.48780485987663202</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6.4844356209505297E-5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6.4960931496821004E-5</v>
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.8048777580261204</v>
-      </c>
-      <c r="L7" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3340215400482173E-5</v>
-      </c>
-      <c r="M7" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.38852222456331E-5</v>
+        <v>16</v>
+      </c>
+      <c r="K7" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>86.5</v>
+        <v>70.5</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -2559,131 +2247,85 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>0.48780485987663202</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6.5120297367684499E-5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6.4361895481929496E-5</v>
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="J8" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>15.6097555160522</v>
-      </c>
-      <c r="L8" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.304808641531655E-5</v>
-      </c>
-      <c r="M8" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.36849501867626E-5</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>90.5</v>
-      </c>
-      <c r="O8" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>0.48780485987663202</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6.4743526279926295E-5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6.4462492833201299E-5</v>
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ca="1" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="K9">
-        <f t="shared" ca="1" si="0"/>
-        <v>31.2195110321044</v>
-      </c>
-      <c r="L9">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.2782048989902205E-5</v>
-      </c>
-      <c r="M9">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3531870753340226E-5</v>
-      </c>
-      <c r="N9">
-        <f t="shared" ca="1" si="0"/>
-        <v>94.5</v>
-      </c>
-      <c r="O9">
-        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.97560971975326505</v>
-      </c>
-      <c r="C10" s="3">
-        <v>6.3993643406623304E-5</v>
-      </c>
-      <c r="D10" s="3">
-        <v>6.4982794472288801E-5</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E10" s="2">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
-      </c>
-      <c r="M10">
-        <f ca="1">MIN(M2:M9)</f>
-        <v>6.3531870753340226E-5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.97560971975326505</v>
-      </c>
-      <c r="C11" s="3">
-        <v>6.4256784292714001E-5</v>
-      </c>
-      <c r="D11" s="3">
-        <v>6.4660422681976897E-5</v>
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E11" s="2">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -2691,19 +2333,19 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.97560971975326505</v>
-      </c>
-      <c r="C12" s="3">
-        <v>6.4446821265543499E-5</v>
-      </c>
-      <c r="D12" s="3">
-        <v>6.3997757101884702E-5</v>
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E12" s="2">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -2711,19 +2353,19 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.97560971975326505</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6.4256935128165999E-5</v>
-      </c>
-      <c r="D13" s="3">
-        <v>6.4201294391866805E-5</v>
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E13" s="2">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -2731,19 +2373,19 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1.9512194395065301</v>
-      </c>
-      <c r="C14" s="5">
-        <v>6.3738023464490298E-5</v>
-      </c>
-      <c r="D14" s="5">
-        <v>6.4814322073250305E-5</v>
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E14" s="4">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -2751,19 +2393,19 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1.9512194395065301</v>
-      </c>
-      <c r="C15" s="5">
-        <v>6.3820561520211997E-5</v>
-      </c>
-      <c r="D15" s="5">
-        <v>6.4395807288398805E-5</v>
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E15" s="4">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -2771,19 +2413,19 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1.9512194395065301</v>
-      </c>
-      <c r="C16" s="5">
-        <v>6.4233934914227503E-5</v>
-      </c>
-      <c r="D16" s="5">
-        <v>6.3820600150799495E-5</v>
+        <v>4</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E16" s="4">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -2791,19 +2433,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>8</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1.9512194395065301</v>
-      </c>
-      <c r="C17" s="5">
-        <v>6.3765113426294802E-5</v>
-      </c>
-      <c r="D17" s="5">
-        <v>6.3915566646214001E-5</v>
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E17" s="4">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -2811,19 +2453,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4">
-        <v>3.9024388790130602</v>
-      </c>
-      <c r="C18" s="5">
-        <v>6.3428737029122794E-5</v>
-      </c>
-      <c r="D18" s="5">
-        <v>6.4646887543123201E-5</v>
+        <v>8</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E18" s="4">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -2831,19 +2473,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4">
-        <v>3.9024388790130602</v>
-      </c>
-      <c r="C19" s="5">
-        <v>6.3375200542698898E-5</v>
-      </c>
-      <c r="D19" s="5">
-        <v>6.4150032716149303E-5</v>
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E19" s="4">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -2851,19 +2493,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4">
-        <v>3.9024388790130602</v>
-      </c>
-      <c r="C20" s="5">
-        <v>6.3906677251603994E-5</v>
-      </c>
-      <c r="D20" s="5">
-        <v>6.36235066888323E-5</v>
+        <v>8</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E20" s="4">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -2871,19 +2513,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>16</v>
-      </c>
-      <c r="B21" s="4">
-        <v>3.9024388790130602</v>
-      </c>
-      <c r="C21" s="5">
-        <v>6.3581544314123003E-5</v>
-      </c>
-      <c r="D21" s="5">
-        <v>6.3790418936789201E-5</v>
+        <v>8</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E21" s="4">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -2891,19 +2533,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>32</v>
-      </c>
-      <c r="B22" s="4">
-        <v>7.8048777580261204</v>
-      </c>
-      <c r="C22" s="5">
-        <v>6.3162507887075904E-5</v>
-      </c>
-      <c r="D22" s="5">
-        <v>6.4367735521568106E-5</v>
+        <v>16</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E22" s="4">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -2911,19 +2553,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>32</v>
-      </c>
-      <c r="B23" s="4">
-        <v>7.8048777580261204</v>
-      </c>
-      <c r="C23" s="5">
-        <v>6.3175068799561497E-5</v>
-      </c>
-      <c r="D23" s="5">
-        <v>6.39850827320379E-5</v>
+        <v>16</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E23" s="4">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -2931,19 +2573,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>32</v>
-      </c>
-      <c r="B24" s="4">
-        <v>7.8048777580261204</v>
-      </c>
-      <c r="C24" s="5">
-        <v>6.3689379079732997E-5</v>
-      </c>
-      <c r="D24" s="5">
-        <v>6.3552128654493394E-5</v>
+        <v>16</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E24" s="4">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -2951,183 +2593,71 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>32</v>
-      </c>
-      <c r="B25" s="4">
-        <v>7.8048777580261204</v>
-      </c>
-      <c r="C25" s="5">
-        <v>6.3333905835558294E-5</v>
-      </c>
-      <c r="D25" s="5">
-        <v>6.3635942074433E-5</v>
+        <v>16</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E25" s="4">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>64</v>
-      </c>
-      <c r="B26" s="4">
-        <v>15.6097555160522</v>
-      </c>
-      <c r="C26" s="5">
-        <v>6.2866958896241399E-5</v>
-      </c>
-      <c r="D26" s="5">
-        <v>6.4161053353714998E-5</v>
-      </c>
-      <c r="E26" s="4">
-        <v>89</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>64</v>
-      </c>
-      <c r="B27" s="4">
-        <v>15.6097555160522</v>
-      </c>
-      <c r="C27" s="5">
-        <v>6.2855419062543598E-5</v>
-      </c>
-      <c r="D27" s="5">
-        <v>6.3802968067280496E-5</v>
-      </c>
-      <c r="E27" s="4">
-        <v>90</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1</v>
-      </c>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>64</v>
-      </c>
-      <c r="B28" s="4">
-        <v>15.6097555160522</v>
-      </c>
-      <c r="C28" s="5">
-        <v>6.3421474110024597E-5</v>
-      </c>
-      <c r="D28" s="5">
-        <v>6.3328381734305706E-5</v>
-      </c>
-      <c r="E28" s="4">
-        <v>91</v>
-      </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>64</v>
-      </c>
-      <c r="B29" s="4">
-        <v>15.6097555160522</v>
-      </c>
-      <c r="C29" s="5">
-        <v>6.3048493592456604E-5</v>
-      </c>
-      <c r="D29" s="5">
-        <v>6.3447397591749201E-5</v>
-      </c>
-      <c r="E29" s="4">
-        <v>92</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>128</v>
-      </c>
-      <c r="B30">
-        <v>31.2195110321044</v>
-      </c>
-      <c r="C30" s="1">
-        <v>6.2628083930273197E-5</v>
-      </c>
-      <c r="D30" s="1">
-        <v>6.4044979537473105E-5</v>
-      </c>
-      <c r="E30">
-        <v>93</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>128</v>
-      </c>
-      <c r="B31">
-        <v>31.2195110321044</v>
-      </c>
-      <c r="C31" s="1">
-        <v>6.2488311251703002E-5</v>
-      </c>
-      <c r="D31" s="1">
-        <v>6.3560856088247893E-5</v>
-      </c>
-      <c r="E31">
-        <v>94</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>128</v>
-      </c>
-      <c r="B32">
-        <v>31.2195110321044</v>
-      </c>
-      <c r="C32" s="1">
-        <v>6.3103049634567705E-5</v>
-      </c>
-      <c r="D32" s="1">
-        <v>6.3176253806499898E-5</v>
-      </c>
-      <c r="E32">
-        <v>95</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>128</v>
-      </c>
-      <c r="B33">
-        <v>31.2195110321044</v>
-      </c>
-      <c r="C33" s="1">
-        <v>6.2908751143064904E-5</v>
-      </c>
-      <c r="D33" s="1">
-        <v>6.3345393581139994E-5</v>
-      </c>
-      <c r="E33">
-        <v>96</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3183,14 +2713,14 @@
       <c r="A2" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="3">
-        <v>6.4597459873147394E-5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>6.6287483469808497E-5</v>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2">
         <v>0.25</v>
@@ -3200,17 +2730,17 @@
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1E-8</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="7" t="e">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>6.4698355490303979E-5</v>
-      </c>
-      <c r="L2" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5463185519741015E-5</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L2" s="7" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>98.5</v>
+        <v>74.5</v>
       </c>
       <c r="N2" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3221,14 +2751,14 @@
       <c r="A3" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="3">
-        <v>6.4816171753262299E-5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>6.5513695130419407E-5</v>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2">
         <v>0.25</v>
@@ -3238,17 +2768,17 @@
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="K3" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4910073182003751E-5</v>
-      </c>
-      <c r="L3" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5519813427059427E-5</v>
+      <c r="K3" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>102.5</v>
+        <v>78.5</v>
       </c>
       <c r="N3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3259,14 +2789,14 @@
       <c r="A4" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="3">
-        <v>6.5129837279760301E-5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>6.4817132024859794E-5</v>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2">
         <v>0.25</v>
@@ -3276,17 +2806,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K4" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5727153730435028E-5</v>
-      </c>
-      <c r="L4" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5915898640594807E-5</v>
+      <c r="K4" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>106.5</v>
+        <v>82.5</v>
       </c>
       <c r="N4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3297,14 +2827,14 @@
       <c r="A5" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="3">
-        <v>6.4249953055045894E-5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>6.5234431453876403E-5</v>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2">
         <v>0.25</v>
@@ -3314,17 +2844,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="K5" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.8951527819742094E-4</v>
-      </c>
-      <c r="L5" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.8985735398726178E-4</v>
+      <c r="K5" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>110.5</v>
+        <v>86.5</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3336,14 +2866,14 @@
       <c r="A6" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B6" s="5">
-        <v>6.4734958365814707E-5</v>
-      </c>
-      <c r="C6" s="5">
-        <v>6.6309476019244901E-5</v>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D6" s="4">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E6" s="4">
         <v>0.25</v>
@@ -3352,17 +2882,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>1E-4</v>
       </c>
-      <c r="K6" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2241719838806399E-4</v>
-      </c>
-      <c r="L6" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2492434058680181E-4</v>
+      <c r="K6" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>114.5</v>
+        <v>90.5</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3373,14 +2903,14 @@
       <c r="A7" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B7" s="5">
-        <v>6.50752521168931E-5</v>
-      </c>
-      <c r="C7" s="5">
-        <v>6.5609029061693496E-5</v>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D7" s="4">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E7" s="4">
         <v>0.25</v>
@@ -3389,17 +2919,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>1E-3</v>
       </c>
-      <c r="K7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2254586766097393E-4</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2493095892169376E-4</v>
+      <c r="K7" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>118.5</v>
+        <v>94.5</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3410,14 +2940,14 @@
       <c r="A8" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B8" s="5">
-        <v>6.5354461688176701E-5</v>
-      </c>
-      <c r="C8" s="5">
-        <v>6.4883761297096498E-5</v>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D8" s="4">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="E8" s="4">
         <v>0.25</v>
@@ -3426,17 +2956,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="K8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2255146689737724E-4</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2493253656603521E-4</v>
+      <c r="K8" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>122.5</v>
+        <v>98.5</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3447,14 +2977,14 @@
       <c r="A9" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B9" s="5">
-        <v>6.4475620557130498E-5</v>
-      </c>
-      <c r="C9" s="5">
-        <v>6.5276987330202801E-5</v>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D9" s="4">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E9" s="4">
         <v>0.25</v>
@@ -3463,17 +2993,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="K9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2255241648724968E-4</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2493288797930706E-4</v>
+      <c r="K9" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>126.5</v>
+        <v>102.5</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3484,35 +3014,35 @@
       <c r="A10" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B10" s="5">
-        <v>6.5483866529440104E-5</v>
-      </c>
-      <c r="C10" s="5">
-        <v>6.6676158236619496E-5</v>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D10" s="4">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E10" s="4">
         <v>0.25</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="e">
         <f ca="1">MIN(L2:L9)</f>
-        <v>6.5463185519741015E-5</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B11" s="5">
-        <v>6.5968321344351996E-5</v>
-      </c>
-      <c r="C11" s="5">
-        <v>6.6096787857996398E-5</v>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D11" s="4">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E11" s="4">
         <v>0.25</v>
@@ -3522,14 +3052,14 @@
       <c r="A12" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B12" s="5">
-        <v>6.61962969117783E-5</v>
-      </c>
-      <c r="C12" s="5">
-        <v>6.5237671074004104E-5</v>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D12" s="4">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E12" s="4">
         <v>0.25</v>
@@ -3539,14 +3069,14 @@
       <c r="A13" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B13" s="5">
-        <v>6.5260130136169699E-5</v>
-      </c>
-      <c r="C13" s="5">
-        <v>6.5652977393759203E-5</v>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D13" s="4">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="E13" s="4">
         <v>0.25</v>
@@ -3556,14 +3086,14 @@
       <c r="A14" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B14">
-        <v>8.1756395879795996E-4</v>
-      </c>
-      <c r="C14">
-        <v>8.2315543252836003E-4</v>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E14">
         <v>0.25</v>
@@ -3573,14 +3103,14 @@
       <c r="A15" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B15">
-        <v>3.3441968751387599E-4</v>
-      </c>
-      <c r="C15">
-        <v>3.37411150115819E-4</v>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E15">
         <v>0.25</v>
@@ -3590,14 +3120,14 @@
       <c r="A16" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B16">
-        <v>3.3745146201715398E-4</v>
-      </c>
-      <c r="C16">
-        <v>3.3072922180624702E-4</v>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E16">
         <v>0.25</v>
@@ -3607,14 +3137,14 @@
       <c r="A17" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B17" s="1">
-        <v>6.8626004460693699E-5</v>
-      </c>
-      <c r="C17" s="1">
-        <v>6.8133611498621006E-5</v>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E17">
         <v>0.25</v>
@@ -3624,14 +3154,14 @@
       <c r="A18">
         <v>1E-4</v>
       </c>
-      <c r="B18">
-        <v>8.1789375411623895E-4</v>
-      </c>
-      <c r="C18">
-        <v>8.2365945452190104E-4</v>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E18">
         <v>0.25</v>
@@ -3641,14 +3171,14 @@
       <c r="A19">
         <v>1E-4</v>
       </c>
-      <c r="B19">
-        <v>8.2318353506320296E-4</v>
-      </c>
-      <c r="C19">
-        <v>8.2463127167082997E-4</v>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="E19">
         <v>0.25</v>
@@ -3658,14 +3188,14 @@
       <c r="A20">
         <v>1E-4</v>
       </c>
-      <c r="B20">
-        <v>8.29045405051611E-4</v>
-      </c>
-      <c r="C20">
-        <v>8.2235665560917903E-4</v>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E20">
         <v>0.25</v>
@@ -3675,14 +3205,14 @@
       <c r="A21">
         <v>1E-4</v>
       </c>
-      <c r="B21">
-        <v>8.1954609932120305E-4</v>
-      </c>
-      <c r="C21">
-        <v>8.2904998054529697E-4</v>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E21">
         <v>0.25</v>
@@ -3692,14 +3222,14 @@
       <c r="A22">
         <v>1E-3</v>
       </c>
-      <c r="B22">
-        <v>8.1841091494115495E-4</v>
-      </c>
-      <c r="C22">
-        <v>8.2368642510350797E-4</v>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E22">
         <v>0.25</v>
@@ -3709,14 +3239,14 @@
       <c r="A23">
         <v>1E-3</v>
       </c>
-      <c r="B23">
-        <v>8.2318353506320296E-4</v>
-      </c>
-      <c r="C23">
-        <v>8.2463127167082997E-4</v>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="E23">
         <v>0.25</v>
@@ -3726,14 +3256,14 @@
       <c r="A24">
         <v>1E-3</v>
       </c>
-      <c r="B24">
-        <v>8.29045405051611E-4</v>
-      </c>
-      <c r="C24">
-        <v>8.2235665560917903E-4</v>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E24">
         <v>0.25</v>
@@ -3743,14 +3273,14 @@
       <c r="A25">
         <v>1E-3</v>
       </c>
-      <c r="B25">
-        <v>8.1954361558792704E-4</v>
-      </c>
-      <c r="C25">
-        <v>8.2904948330325798E-4</v>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E25">
         <v>0.25</v>
@@ -3760,14 +3290,14 @@
       <c r="A26">
         <v>0.01</v>
       </c>
-      <c r="B26">
-        <v>8.1842936553120401E-4</v>
-      </c>
-      <c r="C26">
-        <v>8.2369237714645198E-4</v>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E26">
         <v>0.25</v>
@@ -3777,14 +3307,14 @@
       <c r="A27">
         <v>0.01</v>
       </c>
-      <c r="B27">
-        <v>8.2318353506320296E-4</v>
-      </c>
-      <c r="C27">
-        <v>8.2463127167082997E-4</v>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="E27">
         <v>0.25</v>
@@ -3794,14 +3324,14 @@
       <c r="A28">
         <v>0.01</v>
       </c>
-      <c r="B28">
-        <v>8.29045405051611E-4</v>
-      </c>
-      <c r="C28">
-        <v>8.2235665560917903E-4</v>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="E28">
         <v>0.25</v>
@@ -3811,14 +3341,14 @@
       <c r="A29">
         <v>0.01</v>
       </c>
-      <c r="B29">
-        <v>8.1954756194349099E-4</v>
-      </c>
-      <c r="C29">
-        <v>8.2904984183767997E-4</v>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E29">
         <v>0.25</v>
@@ -3828,14 +3358,14 @@
       <c r="A30">
         <v>0.1</v>
       </c>
-      <c r="B30">
-        <v>8.1843304747537197E-4</v>
-      </c>
-      <c r="C30">
-        <v>8.2369366948037003E-4</v>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E30">
         <v>0.25</v>
@@ -3845,14 +3375,14 @@
       <c r="A31">
         <v>0.1</v>
       </c>
-      <c r="B31">
-        <v>8.2318353506320296E-4</v>
-      </c>
-      <c r="C31">
-        <v>8.2463127167082997E-4</v>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="E31">
         <v>0.25</v>
@@ -3862,14 +3392,14 @@
       <c r="A32">
         <v>0.1</v>
       </c>
-      <c r="B32">
-        <v>8.29045405051611E-4</v>
-      </c>
-      <c r="C32">
-        <v>8.2235665560917903E-4</v>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="E32">
         <v>0.25</v>
@@ -3879,14 +3409,14 @@
       <c r="A33">
         <v>0.1</v>
       </c>
-      <c r="B33">
-        <v>8.1954767835881303E-4</v>
-      </c>
-      <c r="C33">
-        <v>8.2904995515684901E-4</v>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E33">
         <v>0.25</v>
@@ -3994,14 +3524,14 @@
       <c r="A2" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="3">
-        <v>6.4703848751223404E-5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>6.5801919264869903E-5</v>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2">
         <v>0.5</v>
@@ -4010,17 +3540,17 @@
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1E-8</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="7" t="e">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>6.4695963388619398E-5</v>
-      </c>
-      <c r="L2" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5086579167093929E-5</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L2" s="7" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>130.5</v>
+        <v>106.5</v>
       </c>
       <c r="N2" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -4031,14 +3561,14 @@
       <c r="A3" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="3">
-        <v>6.4623139552806696E-5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>6.5164325899380102E-5</v>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="E3" s="2">
         <v>0.5</v>
@@ -4047,17 +3577,17 @@
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="K3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5022564943687224E-5</v>
-      </c>
-      <c r="L3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.524682817627683E-5</v>
+      <c r="K3" s="7" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="7" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>134.5</v>
+        <v>110.5</v>
       </c>
       <c r="N3" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -4068,14 +3598,14 @@
       <c r="A4" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="3">
-        <v>6.4849801829234603E-5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>6.4519136821160003E-5</v>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2">
         <v>0.5</v>
@@ -4084,17 +3614,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K4" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5820492573812796E-5</v>
-      </c>
-      <c r="L4" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5723722003740249E-5</v>
+      <c r="K4" s="7" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="7" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>138.5</v>
+        <v>114.5</v>
       </c>
       <c r="N4" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -4105,14 +3635,14 @@
       <c r="A5" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="3">
-        <v>6.4607063421212902E-5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>6.4860934682965695E-5</v>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2">
         <v>0.5</v>
@@ -4121,17 +3651,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="K5" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.909508235026685E-4</v>
-      </c>
-      <c r="L5" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.8983959152670956E-4</v>
+      <c r="K5" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>142.5</v>
+        <v>118.5</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4142,14 +3672,14 @@
       <c r="A6" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B6" s="1">
-        <v>6.5054053788542702E-5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6.5970831549728903E-5</v>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="E6">
         <v>0.5</v>
@@ -4158,17 +3688,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>1E-4</v>
       </c>
-      <c r="K6" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2123704348130997E-4</v>
-      </c>
-      <c r="L6" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2492637382993611E-4</v>
+      <c r="K6" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>146.5</v>
+        <v>122.5</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4179,14 +3709,14 @@
       <c r="A7" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B7" s="1">
-        <v>6.4997809204214705E-5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6.5341163172753097E-5</v>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E7">
         <v>0.5</v>
@@ -4195,17 +3725,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>1E-3</v>
       </c>
-      <c r="K7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2124324654479124E-4</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2492847038938212E-4</v>
+      <c r="K7" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>150.5</v>
+        <v>126.5</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4216,14 +3746,14 @@
       <c r="A8" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B8" s="1">
-        <v>6.5152545214507997E-5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6.4641406192714196E-5</v>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E8">
         <v>0.5</v>
@@ -4232,17 +3762,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="K8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2124929340739498E-4</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2493338584057707E-4</v>
+      <c r="K8" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>154.5</v>
+        <v>130.5</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4253,14 +3783,14 @@
       <c r="A9" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B9" s="1">
-        <v>6.4885851567483493E-5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6.5033911789911096E-5</v>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E9">
         <v>0.5</v>
@@ -4269,17 +3799,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="K9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2124949218036474E-4</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2493339543864876E-4</v>
+      <c r="K9" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>158.5</v>
+        <v>134.5</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4290,36 +3820,36 @@
       <c r="A10" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B10" s="5">
-        <v>6.5826675517142701E-5</v>
-      </c>
-      <c r="C10" s="5">
-        <v>6.6498423117817299E-5</v>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D10" s="4">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="E10" s="4">
         <v>0.5</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="L10">
+      <c r="L10" t="e">
         <f ca="1">MIN(L2:L9)</f>
-        <v>6.5086579167093929E-5</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B11" s="5">
-        <v>6.5917966550957895E-5</v>
-      </c>
-      <c r="C11" s="5">
-        <v>6.5830732560146805E-5</v>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D11" s="4">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="E11" s="4">
         <v>0.5</v>
@@ -4330,14 +3860,14 @@
       <c r="A12" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B12" s="5">
-        <v>6.5977100599953398E-5</v>
-      </c>
-      <c r="C12" s="5">
-        <v>6.5111272054677296E-5</v>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D12" s="4">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E12" s="4">
         <v>0.5</v>
@@ -4348,14 +3878,14 @@
       <c r="A13" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B13" s="5">
-        <v>6.5560227627197204E-5</v>
-      </c>
-      <c r="C13" s="5">
-        <v>6.5454460282319597E-5</v>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D13" s="4">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="E13" s="4">
         <v>0.5</v>
@@ -4366,14 +3896,14 @@
       <c r="A14" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B14" s="4">
-        <v>8.2095714714477096E-4</v>
-      </c>
-      <c r="C14" s="4">
-        <v>8.23190524936356E-4</v>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D14" s="4">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="E14" s="4">
         <v>0.5</v>
@@ -4383,14 +3913,14 @@
       <c r="A15" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B15" s="4">
-        <v>3.3719270899421202E-4</v>
-      </c>
-      <c r="C15" s="4">
-        <v>3.37438195933924E-4</v>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D15" s="4">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="E15" s="4">
         <v>0.5</v>
@@ -4400,14 +3930,14 @@
       <c r="A16" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B16" s="4">
-        <v>3.3676557250920301E-4</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3.3067209779859502E-4</v>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D16" s="4">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E16" s="4">
         <v>0.5</v>
@@ -4417,14 +3947,14 @@
       <c r="A17" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B17" s="5">
-        <v>6.8887865362488203E-5</v>
-      </c>
-      <c r="C17" s="5">
-        <v>6.8057547437963304E-5</v>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D17" s="4">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E17" s="4">
         <v>0.5</v>
@@ -4434,14 +3964,14 @@
       <c r="A18">
         <v>1E-4</v>
       </c>
-      <c r="B18">
-        <v>8.2135731211932799E-4</v>
-      </c>
-      <c r="C18">
-        <v>8.23667526809855E-4</v>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E18">
         <v>0.5</v>
@@ -4451,14 +3981,14 @@
       <c r="A19">
         <v>1E-4</v>
       </c>
-      <c r="B19">
-        <v>8.2055859124050099E-4</v>
-      </c>
-      <c r="C19">
-        <v>8.2463127167082997E-4</v>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E19">
         <v>0.5</v>
@@ -4468,14 +3998,14 @@
       <c r="A20">
         <v>1E-4</v>
       </c>
-      <c r="B20">
-        <v>8.2285534850559498E-4</v>
-      </c>
-      <c r="C20">
-        <v>8.2235665560917903E-4</v>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="E20">
         <v>0.5</v>
@@ -4485,14 +4015,14 @@
       <c r="A21">
         <v>1E-4</v>
       </c>
-      <c r="B21">
-        <v>8.2017692205981602E-4</v>
-      </c>
-      <c r="C21">
-        <v>8.2905004122987998E-4</v>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="E21">
         <v>0.5</v>
@@ -4502,14 +4032,14 @@
       <c r="A22">
         <v>1E-3</v>
       </c>
-      <c r="B22">
-        <v>8.2138318108999095E-4</v>
-      </c>
-      <c r="C22">
-        <v>8.2367658243574001E-4</v>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="E22">
         <v>0.5</v>
@@ -4519,14 +4049,14 @@
       <c r="A23">
         <v>1E-3</v>
       </c>
-      <c r="B23">
-        <v>8.2055859124050099E-4</v>
-      </c>
-      <c r="C23">
-        <v>8.2463127167082997E-4</v>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="E23">
         <v>0.5</v>
@@ -4536,14 +4066,14 @@
       <c r="A24">
         <v>1E-3</v>
       </c>
-      <c r="B24">
-        <v>8.2285534850559498E-4</v>
-      </c>
-      <c r="C24">
-        <v>8.2235665560917903E-4</v>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="E24">
         <v>0.5</v>
@@ -4553,14 +4083,14 @@
       <c r="A25">
         <v>1E-3</v>
       </c>
-      <c r="B25">
-        <v>8.2017586534307804E-4</v>
-      </c>
-      <c r="C25">
-        <v>8.2904937184177904E-4</v>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="E25">
         <v>0.5</v>
@@ -4570,14 +4100,14 @@
       <c r="A26">
         <v>0.01</v>
       </c>
-      <c r="B26">
-        <v>8.2126768842151205E-4</v>
-      </c>
-      <c r="C26">
-        <v>8.2369537979483202E-4</v>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="E26">
         <v>0.5</v>
@@ -4587,14 +4117,14 @@
       <c r="A27">
         <v>0.01</v>
       </c>
-      <c r="B27">
-        <v>8.2055859124050099E-4</v>
-      </c>
-      <c r="C27">
-        <v>8.2463127167082997E-4</v>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="E27">
         <v>0.5</v>
@@ -4604,14 +4134,14 @@
       <c r="A28">
         <v>0.01</v>
       </c>
-      <c r="B28">
-        <v>8.2285534850559498E-4</v>
-      </c>
-      <c r="C28">
-        <v>8.2235665560917903E-4</v>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="E28">
         <v>0.5</v>
@@ -4621,14 +4151,14 @@
       <c r="A29">
         <v>0.01</v>
       </c>
-      <c r="B29">
-        <v>8.2031554546197199E-4</v>
-      </c>
-      <c r="C29">
-        <v>8.2905023628746704E-4</v>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="E29">
         <v>0.5</v>
@@ -4638,14 +4168,14 @@
       <c r="A30">
         <v>0.1</v>
       </c>
-      <c r="B30">
-        <v>8.2126847236724297E-4</v>
-      </c>
-      <c r="C30">
-        <v>8.2369541818711899E-4</v>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="E30">
         <v>0.5</v>
@@ -4655,14 +4185,14 @@
       <c r="A31">
         <v>0.1</v>
       </c>
-      <c r="B31">
-        <v>8.2055859124050099E-4</v>
-      </c>
-      <c r="C31">
-        <v>8.2463127167082997E-4</v>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="E31">
         <v>0.5</v>
@@ -4672,14 +4202,14 @@
       <c r="A32">
         <v>0.1</v>
       </c>
-      <c r="B32">
-        <v>8.2285534850559498E-4</v>
-      </c>
-      <c r="C32">
-        <v>8.2235665560917903E-4</v>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="E32">
         <v>0.5</v>
@@ -4689,14 +4219,14 @@
       <c r="A33">
         <v>0.1</v>
       </c>
-      <c r="B33">
-        <v>8.2031555660812001E-4</v>
-      </c>
-      <c r="C33">
-        <v>8.2905023628746704E-4</v>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="E33">
         <v>0.5</v>
@@ -4711,8 +4241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D6121D-E5CF-1A48-8933-0BAD4C1790A9}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4756,36 +4286,33 @@
       <c r="A2" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="3">
-        <v>6.4431514823809201E-5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>6.5360604299286796E-5</v>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1.1930000000000001</v>
       </c>
       <c r="J2" s="5">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1E-8</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="6" t="e">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>6.457696310341508E-5</v>
-      </c>
-      <c r="L2" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4707241379321481E-5</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L2" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>162.5</v>
+        <v>138.5</v>
       </c>
       <c r="N2" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4796,36 +4323,33 @@
       <c r="A3" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="3">
-        <v>6.4462700422154704E-5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>6.4785968092148801E-5</v>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1.4279999999999999</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="K3" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5075205010846972E-5</v>
-      </c>
-      <c r="L3" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5020043011633952E-5</v>
+      <c r="K3" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>166.5</v>
+        <v>142.5</v>
       </c>
       <c r="N3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4836,36 +4360,33 @@
       <c r="A4" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="3">
-        <v>6.4737486100057098E-5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>6.4151582495121097E-5</v>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1.855</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K4" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5911069861613158E-5</v>
-      </c>
-      <c r="L4" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5641848613403348E-5</v>
+      <c r="K4" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>170.5</v>
+        <v>146.5</v>
       </c>
       <c r="N4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4876,36 +4397,33 @@
       <c r="A5" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="3">
-        <v>6.4676151067639303E-5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>6.4530810630729203E-5</v>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1.05</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="K5" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.9142864565413485E-4</v>
-      </c>
-      <c r="L5" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.8992459732322966E-4</v>
+      <c r="K5" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>174.5</v>
+        <v>150.5</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4916,14 +4434,14 @@
       <c r="A6" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B6" s="5">
-        <v>6.4967782032908798E-5</v>
-      </c>
-      <c r="C6" s="5">
-        <v>6.5748029033358598E-5</v>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D6" s="4">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -4933,17 +4451,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>1E-4</v>
       </c>
-      <c r="K6" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2281458164410002E-4</v>
-      </c>
-      <c r="L6" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2493286305528231E-4</v>
+      <c r="K6" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>178.5</v>
+        <v>154.5</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4954,14 +4472,14 @@
       <c r="A7" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B7" s="5">
-        <v>6.5014488645829201E-5</v>
-      </c>
-      <c r="C7" s="5">
-        <v>6.5107496645415506E-5</v>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D7" s="4">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -4971,17 +4489,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>1E-3</v>
       </c>
-      <c r="K7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2281774984827819E-4</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2493247882279707E-4</v>
+      <c r="K7" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L7" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>182.5</v>
+        <v>158.5</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4992,14 +4510,14 @@
       <c r="A8" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B8" s="5">
-        <v>6.5222737864435899E-5</v>
-      </c>
-      <c r="C8" s="5">
-        <v>6.4405458110837897E-5</v>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D8" s="4">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -5009,17 +4527,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="K8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2282143369472212E-4</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2493308257247156E-4</v>
+      <c r="K8" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>186.5</v>
+        <v>162.5</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5030,14 +4548,14 @@
       <c r="A9" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B9" s="5">
-        <v>6.5095811500214004E-5</v>
-      </c>
-      <c r="C9" s="5">
-        <v>6.4819188256923794E-5</v>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D9" s="4">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -5047,17 +4565,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="K9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2282272765102425E-4</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2493323289065947E-4</v>
+      <c r="K9" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>190.5</v>
+        <v>166.5</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5068,35 +4586,35 @@
       <c r="A10" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B10" s="5">
-        <v>6.5752419274455503E-5</v>
-      </c>
-      <c r="C10" s="5">
-        <v>6.6360529091709499E-5</v>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D10" s="4">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="e">
         <f ca="1">MIN(L2:L9)</f>
-        <v>6.4707241379321481E-5</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B11" s="5">
-        <v>6.5855583389444797E-5</v>
-      </c>
-      <c r="C11" s="5">
-        <v>6.5799336416022601E-5</v>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D11" s="4">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -5106,14 +4624,14 @@
       <c r="A12" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B12" s="5">
-        <v>6.60782047974256E-5</v>
-      </c>
-      <c r="C12" s="5">
-        <v>6.5000036363229804E-5</v>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D12" s="4">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -5123,14 +4641,14 @@
       <c r="A13" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B13" s="5">
-        <v>6.5958071985126702E-5</v>
-      </c>
-      <c r="C13" s="5">
-        <v>6.5407492582651499E-5</v>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D13" s="4">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -5140,14 +4658,14 @@
       <c r="A14" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B14" s="1">
-        <v>8.2291082898154795E-4</v>
-      </c>
-      <c r="C14" s="1">
-        <v>8.23415838122526E-4</v>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -5157,14 +4675,14 @@
       <c r="A15" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B15" s="1">
-        <v>3.3597577844435902E-4</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3.3744406840575697E-4</v>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5174,14 +4692,14 @@
       <c r="A16" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B16" s="1">
-        <v>3.3761607677054901E-4</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3.3074911891859202E-4</v>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -5191,14 +4709,14 @@
       <c r="A17" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B17" s="1">
-        <v>6.9211898420083607E-5</v>
-      </c>
-      <c r="C17" s="1">
-        <v>6.8089363846043604E-5</v>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -5208,14 +4726,14 @@
       <c r="A18">
         <v>1E-4</v>
       </c>
-      <c r="B18" s="1">
-        <v>8.2339012809097697E-4</v>
-      </c>
-      <c r="C18" s="1">
-        <v>8.2369328865365297E-4</v>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -5225,14 +4743,14 @@
       <c r="A19">
         <v>1E-4</v>
       </c>
-      <c r="B19" s="1">
-        <v>8.2253963127732204E-4</v>
-      </c>
-      <c r="C19" s="1">
-        <v>8.2463127167082997E-4</v>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5242,14 +4760,14 @@
       <c r="A20">
         <v>1E-4</v>
       </c>
-      <c r="B20" s="1">
-        <v>8.2324791311596797E-4</v>
-      </c>
-      <c r="C20" s="1">
-        <v>8.2235665560917903E-4</v>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5259,14 +4777,14 @@
       <c r="A21">
         <v>1E-4</v>
       </c>
-      <c r="B21" s="1">
-        <v>8.2208065409213299E-4</v>
-      </c>
-      <c r="C21" s="1">
-        <v>8.2905023628746704E-4</v>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5276,14 +4794,14 @@
       <c r="A22">
         <v>1E-3</v>
       </c>
-      <c r="B22">
-        <v>8.2340312656015103E-4</v>
-      </c>
-      <c r="C22" s="1">
-        <v>8.2369175172371202E-4</v>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -5293,14 +4811,14 @@
       <c r="A23">
         <v>1E-3</v>
       </c>
-      <c r="B23">
-        <v>8.2253963127732204E-4</v>
-      </c>
-      <c r="C23" s="1">
-        <v>8.2463127167082997E-4</v>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -5310,14 +4828,14 @@
       <c r="A24">
         <v>1E-3</v>
       </c>
-      <c r="B24">
-        <v>8.2324791311596797E-4</v>
-      </c>
-      <c r="C24" s="1">
-        <v>8.2235665560917903E-4</v>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -5327,14 +4845,14 @@
       <c r="A25">
         <v>1E-3</v>
       </c>
-      <c r="B25">
-        <v>8.2208032843967204E-4</v>
-      </c>
-      <c r="C25" s="1">
-        <v>8.2905023628746704E-4</v>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -5344,14 +4862,14 @@
       <c r="A26">
         <v>0.01</v>
       </c>
-      <c r="B26">
-        <v>8.2341748056933195E-4</v>
-      </c>
-      <c r="C26">
-        <v>8.2369416672241E-4</v>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -5361,14 +4879,14 @@
       <c r="A27">
         <v>0.01</v>
       </c>
-      <c r="B27">
-        <v>8.2253963127732204E-4</v>
-      </c>
-      <c r="C27">
-        <v>8.2463127167082997E-4</v>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -5378,14 +4896,14 @@
       <c r="A28">
         <v>0.01</v>
       </c>
-      <c r="B28">
-        <v>8.2324791311596797E-4</v>
-      </c>
-      <c r="C28">
-        <v>8.2235665560917903E-4</v>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -5395,14 +4913,14 @@
       <c r="A29">
         <v>0.01</v>
       </c>
-      <c r="B29">
-        <v>8.2208070981626695E-4</v>
-      </c>
-      <c r="C29">
-        <v>8.2905023628746704E-4</v>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -5412,14 +4930,14 @@
       <c r="A30">
         <v>0.1</v>
       </c>
-      <c r="B30">
-        <v>8.2342262115950304E-4</v>
-      </c>
-      <c r="C30">
-        <v>8.2369476799516196E-4</v>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -5429,14 +4947,14 @@
       <c r="A31">
         <v>0.1</v>
       </c>
-      <c r="B31">
-        <v>8.2253963127732204E-4</v>
-      </c>
-      <c r="C31">
-        <v>8.2463127167082997E-4</v>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -5446,14 +4964,14 @@
       <c r="A32">
         <v>0.1</v>
       </c>
-      <c r="B32">
-        <v>8.2324791311596797E-4</v>
-      </c>
-      <c r="C32">
-        <v>8.2235665560917903E-4</v>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -5463,14 +4981,14 @@
       <c r="A33">
         <v>0.1</v>
       </c>
-      <c r="B33">
-        <v>8.2208074505130395E-4</v>
-      </c>
-      <c r="C33">
-        <v>8.2905023628746704E-4</v>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -5534,7 +5052,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5579,10 +5097,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="3">
-        <v>6.71188464230966E-5</v>
+        <v>5.5380580585172496E-4</v>
       </c>
       <c r="C2" s="3">
-        <v>6.8457697086566203E-5</v>
+        <v>5.6013702805045003E-4</v>
       </c>
       <c r="D2" s="2">
         <v>193</v>
@@ -5596,11 +5114,11 @@
       </c>
       <c r="K2" s="7">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>6.7420968478356595E-5</v>
+        <v>5.5641469179077958E-4</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7910117950111448E-5</v>
+        <v>5.5757801671093773E-4</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -5616,10 +5134,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="3">
-        <v>6.8181382185355903E-5</v>
+        <v>5.5635518993825601E-4</v>
       </c>
       <c r="C3" s="3">
-        <v>6.8337318496444204E-5</v>
+        <v>5.5659657525037297E-4</v>
       </c>
       <c r="D3" s="2">
         <v>194</v>
@@ -5633,11 +5151,11 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7452351241298176E-5</v>
+        <v>5.5675696800809625E-4</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7941683889156127E-5</v>
+        <v>5.5756842150313224E-4</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5653,10 +5171,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="3">
-        <v>6.7658406399633694E-5</v>
+        <v>5.6038064537867105E-4</v>
       </c>
       <c r="C4" s="3">
-        <v>6.7352295484445805E-5</v>
+        <v>5.5513771292951602E-4</v>
       </c>
       <c r="D4" s="2">
         <v>195</v>
@@ -5670,11 +5188,11 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.755933984405075E-5</v>
+        <v>5.5677685482573595E-4</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7927419277498749E-5</v>
+        <v>5.5768176938959422E-4</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5690,10 +5208,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="3">
-        <v>6.6725238905340195E-5</v>
+        <v>5.5511712599446599E-4</v>
       </c>
       <c r="C5" s="3">
-        <v>6.7493160732989593E-5</v>
+        <v>5.5844075061341203E-4</v>
       </c>
       <c r="D5" s="2">
         <v>196</v>
@@ -5707,11 +5225,11 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8351732129775977E-5</v>
+        <v>5.5737317133536322E-4</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7937162471702904E-5</v>
+        <v>5.5755043247196923E-4</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5727,10 +5245,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="1">
-        <v>6.7360914514172105E-5</v>
+        <v>5.5389398240801298E-4</v>
       </c>
       <c r="C6" s="1">
-        <v>6.8691193015919E-5</v>
+        <v>5.6011091819914796E-4</v>
       </c>
       <c r="D6">
         <v>197</v>
@@ -5744,11 +5262,11 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6624611926703445E-5</v>
+        <v>5.6587516697386168E-4</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8010159754928017E-5</v>
+        <v>5.5755822308747904E-4</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5764,10 +5282,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="1">
-        <v>6.8203750994685598E-5</v>
+        <v>5.5642527722545498E-4</v>
       </c>
       <c r="C7" s="1">
-        <v>6.8400862027316305E-5</v>
+        <v>5.5632282524032696E-4</v>
       </c>
       <c r="D7">
         <v>198</v>
@@ -5781,11 +5299,11 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5437643829268027E-4</v>
+        <v>6.4508648783691747E-4</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1588318676615281E-5</v>
+        <v>5.6104724841288896E-4</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5801,10 +5319,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="1">
-        <v>6.7708146626171799E-5</v>
+        <v>5.6060549290355298E-4</v>
       </c>
       <c r="C8" s="1">
-        <v>6.7392232209540599E-5</v>
+        <v>5.5519028094924098E-4</v>
       </c>
       <c r="D8">
         <v>199</v>
@@ -5818,11 +5336,11 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0638694732940354E-4</v>
+        <v>1.1988479925500351E-3</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6959395367104728E-4</v>
+        <v>8.7427772380946605E-4</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5838,10 +5356,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="1">
-        <v>6.6536592830163203E-5</v>
+        <v>5.5610311949536397E-4</v>
       </c>
       <c r="C9" s="1">
-        <v>6.7282448303848604E-5</v>
+        <v>5.5864966162381296E-4</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -5855,11 +5373,11 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1180838902215841E-3</v>
+        <v>1.6014793657999874E-3</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2489763828678053E-4</v>
+        <v>1.3106128558803801E-3</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5875,10 +5393,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="1">
-        <v>6.7288581665203996E-5</v>
+        <v>5.5417286150375399E-4</v>
       </c>
       <c r="C10" s="1">
-        <v>6.8703773224037705E-5</v>
+        <v>5.60223617209517E-4</v>
       </c>
       <c r="D10">
         <v>201</v>
@@ -5888,7 +5406,7 @@
       </c>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>6.7910117950111448E-5</v>
+        <v>5.5755043247196923E-4</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -5896,10 +5414,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="1">
-        <v>6.8265966934206394E-5</v>
+        <v>5.57010881280764E-4</v>
       </c>
       <c r="C11" s="1">
-        <v>6.8352963701707897E-5</v>
+        <v>5.57033878570283E-4</v>
       </c>
       <c r="D11">
         <v>202</v>
@@ -5913,10 +5431,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="1">
-        <v>6.8097262285052803E-5</v>
+        <v>5.6015178524056804E-4</v>
       </c>
       <c r="C12" s="1">
-        <v>6.7447730969511299E-5</v>
+        <v>5.5475377457890097E-4</v>
       </c>
       <c r="D12">
         <v>203</v>
@@ -5930,10 +5448,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="1">
-        <v>6.6585548491739807E-5</v>
+        <v>5.5577189127785798E-4</v>
       </c>
       <c r="C13" s="1">
-        <v>6.7205209214738095E-5</v>
+        <v>5.5871580719967602E-4</v>
       </c>
       <c r="D13">
         <v>204</v>
@@ -5947,10 +5465,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14" s="1">
-        <v>6.80781229946544E-5</v>
+        <v>5.54612078864939E-4</v>
       </c>
       <c r="C14" s="1">
-        <v>6.8669299736861703E-5</v>
+        <v>5.6001917239863099E-4</v>
       </c>
       <c r="D14">
         <v>205</v>
@@ -5964,10 +5482,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15" s="1">
-        <v>6.9028549679639198E-5</v>
+        <v>5.5736319057920797E-4</v>
       </c>
       <c r="C15" s="1">
-        <v>6.8317884413656707E-5</v>
+        <v>5.5691747594268E-4</v>
       </c>
       <c r="D15">
         <v>206</v>
@@ -5981,10 +5499,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16" s="1">
-        <v>6.8866721236151898E-5</v>
+        <v>5.61414548119114E-4</v>
       </c>
       <c r="C16" s="1">
-        <v>6.7570387553596994E-5</v>
+        <v>5.5562754525763402E-4</v>
       </c>
       <c r="D16">
         <v>207</v>
@@ -5998,10 +5516,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17" s="1">
-        <v>6.7433534608658398E-5</v>
+        <v>5.5610286777819202E-4</v>
       </c>
       <c r="C17" s="1">
-        <v>6.7191078182696199E-5</v>
+        <v>5.5763753628893203E-4</v>
       </c>
       <c r="D17">
         <v>208</v>
@@ -6015,10 +5533,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18" s="5">
-        <v>7.6121424539683395E-5</v>
+        <v>5.6367710807380495E-4</v>
       </c>
       <c r="C18" s="5">
-        <v>6.8757177978887696E-5</v>
+        <v>5.6006170145453903E-4</v>
       </c>
       <c r="D18" s="4">
         <v>209</v>
@@ -6032,10 +5550,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19" s="5">
-        <v>7.7312620247694399E-5</v>
+        <v>5.6680759502961196E-4</v>
       </c>
       <c r="C19" s="5">
-        <v>6.8449579633492403E-5</v>
+        <v>5.5666818058098405E-4</v>
       </c>
       <c r="D19" s="4">
         <v>210</v>
@@ -6049,10 +5567,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20" s="5">
-        <v>7.7146037430329096E-5</v>
+        <v>5.6882329815205999E-4</v>
       </c>
       <c r="C20" s="5">
-        <v>6.7366693714420494E-5</v>
+        <v>5.55270836326947E-4</v>
       </c>
       <c r="D20" s="4">
         <v>211</v>
@@ -6066,10 +5584,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21" s="5">
-        <v>7.5918365489106903E-5</v>
+        <v>5.6419266663997004E-4</v>
       </c>
       <c r="C21" s="5">
-        <v>6.7467187692911502E-5</v>
+        <v>5.5823217398744596E-4</v>
       </c>
       <c r="D21" s="4">
         <v>212</v>
@@ -6083,10 +5601,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22" s="4">
-        <v>1.5179856571658599E-4</v>
+        <v>6.3917486423111295E-4</v>
       </c>
       <c r="C22" s="5">
-        <v>7.21638941885953E-5</v>
+        <v>5.6376820708813199E-4</v>
       </c>
       <c r="D22" s="4">
         <v>213</v>
@@ -6100,10 +5618,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23" s="4">
-        <v>1.57233477403543E-4</v>
+        <v>6.4123584517337203E-4</v>
       </c>
       <c r="C23" s="5">
-        <v>7.2131210586992307E-5</v>
+        <v>5.6121149688632098E-4</v>
       </c>
       <c r="D23" s="4">
         <v>214</v>
@@ -6117,10 +5635,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24" s="4">
-        <v>1.5352239039357401E-4</v>
+        <v>6.4781265571079295E-4</v>
       </c>
       <c r="C24" s="5">
-        <v>7.1066498887685503E-5</v>
+        <v>5.5741611837181499E-4</v>
       </c>
       <c r="D24" s="4">
         <v>215</v>
@@ -6134,10 +5652,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25" s="4">
-        <v>1.5495131965701799E-4</v>
+        <v>6.5212258623239205E-4</v>
       </c>
       <c r="C25" s="5">
-        <v>7.0991671043188002E-5</v>
+        <v>5.6179317130528798E-4</v>
       </c>
       <c r="D25" s="4">
         <v>216</v>
@@ -6151,10 +5669,10 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="4">
-        <v>7.0991163312933002E-4</v>
+        <v>1.1630359215988801E-3</v>
       </c>
       <c r="C26" s="4">
-        <v>3.6579161725115901E-4</v>
+        <v>8.4982420431766999E-4</v>
       </c>
       <c r="D26" s="4">
         <v>217</v>
@@ -6169,10 +5687,10 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="4">
-        <v>7.0576803904878803E-4</v>
+        <v>1.21213092240802E-3</v>
       </c>
       <c r="C27" s="4">
-        <v>3.6064976921671598E-4</v>
+        <v>8.9846681394772801E-4</v>
       </c>
       <c r="D27" s="4">
         <v>218</v>
@@ -6187,10 +5705,10 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="4">
-        <v>6.92663782405013E-4</v>
+        <v>1.22226731532174E-3</v>
       </c>
       <c r="C28" s="4">
-        <v>3.6198612887095201E-4</v>
+        <v>8.8462402221766497E-4</v>
       </c>
       <c r="D28" s="4">
         <v>219</v>
@@ -6205,10 +5723,10 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="4">
-        <v>7.1720433473448301E-4</v>
+        <v>1.1979578108715001E-3</v>
       </c>
       <c r="C29" s="4">
-        <v>3.8994829934536202E-4</v>
+        <v>8.6419585475480101E-4</v>
       </c>
       <c r="D29" s="4">
         <v>220</v>
@@ -6223,10 +5741,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>8.2683973410662098E-4</v>
+        <v>1.30042092295046E-3</v>
       </c>
       <c r="C30">
-        <v>8.2353231970200898E-4</v>
+        <v>1.31387727092357E-3</v>
       </c>
       <c r="D30">
         <v>221</v>
@@ -6240,10 +5758,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>1.9951099647516099E-3</v>
+        <v>2.4724573694526199E-3</v>
       </c>
       <c r="C31">
-        <v>8.2431588460631804E-4</v>
+        <v>1.3106475296885999E-3</v>
       </c>
       <c r="D31">
         <v>222</v>
@@ -6257,10 +5775,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>8.2971099788877801E-4</v>
+        <v>1.32719604818625E-3</v>
       </c>
       <c r="C32">
-        <v>8.2269407179642504E-4</v>
+        <v>1.30541382129601E-3</v>
       </c>
       <c r="D32">
         <v>223</v>
@@ -6274,10 +5792,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>8.2067486413932799E-4</v>
+        <v>1.3058431226106199E-3</v>
       </c>
       <c r="C33">
-        <v>8.2904827704237004E-4</v>
+        <v>1.31251280161334E-3</v>
       </c>
       <c r="D33">
         <v>224</v>
@@ -6296,7 +5814,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6337,14 +5855,14 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
+      <c r="A2" s="5">
+        <v>1E-8</v>
       </c>
       <c r="B2" s="5">
-        <v>6.6361378017934294E-5</v>
+        <v>5.5361775284449698E-4</v>
       </c>
       <c r="C2" s="5">
-        <v>6.7393271200807197E-5</v>
+        <v>5.5706255110674204E-4</v>
       </c>
       <c r="D2" s="4">
         <v>225</v>
@@ -6354,15 +5872,15 @@
       </c>
       <c r="J2" s="5">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
-        <v>1.0000000000000002E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="K2" s="6">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>6.6375356695100432E-5</v>
+        <v>5.5428172906450755E-4</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6615851065239873E-5</v>
+        <v>5.5411063759164118E-4</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6378,10 +5896,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="5">
-        <v>6.6692437766060304E-5</v>
+        <v>5.5459321942799599E-4</v>
       </c>
       <c r="C3" s="5">
-        <v>6.6828321383156298E-5</v>
+        <v>5.5241250114743297E-4</v>
       </c>
       <c r="D3" s="4">
         <v>226</v>
@@ -6395,11 +5913,11 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6400000010384828E-5</v>
+        <v>5.5448718086018771E-4</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6608059462831668E-5</v>
+        <v>5.5425239693152951E-4</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6415,10 +5933,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="5">
-        <v>6.6334634751949602E-5</v>
+        <v>5.5646120033108002E-4</v>
       </c>
       <c r="C4" s="5">
-        <v>6.5955748296085104E-5</v>
+        <v>5.5226462984834103E-4</v>
       </c>
       <c r="D4" s="4">
         <v>227</v>
@@ -6432,11 +5950,11 @@
       </c>
       <c r="K4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6428020250470458E-5</v>
+        <v>5.54574873371785E-4</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6555651997948553E-5</v>
+        <v>5.5433842599666853E-4</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -6452,10 +5970,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="5">
-        <v>6.61129762444575E-5</v>
+        <v>5.5245474365445699E-4</v>
       </c>
       <c r="C5" s="5">
-        <v>6.6286063380910894E-5</v>
+        <v>5.54702868264049E-4</v>
       </c>
       <c r="D5" s="4">
         <v>228</v>
@@ -6469,11 +5987,11 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7330522495738293E-5</v>
+        <v>5.552301756440698E-4</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.662317661934174E-5</v>
+        <v>5.5413044243865159E-4</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6489,10 +6007,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="5">
-        <v>6.6429905347560698E-5</v>
+        <v>5.5374596713784498E-4</v>
       </c>
       <c r="C6" s="5">
-        <v>6.7383371486434999E-5</v>
+        <v>5.5696457399035499E-4</v>
       </c>
       <c r="D6" s="4">
         <v>229</v>
@@ -6506,11 +6024,11 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5189593659122161E-5</v>
+        <v>5.6340232967681402E-4</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6649217736065755E-5</v>
+        <v>5.543737917174977E-4</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6526,10 +6044,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="5">
-        <v>6.6770404257422702E-5</v>
+        <v>5.5466483807206104E-4</v>
       </c>
       <c r="C7" s="5">
-        <v>6.6719973743756901E-5</v>
+        <v>5.5256194993605801E-4</v>
       </c>
       <c r="D7" s="4">
         <v>230</v>
@@ -6543,11 +6061,11 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5412488408478601E-4</v>
+        <v>6.4259885813102075E-4</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0075619155528628E-5</v>
+        <v>5.5754224547157726E-4</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6563,10 +6081,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="5">
-        <v>6.6369590329370403E-5</v>
+        <v>5.5647488176312405E-4</v>
       </c>
       <c r="C8" s="5">
-        <v>6.60139047930839E-5</v>
+        <v>5.5214294177935799E-4</v>
       </c>
       <c r="D8" s="4">
         <v>231</v>
@@ -6580,11 +6098,11 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0104929317436578E-4</v>
+        <v>1.1873812410990326E-3</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4085158876358853E-4</v>
+        <v>8.2941981963813262E-4</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6600,10 +6118,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="5">
-        <v>6.6030100107185497E-5</v>
+        <v>5.53063036467721E-4</v>
       </c>
       <c r="C9" s="5">
-        <v>6.6314987828050901E-5</v>
+        <v>5.5534012202034704E-4</v>
       </c>
       <c r="D9" s="4">
         <v>232</v>
@@ -6617,11 +6135,11 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2166499913078088E-4</v>
+        <v>1.3931840159707299E-3</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2509940182988256E-4</v>
+        <v>1.3106334093769853E-3</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6637,10 +6155,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="1">
-        <v>6.6490826166626195E-5</v>
+        <v>5.5396506727544304E-4</v>
       </c>
       <c r="C10" s="1">
-        <v>6.73720692538289E-5</v>
+        <v>5.5681231637247505E-4</v>
       </c>
       <c r="D10">
         <v>233</v>
@@ -6650,7 +6168,7 @@
       </c>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>6.6555651997948553E-5</v>
+        <v>5.5411063759164118E-4</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -6658,10 +6176,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="1">
-        <v>6.6828164872663798E-5</v>
+        <v>5.5525368906215696E-4</v>
       </c>
       <c r="C11" s="1">
-        <v>6.6753448257433304E-5</v>
+        <v>5.5332001059643003E-4</v>
       </c>
       <c r="D11">
         <v>234</v>
@@ -6675,10 +6193,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="1">
-        <v>6.6372939688741798E-5</v>
+        <v>5.56190781316353E-4</v>
       </c>
       <c r="C12" s="1">
-        <v>6.5882284113111798E-5</v>
+        <v>5.5213649435206596E-4</v>
       </c>
       <c r="D12">
         <v>235</v>
@@ -6692,10 +6210,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="1">
-        <v>6.6020150273849999E-5</v>
+        <v>5.52889955833187E-4</v>
       </c>
       <c r="C13" s="1">
-        <v>6.6214806367420197E-5</v>
+        <v>5.5508488266570297E-4</v>
       </c>
       <c r="D13">
         <v>236</v>
@@ -6709,10 +6227,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14" s="5">
-        <v>6.7266165020323201E-5</v>
+        <v>5.5465795377769697E-4</v>
       </c>
       <c r="C14" s="5">
-        <v>6.7341527260686302E-5</v>
+        <v>5.5675407713080903E-4</v>
       </c>
       <c r="D14" s="4">
         <v>237</v>
@@ -6726,10 +6244,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15" s="5">
-        <v>6.7782231974675494E-5</v>
+        <v>5.5536748705174201E-4</v>
       </c>
       <c r="C15" s="5">
-        <v>6.6895298275878595E-5</v>
+        <v>5.5250238430280005E-4</v>
       </c>
       <c r="D15" s="4">
         <v>238</v>
@@ -6743,10 +6261,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16" s="5">
-        <v>6.7272778440073607E-5</v>
+        <v>5.5710806640142402E-4</v>
       </c>
       <c r="C16" s="5">
-        <v>6.5985635607850097E-5</v>
+        <v>5.52159208962892E-4</v>
       </c>
       <c r="D16" s="4">
         <v>239</v>
@@ -6760,10 +6278,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17" s="5">
-        <v>6.7000914547880896E-5</v>
+        <v>5.5378719534541598E-4</v>
       </c>
       <c r="C17" s="5">
-        <v>6.6270245332952007E-5</v>
+        <v>5.5510609935810495E-4</v>
       </c>
       <c r="D17" s="4">
         <v>240</v>
@@ -6777,10 +6295,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18" s="1">
-        <v>7.5465539010381505E-5</v>
+        <v>5.6262577662833898E-4</v>
       </c>
       <c r="C18" s="1">
-        <v>6.7428620279818603E-5</v>
+        <v>5.5705118822825495E-4</v>
       </c>
       <c r="D18">
         <v>241</v>
@@ -6794,10 +6312,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19" s="1">
-        <v>7.54777451065626E-5</v>
+        <v>5.6390773208980305E-4</v>
       </c>
       <c r="C19" s="1">
-        <v>6.6864240154168201E-5</v>
+        <v>5.5311528341646496E-4</v>
       </c>
       <c r="D19">
         <v>242</v>
@@ -6811,10 +6329,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20" s="1">
-        <v>7.4735516233325098E-5</v>
+        <v>5.6523494540089501E-4</v>
       </c>
       <c r="C20" s="1">
-        <v>6.5980835875342699E-5</v>
+        <v>5.5202012856867401E-4</v>
       </c>
       <c r="D20">
         <v>243</v>
@@ -6828,10 +6346,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21" s="1">
-        <v>7.50795742862194E-5</v>
+        <v>5.6184086458821903E-4</v>
       </c>
       <c r="C21" s="1">
-        <v>6.6323174634933503E-5</v>
+        <v>5.5530856665659699E-4</v>
       </c>
       <c r="D21">
         <v>244</v>
@@ -6845,10 +6363,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>1.5218152247085601E-4</v>
+        <v>6.4208001044499497E-4</v>
       </c>
       <c r="C22" s="1">
-        <v>7.0674384334508495E-5</v>
+        <v>5.6108302607676605E-4</v>
       </c>
       <c r="D22">
         <v>245</v>
@@ -6862,10 +6380,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>1.5655824744440999E-4</v>
+        <v>6.4115215679927796E-4</v>
       </c>
       <c r="C23" s="1">
-        <v>7.04858098578505E-5</v>
+        <v>5.5616214825583504E-4</v>
       </c>
       <c r="D23">
         <v>246</v>
@@ -6879,10 +6397,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>1.54525198516413E-4</v>
+        <v>6.4475839818887201E-4</v>
       </c>
       <c r="C24" s="1">
-        <v>6.9769585682847004E-5</v>
+        <v>5.5477243384960601E-4</v>
       </c>
       <c r="D24">
         <v>247</v>
@@ -6896,10 +6414,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>1.5323456790746501E-4</v>
+        <v>6.4240486709093796E-4</v>
       </c>
       <c r="C25" s="1">
-        <v>6.9372696746908499E-5</v>
+        <v>5.5815137370410195E-4</v>
       </c>
       <c r="D25">
         <v>248</v>
@@ -6913,10 +6431,10 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="4">
-        <v>6.8606481533819497E-4</v>
+        <v>1.1700302968668599E-3</v>
       </c>
       <c r="C26" s="4">
-        <v>3.4628634277899601E-4</v>
+        <v>8.1889289418889295E-4</v>
       </c>
       <c r="D26" s="4">
         <v>249</v>
@@ -6931,10 +6449,10 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="4">
-        <v>7.0471794792188399E-4</v>
+        <v>1.19284525460395E-3</v>
       </c>
       <c r="C27" s="4">
-        <v>3.53605653954412E-4</v>
+        <v>8.2851301363490995E-4</v>
       </c>
       <c r="D27" s="4">
         <v>250</v>
@@ -6949,10 +6467,10 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="4">
-        <v>7.2883928031784403E-4</v>
+        <v>1.2008388569464501E-3</v>
       </c>
       <c r="C28" s="4">
-        <v>3.20956999859574E-4</v>
+        <v>8.4297431563522501E-4</v>
       </c>
       <c r="D28" s="4">
         <v>251</v>
@@ -6967,10 +6485,10 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="4">
-        <v>6.8457512911954002E-4</v>
+        <v>1.18581055597887E-3</v>
       </c>
       <c r="C29" s="4">
-        <v>3.4255735846137197E-4</v>
+        <v>8.2729905509350298E-4</v>
       </c>
       <c r="D29" s="4">
         <v>252</v>
@@ -6985,10 +6503,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>8.2247686031165497E-4</v>
+        <v>1.3077203964596499E-3</v>
       </c>
       <c r="C30">
-        <v>8.2360463714761995E-4</v>
+        <v>1.3138971866128201E-3</v>
       </c>
       <c r="D30">
         <v>253</v>
@@ -7002,10 +6520,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>8.2099448519194101E-4</v>
+        <v>1.30803307253332E-3</v>
       </c>
       <c r="C31">
-        <v>8.2501669245910701E-4</v>
+        <v>1.3107001704678999E-3</v>
       </c>
       <c r="D31">
         <v>254</v>
@@ -7019,10 +6537,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>8.2305711793138599E-4</v>
+        <v>1.3131002438541901E-3</v>
       </c>
       <c r="C32">
-        <v>8.2270209206902203E-4</v>
+        <v>1.30536102447064E-3</v>
       </c>
       <c r="D32">
         <v>255</v>
@@ -7036,10 +6554,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>8.2013153308814197E-4</v>
+        <v>1.6438823510357601E-3</v>
       </c>
       <c r="C33">
-        <v>8.2907418564378101E-4</v>
+        <v>1.31257525595658E-3</v>
       </c>
       <c r="D33">
         <v>256</v>
@@ -7057,11 +6575,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="12" width="10.83203125" style="8"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -7085,10 +6606,10 @@
       <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M1" t="s">
@@ -7099,69 +6620,75 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="5">
-        <v>6.5645502142918594E-5</v>
-      </c>
-      <c r="C2" s="5">
-        <v>6.6450243197168406E-5</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="3">
+        <v>5.5292701410750503E-4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5.5434433600934602E-4</v>
+      </c>
+      <c r="D2" s="2">
         <v>257</v>
       </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>5.1840000000000002</v>
+      </c>
+      <c r="J2" s="3">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1E-8</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="7">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>6.5674415753164773E-5</v>
-      </c>
-      <c r="L2" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5689379116133195E-5</v>
-      </c>
-      <c r="M2" s="5">
+        <v>5.5280412989668504E-4</v>
+      </c>
+      <c r="L2" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5176508721296055E-4</v>
+      </c>
+      <c r="M2" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>258.5</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="5">
-        <v>6.5797227609436893E-5</v>
-      </c>
-      <c r="C3" s="5">
-        <v>6.5941083255196598E-5</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B3" s="3">
+        <v>5.5333039024844705E-4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5.5054697657667799E-4</v>
+      </c>
+      <c r="D3" s="2">
         <v>258</v>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>4.4850000000000003</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="K3" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5717032281099771E-5</v>
-      </c>
-      <c r="L3" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5690851471949727E-5</v>
+      <c r="K3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5299956275848649E-4</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5200351035888679E-4</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7173,32 +6700,35 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="5">
-        <v>6.5726093909082293E-5</v>
-      </c>
-      <c r="C4" s="5">
-        <v>6.5050403289670196E-5</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="3">
+        <v>5.5278050977115801E-4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5.4910278289598598E-4</v>
+      </c>
+      <c r="D4" s="2">
         <v>259</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>5.7030000000000003</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.57963951695516E-5</v>
-      </c>
-      <c r="L4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5678628966162048E-5</v>
+      <c r="K4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5311213903284277E-4</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.519628697235946E-4</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7210,38 +6740,41 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="5">
-        <v>6.5528839351221299E-5</v>
-      </c>
-      <c r="C5" s="5">
-        <v>6.5315786722497593E-5</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B5" s="3">
+        <v>5.5217860545962998E-4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5.5306625336983201E-4</v>
+      </c>
+      <c r="D5" s="2">
         <v>260</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>6.1580000000000004</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="K5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.654053629123757E-5</v>
-      </c>
-      <c r="L5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5639567503936557E-5</v>
-      </c>
-      <c r="M5" s="3">
+      <c r="K5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.539931744375882E-4</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5186475250632158E-4</v>
+      </c>
+      <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>270.5</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -7251,10 +6784,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="5">
-        <v>6.5652948037798805E-5</v>
+        <v>5.52990967718263E-4</v>
       </c>
       <c r="C6" s="5">
-        <v>6.6426651252921603E-5</v>
+        <v>5.5420823008852402E-4</v>
       </c>
       <c r="D6" s="4">
         <v>261</v>
@@ -7267,13 +6800,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>1E-4</v>
       </c>
-      <c r="K6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.4686178675619828E-5</v>
-      </c>
-      <c r="L6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.5808864476027916E-5</v>
+      <c r="K6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6199801447413171E-4</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5199625800943274E-4</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7289,10 +6822,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="5">
-        <v>6.5941118101666993E-5</v>
+        <v>5.5353319691494099E-4</v>
       </c>
       <c r="C7" s="5">
-        <v>6.6051388514213295E-5</v>
+        <v>5.5062920449578995E-4</v>
       </c>
       <c r="D7" s="4">
         <v>262</v>
@@ -7305,13 +6838,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>1E-3</v>
       </c>
-      <c r="K7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5281848402325175E-4</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.90142107119522E-5</v>
+      <c r="K7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4246635356297052E-4</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5561009542137198E-4</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7327,10 +6860,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="5">
-        <v>6.5685000105683303E-5</v>
+        <v>5.53214280400425E-4</v>
       </c>
       <c r="C8" s="5">
-        <v>6.4950264710747198E-5</v>
+        <v>5.49644848859393E-4</v>
       </c>
       <c r="D8" s="4">
         <v>263</v>
@@ -7343,13 +6876,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="K8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.1991119341691914E-4</v>
-      </c>
-      <c r="L8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.3046036735461827E-4</v>
+      <c r="K8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1870585324553077E-3</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.2767150068204767E-4</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7365,10 +6898,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="5">
-        <v>6.5589062879249996E-5</v>
+        <v>5.5225980600031698E-4</v>
       </c>
       <c r="C9" s="5">
-        <v>6.5335101409916797E-5</v>
+        <v>5.5353175799183999E-4</v>
       </c>
       <c r="D9" s="4">
         <v>264</v>
@@ -7381,13 +6914,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="K9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2306537082574001E-4</v>
-      </c>
-      <c r="L9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2510426836187331E-4</v>
+      <c r="K9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3124579753105777E-3</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3106210380817325E-3</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7403,10 +6936,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="1">
-        <v>6.5742575544087807E-5</v>
+        <v>5.5309215110416199E-4</v>
       </c>
       <c r="C10" s="1">
-        <v>6.6464323065295604E-5</v>
+        <v>5.5421055158342604E-4</v>
       </c>
       <c r="D10">
         <v>265</v>
@@ -7414,9 +6947,9 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="8">
         <f ca="1">MIN(L2:L9)</f>
-        <v>6.5639567503936557E-5</v>
+        <v>5.5176508721296055E-4</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -7424,10 +6957,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="1">
-        <v>6.5939767402596703E-5</v>
+        <v>5.5390561069361801E-4</v>
       </c>
       <c r="C11" s="1">
-        <v>6.59592980732571E-5</v>
+        <v>5.51029936375809E-4</v>
       </c>
       <c r="D11">
         <v>266</v>
@@ -7441,10 +6974,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="1">
-        <v>6.5766020454854397E-5</v>
+        <v>5.5339085132193998E-4</v>
       </c>
       <c r="C12" s="1">
-        <v>6.4994091634945706E-5</v>
+        <v>5.4977962405400999E-4</v>
       </c>
       <c r="D12">
         <v>267</v>
@@ -7458,10 +6991,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="1">
-        <v>6.5737217276667494E-5</v>
+        <v>5.5205994301165101E-4</v>
       </c>
       <c r="C13" s="1">
-        <v>6.5296803091149794E-5</v>
+        <v>5.5283136688113305E-4</v>
       </c>
       <c r="D13">
         <v>268</v>
@@ -7471,94 +7004,86 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B14" s="3">
-        <v>6.6556506644701498E-5</v>
-      </c>
-      <c r="C14" s="3">
-        <v>6.6400460824258894E-5</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="B14" s="5">
+        <v>5.5409520965379899E-4</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5.5399668270454498E-4</v>
+      </c>
+      <c r="D14" s="4">
         <v>269</v>
       </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>4.5810000000000004</v>
-      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B15" s="3">
-        <v>6.6504657045394802E-5</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6.5883638718390806E-5</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="5">
+        <v>5.5453957306842003E-4</v>
+      </c>
+      <c r="C15" s="5">
+        <v>5.5071155409368202E-4</v>
+      </c>
+      <c r="D15" s="4">
         <v>270</v>
       </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>3.2189999999999999</v>
-      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B16" s="3">
-        <v>6.6540299652842805E-5</v>
-      </c>
-      <c r="C16" s="3">
-        <v>6.4886900060067006E-5</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="B16" s="5">
+        <v>5.5425259470939597E-4</v>
+      </c>
+      <c r="C16" s="5">
+        <v>5.49712020809702E-4</v>
+      </c>
+      <c r="D16" s="4">
         <v>271</v>
       </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>4.3390000000000004</v>
-      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B17" s="3">
-        <v>6.6560681822011204E-5</v>
-      </c>
-      <c r="C17" s="3">
-        <v>6.5387270413029495E-5</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="B17" s="5">
+        <v>5.5308532031873804E-4</v>
+      </c>
+      <c r="C17" s="5">
+        <v>5.5303875241735699E-4</v>
+      </c>
+      <c r="D17" s="4">
         <v>272</v>
       </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>3.6459999999999999</v>
-      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1E-4</v>
       </c>
       <c r="B18" s="1">
-        <v>7.4428706119457799E-5</v>
+        <v>5.62234375237797E-4</v>
       </c>
       <c r="C18" s="1">
-        <v>6.6549783947808202E-5</v>
+        <v>5.5436929378242404E-4</v>
       </c>
       <c r="D18">
         <v>273</v>
@@ -7572,10 +7097,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19" s="1">
-        <v>7.4920391023624607E-5</v>
+        <v>5.6261212790074402E-4</v>
       </c>
       <c r="C19" s="1">
-        <v>6.6086836786200095E-5</v>
+        <v>5.5094316702068496E-4</v>
       </c>
       <c r="D19">
         <v>274</v>
@@ -7589,10 +7114,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20" s="1">
-        <v>7.4588136369129596E-5</v>
+        <v>5.6187132086294301E-4</v>
       </c>
       <c r="C20" s="1">
-        <v>6.5190444032889495E-5</v>
+        <v>5.4969429502887805E-4</v>
       </c>
       <c r="D20">
         <v>275</v>
@@ -7606,10 +7131,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21" s="1">
-        <v>7.4807481190267296E-5</v>
+        <v>5.6127423389504304E-4</v>
       </c>
       <c r="C21" s="1">
-        <v>6.5408393137213899E-5</v>
+        <v>5.5297827620574402E-4</v>
       </c>
       <c r="D21">
         <v>276</v>
@@ -7623,10 +7148,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22" s="4">
-        <v>1.52327883445347E-4</v>
+        <v>6.4303185247505698E-4</v>
       </c>
       <c r="C22" s="5">
-        <v>6.9969422413046104E-5</v>
+        <v>5.5813582142210598E-4</v>
       </c>
       <c r="D22" s="4">
         <v>277</v>
@@ -7641,10 +7166,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23" s="4">
-        <v>1.52569686256659E-4</v>
+        <v>6.4191055096065003E-4</v>
       </c>
       <c r="C23" s="5">
-        <v>6.9592939171149901E-5</v>
+        <v>5.5487409352939095E-4</v>
       </c>
       <c r="D23" s="4">
         <v>278</v>
@@ -7659,10 +7184,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24" s="4">
-        <v>1.50931167105833E-4</v>
+        <v>6.4310903024549198E-4</v>
       </c>
       <c r="C24" s="5">
-        <v>6.8454384048930006E-5</v>
+        <v>5.5297236812816097E-4</v>
       </c>
       <c r="D24" s="4">
         <v>279</v>
@@ -7677,10 +7202,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25" s="4">
-        <v>1.55445199285168E-4</v>
+        <v>6.41813980570683E-4</v>
       </c>
       <c r="C25" s="5">
-        <v>6.8040097214682802E-5</v>
+        <v>5.5645809860583001E-4</v>
       </c>
       <c r="D25" s="4">
         <v>280</v>
@@ -7695,10 +7220,10 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="4">
-        <v>7.3890696481491102E-4</v>
+        <v>1.1798202988381099E-3</v>
       </c>
       <c r="C26" s="4">
-        <v>3.27462644100763E-4</v>
+        <v>8.2756632609550396E-4</v>
       </c>
       <c r="D26" s="4">
         <v>281</v>
@@ -7713,10 +7238,10 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="4">
-        <v>7.4687053666760495E-4</v>
+        <v>1.1792433282049901E-3</v>
       </c>
       <c r="C27" s="4">
-        <v>3.2493365374938602E-4</v>
+        <v>8.2803702358394198E-4</v>
       </c>
       <c r="D27" s="4">
         <v>282</v>
@@ -7731,10 +7256,10 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="4">
-        <v>7.0028972346335605E-4</v>
+        <v>1.2002156376838601E-3</v>
       </c>
       <c r="C28" s="4">
-        <v>3.3158945703651099E-4</v>
+        <v>8.3209845569341397E-4</v>
       </c>
       <c r="D28" s="4">
         <v>283</v>
@@ -7749,10 +7274,10 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="4">
-        <v>6.9357754872180499E-4</v>
+        <v>1.18895486509427E-3</v>
       </c>
       <c r="C29" s="4">
-        <v>3.3785571453181297E-4</v>
+        <v>8.2298419735533099E-4</v>
       </c>
       <c r="D29" s="4">
         <v>284</v>
@@ -7767,10 +7292,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>8.2345474449296797E-4</v>
+        <v>1.31155606762816E-3</v>
       </c>
       <c r="C30">
-        <v>8.2361042571372904E-4</v>
+        <v>1.31390232003313E-3</v>
       </c>
       <c r="D30">
         <v>285</v>
@@ -7784,10 +7309,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>8.2307420158758704E-4</v>
+        <v>1.3122639385983301E-3</v>
       </c>
       <c r="C31">
-        <v>8.25024558543326E-4</v>
+        <v>1.3106954519319801E-3</v>
       </c>
       <c r="D31">
         <v>286</v>
@@ -7801,10 +7326,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>8.2361258224894604E-4</v>
+        <v>1.3136734785512E-3</v>
       </c>
       <c r="C32">
-        <v>8.2272014015928802E-4</v>
+        <v>1.3053735799869401E-3</v>
       </c>
       <c r="D32">
         <v>287</v>
@@ -7818,10 +7343,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>8.2211995497345899E-4</v>
+        <v>1.3123384164646201E-3</v>
       </c>
       <c r="C33">
-        <v>8.2906194903114997E-4</v>
+        <v>1.3125128003748799E-3</v>
       </c>
       <c r="D33">
         <v>288</v>

--- a/eg3.xlsx
+++ b/eg3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B4A11B-EC4E-9743-AAE6-37F7A98AAF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E93100-4B82-9145-AF13-6BAD2F6BDB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="820" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="10">
   <si>
     <t>Gamma</t>
   </si>
@@ -542,7 +542,7 @@
         <v>0.5</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:O9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
+        <f t="shared" ref="K2:O7" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
         <v>0.25353774428367598</v>
       </c>
       <c r="L2" s="8" t="e">
@@ -582,7 +582,7 @@
         <v>0.25</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
+        <f t="shared" ref="J3:J7" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1</v>
       </c>
       <c r="K3" t="e">
@@ -1314,27 +1314,27 @@
         <v>0.5</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
+        <f t="shared" ref="J3:J7" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1</v>
       </c>
       <c r="K3" t="e">
-        <f t="shared" ref="K3:K9" ca="1" si="2">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
+        <f t="shared" ref="K3:K7" ca="1" si="2">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L3" t="e">
-        <f t="shared" ref="L3:L9" ca="1" si="3">AVERAGE(OFFSET(C$2,(ROW()-2)*4,0,4,1))</f>
+        <f t="shared" ref="L3:L7" ca="1" si="3">AVERAGE(OFFSET(C$2,(ROW()-2)*4,0,4,1))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M3" t="e">
-        <f t="shared" ref="M3:M9" ca="1" si="4">AVERAGE(OFFSET(D$2,(ROW()-2)*4,0,4,1))</f>
+        <f t="shared" ref="M3:M7" ca="1" si="4">AVERAGE(OFFSET(D$2,(ROW()-2)*4,0,4,1))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N9" ca="1" si="5">AVERAGE(OFFSET(E$2,(ROW()-2)*4,0,4,1))</f>
+        <f t="shared" ref="N3:N7" ca="1" si="5">AVERAGE(OFFSET(E$2,(ROW()-2)*4,0,4,1))</f>
         <v>30.5</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O9" ca="1" si="6">AVERAGE(OFFSET(F$2,(ROW()-2)*4,0,4,1))</f>
+        <f t="shared" ref="O3:O7" ca="1" si="6">AVERAGE(OFFSET(F$2,(ROW()-2)*4,0,4,1))</f>
         <v>0.5</v>
       </c>
     </row>
@@ -1935,13 +1935,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="10.83203125" style="8"/>
+    <col min="12" max="13" width="10.83203125" style="8"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1950,10 +1954,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1968,10 +1972,10 @@
       <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
@@ -1985,14 +1989,14 @@
       <c r="A2">
         <v>0.5</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
+      <c r="B2">
+        <v>0.25353774428367598</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1.1695087884242301E-3</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1.1710198336043001E-3</v>
       </c>
       <c r="E2">
         <v>49</v>
@@ -2004,17 +2008,17 @@
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>0.5</v>
       </c>
-      <c r="K2" t="e">
-        <f t="shared" ref="K2:O9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K2">
+        <f t="shared" ref="K2:O7" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
+        <v>0.25353774428367598</v>
+      </c>
+      <c r="L2" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1702077607624176E-3</v>
+      </c>
+      <c r="M2" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1679206159277849E-3</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
@@ -2029,14 +2033,14 @@
       <c r="A3">
         <v>0.5</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+      <c r="B3">
+        <v>0.25353774428367598</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1.1701723610361399E-3</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1.16766764574307E-3</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -2045,20 +2049,20 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
-        <v>1</v>
-      </c>
-      <c r="K3" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="J3:J7" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.50707548856735196</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5658624505546526E-4</v>
+      </c>
+      <c r="M3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5367249018324399E-4</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
@@ -2073,14 +2077,14 @@
       <c r="A4">
         <v>0.5</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
+      <c r="B4">
+        <v>0.25353774428367598</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1.1715139467269101E-3</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.16271267650014E-3</v>
       </c>
       <c r="E4">
         <v>51</v>
@@ -2092,17 +2096,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="K4" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0141509771346999</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4866444546496475E-4</v>
+      </c>
+      <c r="M4" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4793092513523781E-4</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -2117,14 +2121,14 @@
       <c r="A5">
         <v>0.5</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
+      <c r="B5">
+        <v>0.25353774428367598</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.16963594686239E-3</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1.1702823078636299E-3</v>
       </c>
       <c r="E5">
         <v>52</v>
@@ -2136,17 +2140,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="K5" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0283019542693999</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4343618268224672E-4</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4465496090260552E-4</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
@@ -2161,14 +2165,14 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
+      <c r="B6">
+        <v>0.50707548856735196</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5.5612211550275399E-4</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5.5571400035331201E-4</v>
       </c>
       <c r="E6">
         <v>53</v>
@@ -2184,11 +2188,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="4" t="e">
+      <c r="L6" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M6" s="6" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2205,14 +2209,14 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
+      <c r="B7">
+        <v>0.50707548856735196</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5.5688786832615701E-4</v>
+      </c>
+      <c r="D7" s="8">
+        <v>5.5235257295475502E-4</v>
       </c>
       <c r="E7">
         <v>54</v>
@@ -2228,11 +2232,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="4" t="e">
+      <c r="L7" s="6" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="6" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2249,14 +2253,14 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
+      <c r="B8">
+        <v>0.50707548856735196</v>
+      </c>
+      <c r="C8" s="8">
+        <v>5.5737686110660404E-4</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5.5163322472350396E-4</v>
       </c>
       <c r="E8">
         <v>55</v>
@@ -2266,8 +2270,8 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
@@ -2275,14 +2279,14 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
+      <c r="B9">
+        <v>0.50707548856735196</v>
+      </c>
+      <c r="C9" s="8">
+        <v>5.5595813528634599E-4</v>
+      </c>
+      <c r="D9" s="8">
+        <v>5.5499016270140497E-4</v>
       </c>
       <c r="E9">
         <v>56</v>
@@ -2292,162 +2296,162 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="B10" s="4">
+        <v>1.0141509771346999</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5.4820740587698902E-4</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5.4984114614582799E-4</v>
+      </c>
+      <c r="E10" s="4">
         <v>57</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="B11" s="4">
+        <v>1.0141509771346999</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5.4905906420511504E-4</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5.4678867634217398E-4</v>
+      </c>
+      <c r="E11" s="4">
         <v>58</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="B12" s="4">
+        <v>1.0141509771346999</v>
+      </c>
+      <c r="C12" s="6">
+        <v>5.5007015052251497E-4</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5.4636835015349104E-4</v>
+      </c>
+      <c r="E12" s="4">
         <v>59</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="B13" s="4">
+        <v>1.0141509771346999</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5.4732116125523998E-4</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5.48725527899458E-4</v>
+      </c>
+      <c r="E13" s="4">
         <v>60</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="B14" s="2">
+        <v>2.0283019542693999</v>
+      </c>
+      <c r="C14" s="7">
+        <v>5.4289375532728902E-4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5.4616220369736799E-4</v>
+      </c>
+      <c r="E14" s="2">
         <v>61</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="B15" s="2">
+        <v>2.0283019542693999</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5.4441003245301505E-4</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5.4427497509985804E-4</v>
+      </c>
+      <c r="E15" s="2">
         <v>62</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>4</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="B16" s="2">
+        <v>2.0283019542693999</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5.4480503126978796E-4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5.42835522247379E-4</v>
+      </c>
+      <c r="E16" s="2">
         <v>63</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>4</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="B17" s="2">
+        <v>2.0283019542693999</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5.4163591167889498E-4</v>
+      </c>
+      <c r="D17" s="7">
+        <v>5.4534714256581696E-4</v>
+      </c>
+      <c r="E17" s="2">
         <v>64</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2458,10 +2462,10 @@
       <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="4">
@@ -2478,10 +2482,10 @@
       <c r="B19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="4">
@@ -2498,10 +2502,10 @@
       <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="4">
@@ -2518,10 +2522,10 @@
       <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="4">
@@ -2538,10 +2542,10 @@
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="4">
@@ -2558,10 +2562,10 @@
       <c r="B23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="4">
@@ -2578,10 +2582,10 @@
       <c r="B24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="4">
@@ -2598,10 +2602,10 @@
       <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="4">
@@ -2614,50 +2618,34 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4242,19 +4230,22 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="10.83203125" style="8"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
@@ -4286,11 +4277,11 @@
       <c r="A2" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
+      <c r="B2" s="7">
+        <v>5.4467818808431401E-4</v>
+      </c>
+      <c r="C2" s="7">
+        <v>5.4793618185980603E-4</v>
       </c>
       <c r="D2" s="2">
         <v>137</v>
@@ -4302,13 +4293,13 @@
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1E-8</v>
       </c>
-      <c r="K2" s="6" t="e">
+      <c r="K2" s="6">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L2" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+        <v>5.4501390449392248E-4</v>
+      </c>
+      <c r="L2" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4598228838430947E-4</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4323,11 +4314,11 @@
       <c r="A3" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
+      <c r="B3" s="7">
+        <v>5.4454018354105403E-4</v>
+      </c>
+      <c r="C3" s="7">
+        <v>5.4398245714416598E-4</v>
       </c>
       <c r="D3" s="2">
         <v>138</v>
@@ -4339,13 +4330,13 @@
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="K3" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4637969384202663E-4</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4685433713800951E-4</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4360,11 +4351,11 @@
       <c r="A4" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
+      <c r="B4" s="7">
+        <v>5.4581580085990298E-4</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5.4400889240106202E-4</v>
       </c>
       <c r="D4" s="2">
         <v>139</v>
@@ -4397,11 +4388,11 @@
       <c r="A5" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
+      <c r="B5" s="7">
+        <v>5.4502144549041899E-4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>5.4800162213220404E-4</v>
       </c>
       <c r="D5" s="2">
         <v>140</v>
@@ -4434,11 +4425,11 @@
       <c r="A6" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
+      <c r="B6" s="6">
+        <v>5.4626515647396398E-4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5.4927627144856904E-4</v>
       </c>
       <c r="D6" s="4">
         <v>141</v>
@@ -4472,11 +4463,11 @@
       <c r="A7" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
+      <c r="B7" s="6">
+        <v>5.4604323022067495E-4</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5.4517754247075201E-4</v>
       </c>
       <c r="D7" s="4">
         <v>142</v>
@@ -4510,11 +4501,11 @@
       <c r="A8" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
+      <c r="B8" s="6">
+        <v>5.4712533950805598E-4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>5.4464938008830796E-4</v>
       </c>
       <c r="D8" s="4">
         <v>143</v>
@@ -4548,11 +4539,11 @@
       <c r="A9" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
+      <c r="B9" s="6">
+        <v>5.4608504916541195E-4</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5.48314154544409E-4</v>
       </c>
       <c r="D9" s="4">
         <v>144</v>
@@ -4586,10 +4577,10 @@
       <c r="A10" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="4">
@@ -4607,10 +4598,10 @@
       <c r="A11" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="4">
@@ -4624,10 +4615,10 @@
       <c r="A12" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="4">
@@ -4641,10 +4632,10 @@
       <c r="A13" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="4">
@@ -4658,10 +4649,10 @@
       <c r="A14" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D14">
@@ -4675,10 +4666,10 @@
       <c r="A15" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D15">
@@ -4692,10 +4683,10 @@
       <c r="A16" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D16">
@@ -4709,10 +4700,10 @@
       <c r="A17" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D17">
@@ -4726,10 +4717,10 @@
       <c r="A18">
         <v>1E-4</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D18">
@@ -4743,10 +4734,10 @@
       <c r="A19">
         <v>1E-4</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D19">
@@ -4760,10 +4751,10 @@
       <c r="A20">
         <v>1E-4</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D20">
@@ -4777,10 +4768,10 @@
       <c r="A21">
         <v>1E-4</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D21">
@@ -4794,10 +4785,10 @@
       <c r="A22">
         <v>1E-3</v>
       </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D22">
@@ -4811,10 +4802,10 @@
       <c r="A23">
         <v>1E-3</v>
       </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D23">
@@ -4828,10 +4819,10 @@
       <c r="A24">
         <v>1E-3</v>
       </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D24">
@@ -4845,10 +4836,10 @@
       <c r="A25">
         <v>1E-3</v>
       </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D25">
@@ -4862,10 +4853,10 @@
       <c r="A26">
         <v>0.01</v>
       </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D26">
@@ -4879,10 +4870,10 @@
       <c r="A27">
         <v>0.01</v>
       </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D27">
@@ -4896,10 +4887,10 @@
       <c r="A28">
         <v>0.01</v>
       </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D28">
@@ -4913,10 +4904,10 @@
       <c r="A29">
         <v>0.01</v>
       </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D29">
@@ -4930,10 +4921,10 @@
       <c r="A30">
         <v>0.1</v>
       </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D30">
@@ -4947,10 +4938,10 @@
       <c r="A31">
         <v>0.1</v>
       </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D31">
@@ -4964,10 +4955,10 @@
       <c r="A32">
         <v>0.1</v>
       </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D32">
@@ -4981,10 +4972,10 @@
       <c r="A33">
         <v>0.1</v>
       </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D33">

--- a/eg3.xlsx
+++ b/eg3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E93100-4B82-9145-AF13-6BAD2F6BDB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2A684A-6C3A-2042-9438-7002A5281F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="820" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="10">
   <si>
     <t>Gamma</t>
   </si>
@@ -1938,7 +1938,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1989,14 +1989,14 @@
       <c r="A2">
         <v>0.5</v>
       </c>
-      <c r="B2">
-        <v>0.25353774428367598</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1.1695087884242301E-3</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1.1710198336043001E-3</v>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E2">
         <v>49</v>
@@ -2008,17 +2008,17 @@
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>0.5</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="e">
         <f t="shared" ref="K2:O7" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>0.25353774428367598</v>
-      </c>
-      <c r="L2" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.1702077607624176E-3</v>
-      </c>
-      <c r="M2" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.1679206159277849E-3</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L2" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M2" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
@@ -2033,14 +2033,14 @@
       <c r="A3">
         <v>0.5</v>
       </c>
-      <c r="B3">
-        <v>0.25353774428367598</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1.1701723610361399E-3</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1.16766764574307E-3</v>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -2052,17 +2052,17 @@
         <f t="shared" ref="J3:J7" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1</v>
       </c>
-      <c r="K3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.50707548856735196</v>
-      </c>
-      <c r="L3" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5658624505546526E-4</v>
-      </c>
-      <c r="M3" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5367249018324399E-4</v>
+      <c r="K3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" s="8" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
@@ -2077,14 +2077,14 @@
       <c r="A4">
         <v>0.5</v>
       </c>
-      <c r="B4">
-        <v>0.25353774428367598</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1.1715139467269101E-3</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1.16271267650014E-3</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E4">
         <v>51</v>
@@ -2092,27 +2092,27 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="K4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0141509771346999</v>
-      </c>
-      <c r="L4" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.4866444546496475E-4</v>
-      </c>
-      <c r="M4" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.4793092513523781E-4</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="K4" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1509433984756401</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6237908473703975E-3</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6219030305287402E-3</v>
+      </c>
+      <c r="N4" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>58.5</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -2121,14 +2121,14 @@
       <c r="A5">
         <v>0.5</v>
       </c>
-      <c r="B5">
-        <v>0.25353774428367598</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1.16963594686239E-3</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1.1702823078636299E-3</v>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E5">
         <v>52</v>
@@ -2136,27 +2136,27 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="K5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.0283019542693999</v>
-      </c>
-      <c r="L5" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.4343618268224672E-4</v>
-      </c>
-      <c r="M5" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.4465496090260552E-4</v>
-      </c>
-      <c r="N5">
+      <c r="K5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.3018867969512899</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6087905953948651E-3</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6119516454017749E-3</v>
+      </c>
+      <c r="N5" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>62.5</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -2165,14 +2165,14 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>0.50707548856735196</v>
-      </c>
-      <c r="C6" s="8">
-        <v>5.5612211550275399E-4</v>
-      </c>
-      <c r="D6" s="8">
-        <v>5.5571400035331201E-4</v>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E6">
         <v>53</v>
@@ -2209,14 +2209,14 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>0.50707548856735196</v>
-      </c>
-      <c r="C7" s="8">
-        <v>5.5688786832615701E-4</v>
-      </c>
-      <c r="D7" s="8">
-        <v>5.5235257295475502E-4</v>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E7">
         <v>54</v>
@@ -2253,14 +2253,14 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8">
-        <v>0.50707548856735196</v>
-      </c>
-      <c r="C8" s="8">
-        <v>5.5737686110660404E-4</v>
-      </c>
-      <c r="D8" s="8">
-        <v>5.5163322472350396E-4</v>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E8">
         <v>55</v>
@@ -2279,14 +2279,14 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9">
-        <v>0.50707548856735196</v>
-      </c>
-      <c r="C9" s="8">
-        <v>5.5595813528634599E-4</v>
-      </c>
-      <c r="D9" s="8">
-        <v>5.5499016270140497E-4</v>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E9">
         <v>56</v>
@@ -2300,13 +2300,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>1.0141509771346999</v>
+        <v>1.1509433984756401</v>
       </c>
       <c r="C10" s="6">
-        <v>5.4820740587698902E-4</v>
+        <v>1.6219404445340199E-3</v>
       </c>
       <c r="D10" s="6">
-        <v>5.4984114614582799E-4</v>
+        <v>1.62672114984548E-3</v>
       </c>
       <c r="E10" s="4">
         <v>57</v>
@@ -2320,13 +2320,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>1.0141509771346999</v>
+        <v>1.1509433984756401</v>
       </c>
       <c r="C11" s="6">
-        <v>5.4905906420511504E-4</v>
+        <v>1.62432621233165E-3</v>
       </c>
       <c r="D11" s="6">
-        <v>5.4678867634217398E-4</v>
+        <v>1.6165695356284301E-3</v>
       </c>
       <c r="E11" s="4">
         <v>58</v>
@@ -2340,13 +2340,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>1.0141509771346999</v>
+        <v>1.1509433984756401</v>
       </c>
       <c r="C12" s="6">
-        <v>5.5007015052251497E-4</v>
+        <v>1.6273460791756699E-3</v>
       </c>
       <c r="D12" s="6">
-        <v>5.4636835015349104E-4</v>
+        <v>1.6172530297982499E-3</v>
       </c>
       <c r="E12" s="4">
         <v>59</v>
@@ -2360,13 +2360,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>1.0141509771346999</v>
+        <v>1.1509433984756401</v>
       </c>
       <c r="C13" s="6">
-        <v>5.4732116125523998E-4</v>
+        <v>1.6215506534402501E-3</v>
       </c>
       <c r="D13" s="6">
-        <v>5.48725527899458E-4</v>
+        <v>1.6270684068428001E-3</v>
       </c>
       <c r="E13" s="4">
         <v>60</v>
@@ -2380,13 +2380,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>2.0283019542693999</v>
+        <v>2.3018867969512899</v>
       </c>
       <c r="C14" s="7">
-        <v>5.4289375532728902E-4</v>
+        <v>1.6079827863722999E-3</v>
       </c>
       <c r="D14" s="7">
-        <v>5.4616220369736799E-4</v>
+        <v>1.6175573889879401E-3</v>
       </c>
       <c r="E14" s="2">
         <v>61</v>
@@ -2400,13 +2400,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>2.0283019542693999</v>
+        <v>2.3018867969512899</v>
       </c>
       <c r="C15" s="7">
-        <v>5.4441003245301505E-4</v>
+        <v>1.6067557008936999E-3</v>
       </c>
       <c r="D15" s="7">
-        <v>5.4427497509985804E-4</v>
+        <v>1.6051404552157699E-3</v>
       </c>
       <c r="E15" s="2">
         <v>62</v>
@@ -2420,13 +2420,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>2.0283019542693999</v>
+        <v>2.3018867969512899</v>
       </c>
       <c r="C16" s="7">
-        <v>5.4480503126978796E-4</v>
+        <v>1.61436741333454E-3</v>
       </c>
       <c r="D16" s="7">
-        <v>5.42835522247379E-4</v>
+        <v>1.60883634445316E-3</v>
       </c>
       <c r="E16" s="2">
         <v>63</v>
@@ -2440,13 +2440,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>2.0283019542693999</v>
+        <v>2.3018867969512899</v>
       </c>
       <c r="C17" s="7">
-        <v>5.4163591167889498E-4</v>
+        <v>1.6060564809789199E-3</v>
       </c>
       <c r="D17" s="7">
-        <v>5.4534714256581696E-4</v>
+        <v>1.6162723929502301E-3</v>
       </c>
       <c r="E17" s="2">
         <v>64</v>
@@ -3468,7 +3468,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F33"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4230,7 +4230,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4278,16 +4278,19 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="7">
-        <v>5.4467818808431401E-4</v>
+        <v>1.61265769445647E-3</v>
       </c>
       <c r="C2" s="7">
-        <v>5.4793618185980603E-4</v>
+        <v>1.6222040384433201E-3</v>
       </c>
       <c r="D2" s="2">
         <v>137</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
+      </c>
+      <c r="F2">
+        <v>7.4649999999999999</v>
       </c>
       <c r="J2" s="5">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
@@ -4295,11 +4298,11 @@
       </c>
       <c r="K2" s="6">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>5.4501390449392248E-4</v>
+        <v>1.6112142178074699E-3</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4598228838430947E-4</v>
+        <v>1.6148033712252425E-3</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4315,16 +4318,19 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="7">
-        <v>5.4454018354105403E-4</v>
+        <v>1.6101203377669E-3</v>
       </c>
       <c r="C3" s="7">
-        <v>5.4398245714416598E-4</v>
+        <v>1.6073815517147301E-3</v>
       </c>
       <c r="D3" s="2">
         <v>138</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
+      </c>
+      <c r="F3">
+        <v>13.054</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
@@ -4332,11 +4338,11 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4637969384202663E-4</v>
+        <v>1.615469656962275E-3</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4685433713800951E-4</v>
+        <v>1.6171864067957226E-3</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4352,16 +4358,19 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="7">
-        <v>5.4581580085990298E-4</v>
+        <v>1.6124364084874501E-3</v>
       </c>
       <c r="C4" s="7">
-        <v>5.4400889240106202E-4</v>
+        <v>1.6090827164279801E-3</v>
       </c>
       <c r="D4" s="2">
         <v>139</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
+      </c>
+      <c r="F4">
+        <v>11.907999999999999</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -4389,16 +4398,19 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="7">
-        <v>5.4502144549041899E-4</v>
+        <v>1.60964243051906E-3</v>
       </c>
       <c r="C5" s="7">
-        <v>5.4800162213220404E-4</v>
+        <v>1.62054517831494E-3</v>
       </c>
       <c r="D5" s="2">
         <v>140</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
+      </c>
+      <c r="F5">
+        <v>9.8360000000000003</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -4426,10 +4438,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="6">
-        <v>5.4626515647396398E-4</v>
+        <v>1.6148680172239701E-3</v>
       </c>
       <c r="C6" s="6">
-        <v>5.4927627144856904E-4</v>
+        <v>1.6222912966808701E-3</v>
       </c>
       <c r="D6" s="4">
         <v>141</v>
@@ -4464,10 +4476,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="6">
-        <v>5.4604323022067495E-4</v>
+        <v>1.61539949352542E-3</v>
       </c>
       <c r="C7" s="6">
-        <v>5.4517754247075201E-4</v>
+        <v>1.6112662096349299E-3</v>
       </c>
       <c r="D7" s="4">
         <v>142</v>
@@ -4502,10 +4514,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="6">
-        <v>5.4712533950805598E-4</v>
+        <v>1.61716836659858E-3</v>
       </c>
       <c r="C8" s="6">
-        <v>5.4464938008830796E-4</v>
+        <v>1.6117061753360899E-3</v>
       </c>
       <c r="D8" s="4">
         <v>143</v>
@@ -4540,10 +4552,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="6">
-        <v>5.4608504916541195E-4</v>
+        <v>1.61444275050113E-3</v>
       </c>
       <c r="C9" s="6">
-        <v>5.48314154544409E-4</v>
+        <v>1.623481945531E-3</v>
       </c>
       <c r="D9" s="4">
         <v>144</v>

--- a/eg3.xlsx
+++ b/eg3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2A684A-6C3A-2042-9438-7002A5281F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8B31EC-462F-314B-BB3A-7CCE02860F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="820" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
@@ -1938,7 +1938,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A10" sqref="A10:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2098,15 +2098,15 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1509433984756401</v>
+        <v>0.98883008956909102</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6237908473703975E-3</v>
+        <v>1.6530596564213376E-3</v>
       </c>
       <c r="M4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6219030305287402E-3</v>
+        <v>1.6510131919974425E-3</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -2142,15 +2142,15 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3018867969512899</v>
+        <v>1.97766017913818</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6087905953948651E-3</v>
+        <v>1.6381777262625575E-3</v>
       </c>
       <c r="M5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6119516454017749E-3</v>
+        <v>1.641923219877035E-3</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -2300,13 +2300,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>1.1509433984756401</v>
+        <v>0.98883008956909102</v>
       </c>
       <c r="C10" s="6">
-        <v>1.6219404445340199E-3</v>
+        <v>1.6515019355962601E-3</v>
       </c>
       <c r="D10" s="6">
-        <v>1.62672114984548E-3</v>
+        <v>1.65470736348961E-3</v>
       </c>
       <c r="E10" s="4">
         <v>57</v>
@@ -2320,13 +2320,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>1.1509433984756401</v>
+        <v>0.98883008956909102</v>
       </c>
       <c r="C11" s="6">
-        <v>1.62432621233165E-3</v>
+        <v>1.65478420692185E-3</v>
       </c>
       <c r="D11" s="6">
-        <v>1.6165695356284301E-3</v>
+        <v>1.6488772594033E-3</v>
       </c>
       <c r="E11" s="4">
         <v>58</v>
@@ -2340,13 +2340,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>1.1509433984756401</v>
+        <v>0.98883008956909102</v>
       </c>
       <c r="C12" s="6">
-        <v>1.6273460791756699E-3</v>
+        <v>1.65669161826372E-3</v>
       </c>
       <c r="D12" s="6">
-        <v>1.6172530297982499E-3</v>
+        <v>1.64585960583087E-3</v>
       </c>
       <c r="E12" s="4">
         <v>59</v>
@@ -2360,13 +2360,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>1.1509433984756401</v>
+        <v>0.98883008956909102</v>
       </c>
       <c r="C13" s="6">
-        <v>1.6215506534402501E-3</v>
+        <v>1.6492608649035199E-3</v>
       </c>
       <c r="D13" s="6">
-        <v>1.6270684068428001E-3</v>
+        <v>1.6546085392659901E-3</v>
       </c>
       <c r="E13" s="4">
         <v>60</v>
@@ -2380,13 +2380,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>2.3018867969512899</v>
+        <v>1.97766017913818</v>
       </c>
       <c r="C14" s="7">
-        <v>1.6079827863722999E-3</v>
+        <v>1.636347715122E-3</v>
       </c>
       <c r="D14" s="7">
-        <v>1.6175573889879401E-3</v>
+        <v>1.64580021420137E-3</v>
       </c>
       <c r="E14" s="2">
         <v>61</v>
@@ -2400,13 +2400,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>2.3018867969512899</v>
+        <v>1.97766017913818</v>
       </c>
       <c r="C15" s="7">
-        <v>1.6067557008936999E-3</v>
+        <v>1.6397932609543201E-3</v>
       </c>
       <c r="D15" s="7">
-        <v>1.6051404552157699E-3</v>
+        <v>1.64016782296227E-3</v>
       </c>
       <c r="E15" s="2">
         <v>62</v>
@@ -2420,13 +2420,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>2.3018867969512899</v>
+        <v>1.97766017913818</v>
       </c>
       <c r="C16" s="7">
-        <v>1.61436741333454E-3</v>
+        <v>1.6422623184819999E-3</v>
       </c>
       <c r="D16" s="7">
-        <v>1.60883634445316E-3</v>
+        <v>1.6355306588786999E-3</v>
       </c>
       <c r="E16" s="2">
         <v>63</v>
@@ -2440,13 +2440,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>2.3018867969512899</v>
+        <v>1.97766017913818</v>
       </c>
       <c r="C17" s="7">
-        <v>1.6060564809789199E-3</v>
+        <v>1.6343076104919101E-3</v>
       </c>
       <c r="D17" s="7">
-        <v>1.6162723929502301E-3</v>
+        <v>1.6461941834658E-3</v>
       </c>
       <c r="E17" s="2">
         <v>64</v>
@@ -4230,7 +4230,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4278,10 +4278,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="7">
-        <v>1.61265769445647E-3</v>
+        <v>1.6457066694274499E-3</v>
       </c>
       <c r="C2" s="7">
-        <v>1.6222040384433201E-3</v>
+        <v>1.6545231709197299E-3</v>
       </c>
       <c r="D2" s="2">
         <v>137</v>
@@ -4290,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>7.4649999999999999</v>
+        <v>2.98</v>
       </c>
       <c r="J2" s="5">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
@@ -4298,11 +4298,11 @@
       </c>
       <c r="K2" s="6">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>1.6112142178074699E-3</v>
+        <v>1.6430723464582074E-3</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6148033712252425E-3</v>
+        <v>1.6458375959042826E-3</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4318,10 +4318,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="7">
-        <v>1.6101203377669E-3</v>
+        <v>1.6430577297384501E-3</v>
       </c>
       <c r="C3" s="7">
-        <v>1.6073815517147301E-3</v>
+        <v>1.64115236591587E-3</v>
       </c>
       <c r="D3" s="2">
         <v>138</v>
@@ -4330,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>13.054</v>
+        <v>5.6319999999999997</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
@@ -4338,11 +4338,11 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.615469656962275E-3</v>
+        <v>1.6448951116763025E-3</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6171864067957226E-3</v>
+        <v>1.6470975131093598E-3</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4358,10 +4358,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="7">
-        <v>1.6124364084874501E-3</v>
+        <v>1.64205641858279E-3</v>
       </c>
       <c r="C4" s="7">
-        <v>1.6090827164279801E-3</v>
+        <v>1.6364359502442801E-3</v>
       </c>
       <c r="D4" s="2">
         <v>139</v>
@@ -4370,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>11.907999999999999</v>
+        <v>7.3280000000000003</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -4398,10 +4398,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="7">
-        <v>1.60964243051906E-3</v>
+        <v>1.6414685680841399E-3</v>
       </c>
       <c r="C5" s="7">
-        <v>1.62054517831494E-3</v>
+        <v>1.65123889653725E-3</v>
       </c>
       <c r="D5" s="2">
         <v>140</v>
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>9.8360000000000003</v>
+        <v>3.6240000000000001</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -4438,10 +4438,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="6">
-        <v>1.6148680172239701E-3</v>
+        <v>1.64668200630694E-3</v>
       </c>
       <c r="C6" s="6">
-        <v>1.6222912966808701E-3</v>
+        <v>1.6553057815899301E-3</v>
       </c>
       <c r="D6" s="4">
         <v>141</v>
@@ -4476,10 +4476,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="6">
-        <v>1.61539949352542E-3</v>
+        <v>1.6449793176725499E-3</v>
       </c>
       <c r="C7" s="6">
-        <v>1.6112662096349299E-3</v>
+        <v>1.64221417520472E-3</v>
       </c>
       <c r="D7" s="4">
         <v>142</v>
@@ -4514,10 +4514,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="6">
-        <v>1.61716836659858E-3</v>
+        <v>1.6442012668897699E-3</v>
       </c>
       <c r="C8" s="6">
-        <v>1.6117061753360899E-3</v>
+        <v>1.6382819504794099E-3</v>
       </c>
       <c r="D8" s="4">
         <v>143</v>
@@ -4552,10 +4552,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="6">
-        <v>1.61444275050113E-3</v>
+        <v>1.6437178558359499E-3</v>
       </c>
       <c r="C9" s="6">
-        <v>1.623481945531E-3</v>
+        <v>1.65258814516338E-3</v>
       </c>
       <c r="D9" s="4">
         <v>144</v>

--- a/eg3.xlsx
+++ b/eg3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8B31EC-462F-314B-BB3A-7CCE02860F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E73DE7-B414-D64F-B0CA-512C12676327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="820" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="13180" yWindow="3600" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -2098,15 +2098,15 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98883008956909102</v>
+        <v>1.2735849618911701</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6530596564213376E-3</v>
+        <v>2.6970230384419352E-3</v>
       </c>
       <c r="M4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6510131919974425E-3</v>
+        <v>2.6938984197802151E-3</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -2142,15 +2142,15 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.97766017913818</v>
+        <v>2.5471699237823402</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6381777262625575E-3</v>
+        <v>2.6745605363200052E-3</v>
       </c>
       <c r="M5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.641923219877035E-3</v>
+        <v>2.6806525717628076E-3</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -2300,13 +2300,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>0.98883008956909102</v>
+        <v>1.2735849618911701</v>
       </c>
       <c r="C10" s="6">
-        <v>1.6515019355962601E-3</v>
+        <v>2.6950021479278802E-3</v>
       </c>
       <c r="D10" s="6">
-        <v>1.65470736348961E-3</v>
+        <v>2.7023559148879098E-3</v>
       </c>
       <c r="E10" s="4">
         <v>57</v>
@@ -2320,13 +2320,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>0.98883008956909102</v>
+        <v>1.2735849618911701</v>
       </c>
       <c r="C11" s="6">
-        <v>1.65478420692185E-3</v>
+        <v>2.6946473425875101E-3</v>
       </c>
       <c r="D11" s="6">
-        <v>1.6488772594033E-3</v>
+        <v>2.6820493599479102E-3</v>
       </c>
       <c r="E11" s="4">
         <v>58</v>
@@ -2340,13 +2340,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>0.98883008956909102</v>
+        <v>1.2735849618911701</v>
       </c>
       <c r="C12" s="6">
-        <v>1.65669161826372E-3</v>
+        <v>2.7022943900277198E-3</v>
       </c>
       <c r="D12" s="6">
-        <v>1.64585960583087E-3</v>
+        <v>2.6868357932432799E-3</v>
       </c>
       <c r="E12" s="4">
         <v>59</v>
@@ -2360,13 +2360,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>0.98883008956909102</v>
+        <v>1.2735849618911701</v>
       </c>
       <c r="C13" s="6">
-        <v>1.6492608649035199E-3</v>
+        <v>2.6961482732246302E-3</v>
       </c>
       <c r="D13" s="6">
-        <v>1.6546085392659901E-3</v>
+        <v>2.7043526110417599E-3</v>
       </c>
       <c r="E13" s="4">
         <v>60</v>
@@ -2380,13 +2380,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>1.97766017913818</v>
+        <v>2.5471699237823402</v>
       </c>
       <c r="C14" s="7">
-        <v>1.636347715122E-3</v>
+        <v>2.6707576171805399E-3</v>
       </c>
       <c r="D14" s="7">
-        <v>1.64580021420137E-3</v>
+        <v>2.6850770425764798E-3</v>
       </c>
       <c r="E14" s="2">
         <v>61</v>
@@ -2400,13 +2400,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>1.97766017913818</v>
+        <v>2.5471699237823402</v>
       </c>
       <c r="C15" s="7">
-        <v>1.6397932609543201E-3</v>
+        <v>2.6707805910458102E-3</v>
       </c>
       <c r="D15" s="7">
-        <v>1.64016782296227E-3</v>
+        <v>2.6697110151872E-3</v>
       </c>
       <c r="E15" s="2">
         <v>62</v>
@@ -2420,13 +2420,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>1.97766017913818</v>
+        <v>2.5471699237823402</v>
       </c>
       <c r="C16" s="7">
-        <v>1.6422623184819999E-3</v>
+        <v>2.6878361565371299E-3</v>
       </c>
       <c r="D16" s="7">
-        <v>1.6355306588786999E-3</v>
+        <v>2.6794429571228998E-3</v>
       </c>
       <c r="E16" s="2">
         <v>63</v>
@@ -2440,13 +2440,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>1.97766017913818</v>
+        <v>2.5471699237823402</v>
       </c>
       <c r="C17" s="7">
-        <v>1.6343076104919101E-3</v>
+        <v>2.66886778051654E-3</v>
       </c>
       <c r="D17" s="7">
-        <v>1.6461941834658E-3</v>
+        <v>2.68837927216465E-3</v>
       </c>
       <c r="E17" s="2">
         <v>64</v>
@@ -4230,7 +4230,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4278,10 +4278,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="7">
-        <v>1.6457066694274499E-3</v>
+        <v>2.6814372893422798E-3</v>
       </c>
       <c r="C2" s="7">
-        <v>1.6545231709197299E-3</v>
+        <v>2.6934186090774598E-3</v>
       </c>
       <c r="D2" s="2">
         <v>137</v>
@@ -4290,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2.98</v>
+        <v>7.6509999999999998</v>
       </c>
       <c r="J2" s="5">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
@@ -4298,11 +4298,11 @@
       </c>
       <c r="K2" s="6">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>1.6430723464582074E-3</v>
+        <v>2.6759812048015473E-3</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6458375959042826E-3</v>
+        <v>2.6822605701609199E-3</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4318,10 +4318,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="7">
-        <v>1.6430577297384501E-3</v>
+        <v>2.6722184543808299E-3</v>
       </c>
       <c r="C3" s="7">
-        <v>1.64115236591587E-3</v>
+        <v>2.66995809060779E-3</v>
       </c>
       <c r="D3" s="2">
         <v>138</v>
@@ -4330,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>5.6319999999999997</v>
+        <v>19.641999999999999</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
@@ -4338,11 +4338,11 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6448951116763025E-3</v>
+        <v>2.6806210184780227E-3</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6470975131093598E-3</v>
+        <v>2.6851349239029503E-3</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4358,10 +4358,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="7">
-        <v>1.64205641858279E-3</v>
+        <v>2.6788104722897201E-3</v>
       </c>
       <c r="C4" s="7">
-        <v>1.6364359502442801E-3</v>
+        <v>2.6743481594553899E-3</v>
       </c>
       <c r="D4" s="2">
         <v>139</v>
@@ -4370,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>7.3280000000000003</v>
+        <v>19.960999999999999</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -4398,10 +4398,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="7">
-        <v>1.6414685680841399E-3</v>
+        <v>2.6714586031933601E-3</v>
       </c>
       <c r="C5" s="7">
-        <v>1.65123889653725E-3</v>
+        <v>2.6913174215030399E-3</v>
       </c>
       <c r="D5" s="2">
         <v>140</v>
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>3.6240000000000001</v>
+        <v>13.461</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -4438,10 +4438,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="6">
-        <v>1.64668200630694E-3</v>
+        <v>2.6842543501406899E-3</v>
       </c>
       <c r="C6" s="6">
-        <v>1.6553057815899301E-3</v>
+        <v>2.6946792483052298E-3</v>
       </c>
       <c r="D6" s="4">
         <v>141</v>
@@ -4476,10 +4476,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="6">
-        <v>1.6449793176725499E-3</v>
+        <v>2.67692176438868E-3</v>
       </c>
       <c r="C7" s="6">
-        <v>1.64221417520472E-3</v>
+        <v>2.6730174010500601E-3</v>
       </c>
       <c r="D7" s="4">
         <v>142</v>
@@ -4514,10 +4514,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="6">
-        <v>1.6442012668897699E-3</v>
+        <v>2.6820637304335801E-3</v>
       </c>
       <c r="C8" s="6">
-        <v>1.6382819504794099E-3</v>
+        <v>2.6769175446849799E-3</v>
       </c>
       <c r="D8" s="4">
         <v>143</v>
@@ -4552,10 +4552,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="6">
-        <v>1.6437178558359499E-3</v>
+        <v>2.6792442289491399E-3</v>
       </c>
       <c r="C9" s="6">
-        <v>1.65258814516338E-3</v>
+        <v>2.69592550157153E-3</v>
       </c>
       <c r="D9" s="4">
         <v>144</v>

--- a/eg3.xlsx
+++ b/eg3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E73DE7-B414-D64F-B0CA-512C12676327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E628F497-703C-DC4B-98C2-A6D7B76F3871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13180" yWindow="3600" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="9060" yWindow="3400" windowWidth="34560" windowHeight="19800" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
   <si>
     <t>Gamma</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>LipSDP</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
 </sst>
 </file>
@@ -472,7 +469,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,13 +520,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>0.25353774428367598</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>0.31839624047279302</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.0040916258548401E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.0176139986538798E-3</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,15 +540,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O7" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>0.25353774428367598</v>
-      </c>
-      <c r="L2" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.31839624047279302</v>
+      </c>
+      <c r="L2" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.0207067537319577E-3</v>
+      </c>
+      <c r="M2" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.0063374836166198E-3</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
@@ -566,14 +563,14 @@
       <c r="A3">
         <v>0.5</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+      <c r="B3">
+        <v>0.31839624047279302</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.0110122640914401E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.9998826422788002E-3</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -585,17 +582,17 @@
         <f t="shared" ref="J3:J7" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1</v>
       </c>
-      <c r="K3" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63679248094558705</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.725266471896515E-3</v>
+      </c>
+      <c r="M3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7206999403325428E-3</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
@@ -610,14 +607,14 @@
       <c r="A4">
         <v>0.5</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
+      <c r="B4">
+        <v>0.31839624047279302</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.0520489721737299E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.9945356741626801E-3</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -625,27 +622,27 @@
       <c r="F4">
         <v>0.25</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="K4" s="2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="7" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="7" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="K4" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2735849618911701</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6946989955638104E-3</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7117303571356621E-3</v>
+      </c>
+      <c r="N4" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>10.5</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0.25</v>
       </c>
@@ -654,14 +651,14 @@
       <c r="A5">
         <v>0.5</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
+      <c r="B5">
+        <v>0.31839624047279302</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.0156741528078201E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.0133176193711201E-3</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -669,27 +666,27 @@
       <c r="F5">
         <v>0.25</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="K5" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5">
+      <c r="K5" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5471699237823402</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.67219705943097E-3</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7064056930805875E-3</v>
+      </c>
+      <c r="N5" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>14.5</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>0.25</v>
       </c>
@@ -698,14 +695,14 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
+      <c r="B6">
+        <v>0.63679248094558705</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.71255376332617E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.73097278500728E-3</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -717,17 +714,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
-      <c r="K6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.0943398475646902</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6536016976411226E-3</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7027316149968125E-3</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
@@ -742,14 +739,14 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
+      <c r="B7">
+        <v>0.63679248094558705</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.7212383289960101E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.7084539723681599E-3</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -757,27 +754,27 @@
       <c r="F7">
         <v>0.25</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
-      <c r="K7" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="4">
+      <c r="K7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.1886796951293</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6453092057713602E-3</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7023854199796876E-3</v>
+      </c>
+      <c r="N7" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>22.5</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>0.25</v>
       </c>
@@ -786,14 +783,14 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
+      <c r="B8">
+        <v>0.63679248094558705</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.7441255664056598E-3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.7134958902334202E-3</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -801,19 +798,23 @@
       <c r="F8">
         <v>0.25</v>
       </c>
+      <c r="M8" s="8">
+        <f ca="1">MIN(M2:M7)</f>
+        <v>2.7023854199796876E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
+      <c r="B9">
+        <v>0.63679248094558705</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.72314822885822E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.7298771137213101E-3</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -829,82 +830,82 @@
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4">
+        <v>1.2735849618911701</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2.6819378761772702E-3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2.7234806342327799E-3</v>
+      </c>
+      <c r="E10" s="4">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2">
-        <v>9</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="B11" s="4">
+        <v>1.2735849618911701</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2.69153261894082E-3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2.69819177102614E-3</v>
+      </c>
+      <c r="E11" s="4">
         <v>10</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="B12" s="4">
+        <v>1.2735849618911701</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.7156446173668201E-3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2.7040361372278401E-3</v>
+      </c>
+      <c r="E12" s="4">
         <v>11</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="B13" s="4">
+        <v>1.2735849618911701</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2.6896808697703298E-3</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2.7212128860558899E-3</v>
+      </c>
+      <c r="E13" s="4">
         <v>12</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>0.25</v>
       </c>
     </row>
@@ -912,14 +913,14 @@
       <c r="A14" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>9</v>
+      <c r="B14" s="4">
+        <v>2.5471699237823402</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.6626559593615601E-3</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2.7209766397371499E-3</v>
       </c>
       <c r="E14" s="4">
         <v>13</v>
@@ -932,14 +933,14 @@
       <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>9</v>
+      <c r="B15" s="4">
+        <v>2.5471699237823402</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.6612184926907102E-3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2.6916161407419298E-3</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -952,14 +953,14 @@
       <c r="A16" s="4">
         <v>4</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>9</v>
+      <c r="B16" s="4">
+        <v>2.5471699237823402</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.6950311544846599E-3</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2.69874526148146E-3</v>
       </c>
       <c r="E16" s="4">
         <v>15</v>
@@ -972,14 +973,14 @@
       <c r="A17" s="4">
         <v>4</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>9</v>
+      <c r="B17" s="4">
+        <v>2.5471699237823402</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2.6698826311869501E-3</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2.7142847303618101E-3</v>
       </c>
       <c r="E17" s="4">
         <v>16</v>
@@ -992,14 +993,14 @@
       <c r="A18">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
+      <c r="B18">
+        <v>5.0943398475646902</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.6420955793892398E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.7166428886591701E-3</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1012,14 +1013,14 @@
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
+      <c r="B19">
+        <v>5.0943398475646902</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.6365707707690401E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.6858708860867798E-3</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1032,14 +1033,14 @@
       <c r="A20">
         <v>8</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
+      <c r="B20">
+        <v>5.0943398475646902</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.6851744029393501E-3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.6956031376376998E-3</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1052,14 +1053,14 @@
       <c r="A21">
         <v>8</v>
       </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
+      <c r="B21">
+        <v>5.0943398475646902</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.6505660374668599E-3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.7128095476036001E-3</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1072,14 +1073,14 @@
       <c r="A22" s="4">
         <v>16</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>9</v>
+      <c r="B22" s="4">
+        <v>10.1886796951293</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.63374861072194E-3</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2.71652353818508E-3</v>
       </c>
       <c r="E22" s="4">
         <v>21</v>
@@ -1092,14 +1093,14 @@
       <c r="A23" s="4">
         <v>16</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>9</v>
+      <c r="B23" s="4">
+        <v>10.1886796951293</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2.6267965378715301E-3</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2.6870775432821202E-3</v>
       </c>
       <c r="E23" s="4">
         <v>22</v>
@@ -1112,14 +1113,14 @@
       <c r="A24" s="4">
         <v>16</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>9</v>
+      <c r="B24" s="4">
+        <v>10.1886796951293</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2.6718741357128302E-3</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2.6933894903854801E-3</v>
       </c>
       <c r="E24" s="4">
         <v>23</v>
@@ -1132,14 +1133,14 @@
       <c r="A25" s="4">
         <v>16</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>9</v>
+      <c r="B25" s="4">
+        <v>10.1886796951293</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2.6488175387791402E-3</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2.7125511080660701E-3</v>
       </c>
       <c r="E25" s="4">
         <v>24</v>
@@ -1207,10 +1208,13 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="13" width="10.83203125" style="8"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1237,10 +1241,10 @@
       <c r="K1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
@@ -1254,14 +1258,14 @@
       <c r="A2">
         <v>0.5</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
+      <c r="B2">
+        <v>0.31839624047279302</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.0156578695242999E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.0174041860439602E-3</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -1273,17 +1277,17 @@
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>0.5</v>
       </c>
-      <c r="K2" t="e">
+      <c r="K2">
         <f t="shared" ref="K2:O2" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.31839624047279302</v>
+      </c>
+      <c r="L2" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.0220098189137675E-3</v>
+      </c>
+      <c r="M2" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.0059379951513148E-3</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
@@ -1298,14 +1302,14 @@
       <c r="A3">
         <v>0.5</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+      <c r="B3">
+        <v>0.31839624047279302</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.0180577193684001E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.99944320416196E-3</v>
       </c>
       <c r="E3">
         <v>26</v>
@@ -1317,17 +1321,17 @@
         <f t="shared" ref="J3:J7" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1</v>
       </c>
-      <c r="K3" t="e">
+      <c r="K3">
         <f t="shared" ref="K3:K7" ca="1" si="2">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" t="e">
+        <v>0.63679248094558705</v>
+      </c>
+      <c r="L3" s="8">
         <f t="shared" ref="L3:L7" ca="1" si="3">AVERAGE(OFFSET(C$2,(ROW()-2)*4,0,4,1))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" t="e">
+        <v>2.7285628949609E-3</v>
+      </c>
+      <c r="M3" s="8">
         <f t="shared" ref="M3:M7" ca="1" si="4">AVERAGE(OFFSET(D$2,(ROW()-2)*4,0,4,1))</f>
-        <v>#DIV/0!</v>
+        <v>2.7169336012485279E-3</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N7" ca="1" si="5">AVERAGE(OFFSET(E$2,(ROW()-2)*4,0,4,1))</f>
@@ -1342,14 +1346,14 @@
       <c r="A4">
         <v>0.5</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
+      <c r="B4">
+        <v>0.31839624047279302</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.0346900915746802E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.9943184084952499E-3</v>
       </c>
       <c r="E4">
         <v>27</v>
@@ -1357,27 +1361,27 @@
       <c r="F4">
         <v>0.5</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="K4" s="2" t="e">
+      <c r="K4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="2" t="e">
+        <v>1.2735849618911701</v>
+      </c>
+      <c r="L4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="2" t="e">
+        <v>2.7001553027459625E-3</v>
+      </c>
+      <c r="M4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="2">
+        <v>2.7030060814564722E-3</v>
+      </c>
+      <c r="N4" s="4">
         <f t="shared" ca="1" si="5"/>
         <v>34.5</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="4">
         <f t="shared" ca="1" si="6"/>
         <v>0.5</v>
       </c>
@@ -1386,14 +1390,14 @@
       <c r="A5">
         <v>0.5</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
+      <c r="B5">
+        <v>0.31839624047279302</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.0196335951876898E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.0125861819040901E-3</v>
       </c>
       <c r="E5">
         <v>28</v>
@@ -1401,27 +1405,27 @@
       <c r="F5">
         <v>0.5</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="K5" t="e">
+      <c r="K5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" t="e">
+        <v>2.5471699237823402</v>
+      </c>
+      <c r="L5" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" t="e">
+        <v>2.6777576728837828E-3</v>
+      </c>
+      <c r="M5" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5">
+        <v>2.6930694690003847E-3</v>
+      </c>
+      <c r="N5" s="2">
         <f t="shared" ca="1" si="5"/>
         <v>38.5</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <f t="shared" ca="1" si="6"/>
         <v>0.5</v>
       </c>
@@ -1430,14 +1434,14 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
+      <c r="B6">
+        <v>0.63679248094558705</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.71956086470844E-3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.7257712022896699E-3</v>
       </c>
       <c r="E6">
         <v>29</v>
@@ -1449,17 +1453,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
-      <c r="K6" t="e">
+      <c r="K6">
         <f t="shared" ca="1" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" t="e">
+        <v>5.0943398475646902</v>
+      </c>
+      <c r="L6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" t="e">
+        <v>2.65970186452985E-3</v>
+      </c>
+      <c r="M6" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.68530707429856E-3</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="5"/>
@@ -1474,14 +1478,14 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
+      <c r="B7">
+        <v>0.63679248094558705</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.72939442607395E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.7058889019362401E-3</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -1493,17 +1497,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
-      <c r="K7" s="4" t="e">
+      <c r="K7" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="4" t="e">
+        <v>10.1886796951293</v>
+      </c>
+      <c r="L7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="4" t="e">
+        <v>2.6497350809996552E-3</v>
+      </c>
+      <c r="M7" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>#DIV/0!</v>
+        <v>2.67991646901367E-3</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -1518,14 +1522,14 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
+      <c r="B8">
+        <v>0.63679248094558705</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.7403546029087498E-3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.7096537561056701E-3</v>
       </c>
       <c r="E8">
         <v>31</v>
@@ -1533,19 +1537,23 @@
       <c r="F8">
         <v>0.5</v>
       </c>
+      <c r="M8" s="6">
+        <f ca="1">MIN(M2:M7)</f>
+        <v>2.67991646901367E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
+      <c r="B9">
+        <v>0.63679248094558705</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.7249416861524602E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.7264205446625302E-3</v>
       </c>
       <c r="E9">
         <v>32</v>
@@ -1555,168 +1563,168 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="B10" s="4">
+        <v>1.2735849618911701</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2.6917125375822502E-3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2.7118218973516701E-3</v>
+      </c>
+      <c r="E10" s="4">
         <v>33</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="B11" s="4">
+        <v>1.2735849618911701</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2.6951724257161598E-3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2.6915022816033402E-3</v>
+      </c>
+      <c r="E11" s="4">
         <v>34</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="B12" s="4">
+        <v>1.2735849618911701</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.7155594793742801E-3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2.6964546463630599E-3</v>
+      </c>
+      <c r="E12" s="4">
         <v>35</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="B13" s="4">
+        <v>1.2735849618911701</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2.69817676831116E-3</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2.7122455005078199E-3</v>
+      </c>
+      <c r="E13" s="4">
         <v>36</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="B14" s="2">
+        <v>2.5471699237823402</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2.6706637259810498E-3</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2.70296139097673E-3</v>
+      </c>
+      <c r="E14" s="2">
         <v>37</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="B15" s="2">
+        <v>2.5471699237823402</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2.6668411124735401E-3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2.67809477605004E-3</v>
+      </c>
+      <c r="E15" s="2">
         <v>38</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>4</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="B16" s="2">
+        <v>2.5471699237823402</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2.6991922158173202E-3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2.6885108685398302E-3</v>
+      </c>
+      <c r="E16" s="2">
         <v>39</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>4</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="B17" s="2">
+        <v>2.5471699237823402</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2.6743336372632202E-3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2.7027108404349401E-3</v>
+      </c>
+      <c r="E17" s="2">
         <v>40</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>0.5</v>
       </c>
     </row>
@@ -1724,14 +1732,14 @@
       <c r="A18">
         <v>8</v>
       </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
+      <c r="B18">
+        <v>5.0943398475646902</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.6484043845173598E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.69146478596202E-3</v>
       </c>
       <c r="E18">
         <v>41</v>
@@ -1744,14 +1752,14 @@
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
+      <c r="B19">
+        <v>5.0943398475646902</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.6445197526048401E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.6692616198449601E-3</v>
       </c>
       <c r="E19">
         <v>42</v>
@@ -1764,14 +1772,14 @@
       <c r="A20">
         <v>8</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
+      <c r="B20">
+        <v>5.0943398475646902</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.68381102719007E-3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.6844954935516699E-3</v>
       </c>
       <c r="E20">
         <v>43</v>
@@ -1784,14 +1792,14 @@
       <c r="A21">
         <v>8</v>
       </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
+      <c r="B21">
+        <v>5.0943398475646902</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.6620722938071298E-3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.6960063978355899E-3</v>
       </c>
       <c r="E21">
         <v>44</v>
@@ -1804,14 +1812,14 @@
       <c r="A22" s="4">
         <v>16</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>9</v>
+      <c r="B22" s="4">
+        <v>10.1886796951293</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.6432591059463101E-3</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2.68794322990752E-3</v>
       </c>
       <c r="E22" s="4">
         <v>45</v>
@@ -1824,14 +1832,14 @@
       <c r="A23" s="4">
         <v>16</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>9</v>
+      <c r="B23" s="4">
+        <v>10.1886796951293</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2.6397123670284699E-3</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2.6678076940291401E-3</v>
       </c>
       <c r="E23" s="4">
         <v>46</v>
@@ -1844,14 +1852,14 @@
       <c r="A24" s="4">
         <v>16</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>9</v>
+      <c r="B24" s="4">
+        <v>10.1886796951293</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2.6756275378345901E-3</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2.68117077103716E-3</v>
       </c>
       <c r="E24" s="4">
         <v>47</v>
@@ -1864,14 +1872,14 @@
       <c r="A25" s="4">
         <v>16</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>9</v>
+      <c r="B25" s="4">
+        <v>10.1886796951293</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2.6403413131892502E-3</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2.6827441810808599E-3</v>
       </c>
       <c r="E25" s="4">
         <v>48</v>
@@ -1938,7 +1946,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G17"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1989,14 +1997,14 @@
       <c r="A2">
         <v>0.5</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
+      <c r="B2">
+        <v>0.31839624047279302</v>
+      </c>
+      <c r="C2" s="8">
+        <v>3.02090356498956E-3</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3.0174110793171698E-3</v>
       </c>
       <c r="E2">
         <v>49</v>
@@ -2008,17 +2016,17 @@
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>0.5</v>
       </c>
-      <c r="K2" t="e">
+      <c r="K2">
         <f t="shared" ref="K2:O7" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L2" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.31839624047279302</v>
+      </c>
+      <c r="L2" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.0237773402283551E-3</v>
+      </c>
+      <c r="M2" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.0059162285822876E-3</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
@@ -2033,14 +2041,14 @@
       <c r="A3">
         <v>0.5</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
+      <c r="B3">
+        <v>0.31839624047279302</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3.0251786001026602E-3</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2.9995026502837498E-3</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -2052,17 +2060,17 @@
         <f t="shared" ref="J3:J7" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1</v>
       </c>
-      <c r="K3" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" s="8" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63679248094558705</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7273556548170702E-3</v>
+      </c>
+      <c r="M3" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7145566963689702E-3</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
@@ -2077,14 +2085,14 @@
       <c r="A4">
         <v>0.5</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>9</v>
+      <c r="B4">
+        <v>0.31839624047279302</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3.0266069552550702E-3</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2.9942786291320901E-3</v>
       </c>
       <c r="E4">
         <v>51</v>
@@ -2121,14 +2129,14 @@
       <c r="A5">
         <v>0.5</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>9</v>
+      <c r="B5">
+        <v>0.31839624047279302</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3.02242024056613E-3</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3.0124725555961398E-3</v>
       </c>
       <c r="E5">
         <v>52</v>
@@ -2165,14 +2173,14 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>9</v>
+      <c r="B6">
+        <v>0.63679248094558705</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2.7239154397199501E-3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2.7222638290890599E-3</v>
       </c>
       <c r="E6">
         <v>53</v>
@@ -2184,17 +2192,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
-      <c r="K6" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.0943398475646902</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6470962604507775E-3</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.66409091876839E-3</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -2209,14 +2217,14 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
+      <c r="B7">
+        <v>0.63679248094558705</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2.7294561204810898E-3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2.7048465587753501E-3</v>
       </c>
       <c r="E7">
         <v>54</v>
@@ -2228,17 +2236,17 @@
         <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
-      <c r="K7" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K7" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>10.1886796951293</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6297104687740326E-3</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6524625155093847E-3</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -2253,14 +2261,14 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>9</v>
+      <c r="B8">
+        <v>0.63679248094558705</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2.7301302577058401E-3</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2.7073421069678401E-3</v>
       </c>
       <c r="E8">
         <v>55</v>
@@ -2271,7 +2279,10 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="M8" s="6">
+        <f ca="1">MIN(M2:M7)</f>
+        <v>2.6524625155093847E-3</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
@@ -2279,14 +2290,14 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>9</v>
+      <c r="B9">
+        <v>0.63679248094558705</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2.7259208013614001E-3</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2.7237742906436298E-3</v>
       </c>
       <c r="E9">
         <v>56</v>
@@ -2459,14 +2470,14 @@
       <c r="A18" s="4">
         <v>8</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>9</v>
+      <c r="B18" s="4">
+        <v>5.0943398475646902</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2.65003479582568E-3</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2.6721193732574802E-3</v>
       </c>
       <c r="E18" s="4">
         <v>65</v>
@@ -2479,14 +2490,14 @@
       <c r="A19" s="4">
         <v>8</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>9</v>
+      <c r="B19" s="4">
+        <v>5.0943398475646902</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2.62762390511731E-3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2.6421787222213199E-3</v>
       </c>
       <c r="E19" s="4">
         <v>66</v>
@@ -2499,14 +2510,14 @@
       <c r="A20" s="4">
         <v>8</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>9</v>
+      <c r="B20" s="4">
+        <v>5.0943398475646902</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2.6647263554235301E-3</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2.66459988965157E-3</v>
       </c>
       <c r="E20" s="4">
         <v>67</v>
@@ -2519,14 +2530,14 @@
       <c r="A21" s="4">
         <v>8</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>9</v>
+      <c r="B21" s="4">
+        <v>5.0943398475646902</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2.64599998543659E-3</v>
+      </c>
+      <c r="D21" s="6">
+        <v>2.6774656899431898E-3</v>
       </c>
       <c r="E21" s="4">
         <v>68</v>
@@ -2539,14 +2550,14 @@
       <c r="A22" s="4">
         <v>16</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>9</v>
+      <c r="B22" s="4">
+        <v>10.1886796951293</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2.6334379209826302E-3</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2.6611171098069302E-3</v>
       </c>
       <c r="E22" s="4">
         <v>69</v>
@@ -2559,14 +2570,14 @@
       <c r="A23" s="4">
         <v>16</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>9</v>
+      <c r="B23" s="4">
+        <v>10.1886796951293</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2.61556019385655E-3</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2.6344565273401198E-3</v>
       </c>
       <c r="E23" s="4">
         <v>70</v>
@@ -2579,14 +2590,14 @@
       <c r="A24" s="4">
         <v>16</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>9</v>
+      <c r="B24" s="4">
+        <v>10.1886796951293</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2.6482169255614202E-3</v>
+      </c>
+      <c r="D24" s="6">
+        <v>2.6545000901604201E-3</v>
       </c>
       <c r="E24" s="4">
         <v>71</v>
@@ -2599,14 +2610,14 @@
       <c r="A25" s="4">
         <v>16</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>9</v>
+      <c r="B25" s="4">
+        <v>10.1886796951293</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2.6216268346955299E-3</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2.65977633473007E-3</v>
       </c>
       <c r="E25" s="4">
         <v>72</v>
@@ -2657,10 +2668,13 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F33"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="12" width="10.83203125" style="8"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2684,10 +2698,10 @@
       <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M1" t="s">
@@ -2701,11 +2715,11 @@
       <c r="A2" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
+      <c r="B2" s="3">
+        <v>2.69203997920564E-3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2.7264434140809599E-3</v>
       </c>
       <c r="D2" s="2">
         <v>73</v>
@@ -2718,13 +2732,13 @@
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1E-8</v>
       </c>
-      <c r="K2" s="7" t="e">
+      <c r="K2" s="7">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L2" s="7" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.6967615716436701E-3</v>
+      </c>
+      <c r="L2" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7127250628991651E-3</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -2739,11 +2753,11 @@
       <c r="A3" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
+      <c r="B3" s="3">
+        <v>2.6863078547126398E-3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.6984813504238002E-3</v>
       </c>
       <c r="D3" s="2">
         <v>74</v>
@@ -2756,13 +2770,13 @@
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="K3" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6987514407819779E-3</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7125736914000399E-3</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -2777,11 +2791,11 @@
       <c r="A4" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
+      <c r="B4" s="3">
+        <v>2.7132116188790501E-3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.7029837873031098E-3</v>
       </c>
       <c r="D4" s="2">
         <v>75</v>
@@ -2794,13 +2808,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K4" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7037333484065274E-3</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7142938243799822E-3</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -2815,11 +2829,11 @@
       <c r="A5" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
+      <c r="B5" s="3">
+        <v>2.6954868337773501E-3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.72299169978879E-3</v>
       </c>
       <c r="D5" s="2">
         <v>76</v>
@@ -2832,13 +2846,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="K5" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7260294554388451E-3</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7211348778825748E-3</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -2854,11 +2868,11 @@
       <c r="A6" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
+      <c r="B6" s="5">
+        <v>2.6942182386769501E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.72625182170737E-3</v>
       </c>
       <c r="D6" s="4">
         <v>77</v>
@@ -2870,13 +2884,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>1E-4</v>
       </c>
-      <c r="K6" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6235795924836256E-3</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6269465452753577E-3</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -2891,11 +2905,11 @@
       <c r="A7" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
+      <c r="B7" s="5">
+        <v>2.6894032861046599E-3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.6993950348386999E-3</v>
       </c>
       <c r="D7" s="4">
         <v>78</v>
@@ -2907,13 +2921,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>1E-3</v>
       </c>
-      <c r="K7" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6238532341283502E-3</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6271651323805431E-3</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -2928,11 +2942,11 @@
       <c r="A8" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
+      <c r="B8" s="5">
+        <v>2.71473683050259E-3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.70225023949875E-3</v>
       </c>
       <c r="D8" s="4">
         <v>79</v>
@@ -2944,13 +2958,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="K8" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6248446740705393E-3</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6271787443039701E-3</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -2965,11 +2979,11 @@
       <c r="A9" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
+      <c r="B9" s="5">
+        <v>2.6966474078437101E-3</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2.7223976695553401E-3</v>
       </c>
       <c r="D9" s="4">
         <v>80</v>
@@ -2981,13 +2995,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="K9" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6248628893530248E-3</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6271849291775573E-3</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3002,11 +3016,11 @@
       <c r="A10" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>9</v>
+      <c r="B10" s="5">
+        <v>2.6944181287383699E-3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2.7279390785050501E-3</v>
       </c>
       <c r="D10" s="4">
         <v>81</v>
@@ -3014,20 +3028,20 @@
       <c r="E10" s="4">
         <v>0.25</v>
       </c>
-      <c r="L10" t="e">
+      <c r="L10" s="8">
         <f ca="1">MIN(L2:L9)</f>
-        <v>#DIV/0!</v>
+        <v>2.7125736914000399E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>9</v>
+      <c r="B11" s="5">
+        <v>2.6966679167557202E-3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2.7015611499627201E-3</v>
       </c>
       <c r="D11" s="4">
         <v>82</v>
@@ -3040,11 +3054,11 @@
       <c r="A12" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>9</v>
+      <c r="B12" s="5">
+        <v>2.7190492280382401E-3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.7040817423109298E-3</v>
       </c>
       <c r="D12" s="4">
         <v>83</v>
@@ -3057,11 +3071,11 @@
       <c r="A13" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>9</v>
+      <c r="B13" s="5">
+        <v>2.70479812009378E-3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2.7235933267412298E-3</v>
       </c>
       <c r="D13" s="4">
         <v>84</v>
@@ -3074,11 +3088,11 @@
       <c r="A14" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
+      <c r="B14">
+        <v>2.7142672358635499E-3</v>
+      </c>
+      <c r="C14">
+        <v>2.7307504267887498E-3</v>
       </c>
       <c r="D14">
         <v>85</v>
@@ -3091,11 +3105,11 @@
       <c r="A15" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
+      <c r="B15">
+        <v>2.7209154498624602E-3</v>
+      </c>
+      <c r="C15">
+        <v>2.7110747760161701E-3</v>
       </c>
       <c r="D15">
         <v>86</v>
@@ -3108,11 +3122,11 @@
       <c r="A16" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
+      <c r="B16">
+        <v>2.74413163486392E-3</v>
+      </c>
+      <c r="C16">
+        <v>2.7119211451289101E-3</v>
       </c>
       <c r="D16">
         <v>87</v>
@@ -3125,11 +3139,11 @@
       <c r="A17" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
+      <c r="B17" s="1">
+        <v>2.7248035011654499E-3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.7307931635964702E-3</v>
       </c>
       <c r="D17">
         <v>88</v>
@@ -3142,11 +3156,11 @@
       <c r="A18">
         <v>1E-4</v>
       </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
+      <c r="B18">
+        <v>5.5802967597512404E-3</v>
+      </c>
+      <c r="C18">
+        <v>5.6444618038515998E-3</v>
       </c>
       <c r="D18">
         <v>89</v>
@@ -3159,11 +3173,11 @@
       <c r="A19">
         <v>1E-4</v>
       </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
+      <c r="B19">
+        <v>5.6101447565758402E-3</v>
+      </c>
+      <c r="C19">
+        <v>5.62107549148037E-3</v>
       </c>
       <c r="D19">
         <v>90</v>
@@ -3176,11 +3190,11 @@
       <c r="A20">
         <v>1E-4</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
+      <c r="B20">
+        <v>5.6976123584156898E-3</v>
+      </c>
+      <c r="C20">
+        <v>5.6052916643625798E-3</v>
       </c>
       <c r="D20">
         <v>91</v>
@@ -3193,11 +3207,11 @@
       <c r="A21">
         <v>1E-4</v>
       </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
+      <c r="B21">
+        <v>5.6062644951917302E-3</v>
+      </c>
+      <c r="C21">
+        <v>5.6369572214068804E-3</v>
       </c>
       <c r="D21">
         <v>92</v>
@@ -3210,11 +3224,11 @@
       <c r="A22">
         <v>1E-3</v>
       </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
+      <c r="B22">
+        <v>5.58106736973562E-3</v>
+      </c>
+      <c r="C22">
+        <v>5.6452909335890297E-3</v>
       </c>
       <c r="D22">
         <v>93</v>
@@ -3227,11 +3241,11 @@
       <c r="A23">
         <v>1E-3</v>
       </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
+      <c r="B23">
+        <v>5.6101695703778499E-3</v>
+      </c>
+      <c r="C23">
+        <v>5.6211089249700299E-3</v>
       </c>
       <c r="D23">
         <v>94</v>
@@ -3244,11 +3258,11 @@
       <c r="A24">
         <v>1E-3</v>
       </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
+      <c r="B24">
+        <v>5.6976123584156898E-3</v>
+      </c>
+      <c r="C24">
+        <v>5.6052916643625798E-3</v>
       </c>
       <c r="D24">
         <v>95</v>
@@ -3261,11 +3275,11 @@
       <c r="A25">
         <v>1E-3</v>
       </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
+      <c r="B25">
+        <v>5.6065636379842403E-3</v>
+      </c>
+      <c r="C25">
+        <v>5.6369690066005304E-3</v>
       </c>
       <c r="D25">
         <v>96</v>
@@ -3278,11 +3292,11 @@
       <c r="A26">
         <v>0.01</v>
       </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
+      <c r="B26">
+        <v>5.5850213096338298E-3</v>
+      </c>
+      <c r="C26">
+        <v>5.6453440784219096E-3</v>
       </c>
       <c r="D26">
         <v>97</v>
@@ -3295,11 +3309,11 @@
       <c r="A27">
         <v>0.01</v>
       </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
+      <c r="B27">
+        <v>5.6101695703778499E-3</v>
+      </c>
+      <c r="C27">
+        <v>5.6211089249700299E-3</v>
       </c>
       <c r="D27">
         <v>98</v>
@@ -3312,11 +3326,11 @@
       <c r="A28">
         <v>0.01</v>
       </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
+      <c r="B28">
+        <v>5.6976123584156898E-3</v>
+      </c>
+      <c r="C28">
+        <v>5.6052916643625798E-3</v>
       </c>
       <c r="D28">
         <v>99</v>
@@ -3329,11 +3343,11 @@
       <c r="A29">
         <v>0.01</v>
       </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
+      <c r="B29">
+        <v>5.6065754578547896E-3</v>
+      </c>
+      <c r="C29">
+        <v>5.63697030946136E-3</v>
       </c>
       <c r="D29">
         <v>100</v>
@@ -3346,11 +3360,11 @@
       <c r="A30">
         <v>0.1</v>
       </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
+      <c r="B30">
+        <v>5.5850819496318996E-3</v>
+      </c>
+      <c r="C30">
+        <v>5.6453680599781999E-3</v>
       </c>
       <c r="D30">
         <v>101</v>
@@ -3363,11 +3377,11 @@
       <c r="A31">
         <v>0.1</v>
       </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
+      <c r="B31">
+        <v>5.6101695703778499E-3</v>
+      </c>
+      <c r="C31">
+        <v>5.6211089249700299E-3</v>
       </c>
       <c r="D31">
         <v>102</v>
@@ -3380,11 +3394,11 @@
       <c r="A32">
         <v>0.1</v>
       </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
+      <c r="B32">
+        <v>5.6976123584156898E-3</v>
+      </c>
+      <c r="C32">
+        <v>5.6052916643625798E-3</v>
       </c>
       <c r="D32">
         <v>103</v>
@@ -3397,11 +3411,11 @@
       <c r="A33">
         <v>0.1</v>
       </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
+      <c r="B33">
+        <v>5.60658767898666E-3</v>
+      </c>
+      <c r="C33">
+        <v>5.6369710673994204E-3</v>
       </c>
       <c r="D33">
         <v>104</v>
@@ -3468,10 +3482,13 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="J3" sqref="J3:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="12" width="10.83203125" style="8"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -3495,10 +3512,10 @@
       <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M1" t="s">
@@ -3512,11 +3529,11 @@
       <c r="A2" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
+      <c r="B2" s="3">
+        <v>2.6858090398278302E-3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2.7113503508983099E-3</v>
       </c>
       <c r="D2" s="2">
         <v>105</v>
@@ -3528,13 +3545,13 @@
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1E-8</v>
       </c>
-      <c r="K2" s="7" t="e">
+      <c r="K2" s="7">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L2" s="7" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+        <v>2.6914806973976726E-3</v>
+      </c>
+      <c r="L2" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7012010848030724E-3</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3549,11 +3566,11 @@
       <c r="A3" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
+      <c r="B3" s="3">
+        <v>2.6875154060767301E-3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.6915376644304099E-3</v>
       </c>
       <c r="D3" s="2">
         <v>106</v>
@@ -3561,23 +3578,23 @@
       <c r="E3" s="2">
         <v>0.5</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="5">
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="K3" s="7" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="7" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="K3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6938964431966672E-3</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7018538775279103E-3</v>
+      </c>
+      <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>110.5</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
@@ -3586,11 +3603,11 @@
       <c r="A4" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
+      <c r="B4" s="3">
+        <v>2.7030540699575101E-3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.6912537547066099E-3</v>
       </c>
       <c r="D4" s="2">
         <v>107</v>
@@ -3598,23 +3615,23 @@
       <c r="E4" s="2">
         <v>0.5</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K4" s="7" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="7" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="3">
+      <c r="K4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7053232813759251E-3</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7061890546935877E-3</v>
+      </c>
+      <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>114.5</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
@@ -3623,11 +3640,11 @@
       <c r="A5" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
+      <c r="B5" s="3">
+        <v>2.6895442737286199E-3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.7106625691769599E-3</v>
       </c>
       <c r="D5" s="2">
         <v>108</v>
@@ -3639,13 +3656,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="K5" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7270885593099277E-3</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7164376886967701E-3</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3660,11 +3677,11 @@
       <c r="A6" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
+      <c r="B6" s="1">
+        <v>2.68991846848834E-3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.7131003654621302E-3</v>
       </c>
       <c r="D6">
         <v>109</v>
@@ -3676,13 +3693,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>1E-4</v>
       </c>
-      <c r="K6" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6245099057126349E-3</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6270590507762177E-3</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3697,11 +3714,11 @@
       <c r="A7" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
+      <c r="B7" s="1">
+        <v>2.68777439549089E-3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.6898741464507002E-3</v>
       </c>
       <c r="D7">
         <v>110</v>
@@ -3713,13 +3730,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>1E-3</v>
       </c>
-      <c r="K7" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6241208649032348E-3</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6271553980780974E-3</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3734,11 +3751,11 @@
       <c r="A8" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
+      <c r="B8" s="1">
+        <v>2.7049710154236099E-3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.6923353570770998E-3</v>
       </c>
       <c r="D8">
         <v>111</v>
@@ -3750,13 +3767,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="K8" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6241463097010495E-3</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6271733594761052E-3</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3771,11 +3788,11 @@
       <c r="A9" s="1">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
+      <c r="B9" s="1">
+        <v>2.6929218933838301E-3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.7121056411217098E-3</v>
       </c>
       <c r="D9">
         <v>112</v>
@@ -3787,13 +3804,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="K9" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6237275179653852E-3</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6271888749138896E-3</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3808,11 +3825,11 @@
       <c r="A10" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>9</v>
+      <c r="B10" s="5">
+        <v>2.70242705579569E-3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2.7165124316679899E-3</v>
       </c>
       <c r="D10" s="4">
         <v>113</v>
@@ -3821,20 +3838,20 @@
         <v>0.5</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="L10" t="e">
+      <c r="L10" s="8">
         <f ca="1">MIN(L2:L9)</f>
-        <v>#DIV/0!</v>
+        <v>2.7012010848030724E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>9</v>
+      <c r="B11" s="5">
+        <v>2.6994879404578201E-3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2.6952746557071801E-3</v>
       </c>
       <c r="D11" s="4">
         <v>114</v>
@@ -3848,11 +3865,11 @@
       <c r="A12" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>9</v>
+      <c r="B12" s="5">
+        <v>2.71532489259311E-3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.6968056435122101E-3</v>
       </c>
       <c r="D12" s="4">
         <v>115</v>
@@ -3866,11 +3883,11 @@
       <c r="A13" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>9</v>
+      <c r="B13" s="5">
+        <v>2.7040532366570799E-3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2.7161634878869701E-3</v>
       </c>
       <c r="D13" s="4">
         <v>116</v>
@@ -3884,11 +3901,11 @@
       <c r="A14" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
+      <c r="B14" s="4">
+        <v>2.72111819829157E-3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.7253217326397901E-3</v>
       </c>
       <c r="D14" s="4">
         <v>117</v>
@@ -3901,11 +3918,11 @@
       <c r="A15" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>9</v>
+      <c r="B15" s="4">
+        <v>2.7248482034105698E-3</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2.7057778689653601E-3</v>
       </c>
       <c r="D15" s="4">
         <v>118</v>
@@ -3918,11 +3935,11 @@
       <c r="A16" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
+      <c r="B16" s="4">
+        <v>2.7389289115238502E-3</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2.7089327984945199E-3</v>
       </c>
       <c r="D16" s="4">
         <v>119</v>
@@ -3935,11 +3952,11 @@
       <c r="A17" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>9</v>
+      <c r="B17" s="5">
+        <v>2.7234589240137199E-3</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2.7257183546874099E-3</v>
       </c>
       <c r="D17" s="4">
         <v>120</v>
@@ -3952,11 +3969,11 @@
       <c r="A18">
         <v>1E-4</v>
       </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
+      <c r="B18">
+        <v>5.6102854482076503E-3</v>
+      </c>
+      <c r="C18">
+        <v>5.6450192846278502E-3</v>
       </c>
       <c r="D18">
         <v>121</v>
@@ -3969,11 +3986,11 @@
       <c r="A19">
         <v>1E-4</v>
       </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
+      <c r="B19">
+        <v>5.6169519641813097E-3</v>
+      </c>
+      <c r="C19">
+        <v>5.6211089249700299E-3</v>
       </c>
       <c r="D19">
         <v>122</v>
@@ -3986,11 +4003,11 @@
       <c r="A20">
         <v>1E-4</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
+      <c r="B20">
+        <v>5.6444528572102796E-3</v>
+      </c>
+      <c r="C20">
+        <v>5.6052916643625798E-3</v>
       </c>
       <c r="D20">
         <v>123</v>
@@ -4003,11 +4020,11 @@
       <c r="A21">
         <v>1E-4</v>
       </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
+      <c r="B21">
+        <v>5.6263493532512998E-3</v>
+      </c>
+      <c r="C21">
+        <v>5.6368163291444099E-3</v>
       </c>
       <c r="D21">
         <v>124</v>
@@ -4020,11 +4037,11 @@
       <c r="A22">
         <v>1E-3</v>
       </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
+      <c r="B22">
+        <v>5.6108986844922897E-3</v>
+      </c>
+      <c r="C22">
+        <v>5.6452506489338304E-3</v>
       </c>
       <c r="D22">
         <v>125</v>
@@ -4037,11 +4054,11 @@
       <c r="A23">
         <v>1E-3</v>
       </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
+      <c r="B23">
+        <v>5.6169519641813097E-3</v>
+      </c>
+      <c r="C23">
+        <v>5.6211089249700299E-3</v>
       </c>
       <c r="D23">
         <v>126</v>
@@ -4054,11 +4071,11 @@
       <c r="A24">
         <v>1E-3</v>
       </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
+      <c r="B24">
+        <v>5.6444528572102796E-3</v>
+      </c>
+      <c r="C24">
+        <v>5.6052916643625798E-3</v>
       </c>
       <c r="D24">
         <v>127</v>
@@ -4071,11 +4088,11 @@
       <c r="A25">
         <v>1E-3</v>
       </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
+      <c r="B25">
+        <v>5.6241799537290601E-3</v>
+      </c>
+      <c r="C25">
+        <v>5.6369703540459504E-3</v>
       </c>
       <c r="D25">
         <v>128</v>
@@ -4088,11 +4105,11 @@
       <c r="A26">
         <v>0.01</v>
       </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
+      <c r="B26">
+        <v>5.6109924384571096E-3</v>
+      </c>
+      <c r="C26">
+        <v>5.6453215087110004E-3</v>
       </c>
       <c r="D26">
         <v>129</v>
@@ -4105,11 +4122,11 @@
       <c r="A27">
         <v>0.01</v>
       </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
+      <c r="B27">
+        <v>5.6169519641813097E-3</v>
+      </c>
+      <c r="C27">
+        <v>5.6211089249700299E-3</v>
       </c>
       <c r="D27">
         <v>130</v>
@@ -4122,11 +4139,11 @@
       <c r="A28">
         <v>0.01</v>
       </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
+      <c r="B28">
+        <v>5.6444528572102796E-3</v>
+      </c>
+      <c r="C28">
+        <v>5.6052916643625798E-3</v>
       </c>
       <c r="D28">
         <v>131</v>
@@ -4139,11 +4156,11 @@
       <c r="A29">
         <v>0.01</v>
       </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
+      <c r="B29">
+        <v>5.6241879789555001E-3</v>
+      </c>
+      <c r="C29">
+        <v>5.6369713398608098E-3</v>
       </c>
       <c r="D29">
         <v>132</v>
@@ -4156,11 +4173,11 @@
       <c r="A30">
         <v>0.1</v>
       </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
+      <c r="B30">
+        <v>5.6097799431572204E-3</v>
+      </c>
+      <c r="C30">
+        <v>5.6453819456014796E-3</v>
       </c>
       <c r="D30">
         <v>133</v>
@@ -4173,11 +4190,11 @@
       <c r="A31">
         <v>0.1</v>
       </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
+      <c r="B31">
+        <v>5.6169519641813097E-3</v>
+      </c>
+      <c r="C31">
+        <v>5.6211089249700299E-3</v>
       </c>
       <c r="D31">
         <v>134</v>
@@ -4190,11 +4207,11 @@
       <c r="A32">
         <v>0.1</v>
       </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
+      <c r="B32">
+        <v>5.6444528572102796E-3</v>
+      </c>
+      <c r="C32">
+        <v>5.6052916643625798E-3</v>
       </c>
       <c r="D32">
         <v>135</v>
@@ -4207,11 +4224,11 @@
       <c r="A33">
         <v>0.1</v>
       </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
+      <c r="B33">
+        <v>5.6237253073127304E-3</v>
+      </c>
+      <c r="C33">
+        <v>5.6369729647214699E-3</v>
       </c>
       <c r="D33">
         <v>136</v>
@@ -4229,13 +4246,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D6121D-E5CF-1A48-8933-0BAD4C1790A9}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="10.83203125" style="8"/>
+    <col min="11" max="12" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -4260,10 +4278,10 @@
       <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M1" t="s">
@@ -4292,23 +4310,23 @@
       <c r="F2">
         <v>7.6509999999999998</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="3">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1E-8</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="7">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
         <v>2.6759812048015473E-3</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="7">
         <f t="shared" ca="1" si="0"/>
         <v>2.6822605701609199E-3</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>138.5</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -4376,13 +4394,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K4" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.70159930270165E-3</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6976861272680927E-3</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4416,13 +4434,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="K5" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7281974071326326E-3</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7151988166572577E-3</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4454,13 +4472,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>1E-4</v>
       </c>
-      <c r="K6" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6377901419376285E-3</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6271890643984027E-3</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4492,13 +4510,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>1E-3</v>
       </c>
-      <c r="K7" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6377852931618622E-3</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6271848003776274E-3</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4530,13 +4548,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="K8" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6377974723776109E-3</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6271843421471053E-3</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4568,13 +4586,13 @@
         <f t="shared" ca="1" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="K9" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="6" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="K9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6378135277579157E-3</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6271874098146801E-3</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4589,11 +4607,11 @@
       <c r="A10" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
+      <c r="B10" s="6">
+        <v>2.7026984971016601E-3</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2.70708205000041E-3</v>
       </c>
       <c r="D10" s="4">
         <v>145</v>
@@ -4601,20 +4619,20 @@
       <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="L10" t="e">
+      <c r="L10" s="8">
         <f ca="1">MIN(L2:L9)</f>
-        <v>#DIV/0!</v>
+        <v>2.6822605701609199E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>9</v>
+      <c r="B11" s="6">
+        <v>2.6984069496393199E-3</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2.6865668688960198E-3</v>
       </c>
       <c r="D11" s="4">
         <v>146</v>
@@ -4627,11 +4645,11 @@
       <c r="A12" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>9</v>
+      <c r="B12" s="6">
+        <v>2.7053960381696598E-3</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2.6889545025620999E-3</v>
       </c>
       <c r="D12" s="4">
         <v>147</v>
@@ -4644,11 +4662,11 @@
       <c r="A13" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>9</v>
+      <c r="B13" s="6">
+        <v>2.69989572589596E-3</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2.7081410876138401E-3</v>
       </c>
       <c r="D13" s="4">
         <v>148</v>
@@ -4661,11 +4679,11 @@
       <c r="A14" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>9</v>
+      <c r="B14" s="8">
+        <v>2.7259992013374899E-3</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2.7235223381641299E-3</v>
       </c>
       <c r="D14">
         <v>149</v>
@@ -4678,11 +4696,11 @@
       <c r="A15" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>9</v>
+      <c r="B15" s="8">
+        <v>2.7303361246983201E-3</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2.7057678745861301E-3</v>
       </c>
       <c r="D15">
         <v>150</v>
@@ -4695,11 +4713,11 @@
       <c r="A16" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>9</v>
+      <c r="B16" s="8">
+        <v>2.7306088525801899E-3</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2.70632928376026E-3</v>
       </c>
       <c r="D16">
         <v>151</v>
@@ -4712,11 +4730,11 @@
       <c r="A17" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>9</v>
+      <c r="B17" s="8">
+        <v>2.7258454499145299E-3</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2.72517577011851E-3</v>
       </c>
       <c r="D17">
         <v>152</v>
@@ -4729,11 +4747,11 @@
       <c r="A18">
         <v>1E-4</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>9</v>
+      <c r="B18" s="8">
+        <v>5.6347704902291297E-3</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5.6453827035395296E-3</v>
       </c>
       <c r="D18">
         <v>153</v>
@@ -4746,11 +4764,11 @@
       <c r="A19">
         <v>1E-4</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>9</v>
+      <c r="B19" s="8">
+        <v>5.6373744880159598E-3</v>
+      </c>
+      <c r="C19" s="8">
+        <v>5.6211089249700299E-3</v>
       </c>
       <c r="D19">
         <v>154</v>
@@ -4763,11 +4781,11 @@
       <c r="A20">
         <v>1E-4</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>9</v>
+      <c r="B20" s="8">
+        <v>5.6422450145085599E-3</v>
+      </c>
+      <c r="C20" s="8">
+        <v>5.6052916643625798E-3</v>
       </c>
       <c r="D20">
         <v>155</v>
@@ -4780,11 +4798,11 @@
       <c r="A21">
         <v>1E-4</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>9</v>
+      <c r="B21" s="8">
+        <v>5.6367705749968602E-3</v>
+      </c>
+      <c r="C21" s="8">
+        <v>5.6369729647214699E-3</v>
       </c>
       <c r="D21">
         <v>156</v>
@@ -4797,11 +4815,11 @@
       <c r="A22">
         <v>1E-3</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>9</v>
+      <c r="B22" s="8">
+        <v>5.6347510951260697E-3</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5.6453656474564299E-3</v>
       </c>
       <c r="D22">
         <v>157</v>
@@ -4814,11 +4832,11 @@
       <c r="A23">
         <v>1E-3</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>9</v>
+      <c r="B23" s="8">
+        <v>5.6373744880159598E-3</v>
+      </c>
+      <c r="C23" s="8">
+        <v>5.6211089249700299E-3</v>
       </c>
       <c r="D23">
         <v>158</v>
@@ -4831,11 +4849,11 @@
       <c r="A24">
         <v>1E-3</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>9</v>
+      <c r="B24" s="8">
+        <v>5.6422450145085599E-3</v>
+      </c>
+      <c r="C24" s="8">
+        <v>5.6052916643625798E-3</v>
       </c>
       <c r="D24">
         <v>159</v>
@@ -4848,11 +4866,11 @@
       <c r="A25">
         <v>1E-3</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>9</v>
+      <c r="B25" s="8">
+        <v>5.6367705749968602E-3</v>
+      </c>
+      <c r="C25" s="8">
+        <v>5.6369729647214699E-3</v>
       </c>
       <c r="D25">
         <v>160</v>
@@ -4865,11 +4883,11 @@
       <c r="A26">
         <v>0.01</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>9</v>
+      <c r="B26" s="8">
+        <v>5.6347998119890604E-3</v>
+      </c>
+      <c r="C26" s="8">
+        <v>5.6453638145343397E-3</v>
       </c>
       <c r="D26">
         <v>161</v>
@@ -4882,11 +4900,11 @@
       <c r="A27">
         <v>0.01</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>9</v>
+      <c r="B27" s="8">
+        <v>5.6373744880159598E-3</v>
+      </c>
+      <c r="C27" s="8">
+        <v>5.6211089249700299E-3</v>
       </c>
       <c r="D27">
         <v>162</v>
@@ -4899,11 +4917,11 @@
       <c r="A28">
         <v>0.01</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>9</v>
+      <c r="B28" s="8">
+        <v>5.6422450145085599E-3</v>
+      </c>
+      <c r="C28" s="8">
+        <v>5.6052916643625798E-3</v>
       </c>
       <c r="D28">
         <v>163</v>
@@ -4916,11 +4934,11 @@
       <c r="A29">
         <v>0.01</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>9</v>
+      <c r="B29" s="8">
+        <v>5.6367705749968602E-3</v>
+      </c>
+      <c r="C29" s="8">
+        <v>5.6369729647214699E-3</v>
       </c>
       <c r="D29">
         <v>164</v>
@@ -4933,11 +4951,11 @@
       <c r="A30">
         <v>0.1</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>9</v>
+      <c r="B30" s="8">
+        <v>5.6348640335102803E-3</v>
+      </c>
+      <c r="C30" s="8">
+        <v>5.6453760852046399E-3</v>
       </c>
       <c r="D30">
         <v>165</v>
@@ -4950,11 +4968,11 @@
       <c r="A31">
         <v>0.1</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>9</v>
+      <c r="B31" s="8">
+        <v>5.6373744880159598E-3</v>
+      </c>
+      <c r="C31" s="8">
+        <v>5.6211089249700299E-3</v>
       </c>
       <c r="D31">
         <v>166</v>
@@ -4967,11 +4985,11 @@
       <c r="A32">
         <v>0.1</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>9</v>
+      <c r="B32" s="8">
+        <v>5.6422450145085599E-3</v>
+      </c>
+      <c r="C32" s="8">
+        <v>5.6052916643625798E-3</v>
       </c>
       <c r="D32">
         <v>167</v>
@@ -4984,11 +5002,11 @@
       <c r="A33">
         <v>0.1</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>9</v>
+      <c r="B33" s="8">
+        <v>5.6367705749968602E-3</v>
+      </c>
+      <c r="C33" s="8">
+        <v>5.6369729647214699E-3</v>
       </c>
       <c r="D33">
         <v>168</v>
@@ -5055,10 +5073,13 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="12" width="10.83203125" style="8"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -5082,10 +5103,10 @@
       <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="M1" t="s">
@@ -5100,13 +5121,13 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="3">
-        <v>5.5380580585172496E-4</v>
+        <v>2.7209819675958198E-3</v>
       </c>
       <c r="C2" s="3">
-        <v>5.6013702805045003E-4</v>
+        <v>2.7476662913575099E-3</v>
       </c>
       <c r="D2" s="2">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="E2" s="2">
         <v>0.25</v>
@@ -5117,15 +5138,15 @@
       </c>
       <c r="K2" s="7">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>5.5641469179077958E-4</v>
+        <v>2.7325585387904697E-3</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5757801671093773E-4</v>
+        <v>2.7353889847600275E-3</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>194.5</v>
+        <v>170.5</v>
       </c>
       <c r="N2" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -5137,13 +5158,13 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="3">
-        <v>5.5635518993825601E-4</v>
+        <v>2.7279801186213702E-3</v>
       </c>
       <c r="C3" s="3">
-        <v>5.5659657525037297E-4</v>
+        <v>2.7247158825357801E-3</v>
       </c>
       <c r="D3" s="2">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="E3" s="2">
         <v>0.25</v>
@@ -5154,15 +5175,15 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5675696800809625E-4</v>
+        <v>2.7322537009356546E-3</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5756842150313224E-4</v>
+        <v>2.7355970697170275E-3</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>198.5</v>
+        <v>174.5</v>
       </c>
       <c r="N3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5174,13 +5195,13 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="3">
-        <v>5.6038064537867105E-4</v>
+        <v>2.7509727118972698E-3</v>
       </c>
       <c r="C4" s="3">
-        <v>5.5513771292951602E-4</v>
+        <v>2.7258927993317802E-3</v>
       </c>
       <c r="D4" s="2">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="E4" s="2">
         <v>0.25</v>
@@ -5191,15 +5212,15 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5677685482573595E-4</v>
+        <v>2.731848268477402E-3</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5768176938959422E-4</v>
+        <v>2.7353588022301528E-3</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>202.5</v>
+        <v>178.5</v>
       </c>
       <c r="N4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5211,13 +5232,13 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="3">
-        <v>5.5511712599446599E-4</v>
+        <v>2.7302993570474201E-3</v>
       </c>
       <c r="C5" s="3">
-        <v>5.5844075061341203E-4</v>
+        <v>2.7432809658150402E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E5" s="2">
         <v>0.25</v>
@@ -5228,15 +5249,15 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5737317133536322E-4</v>
+        <v>2.7345655525618353E-3</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5755043247196923E-4</v>
+        <v>2.7366952885170097E-3</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>206.5</v>
+        <v>182.5</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5248,13 +5269,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="1">
-        <v>5.5389398240801298E-4</v>
+        <v>2.7200054387225099E-3</v>
       </c>
       <c r="C6" s="1">
-        <v>5.6011091819914796E-4</v>
+        <v>2.74693550532089E-3</v>
       </c>
       <c r="D6">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="E6">
         <v>0.25</v>
@@ -5265,15 +5286,15 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6587516697386168E-4</v>
+        <v>2.7501869152864724E-3</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5755822308747904E-4</v>
+        <v>2.7362155050603999E-3</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>210.5</v>
+        <v>186.5</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5285,13 +5306,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="1">
-        <v>5.5642527722545498E-4</v>
+        <v>2.7258995415127599E-3</v>
       </c>
       <c r="C7" s="1">
-        <v>5.5632282524032696E-4</v>
+        <v>2.7251522567004198E-3</v>
       </c>
       <c r="D7">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="E7">
         <v>0.25</v>
@@ -5302,15 +5323,15 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4508648783691747E-4</v>
+        <v>2.9191854688527148E-3</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6104724841288896E-4</v>
+        <v>2.7400960729635749E-3</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>214.5</v>
+        <v>190.5</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5322,13 +5343,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="1">
-        <v>5.6060549290355298E-4</v>
+        <v>2.7501451376666999E-3</v>
       </c>
       <c r="C8" s="1">
-        <v>5.5519028094924098E-4</v>
+        <v>2.7264720027117E-3</v>
       </c>
       <c r="D8">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="E8">
         <v>0.25</v>
@@ -5339,15 +5360,15 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1988479925500351E-3</v>
+        <v>4.2316059840773702E-3</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7427772380946605E-4</v>
+        <v>3.0326920033908046E-3</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>218.5</v>
+        <v>194.5</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5359,13 +5380,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="1">
-        <v>5.5610311949536397E-4</v>
+        <v>2.73296468584065E-3</v>
       </c>
       <c r="C9" s="1">
-        <v>5.5864966162381296E-4</v>
+        <v>2.7438285141351002E-3</v>
       </c>
       <c r="D9">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="E9">
         <v>0.25</v>
@@ -5376,15 +5397,15 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6014793657999874E-3</v>
+        <v>5.6278753995974585E-3</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3106128558803801E-3</v>
+        <v>5.6280506145644955E-3</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>222.5</v>
+        <v>198.5</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5396,20 +5417,20 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="1">
-        <v>5.5417286150375399E-4</v>
+        <v>2.72146588379636E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>5.60223617209517E-4</v>
+        <v>2.74703371774484E-3</v>
       </c>
       <c r="D10">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="E10">
         <v>0.25</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="8">
         <f ca="1">MIN(L2:L9)</f>
-        <v>5.5755043247196923E-4</v>
+        <v>2.7353588022301528E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -5417,13 +5438,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="1">
-        <v>5.57010881280764E-4</v>
+        <v>2.7264936708230902E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>5.57033878570283E-4</v>
+        <v>2.7253365594933302E-3</v>
       </c>
       <c r="D11">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E11">
         <v>0.25</v>
@@ -5434,13 +5455,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="1">
-        <v>5.6015178524056804E-4</v>
+        <v>2.7500137022914402E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>5.5475377457890097E-4</v>
+        <v>2.7261975077674402E-3</v>
       </c>
       <c r="D12">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="E12">
         <v>0.25</v>
@@ -5451,13 +5472,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="1">
-        <v>5.5577189127785798E-4</v>
+        <v>2.7294198169987198E-3</v>
       </c>
       <c r="C13" s="1">
-        <v>5.5871580719967602E-4</v>
+        <v>2.7428674239149999E-3</v>
       </c>
       <c r="D13">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="E13">
         <v>0.25</v>
@@ -5468,13 +5489,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14" s="1">
-        <v>5.54612078864939E-4</v>
+        <v>2.7221087490188599E-3</v>
       </c>
       <c r="C14" s="1">
-        <v>5.6001917239863099E-4</v>
+        <v>2.7467402768261802E-3</v>
       </c>
       <c r="D14">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="E14">
         <v>0.25</v>
@@ -5485,13 +5506,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15" s="1">
-        <v>5.5736319057920797E-4</v>
+        <v>2.7329520708782198E-3</v>
       </c>
       <c r="C15" s="1">
-        <v>5.5691747594268E-4</v>
+        <v>2.7302279424397799E-3</v>
       </c>
       <c r="D15">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E15">
         <v>0.25</v>
@@ -5502,13 +5523,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16" s="1">
-        <v>5.61414548119114E-4</v>
+        <v>2.75147829868612E-3</v>
       </c>
       <c r="C16" s="1">
-        <v>5.5562754525763402E-4</v>
+        <v>2.7269695816125599E-3</v>
       </c>
       <c r="D16">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="E16">
         <v>0.25</v>
@@ -5519,13 +5540,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17" s="1">
-        <v>5.5610286777819202E-4</v>
+        <v>2.73172309166414E-3</v>
       </c>
       <c r="C17" s="1">
-        <v>5.5763753628893203E-4</v>
+        <v>2.7428433531895202E-3</v>
       </c>
       <c r="D17">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="E17">
         <v>0.25</v>
@@ -5536,13 +5557,13 @@
         <v>1E-4</v>
       </c>
       <c r="B18" s="5">
-        <v>5.6367710807380495E-4</v>
+        <v>2.73778119639671E-3</v>
       </c>
       <c r="C18" s="5">
-        <v>5.6006170145453903E-4</v>
+        <v>2.7483876675684399E-3</v>
       </c>
       <c r="D18" s="4">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="E18" s="4">
         <v>0.25</v>
@@ -5553,13 +5574,13 @@
         <v>1E-4</v>
       </c>
       <c r="B19" s="5">
-        <v>5.6680759502961196E-4</v>
+        <v>2.74707879276668E-3</v>
       </c>
       <c r="C19" s="5">
-        <v>5.5666818058098405E-4</v>
+        <v>2.72760972469807E-3</v>
       </c>
       <c r="D19" s="4">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="E19" s="4">
         <v>0.25</v>
@@ -5570,13 +5591,13 @@
         <v>1E-4</v>
       </c>
       <c r="B20" s="5">
-        <v>5.6882329815205999E-4</v>
+        <v>2.76605360348649E-3</v>
       </c>
       <c r="C20" s="5">
-        <v>5.55270836326947E-4</v>
+        <v>2.72611101613716E-3</v>
       </c>
       <c r="D20" s="4">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="E20" s="4">
         <v>0.25</v>
@@ -5587,13 +5608,13 @@
         <v>1E-4</v>
       </c>
       <c r="B21" s="5">
-        <v>5.6419266663997004E-4</v>
+        <v>2.7498340684960101E-3</v>
       </c>
       <c r="C21" s="5">
-        <v>5.5823217398744596E-4</v>
+        <v>2.7427536118379298E-3</v>
       </c>
       <c r="D21" s="4">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="E21" s="4">
         <v>0.25</v>
@@ -5604,13 +5625,13 @@
         <v>1E-3</v>
       </c>
       <c r="B22" s="4">
-        <v>6.3917486423111295E-4</v>
+        <v>2.89405965335429E-3</v>
       </c>
       <c r="C22" s="5">
-        <v>5.6376820708813199E-4</v>
+        <v>2.7509775988638699E-3</v>
       </c>
       <c r="D22" s="4">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="E22" s="4">
         <v>0.25</v>
@@ -5621,13 +5642,13 @@
         <v>1E-3</v>
       </c>
       <c r="B23" s="4">
-        <v>6.4123584517337203E-4</v>
+        <v>2.9335473936566302E-3</v>
       </c>
       <c r="C23" s="5">
-        <v>5.6121149688632098E-4</v>
+        <v>2.7328694407689402E-3</v>
       </c>
       <c r="D23" s="4">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E23" s="4">
         <v>0.25</v>
@@ -5638,13 +5659,13 @@
         <v>1E-3</v>
       </c>
       <c r="B24" s="4">
-        <v>6.4781265571079295E-4</v>
+        <v>2.9292825431107201E-3</v>
       </c>
       <c r="C24" s="5">
-        <v>5.5741611837181499E-4</v>
+        <v>2.7305150498695501E-3</v>
       </c>
       <c r="D24" s="4">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E24" s="4">
         <v>0.25</v>
@@ -5655,13 +5676,13 @@
         <v>1E-3</v>
       </c>
       <c r="B25" s="4">
-        <v>6.5212258623239205E-4</v>
+        <v>2.9198522852892199E-3</v>
       </c>
       <c r="C25" s="5">
-        <v>5.6179317130528798E-4</v>
+        <v>2.7460222023519402E-3</v>
       </c>
       <c r="D25" s="4">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E25" s="4">
         <v>0.25</v>
@@ -5672,13 +5693,13 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="4">
-        <v>1.1630359215988801E-3</v>
+        <v>4.1866322627608097E-3</v>
       </c>
       <c r="C26" s="4">
-        <v>8.4982420431766999E-4</v>
+        <v>3.0632099047540901E-3</v>
       </c>
       <c r="D26" s="4">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="E26" s="4">
         <v>0.25</v>
@@ -5690,13 +5711,13 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="4">
-        <v>1.21213092240802E-3</v>
+        <v>4.2861674743843196E-3</v>
       </c>
       <c r="C27" s="4">
-        <v>8.9846681394772801E-4</v>
+        <v>3.02901034283035E-3</v>
       </c>
       <c r="D27" s="4">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="E27" s="4">
         <v>0.25</v>
@@ -5708,13 +5729,13 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="4">
-        <v>1.22226731532174E-3</v>
+        <v>4.1620792954803398E-3</v>
       </c>
       <c r="C28" s="4">
-        <v>8.8462402221766497E-4</v>
+        <v>2.9836901305045202E-3</v>
       </c>
       <c r="D28" s="4">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="E28" s="4">
         <v>0.25</v>
@@ -5726,13 +5747,13 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="4">
-        <v>1.1979578108715001E-3</v>
+        <v>4.29154490368401E-3</v>
       </c>
       <c r="C29" s="4">
-        <v>8.6419585475480101E-4</v>
+        <v>3.0548576354742598E-3</v>
       </c>
       <c r="D29" s="4">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="E29" s="4">
         <v>0.25</v>
@@ -5744,13 +5765,13 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>1.30042092295046E-3</v>
+        <v>5.5842866249223898E-3</v>
       </c>
       <c r="C30">
-        <v>1.31387727092357E-3</v>
+        <v>5.6450516530411601E-3</v>
       </c>
       <c r="D30">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="E30">
         <v>0.25</v>
@@ -5761,13 +5782,13 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>2.4724573694526199E-3</v>
+        <v>5.6173707299092901E-3</v>
       </c>
       <c r="C31">
-        <v>1.3106475296885999E-3</v>
+        <v>5.6228219541384098E-3</v>
       </c>
       <c r="D31">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="E31">
         <v>0.25</v>
@@ -5778,13 +5799,13 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>1.32719604818625E-3</v>
+        <v>5.7003959181143801E-3</v>
       </c>
       <c r="C32">
-        <v>1.30541382129601E-3</v>
+        <v>5.6072919817760202E-3</v>
       </c>
       <c r="D32">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="E32">
         <v>0.25</v>
@@ -5795,13 +5816,13 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>1.3058431226106199E-3</v>
+        <v>5.6094483254437704E-3</v>
       </c>
       <c r="C33">
-        <v>1.31251280161334E-3</v>
+        <v>5.6370368693023903E-3</v>
       </c>
       <c r="D33">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="E33">
         <v>0.25</v>
@@ -5817,769 +5838,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1E-8</v>
-      </c>
-      <c r="B2" s="5">
-        <v>5.5361775284449698E-4</v>
-      </c>
-      <c r="C2" s="5">
-        <v>5.5706255110674204E-4</v>
-      </c>
-      <c r="D2" s="4">
-        <v>225</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="5">
-        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
-        <v>1E-8</v>
-      </c>
-      <c r="K2" s="6">
-        <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>5.5428172906450755E-4</v>
-      </c>
-      <c r="L2" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5411063759164118E-4</v>
-      </c>
-      <c r="M2" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>226.5</v>
-      </c>
-      <c r="N2" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>1E-8</v>
-      </c>
-      <c r="B3" s="5">
-        <v>5.5459321942799599E-4</v>
-      </c>
-      <c r="C3" s="5">
-        <v>5.5241250114743297E-4</v>
-      </c>
-      <c r="D3" s="4">
-        <v>226</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="5">
-        <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="K3" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5448718086018771E-4</v>
-      </c>
-      <c r="L3" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5425239693152951E-4</v>
-      </c>
-      <c r="M3" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>230.5</v>
-      </c>
-      <c r="N3" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>1E-8</v>
-      </c>
-      <c r="B4" s="5">
-        <v>5.5646120033108002E-4</v>
-      </c>
-      <c r="C4" s="5">
-        <v>5.5226462984834103E-4</v>
-      </c>
-      <c r="D4" s="4">
-        <v>227</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="K4" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.54574873371785E-4</v>
-      </c>
-      <c r="L4" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5433842599666853E-4</v>
-      </c>
-      <c r="M4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>234.5</v>
-      </c>
-      <c r="N4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>1E-8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>5.5245474365445699E-4</v>
-      </c>
-      <c r="C5" s="5">
-        <v>5.54702868264049E-4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>228</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K5" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.552301756440698E-4</v>
-      </c>
-      <c r="L5" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5413044243865159E-4</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>238.5</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="B6" s="5">
-        <v>5.5374596713784498E-4</v>
-      </c>
-      <c r="C6" s="5">
-        <v>5.5696457399035499E-4</v>
-      </c>
-      <c r="D6" s="4">
-        <v>229</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1E-4</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.6340232967681402E-4</v>
-      </c>
-      <c r="L6" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.543737917174977E-4</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>242.5</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="B7" s="5">
-        <v>5.5466483807206104E-4</v>
-      </c>
-      <c r="C7" s="5">
-        <v>5.5256194993605801E-4</v>
-      </c>
-      <c r="D7" s="4">
-        <v>230</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1E-3</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.4259885813102075E-4</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5754224547157726E-4</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>246.5</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="B8" s="5">
-        <v>5.5647488176312405E-4</v>
-      </c>
-      <c r="C8" s="5">
-        <v>5.5214294177935799E-4</v>
-      </c>
-      <c r="D8" s="4">
-        <v>231</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.1873812410990326E-3</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.2941981963813262E-4</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>250.5</v>
-      </c>
-      <c r="N8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>5.53063036467721E-4</v>
-      </c>
-      <c r="C9" s="5">
-        <v>5.5534012202034704E-4</v>
-      </c>
-      <c r="D9" s="4">
-        <v>232</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3931840159707299E-3</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.3106334093769853E-3</v>
-      </c>
-      <c r="M9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>254.5</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5.5396506727544304E-4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5.5681231637247505E-4</v>
-      </c>
-      <c r="D10">
-        <v>233</v>
-      </c>
-      <c r="E10">
-        <v>0.5</v>
-      </c>
-      <c r="L10">
-        <f ca="1">MIN(L2:L9)</f>
-        <v>5.5411063759164118E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5.5525368906215696E-4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5.5332001059643003E-4</v>
-      </c>
-      <c r="D11">
-        <v>234</v>
-      </c>
-      <c r="E11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5.56190781316353E-4</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5.5213649435206596E-4</v>
-      </c>
-      <c r="D12">
-        <v>235</v>
-      </c>
-      <c r="E12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5.52889955833187E-4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5.5508488266570297E-4</v>
-      </c>
-      <c r="D13">
-        <v>236</v>
-      </c>
-      <c r="E13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B14" s="5">
-        <v>5.5465795377769697E-4</v>
-      </c>
-      <c r="C14" s="5">
-        <v>5.5675407713080903E-4</v>
-      </c>
-      <c r="D14" s="4">
-        <v>237</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B15" s="5">
-        <v>5.5536748705174201E-4</v>
-      </c>
-      <c r="C15" s="5">
-        <v>5.5250238430280005E-4</v>
-      </c>
-      <c r="D15" s="4">
-        <v>238</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B16" s="5">
-        <v>5.5710806640142402E-4</v>
-      </c>
-      <c r="C16" s="5">
-        <v>5.52159208962892E-4</v>
-      </c>
-      <c r="D16" s="4">
-        <v>239</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B17" s="5">
-        <v>5.5378719534541598E-4</v>
-      </c>
-      <c r="C17" s="5">
-        <v>5.5510609935810495E-4</v>
-      </c>
-      <c r="D17" s="4">
-        <v>240</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1E-4</v>
-      </c>
-      <c r="B18" s="1">
-        <v>5.6262577662833898E-4</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5.5705118822825495E-4</v>
-      </c>
-      <c r="D18">
-        <v>241</v>
-      </c>
-      <c r="E18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1E-4</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5.6390773208980305E-4</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5.5311528341646496E-4</v>
-      </c>
-      <c r="D19">
-        <v>242</v>
-      </c>
-      <c r="E19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1E-4</v>
-      </c>
-      <c r="B20" s="1">
-        <v>5.6523494540089501E-4</v>
-      </c>
-      <c r="C20" s="1">
-        <v>5.5202012856867401E-4</v>
-      </c>
-      <c r="D20">
-        <v>243</v>
-      </c>
-      <c r="E20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1E-4</v>
-      </c>
-      <c r="B21" s="1">
-        <v>5.6184086458821903E-4</v>
-      </c>
-      <c r="C21" s="1">
-        <v>5.5530856665659699E-4</v>
-      </c>
-      <c r="D21">
-        <v>244</v>
-      </c>
-      <c r="E21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1E-3</v>
-      </c>
-      <c r="B22">
-        <v>6.4208001044499497E-4</v>
-      </c>
-      <c r="C22" s="1">
-        <v>5.6108302607676605E-4</v>
-      </c>
-      <c r="D22">
-        <v>245</v>
-      </c>
-      <c r="E22">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>1E-3</v>
-      </c>
-      <c r="B23">
-        <v>6.4115215679927796E-4</v>
-      </c>
-      <c r="C23" s="1">
-        <v>5.5616214825583504E-4</v>
-      </c>
-      <c r="D23">
-        <v>246</v>
-      </c>
-      <c r="E23">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1E-3</v>
-      </c>
-      <c r="B24">
-        <v>6.4475839818887201E-4</v>
-      </c>
-      <c r="C24" s="1">
-        <v>5.5477243384960601E-4</v>
-      </c>
-      <c r="D24">
-        <v>247</v>
-      </c>
-      <c r="E24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1E-3</v>
-      </c>
-      <c r="B25">
-        <v>6.4240486709093796E-4</v>
-      </c>
-      <c r="C25" s="1">
-        <v>5.5815137370410195E-4</v>
-      </c>
-      <c r="D25">
-        <v>248</v>
-      </c>
-      <c r="E25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1.1700302968668599E-3</v>
-      </c>
-      <c r="C26" s="4">
-        <v>8.1889289418889295E-4</v>
-      </c>
-      <c r="D26" s="4">
-        <v>249</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="B27" s="4">
-        <v>1.19284525460395E-3</v>
-      </c>
-      <c r="C27" s="4">
-        <v>8.2851301363490995E-4</v>
-      </c>
-      <c r="D27" s="4">
-        <v>250</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1.2008388569464501E-3</v>
-      </c>
-      <c r="C28" s="4">
-        <v>8.4297431563522501E-4</v>
-      </c>
-      <c r="D28" s="4">
-        <v>251</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1.18581055597887E-3</v>
-      </c>
-      <c r="C29" s="4">
-        <v>8.2729905509350298E-4</v>
-      </c>
-      <c r="D29" s="4">
-        <v>252</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>0.1</v>
-      </c>
-      <c r="B30">
-        <v>1.3077203964596499E-3</v>
-      </c>
-      <c r="C30">
-        <v>1.3138971866128201E-3</v>
-      </c>
-      <c r="D30">
-        <v>253</v>
-      </c>
-      <c r="E30">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>0.1</v>
-      </c>
-      <c r="B31">
-        <v>1.30803307253332E-3</v>
-      </c>
-      <c r="C31">
-        <v>1.3107001704678999E-3</v>
-      </c>
-      <c r="D31">
-        <v>254</v>
-      </c>
-      <c r="E31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>0.1</v>
-      </c>
-      <c r="B32">
-        <v>1.3131002438541901E-3</v>
-      </c>
-      <c r="C32">
-        <v>1.30536102447064E-3</v>
-      </c>
-      <c r="D32">
-        <v>255</v>
-      </c>
-      <c r="E32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>0.1</v>
-      </c>
-      <c r="B33">
-        <v>1.6438823510357601E-3</v>
-      </c>
-      <c r="C33">
-        <v>1.31257525595658E-3</v>
-      </c>
-      <c r="D33">
-        <v>256</v>
-      </c>
-      <c r="E33">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
-  <dimension ref="A1:N33"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6623,23 +5882,788 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2.7202453050623699E-3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2.7336838204374001E-3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>201</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="5">
+        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
+        <v>1E-8</v>
+      </c>
+      <c r="K2" s="6">
+        <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
+        <v>2.7253894851186301E-3</v>
+      </c>
+      <c r="L2" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7228117340858597E-3</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>202.5</v>
+      </c>
+      <c r="N2" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2.72450885646283E-3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.7122863548550199E-3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>202</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7266447862704275E-3</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7234481004849449E-3</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>206.5</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2.7357907879087002E-3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.7147814968323399E-3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>203</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7262649602291353E-3</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7226325275594371E-3</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>210.5</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2.7210129910406199E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.7304952642186798E-3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>204</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7276322488955351E-3</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7236253551970327E-3</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>214.5</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2.7218769710669402E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.7335687525610001E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>205</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1E-4</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7443798465723573E-3</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7227025222716821E-3</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>218.5</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2.7248209176406698E-3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.71340270596061E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>206</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.9034534877319675E-3</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7262259353982598E-3</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>222.5</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2.7363097339749599E-3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.7154904810037998E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>207</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2048711921063575E-3</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.0057248993816325E-3</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>226.5</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2.7235715223991402E-3</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2.7313304624143699E-3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>208</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6691269478215669E-3</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6279861799223251E-3</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>230.5</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.7212981033099301E-3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.7344482802250901E-3</v>
+      </c>
+      <c r="D10">
+        <v>209</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="8">
+        <f ca="1">MIN(L2:L9)</f>
+        <v>2.7226325275594371E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.72432708756086E-3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.7101920258769002E-3</v>
+      </c>
+      <c r="D11">
+        <v>210</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.7360792341146602E-3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.7138923364195999E-3</v>
+      </c>
+      <c r="D12">
+        <v>211</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.7233554159310901E-3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.73199746771616E-3</v>
+      </c>
+      <c r="D13">
+        <v>212</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2.72375163424046E-3</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.7344450602268199E-3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>213</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2.7281161350634002E-3</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.7146295079604702E-3</v>
+      </c>
+      <c r="D15" s="4">
+        <v>214</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2.7366681581739499E-3</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.7148456689208098E-3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>215</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2.7219930681043301E-3</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2.7305811836800301E-3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>216</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1E-4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.7388222887121299E-3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.7345032109185401E-3</v>
+      </c>
+      <c r="D18">
+        <v>217</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1E-4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.7443962023058401E-3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.7123865091856101E-3</v>
+      </c>
+      <c r="D19">
+        <v>218</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1E-4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.7523438936654199E-3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.7136020387146299E-3</v>
+      </c>
+      <c r="D20">
+        <v>219</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1E-4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.7419570016060401E-3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.7303183302679499E-3</v>
+      </c>
+      <c r="D21">
+        <v>220</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1E-3</v>
+      </c>
+      <c r="B22">
+        <v>2.89796457249433E-3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.7369272379957599E-3</v>
+      </c>
+      <c r="D22">
+        <v>221</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1E-3</v>
+      </c>
+      <c r="B23">
+        <v>2.90230471774579E-3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.7176229496228802E-3</v>
+      </c>
+      <c r="D23">
+        <v>222</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1E-3</v>
+      </c>
+      <c r="B24">
+        <v>2.9076937353238398E-3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.71727472662608E-3</v>
+      </c>
+      <c r="D24">
+        <v>223</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1E-3</v>
+      </c>
+      <c r="B25">
+        <v>2.9058509253639098E-3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.73307882734832E-3</v>
+      </c>
+      <c r="D25">
+        <v>224</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="B26" s="4">
+        <v>4.2192224398294896E-3</v>
+      </c>
+      <c r="C26" s="4">
+        <v>3.0274782552720701E-3</v>
+      </c>
+      <c r="D26" s="4">
+        <v>225</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="B27" s="4">
+        <v>4.1857598748236396E-3</v>
+      </c>
+      <c r="C27" s="4">
+        <v>3.0123788090620899E-3</v>
+      </c>
+      <c r="D27" s="4">
+        <v>226</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="B28" s="4">
+        <v>4.2306774164589597E-3</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2.9984793521741198E-3</v>
+      </c>
+      <c r="D28" s="4">
+        <v>227</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="B29" s="4">
+        <v>4.1838250373133403E-3</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2.9845631810182498E-3</v>
+      </c>
+      <c r="D29" s="4">
+        <v>228</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.1</v>
+      </c>
+      <c r="B30">
+        <v>5.78263433689766E-3</v>
+      </c>
+      <c r="C30">
+        <v>5.6447799050031097E-3</v>
+      </c>
+      <c r="D30">
+        <v>229</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.1</v>
+      </c>
+      <c r="B31">
+        <v>5.6209581696051803E-3</v>
+      </c>
+      <c r="C31">
+        <v>5.6230223569226304E-3</v>
+      </c>
+      <c r="D31">
+        <v>230</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.1</v>
+      </c>
+      <c r="B32">
+        <v>5.6456491608727396E-3</v>
+      </c>
+      <c r="C32">
+        <v>5.6071394727505901E-3</v>
+      </c>
+      <c r="D32">
+        <v>231</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33">
+        <v>5.6272661239106904E-3</v>
+      </c>
+      <c r="C33">
+        <v>5.63700298501297E-3</v>
+      </c>
+      <c r="D33">
+        <v>232</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="12" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1E-8</v>
       </c>
       <c r="B2" s="3">
-        <v>5.5292701410750503E-4</v>
+        <v>2.71849427310129E-3</v>
       </c>
       <c r="C2" s="3">
-        <v>5.5434433600934602E-4</v>
+        <v>2.72296810710921E-3</v>
       </c>
       <c r="D2" s="2">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>5.1840000000000002</v>
+        <v>11.052</v>
       </c>
       <c r="J2" s="3">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
@@ -6647,15 +6671,15 @@
       </c>
       <c r="K2" s="7">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>5.5280412989668504E-4</v>
+        <v>2.7184145543724253E-3</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5176508721296055E-4</v>
+        <v>2.71270896043093E-3</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>258.5</v>
+        <v>234.5</v>
       </c>
       <c r="N2" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -6667,19 +6691,19 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="3">
-        <v>5.5333039024844705E-4</v>
+        <v>2.7199444609383701E-3</v>
       </c>
       <c r="C3" s="3">
-        <v>5.5054697657667799E-4</v>
+        <v>2.7024972381347601E-3</v>
       </c>
       <c r="D3" s="2">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>4.4850000000000003</v>
+        <v>11.228</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
@@ -6687,15 +6711,15 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5299956275848649E-4</v>
+        <v>2.7185290449609325E-3</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5200351035888679E-4</v>
+        <v>2.7126693420676802E-3</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>262.5</v>
+        <v>238.5</v>
       </c>
       <c r="N3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6707,19 +6731,19 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="3">
-        <v>5.5278050977115801E-4</v>
+        <v>2.7200147435068999E-3</v>
       </c>
       <c r="C4" s="3">
-        <v>5.4910278289598598E-4</v>
+        <v>2.7047897456213802E-3</v>
       </c>
       <c r="D4" s="2">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>5.7030000000000003</v>
+        <v>11.464</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -6727,15 +6751,15 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5311213903284277E-4</v>
+        <v>2.7187801998419E-3</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.519628697235946E-4</v>
+        <v>2.7128556635518052E-3</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>266.5</v>
+        <v>242.5</v>
       </c>
       <c r="N4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6747,19 +6771,19 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="3">
-        <v>5.5217860545962998E-4</v>
+        <v>2.7152047399431399E-3</v>
       </c>
       <c r="C5" s="3">
-        <v>5.5306625336983201E-4</v>
+        <v>2.7205807508583701E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>6.1580000000000004</v>
+        <v>9.8279999999999994</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -6767,15 +6791,15 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.539931744375882E-4</v>
+        <v>2.7195644932799003E-3</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5186475250632158E-4</v>
+        <v>2.7127101957956472E-3</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>270.5</v>
+        <v>246.5</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6787,13 +6811,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="5">
-        <v>5.52990967718263E-4</v>
+        <v>2.71909127322336E-3</v>
       </c>
       <c r="C6" s="5">
-        <v>5.5420823008852402E-4</v>
+        <v>2.7221112630944301E-3</v>
       </c>
       <c r="D6" s="4">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -6805,15 +6829,15 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6199801447413171E-4</v>
+        <v>2.7359759417983349E-3</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5199625800943274E-4</v>
+        <v>2.7132570964006801E-3</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>274.5</v>
+        <v>250.5</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6825,13 +6849,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="5">
-        <v>5.5353319691494099E-4</v>
+        <v>2.7194675815602099E-3</v>
       </c>
       <c r="C7" s="5">
-        <v>5.5062920449578995E-4</v>
+        <v>2.7028670871352802E-3</v>
       </c>
       <c r="D7" s="4">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -6843,15 +6867,15 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4246635356297052E-4</v>
+        <v>2.894024792437745E-3</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5561009542137198E-4</v>
+        <v>2.7177557138666651E-3</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>278.5</v>
+        <v>254.5</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6863,13 +6887,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="5">
-        <v>5.53214280400425E-4</v>
+        <v>2.7206985689699598E-3</v>
       </c>
       <c r="C8" s="5">
-        <v>5.49644848859393E-4</v>
+        <v>2.7057418693847701E-3</v>
       </c>
       <c r="D8" s="4">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -6881,15 +6905,15 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1870585324553077E-3</v>
+        <v>4.3266367415587077E-3</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2767150068204767E-4</v>
+        <v>2.9718238573045752E-3</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>282.5</v>
+        <v>258.5</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6901,13 +6925,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="5">
-        <v>5.5225980600031698E-4</v>
+        <v>2.7148587560902001E-3</v>
       </c>
       <c r="C9" s="5">
-        <v>5.5353175799183999E-4</v>
+        <v>2.7199571486562399E-3</v>
       </c>
       <c r="D9" s="4">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -6919,15 +6943,15 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3124579753105777E-3</v>
+        <v>5.6424462534487201E-3</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3106210380817325E-3</v>
+        <v>5.6280853335765393E-3</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>286.5</v>
+        <v>262.5</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6939,20 +6963,20 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="1">
-        <v>5.5309215110416199E-4</v>
+        <v>2.7184599315126698E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>5.5421055158342604E-4</v>
+        <v>2.72245723952321E-3</v>
       </c>
       <c r="D10">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="L10" s="8">
         <f ca="1">MIN(L2:L9)</f>
-        <v>5.5176508721296055E-4</v>
+        <v>2.7126693420676802E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -6960,13 +6984,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="1">
-        <v>5.5390561069361801E-4</v>
+        <v>2.7179089194784502E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>5.51029936375809E-4</v>
+        <v>2.7015456444326202E-3</v>
       </c>
       <c r="D11">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -6977,13 +7001,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="1">
-        <v>5.5339085132193998E-4</v>
+        <v>2.72247403052945E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>5.4977962405400999E-4</v>
+        <v>2.7069179291658498E-3</v>
       </c>
       <c r="D12">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -6994,13 +7018,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="1">
-        <v>5.5205994301165101E-4</v>
+        <v>2.7162779178470302E-3</v>
       </c>
       <c r="C13" s="1">
-        <v>5.5283136688113305E-4</v>
+        <v>2.7205018410855399E-3</v>
       </c>
       <c r="D13">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -7011,13 +7035,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14" s="5">
-        <v>5.5409520965379899E-4</v>
+        <v>2.7194112086047699E-3</v>
       </c>
       <c r="C14" s="5">
-        <v>5.5399668270454498E-4</v>
+        <v>2.7208367035664702E-3</v>
       </c>
       <c r="D14" s="4">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -7029,13 +7053,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15" s="5">
-        <v>5.5453957306842003E-4</v>
+        <v>2.7205431697269202E-3</v>
       </c>
       <c r="C15" s="5">
-        <v>5.5071155409368202E-4</v>
+        <v>2.7032664957198599E-3</v>
       </c>
       <c r="D15" s="4">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -7047,13 +7071,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16" s="5">
-        <v>5.5425259470939597E-4</v>
+        <v>2.7230515051633098E-3</v>
       </c>
       <c r="C16" s="5">
-        <v>5.49712020809702E-4</v>
+        <v>2.70691905864217E-3</v>
       </c>
       <c r="D16" s="4">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -7065,13 +7089,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17" s="5">
-        <v>5.5308532031873804E-4</v>
+        <v>2.7152520896245999E-3</v>
       </c>
       <c r="C17" s="5">
-        <v>5.5303875241735699E-4</v>
+        <v>2.7198185252540899E-3</v>
       </c>
       <c r="D17" s="4">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -7083,13 +7107,13 @@
         <v>1E-4</v>
       </c>
       <c r="B18" s="1">
-        <v>5.62234375237797E-4</v>
+        <v>2.7360676291088202E-3</v>
       </c>
       <c r="C18" s="1">
-        <v>5.5436929378242404E-4</v>
+        <v>2.7221984036782001E-3</v>
       </c>
       <c r="D18">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -7100,13 +7124,13 @@
         <v>1E-4</v>
       </c>
       <c r="B19" s="1">
-        <v>5.6261212790074402E-4</v>
+        <v>2.7371224661668098E-3</v>
       </c>
       <c r="C19" s="1">
-        <v>5.5094316702068496E-4</v>
+        <v>2.7035522061657699E-3</v>
       </c>
       <c r="D19">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -7117,13 +7141,13 @@
         <v>1E-4</v>
       </c>
       <c r="B20" s="1">
-        <v>5.6187132086294301E-4</v>
+        <v>2.7359845240910799E-3</v>
       </c>
       <c r="C20" s="1">
-        <v>5.4969429502887805E-4</v>
+        <v>2.70459426695758E-3</v>
       </c>
       <c r="D20">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -7134,13 +7158,13 @@
         <v>1E-4</v>
       </c>
       <c r="B21" s="1">
-        <v>5.6127423389504304E-4</v>
+        <v>2.7347291478266298E-3</v>
       </c>
       <c r="C21" s="1">
-        <v>5.5297827620574402E-4</v>
+        <v>2.7226835088011701E-3</v>
       </c>
       <c r="D21">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -7151,13 +7175,13 @@
         <v>1E-3</v>
       </c>
       <c r="B22" s="4">
-        <v>6.4303185247505698E-4</v>
+        <v>2.8926559574902E-3</v>
       </c>
       <c r="C22" s="5">
-        <v>5.5813582142210598E-4</v>
+        <v>2.7290105007271798E-3</v>
       </c>
       <c r="D22" s="4">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -7169,13 +7193,13 @@
         <v>1E-3</v>
       </c>
       <c r="B23" s="4">
-        <v>6.4191055096065003E-4</v>
+        <v>2.8953411610176099E-3</v>
       </c>
       <c r="C23" s="5">
-        <v>5.5487409352939095E-4</v>
+        <v>2.7069960141237401E-3</v>
       </c>
       <c r="D23" s="4">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
@@ -7187,13 +7211,13 @@
         <v>1E-3</v>
       </c>
       <c r="B24" s="4">
-        <v>6.4310903024549198E-4</v>
+        <v>2.88919142695764E-3</v>
       </c>
       <c r="C24" s="5">
-        <v>5.5297236812816097E-4</v>
+        <v>2.7085889125876899E-3</v>
       </c>
       <c r="D24" s="4">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -7205,13 +7229,13 @@
         <v>1E-3</v>
       </c>
       <c r="B25" s="4">
-        <v>6.41813980570683E-4</v>
+        <v>2.8989106242855302E-3</v>
       </c>
       <c r="C25" s="5">
-        <v>5.5645809860583001E-4</v>
+        <v>2.7264274280280501E-3</v>
       </c>
       <c r="D25" s="4">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -7223,13 +7247,13 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="4">
-        <v>1.1798202988381099E-3</v>
+        <v>4.2538744453340703E-3</v>
       </c>
       <c r="C26" s="4">
-        <v>8.2756632609550396E-4</v>
+        <v>3.01060674494092E-3</v>
       </c>
       <c r="D26" s="4">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -7241,13 +7265,13 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="4">
-        <v>1.1792433282049901E-3</v>
+        <v>4.41794521609942E-3</v>
       </c>
       <c r="C27" s="4">
-        <v>8.2803702358394198E-4</v>
+        <v>2.9483227916260002E-3</v>
       </c>
       <c r="D27" s="4">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -7259,13 +7283,13 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="4">
-        <v>1.2002156376838601E-3</v>
+        <v>4.2498749680817101E-3</v>
       </c>
       <c r="C28" s="4">
-        <v>8.3209845569341397E-4</v>
+        <v>2.9641220821662101E-3</v>
       </c>
       <c r="D28" s="4">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
@@ -7277,13 +7301,13 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="4">
-        <v>1.18895486509427E-3</v>
+        <v>4.3848523367196303E-3</v>
       </c>
       <c r="C29" s="4">
-        <v>8.2298419735533099E-4</v>
+        <v>2.9642438104851699E-3</v>
       </c>
       <c r="D29" s="4">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="E29" s="4">
         <v>1</v>
@@ -7295,13 +7319,13 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>1.31155606762816E-3</v>
+        <v>5.6348629842201802E-3</v>
       </c>
       <c r="C30">
-        <v>1.31390232003313E-3</v>
+        <v>5.6450909568353498E-3</v>
       </c>
       <c r="D30">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -7312,13 +7336,13 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>1.3122639385983301E-3</v>
+        <v>5.6398635879158898E-3</v>
       </c>
       <c r="C31">
-        <v>1.3106954519319801E-3</v>
+        <v>5.62292801097352E-3</v>
       </c>
       <c r="D31">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -7329,13 +7353,13 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>1.3136734785512E-3</v>
+        <v>5.6441797614097599E-3</v>
       </c>
       <c r="C32">
-        <v>1.3053735799869401E-3</v>
+        <v>5.6072711112334301E-3</v>
       </c>
       <c r="D32">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -7346,13 +7370,13 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>1.3123384164646201E-3</v>
+        <v>5.6508786802490496E-3</v>
       </c>
       <c r="C33">
-        <v>1.3125128003748799E-3</v>
+        <v>5.6370512552638601E-3</v>
       </c>
       <c r="D33">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="E33">
         <v>1</v>
